--- a/Excel Files/Scenario 1/S1_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 1/S1_TestCases_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawe\git\tb-ttap-brivge-v2-fatin\Excel Files\Scenario 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195158FD-9543-4CBD-A07F-03874A5CA4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFC4A99-FF6B-4C0A-97AD-A32D9E40914A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="547" firstSheet="102" activeTab="106" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="547" firstSheet="106" activeTab="110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AutoIncrement" sheetId="1" r:id="rId1"/>
@@ -122,11 +122,13 @@
     <sheet name="TC173-BU1 SO" sheetId="121" r:id="rId107"/>
     <sheet name="TC174-DC2 Outbound Details" sheetId="115" r:id="rId108"/>
     <sheet name="TC174-OutboundNo" sheetId="116" r:id="rId109"/>
+    <sheet name="TC186-BU2 SellerGI Invoice" sheetId="123" r:id="rId110"/>
+    <sheet name="TC189-Customer Cargo Tracking" sheetId="124" r:id="rId111"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId110"/>
-    <externalReference r:id="rId111"/>
     <externalReference r:id="rId112"/>
+    <externalReference r:id="rId113"/>
+    <externalReference r:id="rId114"/>
   </externalReferences>
   <definedNames>
     <definedName name="activeFlagListArr" localSheetId="71">[1]activeFlagListArr!$A$1:$A$2</definedName>
@@ -151,6 +153,7 @@
     <definedName name="activeFlagListArr" localSheetId="96">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="99">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="100">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="110">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="50">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="51">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="52">[1]activeFlagListArr!$A$1:$A$2</definedName>
@@ -180,6 +183,7 @@
     <definedName name="activeFlagStrArr" localSheetId="96">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="99">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="100">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="110">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="50">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="51">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="52">[2]activeFlagStrArr!$A$1:$A$2</definedName>
@@ -212,6 +216,7 @@
     <definedName name="CURRENCY_CODE" localSheetId="96">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="99">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="100">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="110">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="50">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="51">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="52">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
@@ -241,6 +246,7 @@
     <definedName name="findAllUomArr" localSheetId="96">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="99">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="100">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="110">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="50">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="51">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="52">[1]findAllUomArr!$A$1:$A$29</definedName>
@@ -275,6 +281,7 @@
     <definedName name="PAIRED_FLAG" localSheetId="96">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="99">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="100">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="110">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="50">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="51">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="52">#REF!</definedName>
@@ -309,6 +316,7 @@
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="96">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="99">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="100">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="110">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="50">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="51">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="52">#REF!</definedName>
@@ -338,6 +346,7 @@
     <definedName name="pairedPartsFlagStrArr" localSheetId="96">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="99">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="100">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="110">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="50">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="51">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="52">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
@@ -367,6 +376,7 @@
     <definedName name="partsTypeArr" localSheetId="96">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="99">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="100">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="110">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="50">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="51">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="52">[1]partsTypeArr!$A$1:$A$4</definedName>
@@ -401,6 +411,7 @@
     <definedName name="REPACKING_TYPE" localSheetId="96">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="99">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="100">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="110">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="50">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="51">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="52">#REF!</definedName>
@@ -430,6 +441,7 @@
     <definedName name="rolledPartsFlagArr" localSheetId="96">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="99">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="100">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="110">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="50">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="51">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="52">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
@@ -459,6 +471,7 @@
     <definedName name="rolledPartsUomArr" localSheetId="96">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="99">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="100">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="110">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="50">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="51">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="52">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
@@ -493,6 +506,7 @@
     <definedName name="UOM_CODE" localSheetId="96">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="99">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="100">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="110">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="50">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="51">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="52">#REF!</definedName>
@@ -522,7 +536,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4099" uniqueCount="466">
   <si>
     <t>No</t>
   </si>
@@ -1938,6 +1952,18 @@
   </si>
   <si>
     <t>Plan Status 4</t>
+  </si>
+  <si>
+    <t>o-SG-TTAP-DC-231030001</t>
+  </si>
+  <si>
+    <t>o-SG-TTAP-DC-231030002</t>
+  </si>
+  <si>
+    <t>TTAP2310017</t>
+  </si>
+  <si>
+    <t>TTAP2310018</t>
   </si>
 </sst>
 </file>
@@ -1957,7 +1983,7 @@
     <numFmt numFmtId="172" formatCode="0.00_ "/>
     <numFmt numFmtId="173" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2062,23 +2088,18 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2112,12 +2133,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2172,7 +2187,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2340,19 +2355,25 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="17" fillId="7" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3144,7 +3165,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3339,10 +3360,10 @@
       <c r="C11" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="74" t="s">
         <v>82</v>
       </c>
       <c r="F11" s="38" t="s">
@@ -3362,8 +3383,8 @@
       <c r="C12" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
       <c r="F12" s="39" t="s">
         <v>202</v>
       </c>
@@ -3381,8 +3402,8 @@
       <c r="C13" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="40" t="s">
         <v>84</v>
       </c>
@@ -3432,10 +3453,10 @@
       <c r="C16" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="71" t="s">
+      <c r="E16" s="74" t="s">
         <v>85</v>
       </c>
       <c r="F16" s="38" t="s">
@@ -3455,8 +3476,8 @@
       <c r="C17" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
       <c r="F17" s="43" t="s">
         <v>201</v>
       </c>
@@ -3474,8 +3495,8 @@
       <c r="C18" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
       <c r="F18" s="40" t="s">
         <v>87</v>
       </c>
@@ -3703,7 +3724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9350DC2-E670-43AA-B3A3-935A176BD77E}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -4123,8 +4144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C9A5B1-29D7-4956-B172-4B5608553D94}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -5560,14 +5581,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2A4775-C7A0-48C6-8AE9-8CE8204A2253}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="18" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="19" max="22" width="15.77734375" customWidth="1"/>
+    <col min="1" max="22" width="15.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -6079,519 +6099,565 @@
 
 <file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F07E8E-A8B2-4548-8662-EE82B48E5DAA}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
   <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AE13" sqref="AE13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="12" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="15.77734375" customWidth="1"/>
-    <col min="15" max="15" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="15.77734375" customWidth="1"/>
-    <col min="18" max="18" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="24.109375" customWidth="1" collapsed="1"/>
-    <col min="20" max="23" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="22.5546875" customWidth="1" collapsed="1"/>
-    <col min="25" max="30" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="21.109375" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="25.6640625" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="27.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="4.33203125" style="68" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.77734375" style="68" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.109375" style="68" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.77734375" style="68" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.5546875" style="68" customWidth="1" collapsed="1"/>
+    <col min="6" max="18" width="15.77734375" style="68" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="24.109375" style="68" customWidth="1" collapsed="1"/>
+    <col min="20" max="23" width="15.77734375" style="68" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="22.5546875" style="68" customWidth="1" collapsed="1"/>
+    <col min="25" max="30" width="15.77734375" style="68" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="21.109375" style="68" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="25.6640625" style="68" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.77734375" style="68" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="27.21875" style="68" customWidth="1" collapsed="1"/>
+    <col min="35" max="16384" width="8.88671875" style="68" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="68" t="s">
         <v>267</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="68" t="s">
         <v>326</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="68" t="s">
         <v>314</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="68" t="s">
         <v>327</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="68" t="s">
         <v>315</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="68" t="s">
         <v>316</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="68" t="s">
         <v>317</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="68" t="s">
         <v>318</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="68" t="s">
         <v>319</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="68" t="s">
         <v>329</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="68" t="s">
         <v>450</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="68" t="s">
         <v>393</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="68" t="s">
         <v>333</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="68" t="s">
         <v>452</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="68" t="s">
         <v>453</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="68" t="s">
         <v>454</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="68" t="s">
         <v>337</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="68" t="s">
         <v>320</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="68" t="s">
         <v>339</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="68" t="s">
         <v>341</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="68" t="s">
         <v>338</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="68" t="s">
         <v>321</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="68" t="s">
         <v>342</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="68" t="s">
         <v>343</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="68" t="s">
         <v>344</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="68" t="s">
         <v>345</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="68" t="s">
         <v>322</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="68" t="s">
         <v>323</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="68" t="s">
         <v>324</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="68" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="68">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="68" t="str">
         <f ca="1">"o-SG-TTAP-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
         <v>o-SG-TTAP-DC-PS2-06-2310001</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
         <v>30 Oct 2023</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" s="68" t="str">
         <f ca="1">"DC2-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
         <v>DC2-PS2-06-2310001</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="68" t="s">
         <v>290</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="67">
         <v>1620</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="68" t="s">
         <v>328</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="M2" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+4)), "dd MMM yyyy")</f>
-        <v>03 Oct 2023</v>
-      </c>
-      <c r="N2" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+8)), "dd MMM yyyy")</f>
-        <v>07 Oct 2023</v>
-      </c>
-      <c r="O2" s="67" t="s">
+      <c r="M2" s="68" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
+        <v>30 Nov 2023</v>
+      </c>
+      <c r="N2" s="68" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())+1), "dd MMM yyyy")</f>
+        <v>01 Dec 2023</v>
+      </c>
+      <c r="O2" s="70" t="s">
         <v>451</v>
       </c>
-      <c r="P2" s="68">
+      <c r="P2" s="67">
         <v>162</v>
       </c>
-      <c r="Q2" s="69">
+      <c r="Q2" s="71">
         <v>162</v>
       </c>
-      <c r="R2" s="69">
+      <c r="R2" s="71">
         <v>162</v>
       </c>
-      <c r="S2" t="str">
+      <c r="S2" s="68" t="str">
         <f ca="1">"DC2-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
         <v>DC2-OP-PS2-06-2310-01</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="68" t="s">
         <v>455</v>
       </c>
-      <c r="U2" s="68">
+      <c r="U2" s="67">
         <v>162</v>
       </c>
-      <c r="V2" s="70">
+      <c r="V2" s="71">
         <v>162</v>
       </c>
-      <c r="W2" s="70">
+      <c r="W2" s="71">
         <v>162</v>
       </c>
-      <c r="X2" t="str">
+      <c r="X2" s="68" t="str">
         <f ca="1">"DC2-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
         <v>DC2-IP-PS2-06-2310-01</v>
       </c>
-      <c r="Y2" s="70" t="s">
+      <c r="Y2" s="71" t="s">
         <v>456</v>
       </c>
-      <c r="Z2" s="68">
+      <c r="Z2" s="67">
         <v>162</v>
       </c>
-      <c r="AA2" s="70">
+      <c r="AA2" s="71">
         <v>162</v>
       </c>
-      <c r="AB2" s="68">
+      <c r="AB2" s="67">
         <v>162</v>
       </c>
-      <c r="AC2" t="str">
+      <c r="AC2" s="68" t="str">
         <f ca="1">'TC20-Autogen SOPO'!C2</f>
         <v>sPB206-2310001</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AD2" s="68" t="s">
         <v>90</v>
       </c>
+      <c r="AE2" s="72" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF2" s="72" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG2" s="73">
+        <v>10</v>
+      </c>
+      <c r="AH2" s="73">
+        <v>1620</v>
+      </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="68">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" s="68" t="str">
         <f ca="1">"o-SG-TTAP-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
         <v>o-SG-TTAP-DC-PS2-06-2310001</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D3" s="68" t="str">
         <f t="shared" ref="D3:D5" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
         <v>30 Oct 2023</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E3" s="68" t="str">
         <f ca="1">"DC2-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
         <v>DC2-PS2-06-2310001</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="68" t="s">
+        <v>291</v>
+      </c>
+      <c r="G3" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="67">
+        <v>1620</v>
+      </c>
+      <c r="I3" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="68" t="s">
+        <v>328</v>
+      </c>
+      <c r="K3" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" s="68" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
+        <v>30 Nov 2023</v>
+      </c>
+      <c r="N3" s="68" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())+1), "dd MMM yyyy")</f>
+        <v>01 Dec 2023</v>
+      </c>
+      <c r="O3" s="70" t="s">
+        <v>444</v>
+      </c>
+      <c r="P3" s="67">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="Q3" s="71">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="R3" s="71">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="S3" s="68" t="str">
+        <f ca="1">"DC2-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
+        <v>DC2-OP-PS2-06-2310-01</v>
+      </c>
+      <c r="T3" s="68" t="s">
+        <v>455</v>
+      </c>
+      <c r="U3" s="67">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="V3" s="71">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="W3" s="71">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="X3" s="68" t="str">
+        <f ca="1">"DC2-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
+        <v>DC2-IP-PS2-06-2310-02</v>
+      </c>
+      <c r="Y3" s="71" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z3" s="67">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="AA3" s="71">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="AB3" s="67">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="AC3" s="68" t="str">
+        <f ca="1">'TC20-Autogen SOPO'!C2</f>
+        <v>sPB206-2310001</v>
+      </c>
+      <c r="AD3" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE3" s="72" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF3" s="72" t="s">
+        <v>303</v>
+      </c>
+      <c r="AG3" s="73">
+        <v>10</v>
+      </c>
+      <c r="AH3" s="73">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A4" s="68">
+        <v>3</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="68" t="str">
+        <f ca="1">"o-SG-TTAP-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
+        <v>o-SG-TTAP-DC-PS2-06-2310001</v>
+      </c>
+      <c r="D4" s="68" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>30 Oct 2023</v>
+      </c>
+      <c r="E4" s="68" t="str">
+        <f ca="1">"DC2-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
+        <v>DC2-PS2-06-2310001</v>
+      </c>
+      <c r="F4" s="68" t="s">
         <v>294</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="H3">
+      <c r="H4" s="67">
         <v>300</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I4" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J4" s="68" t="s">
         <v>328</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K4" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L4" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="M3" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+4)), "dd MMM yyyy")</f>
-        <v>03 Oct 2023</v>
-      </c>
-      <c r="N3" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+8)), "dd MMM yyyy")</f>
-        <v>07 Oct 2023</v>
-      </c>
-      <c r="O3" s="67" t="s">
+      <c r="M4" s="68" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
+        <v>30 Nov 2023</v>
+      </c>
+      <c r="N4" s="68" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())+1), "dd MMM yyyy")</f>
+        <v>01 Dec 2023</v>
+      </c>
+      <c r="O4" s="70" t="s">
         <v>445</v>
       </c>
-      <c r="P3" s="68">
+      <c r="P4" s="67">
         <v>100.001</v>
       </c>
-      <c r="Q3" s="69">
+      <c r="Q4" s="71">
         <v>100.001</v>
       </c>
-      <c r="R3" s="69">
+      <c r="R4" s="71">
         <v>100.001</v>
       </c>
-      <c r="S3" t="str">
+      <c r="S4" s="68" t="str">
         <f ca="1">"DC2-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
         <v>DC2-OP-PS2-06-2310-02</v>
       </c>
-      <c r="T3" t="s">
-        <v>455</v>
-      </c>
-      <c r="U3" s="68">
+      <c r="T4" s="68" t="s">
+        <v>335</v>
+      </c>
+      <c r="U4" s="67">
         <v>100.001</v>
       </c>
-      <c r="V3" s="70">
+      <c r="V4" s="71">
         <v>100.001</v>
       </c>
-      <c r="W3" s="70">
+      <c r="W4" s="71">
         <v>100.001</v>
       </c>
-      <c r="X3" t="str">
+      <c r="X4" s="68" t="str">
         <f ca="1">"DC2-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
         <v>DC2-IP-PS2-06-2310-02</v>
       </c>
-      <c r="Y3" s="70" t="s">
+      <c r="Y4" s="71" t="s">
         <v>457</v>
       </c>
-      <c r="Z3" s="68">
+      <c r="Z4" s="67">
         <v>10.000999999999999</v>
       </c>
-      <c r="AA3" s="70">
+      <c r="AA4" s="71">
         <v>10.000999999999999</v>
       </c>
-      <c r="AB3" s="68">
+      <c r="AB4" s="67">
         <v>10.000999999999999</v>
       </c>
-      <c r="AC3" t="str">
+      <c r="AC4" s="68" t="str">
         <f ca="1">'TC20-Autogen SOPO'!C2</f>
         <v>sPB206-2310001</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AD4" s="68" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="AE4" s="72" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF4" s="72" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG4" s="73">
+        <v>5</v>
+      </c>
+      <c r="AH4" s="73">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A5" s="68">
+        <v>4</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="C4" t="str">
-        <f ca="1">"o-SG-TTAP-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>o-SG-TTAP-DC-PS2-06-2310001</v>
-      </c>
-      <c r="D4" t="str">
+      <c r="C5" s="68" t="str">
+        <f ca="1">"o-SG-TTAP-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"002"</f>
+        <v>o-SG-TTAP-DC-PS2-06-2310002</v>
+      </c>
+      <c r="D5" s="68" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>30 Oct 2023</v>
       </c>
-      <c r="E4" t="str">
-        <f ca="1">"DC2-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>DC2-PS2-06-2310001</v>
-      </c>
-      <c r="F4" t="s">
-        <v>291</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4">
-        <v>1620</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="F5" s="68" t="s">
+        <v>294</v>
+      </c>
+      <c r="G5" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="67">
+        <v>500</v>
+      </c>
+      <c r="I5" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J5" s="68" t="s">
         <v>328</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K5" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L5" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="M4" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+4)), "dd MMM yyyy")</f>
-        <v>03 Oct 2023</v>
-      </c>
-      <c r="N4" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+8)), "dd MMM yyyy")</f>
-        <v>07 Oct 2023</v>
-      </c>
-      <c r="O4" s="67" t="s">
+      <c r="M5" s="68" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
+        <v>30 Nov 2023</v>
+      </c>
+      <c r="N5" s="68" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())+1), "dd MMM yyyy")</f>
+        <v>01 Dec 2023</v>
+      </c>
+      <c r="O5" s="70" t="s">
         <v>444</v>
       </c>
-      <c r="P4" s="68">
-        <v>10.000999999999999</v>
-      </c>
-      <c r="Q4" s="69">
-        <v>10.000999999999999</v>
-      </c>
-      <c r="R4" s="69">
-        <v>10.000999999999999</v>
-      </c>
-      <c r="S4" t="str">
+      <c r="P5" s="67">
+        <v>100.001</v>
+      </c>
+      <c r="Q5" s="71">
+        <v>100.001</v>
+      </c>
+      <c r="R5" s="71">
+        <v>100.001</v>
+      </c>
+      <c r="S5" s="68" t="str">
         <f ca="1">"DC2-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
         <v>DC2-OP-PS2-06-2310-01</v>
       </c>
-      <c r="T4" t="s">
-        <v>335</v>
-      </c>
-      <c r="U4" s="68">
-        <v>10.000999999999999</v>
-      </c>
-      <c r="V4" s="70">
-        <v>10.000999999999999</v>
-      </c>
-      <c r="W4" s="70">
-        <v>10.000999999999999</v>
-      </c>
-      <c r="X4" t="str">
-        <f ca="1">"DC2-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>DC2-IP-PS2-06-2310-02</v>
-      </c>
-      <c r="Y4" s="70" t="s">
-        <v>457</v>
-      </c>
-      <c r="Z4" s="68">
-        <v>10.000999999999999</v>
-      </c>
-      <c r="AA4" s="70">
-        <v>10.000999999999999</v>
-      </c>
-      <c r="AB4" s="68">
-        <v>10.000999999999999</v>
-      </c>
-      <c r="AC4" t="str">
+      <c r="T5" s="68" t="s">
+        <v>336</v>
+      </c>
+      <c r="U5" s="67">
+        <v>100.001</v>
+      </c>
+      <c r="V5" s="71">
+        <v>100.001</v>
+      </c>
+      <c r="W5" s="71">
+        <v>100.001</v>
+      </c>
+      <c r="Y5" s="71"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="71"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="68" t="str">
         <f ca="1">'TC20-Autogen SOPO'!C2</f>
         <v>sPB206-2310001</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AD5" s="68" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" t="str">
-        <f ca="1">"o-SG-TTAP-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"002"</f>
-        <v>o-SG-TTAP-DC-PS2-06-2310002</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>30 Oct 2023</v>
-      </c>
-      <c r="F5" t="s">
-        <v>294</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5">
-        <v>500</v>
-      </c>
-      <c r="I5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" t="s">
-        <v>328</v>
-      </c>
-      <c r="K5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L5" t="s">
-        <v>89</v>
-      </c>
-      <c r="M5" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+4)), "dd MMM yyyy")</f>
-        <v>03 Oct 2023</v>
-      </c>
-      <c r="N5" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+8)), "dd MMM yyyy")</f>
-        <v>07 Oct 2023</v>
-      </c>
-      <c r="O5" s="67" t="s">
-        <v>444</v>
-      </c>
-      <c r="P5" s="68">
-        <v>100.001</v>
-      </c>
-      <c r="Q5" s="69">
-        <v>100.001</v>
-      </c>
-      <c r="R5" s="69">
-        <v>100.001</v>
-      </c>
-      <c r="S5" t="str">
-        <f ca="1">"DC2-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>DC2-OP-PS2-06-2310-01</v>
-      </c>
-      <c r="T5" t="s">
-        <v>336</v>
-      </c>
-      <c r="U5" s="68">
-        <v>100.001</v>
-      </c>
-      <c r="V5" s="70">
-        <v>100.001</v>
-      </c>
-      <c r="W5" s="70">
-        <v>100.001</v>
-      </c>
-      <c r="AC5" t="str">
-        <f ca="1">'TC20-Autogen SOPO'!C2</f>
-        <v>sPB206-2310001</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>90</v>
+      <c r="AE5" s="72" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF5" s="72" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG5" s="73">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="73">
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -6601,13 +6667,10 @@
 
 <file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D846E8D1-B40C-4EA1-A7DE-A4F2ACF687C9}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="I40" sqref="I40:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6629,11 +6692,17 @@
         <f ca="1">'TC174-DC2 Outbound Details'!C4</f>
         <v>o-SG-TTAP-DC-PS2-06-2310001</v>
       </c>
+      <c r="B2" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">'TC174-DC2 Outbound Details'!C5</f>
         <v>o-SG-TTAP-DC-PS2-06-2310002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -6798,6 +6867,717 @@
       </c>
       <c r="X2" s="4" t="s">
         <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA562B8C-4E20-40A9-B811-F501179C18C8}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.77734375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>'TC174-OutboundNo'!B2</f>
+        <v>o-SG-TTAP-DC-231030001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>'TC174-OutboundNo'!B3</f>
+        <v>o-SG-TTAP-DC-231030002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BF097F-D619-46B3-8EE6-5FFD64FAA663}">
+  <dimension ref="A1:Z8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="26" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="27" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>357</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>358</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="O1" s="59" t="s">
+        <v>434</v>
+      </c>
+      <c r="P1" s="59" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="S1" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="T1" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="U1" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="V1" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="W1" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="X1" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y1" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z1" s="58" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="57" t="str">
+        <f ca="1">'TC174-DC2 Outbound Details'!E2</f>
+        <v>DC2-PS2-06-2310001</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>'TC174-DC2 Outbound Details'!O2</f>
+        <v>CAJU9500009</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="N2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="P2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="R2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="S2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="T2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="U2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="V2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="W2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="X2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z2" s="58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="57" t="str">
+        <f ca="1">'TC174-DC2 Outbound Details'!E3</f>
+        <v>DC2-PS2-06-2310001</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>'TC174-DC2 Outbound Details'!O3</f>
+        <v>ONEU1162511</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="P3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="R3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="S3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="T3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="U3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="V3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="W3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="X3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z3" s="58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="57" t="str">
+        <f ca="1">'TC174-DC2 Outbound Details'!E4</f>
+        <v>DC2-PS2-06-2310001</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>'TC174-DC2 Outbound Details'!O4</f>
+        <v>CNTW-SUP-C-230704001</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="O4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="P4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="R4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="S4" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="T4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="U4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="V4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="W4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="X4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z4" s="58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="str">
+        <f>'TC142-Sup2 Outbound Details'!M4</f>
+        <v>ONEU1162511</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="J5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="K5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="L5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="M5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="N5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="O5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="P5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="R5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="S5" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="T5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="U5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="V5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="W5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="X5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z5" s="58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="str">
+        <f ca="1">'TC142-Sup2 Outbound Details'!E2</f>
+        <v>SP2-PS2-06-2310001</v>
+      </c>
+      <c r="B6" s="8" t="str">
+        <f>'TC142-Sup2 Outbound Details'!M2</f>
+        <v>CAIU9500009</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>410</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="J6" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="K6" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="L6" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="M6" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="N6" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="O6" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="P6" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q6" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="R6" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="S6" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="T6" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="U6" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="V6" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="W6" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="X6" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y6" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z6" s="58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="str">
+        <f ca="1">'TC142-Sup2 Outbound Details'!E3</f>
+        <v>SP2-PS2-06-2310001</v>
+      </c>
+      <c r="B7" s="8" t="str">
+        <f>'TC142-Sup2 Outbound Details'!M3</f>
+        <v>ONEU1162511</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="J7" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="K7" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="L7" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="M7" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="N7" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="O7" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="P7" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q7" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="R7" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="S7" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="T7" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="U7" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="V7" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="W7" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="X7" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y7" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z7" s="58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="str">
+        <f>'TC142-Sup2 Outbound Details'!M5</f>
+        <v>CNTW-SUP-C-230704001</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="H8" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="I8" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="K8" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="L8" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="M8" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="N8" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="O8" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="P8" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q8" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="R8" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="S8" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="T8" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="U8" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="V8" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="W8" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="X8" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y8" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z8" s="58" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -9429,18 +10209,18 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72" t="s">
+      <c r="D4" s="75"/>
+      <c r="E4" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="72"/>
+      <c r="F4" s="75"/>
       <c r="G4" t="s">
         <v>79</v>
       </c>
@@ -10850,7 +11630,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -12313,14 +13093,14 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72" t="s">
+      <c r="C3" s="75"/>
+      <c r="D3" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="72"/>
+      <c r="E3" s="75"/>
       <c r="F3" t="s">
         <v>79</v>
       </c>
@@ -12347,7 +13127,7 @@
     <col min="1" max="4" width="20.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>132</v>
       </c>
@@ -18767,7 +19547,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24567,7 +25347,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Excel Files/Scenario 1/S1_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 1/S1_TestCases_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawe\git\tb-ttap-brivge-v2-fatin\Excel Files\Scenario 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFC4A99-FF6B-4C0A-97AD-A32D9E40914A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84BFFBF-83E7-41E0-8CBB-D2447374F9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="547" firstSheet="106" activeTab="110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="547" firstSheet="108" activeTab="111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AutoIncrement" sheetId="1" r:id="rId1"/>
@@ -124,11 +124,12 @@
     <sheet name="TC174-OutboundNo" sheetId="116" r:id="rId109"/>
     <sheet name="TC186-BU2 SellerGI Invoice" sheetId="123" r:id="rId110"/>
     <sheet name="TC189-Customer Cargo Tracking" sheetId="124" r:id="rId111"/>
+    <sheet name="TC192-DC1 Inbound Details" sheetId="125" r:id="rId112"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId112"/>
     <externalReference r:id="rId113"/>
     <externalReference r:id="rId114"/>
+    <externalReference r:id="rId115"/>
   </externalReferences>
   <definedNames>
     <definedName name="activeFlagListArr" localSheetId="71">[1]activeFlagListArr!$A$1:$A$2</definedName>
@@ -536,7 +537,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4099" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4101" uniqueCount="466">
   <si>
     <t>No</t>
   </si>
@@ -6670,7 +6671,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I40" sqref="I40:I41"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6923,7 +6924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BF097F-D619-46B3-8EE6-5FFD64FAA663}">
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -7578,6 +7579,113 @@
       </c>
       <c r="Z8" s="58" t="s">
         <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9239F5C2-D292-42C8-A6DA-300B765BC8BB}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f ca="1">"i-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"003"</f>
+        <v>i-PK-CUS-DC-PS2-06-2310003</v>
+      </c>
+      <c r="B2" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
+        <v>30 Oct 2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f ca="1">"i-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"004"</f>
+        <v>i-PK-CUS-DC-PS2-06-2310004</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B9" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
+        <v>30 Oct 2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f ca="1">"i-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"005"</f>
+        <v>i-PK-CUS-DC-PS2-06-2310005</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>30 Oct 2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f ca="1">"i-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"005"</f>
+        <v>i-PK-CUS-DC-PS2-06-2310005</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>30 Oct 2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f ca="1">"i-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
+        <v>i-PK-CUS-DC-PS2-06-2310001</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>30 Oct 2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f ca="1">"i-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
+        <v>i-PK-CUS-DC-PS2-06-2310001</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>30 Oct 2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f ca="1">"i-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
+        <v>i-PK-CUS-DC-PS2-06-2310001</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>30 Oct 2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f ca="1">"i-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"002"</f>
+        <v>i-PK-CUS-DC-PS2-06-2310002</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>30 Oct 2023</v>
       </c>
     </row>
   </sheetData>
@@ -19546,8 +19654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557364EC-2587-4097-B396-C733F06BDA3E}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Excel Files/Scenario 1/S1_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 1/S1_TestCases_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawe\git\tb-ttap-brivge-v2-fatin\Excel Files\Scenario 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84BFFBF-83E7-41E0-8CBB-D2447374F9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1008FB-546C-4216-80E9-9B856F9CDF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="547" firstSheet="108" activeTab="111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="547" firstSheet="109" activeTab="112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AutoIncrement" sheetId="1" r:id="rId1"/>
@@ -125,11 +125,12 @@
     <sheet name="TC186-BU2 SellerGI Invoice" sheetId="123" r:id="rId110"/>
     <sheet name="TC189-Customer Cargo Tracking" sheetId="124" r:id="rId111"/>
     <sheet name="TC192-DC1 Inbound Details" sheetId="125" r:id="rId112"/>
+    <sheet name="TC197-DC1 Shipping Detail" sheetId="126" r:id="rId113"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId113"/>
     <externalReference r:id="rId114"/>
     <externalReference r:id="rId115"/>
+    <externalReference r:id="rId116"/>
   </externalReferences>
   <definedNames>
     <definedName name="activeFlagListArr" localSheetId="71">[1]activeFlagListArr!$A$1:$A$2</definedName>
@@ -537,7 +538,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4101" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4108" uniqueCount="466">
   <si>
     <t>No</t>
   </si>
@@ -6925,7 +6926,7 @@
   <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -7590,7 +7591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9239F5C2-D292-42C8-A6DA-300B765BC8BB}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -7686,6 +7687,84 @@
       <c r="B9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>30 Oct 2023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFED21D6-6F8B-455C-A709-69BBEFFF5A14}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="36.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f ca="1">'TC174-DC2 Outbound Details'!E2</f>
+        <v>DC2-PS2-06-2310001</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'TC174-DC2 Outbound Details'!O2</f>
+        <v>CAJU9500009</v>
+      </c>
+      <c r="C2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f ca="1">'TC174-DC2 Outbound Details'!E3</f>
+        <v>DC2-PS2-06-2310001</v>
+      </c>
+      <c r="B3" t="str">
+        <f>'TC174-DC2 Outbound Details'!O3</f>
+        <v>ONEU1162511</v>
+      </c>
+      <c r="C3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f ca="1">'TC174-DC2 Outbound Details'!E4</f>
+        <v>DC2-PS2-06-2310001</v>
+      </c>
+      <c r="B4" t="str">
+        <f>'TC174-DC2 Outbound Details'!O4</f>
+        <v>CNTW-SUP-C-230704001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="str">
+        <f>'TC174-DC2 Outbound Details'!O5</f>
+        <v>ONEU1162511</v>
+      </c>
+      <c r="C5" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -25500,7 +25579,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="I1" sqref="I1:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Excel Files/Scenario 1/S1_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 1/S1_TestCases_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawe\git\tb-ttap-brivge-v2-fatin\Excel Files\Scenario 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1008FB-546C-4216-80E9-9B856F9CDF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20878038-9AF4-44E6-BF6A-236448562A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="547" firstSheet="109" activeTab="112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="547" firstSheet="118" activeTab="121" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AutoIncrement" sheetId="1" r:id="rId1"/>
@@ -91,71 +91,86 @@
     <sheet name="TC111-OutboundNo" sheetId="80" r:id="rId76"/>
     <sheet name="TC112-BU3 SO" sheetId="96" r:id="rId77"/>
     <sheet name="TC113-BU1 PO" sheetId="97" r:id="rId78"/>
-    <sheet name="TC114-BU1 SO" sheetId="98" r:id="rId79"/>
-    <sheet name="TC115-Customer CO" sheetId="99" r:id="rId80"/>
-    <sheet name="TC116.1-Customer Cargo Tracking" sheetId="92" r:id="rId81"/>
-    <sheet name="TC116.2-Customer Cargo Tracking" sheetId="93" r:id="rId82"/>
-    <sheet name="TC116.3-Customer Cargo Tracking" sheetId="94" r:id="rId83"/>
-    <sheet name="TC116.4-Customer Cargo Tracking" sheetId="95" r:id="rId84"/>
-    <sheet name="TC120-DC3 Shipping Details" sheetId="81" r:id="rId85"/>
-    <sheet name="TC124-DC3 Revise Shipment" sheetId="82" r:id="rId86"/>
-    <sheet name="TC128.1-Customer Cargo Tracking" sheetId="100" r:id="rId87"/>
-    <sheet name="TC128.2-Customer Cargo Tracking" sheetId="101" r:id="rId88"/>
-    <sheet name="TC128.3-Customer Cargo Tracking" sheetId="102" r:id="rId89"/>
-    <sheet name="TC128.4-Customer Cargo Tracking" sheetId="103" r:id="rId90"/>
-    <sheet name="TC132-BU2 SellerGI Invoice" sheetId="83" r:id="rId91"/>
-    <sheet name="TC136-BU3 Cargo Tracking" sheetId="104" r:id="rId92"/>
-    <sheet name="TC138-BU1 Cargo Tracking" sheetId="105" r:id="rId93"/>
-    <sheet name="TC142-Sup2 Outbound Details" sheetId="106" r:id="rId94"/>
-    <sheet name="TC142-OutboundNo" sheetId="107" r:id="rId95"/>
-    <sheet name="TC149-Customer Cargo Tracking" sheetId="108" r:id="rId96"/>
-    <sheet name="TC151-BU2 Cargo Tracking" sheetId="109" r:id="rId97"/>
-    <sheet name="TC156-Sup2 SellerGI Invoice" sheetId="110" r:id="rId98"/>
-    <sheet name="TC159-Sup2 Revise Shipment" sheetId="111" r:id="rId99"/>
-    <sheet name="TC162-Customer Cargo Tracking" sheetId="112" r:id="rId100"/>
-    <sheet name="TC165-Customer Cargo Tracking" sheetId="113" r:id="rId101"/>
-    <sheet name="TC168-DC2 Inbound Details" sheetId="114" r:id="rId102"/>
-    <sheet name="TC169-Sup2 SO" sheetId="117" r:id="rId103"/>
-    <sheet name="TC170-BU2 PO" sheetId="118" r:id="rId104"/>
-    <sheet name="TC171-BU2 SO" sheetId="119" r:id="rId105"/>
-    <sheet name="TC172-BU1 PO" sheetId="120" r:id="rId106"/>
-    <sheet name="TC173-BU1 SO" sheetId="121" r:id="rId107"/>
-    <sheet name="TC174-DC2 Outbound Details" sheetId="115" r:id="rId108"/>
-    <sheet name="TC174-OutboundNo" sheetId="116" r:id="rId109"/>
-    <sheet name="TC186-BU2 SellerGI Invoice" sheetId="123" r:id="rId110"/>
-    <sheet name="TC189-Customer Cargo Tracking" sheetId="124" r:id="rId111"/>
-    <sheet name="TC192-DC1 Inbound Details" sheetId="125" r:id="rId112"/>
-    <sheet name="TC197-DC1 Shipping Detail" sheetId="126" r:id="rId113"/>
+    <sheet name="TC115-Customer CO" sheetId="99" r:id="rId79"/>
+    <sheet name="TC116.1-Customer Cargo Tracking" sheetId="92" r:id="rId80"/>
+    <sheet name="TC116.2-Customer Cargo Tracking" sheetId="93" r:id="rId81"/>
+    <sheet name="TC116.3-Customer Cargo Tracking" sheetId="94" r:id="rId82"/>
+    <sheet name="TC116.4-Customer Cargo Tracking" sheetId="95" r:id="rId83"/>
+    <sheet name="TC120-DC3 Shipping Details" sheetId="81" r:id="rId84"/>
+    <sheet name="TC124-DC3 Revise Shipment" sheetId="82" r:id="rId85"/>
+    <sheet name="TC128.1-Customer Cargo Tracking" sheetId="100" r:id="rId86"/>
+    <sheet name="TC128.2-Customer Cargo Tracking" sheetId="101" r:id="rId87"/>
+    <sheet name="TC128.3-Customer Cargo Tracking" sheetId="102" r:id="rId88"/>
+    <sheet name="TC128.4-Customer Cargo Tracking" sheetId="103" r:id="rId89"/>
+    <sheet name="TC132-BU2 SellerGI Invoice" sheetId="83" r:id="rId90"/>
+    <sheet name="TC136-BU3 Cargo Tracking" sheetId="104" r:id="rId91"/>
+    <sheet name="TC138-BU1 Cargo Tracking" sheetId="105" r:id="rId92"/>
+    <sheet name="TC142-Sup2 Outbound Details" sheetId="106" r:id="rId93"/>
+    <sheet name="TC142-OutboundNo" sheetId="107" r:id="rId94"/>
+    <sheet name="TC149-Customer Cargo Tracking" sheetId="108" r:id="rId95"/>
+    <sheet name="TC151-BU2 Cargo Tracking" sheetId="109" r:id="rId96"/>
+    <sheet name="TC156-Sup2 SellerGI Invoice" sheetId="110" r:id="rId97"/>
+    <sheet name="TC159-Sup2 Revise Shipment" sheetId="111" r:id="rId98"/>
+    <sheet name="TC162-Customer Cargo Tracking" sheetId="112" r:id="rId99"/>
+    <sheet name="TC165-Customer Cargo Tracking" sheetId="113" r:id="rId100"/>
+    <sheet name="TC168-DC2 Inbound Details" sheetId="114" r:id="rId101"/>
+    <sheet name="TC169-Sup2 SO" sheetId="117" r:id="rId102"/>
+    <sheet name="TC170-BU2 PO" sheetId="118" r:id="rId103"/>
+    <sheet name="TC171-BU2 SO" sheetId="119" r:id="rId104"/>
+    <sheet name="TC172-BU1 PO" sheetId="120" r:id="rId105"/>
+    <sheet name="TC173-BU1 SO" sheetId="121" r:id="rId106"/>
+    <sheet name="TC174-DC2 Outbound Details" sheetId="115" r:id="rId107"/>
+    <sheet name="TC174-OutboundNo" sheetId="116" r:id="rId108"/>
+    <sheet name="TC186-BU2 SellerGI Invoice" sheetId="123" r:id="rId109"/>
+    <sheet name="TC189-Customer Cargo Tracking" sheetId="124" r:id="rId110"/>
+    <sheet name="TC192-DC1 Inbound Details" sheetId="125" r:id="rId111"/>
+    <sheet name="TC197-DC1 Shipping Detail" sheetId="126" r:id="rId112"/>
+    <sheet name="TC198-Customer Cargo Tracking" sheetId="127" r:id="rId113"/>
+    <sheet name="TC202.1-BU3 Cargo Tracking" sheetId="131" r:id="rId114"/>
+    <sheet name="TC202.2-BU3 Cargo Tracking" sheetId="132" r:id="rId115"/>
+    <sheet name="TC202.3-BU3 Cargo Tracking" sheetId="133" r:id="rId116"/>
+    <sheet name="TC202.4-BU3 Cargo Tracking" sheetId="134" r:id="rId117"/>
+    <sheet name="TC204-DC1 Outbound Details" sheetId="135" r:id="rId118"/>
+    <sheet name="TC204-OutboundNo" sheetId="136" r:id="rId119"/>
+    <sheet name="TC205.1-BU1 SO-Regular" sheetId="137" r:id="rId120"/>
+    <sheet name="TC205.2-BU1 SO-Spot" sheetId="98" r:id="rId121"/>
+    <sheet name="TC206.1-Customer CO-Regular" sheetId="139" r:id="rId122"/>
+    <sheet name="TC206.2-Customer CO-Spot" sheetId="140" r:id="rId123"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId114"/>
-    <externalReference r:id="rId115"/>
-    <externalReference r:id="rId116"/>
+    <externalReference r:id="rId124"/>
+    <externalReference r:id="rId125"/>
+    <externalReference r:id="rId126"/>
   </externalReferences>
   <definedNames>
     <definedName name="activeFlagListArr" localSheetId="71">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="72">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="73">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="19">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="79">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="80">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="81">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="82">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="83">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="20">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="85">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="86">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="87">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="88">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="89">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="21">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="90">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="91">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="92">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="22">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="94">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="23">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="95">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="23">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="96">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="98">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="99">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="100">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="110">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="109">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="112">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="113">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="114">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="115">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="116">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="50">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="51">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="52">[1]activeFlagListArr!$A$1:$A$2</definedName>
@@ -167,25 +182,30 @@
     <definedName name="activeFlagStrArr" localSheetId="72">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="73">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="19">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="79">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="80">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="81">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="82">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="83">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="20">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="85">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="86">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="87">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="88">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="89">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="21">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="90">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="91">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="92">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="22">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="94">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="23">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="95">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="23">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="96">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="98">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="99">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="100">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="110">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="109">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="112">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="113">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="114">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="115">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="116">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="50">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="51">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="52">[2]activeFlagStrArr!$A$1:$A$2</definedName>
@@ -200,25 +220,30 @@
     <definedName name="CURRENCY_CODE" localSheetId="72">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="73">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="19">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="79">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="80">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="81">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="82">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="83">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="20">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="85">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="86">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="87">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="88">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="89">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="21">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="90">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="91">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="92">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="22">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="94">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="23">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="95">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="23">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="96">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="98">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="99">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="100">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="110">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="109">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="112">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="113">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="114">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="115">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="116">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="50">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="51">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="52">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
@@ -230,25 +255,30 @@
     <definedName name="findAllUomArr" localSheetId="72">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="73">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="19">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="79">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="80">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="81">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="82">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="83">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="20">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="85">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="86">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="87">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="88">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="89">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="21">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="90">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="91">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="92">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="22">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="94">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="23">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="95">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="23">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="96">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="98">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="99">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="100">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="110">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="109">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="112">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="113">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="114">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="115">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="116">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="50">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="51">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="52">[1]findAllUomArr!$A$1:$A$29</definedName>
@@ -265,25 +295,30 @@
     <definedName name="PAIRED_FLAG" localSheetId="72">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="73">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="19">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="79">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="80">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="81">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="82">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="83">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="20">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="85">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="86">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="87">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="88">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="89">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="21">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="90">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="91">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="92">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="22">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="94">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="23">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="95">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="23">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="96">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="98">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="99">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="100">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="110">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="109">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="112">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="113">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="114">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="115">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="116">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="50">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="51">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="52">#REF!</definedName>
@@ -300,25 +335,30 @@
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="72">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="73">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="19">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="79">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="80">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="81">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="82">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="83">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="20">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="85">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="86">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="87">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="88">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="89">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="21">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="90">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="91">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="92">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="22">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="94">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="23">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="95">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="23">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="96">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="98">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="99">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="100">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="110">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="109">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="112">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="113">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="114">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="115">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="116">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="50">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="51">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="52">#REF!</definedName>
@@ -330,25 +370,30 @@
     <definedName name="pairedPartsFlagStrArr" localSheetId="72">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="73">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="19">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="79">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="80">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="81">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="82">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="83">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="20">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="85">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="86">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="87">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="88">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="89">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="21">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="90">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="91">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="92">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="22">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="94">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="23">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="95">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="23">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="96">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="98">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="99">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="100">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="110">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="109">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="112">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="113">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="114">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="115">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="116">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="50">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="51">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="52">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
@@ -360,25 +405,30 @@
     <definedName name="partsTypeArr" localSheetId="72">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="73">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="19">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="79">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="80">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="81">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="82">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="83">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="20">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="85">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="86">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="87">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="88">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="89">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="21">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="90">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="91">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="92">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="22">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="94">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="23">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="95">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="23">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="96">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="98">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="99">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="100">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="110">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="109">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="112">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="113">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="114">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="115">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="116">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="50">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="51">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="52">[1]partsTypeArr!$A$1:$A$4</definedName>
@@ -395,25 +445,30 @@
     <definedName name="REPACKING_TYPE" localSheetId="72">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="73">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="19">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="79">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="80">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="81">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="82">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="83">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="20">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="85">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="86">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="87">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="88">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="89">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="21">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="90">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="91">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="92">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="22">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="94">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="23">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="95">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="23">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="96">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="98">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="99">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="100">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="110">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="109">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="112">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="113">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="114">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="115">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="116">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="50">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="51">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="52">#REF!</definedName>
@@ -425,25 +480,30 @@
     <definedName name="rolledPartsFlagArr" localSheetId="72">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="73">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="19">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="79">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="80">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="81">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="82">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="83">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="20">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="85">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="86">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="87">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="88">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="89">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="21">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="90">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="91">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="92">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="22">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="94">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="23">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="95">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="23">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="96">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="98">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="99">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="100">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="110">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="109">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="112">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="113">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="114">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="115">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="116">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="50">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="51">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="52">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
@@ -455,25 +515,30 @@
     <definedName name="rolledPartsUomArr" localSheetId="72">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="73">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="19">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="79">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="80">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="81">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="82">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="83">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="20">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="85">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="86">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="87">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="88">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="89">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="21">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="90">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="91">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="92">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="22">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="94">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="23">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="95">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="23">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="96">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="98">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="99">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="100">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="110">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="109">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="112">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="113">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="114">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="115">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="116">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="50">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="51">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="52">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
@@ -490,25 +555,30 @@
     <definedName name="UOM_CODE" localSheetId="72">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="73">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="19">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="79">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="80">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="81">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="82">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="83">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="20">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="85">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="86">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="87">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="88">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="89">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="21">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="90">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="91">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="92">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="22">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="94">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="23">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="95">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="23">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="96">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="98">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="99">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="100">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="110">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="109">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="112">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="113">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="114">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="115">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="116">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="50">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="51">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="52">#REF!</definedName>
@@ -538,7 +608,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4108" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4861" uniqueCount="476">
   <si>
     <t>No</t>
   </si>
@@ -1966,6 +2036,36 @@
   </si>
   <si>
     <t>TTAP2310018</t>
+  </si>
+  <si>
+    <t>PALLET-2</t>
+  </si>
+  <si>
+    <t>PALLET-3</t>
+  </si>
+  <si>
+    <t>b00002</t>
+  </si>
+  <si>
+    <t>Seller Back No</t>
+  </si>
+  <si>
+    <t>o-PK-CUS-DC-231031001</t>
+  </si>
+  <si>
+    <t>o-PK-CUS-DC-231031002</t>
+  </si>
+  <si>
+    <t>o-PK-CUS-DC-231031003</t>
+  </si>
+  <si>
+    <t>o-PK-CUS-DC-231031004</t>
+  </si>
+  <si>
+    <t>o-PK-CUS-DC-231031005</t>
+  </si>
+  <si>
+    <t>o-PK-CUS-DC-231031006</t>
   </si>
 </sst>
 </file>
@@ -3167,7 +3267,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E11" sqref="E11:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3723,426 +3823,6 @@
 </file>
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9350DC2-E670-43AA-B3A3-935A176BD77E}">
-  <dimension ref="A1:Z5"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="26" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="27" max="16384" width="8.88671875" style="2" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
-        <v>348</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C1" s="58" t="s">
-        <v>350</v>
-      </c>
-      <c r="D1" s="58" t="s">
-        <v>351</v>
-      </c>
-      <c r="E1" s="58" t="s">
-        <v>352</v>
-      </c>
-      <c r="F1" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="G1" s="58" t="s">
-        <v>354</v>
-      </c>
-      <c r="H1" s="58" t="s">
-        <v>355</v>
-      </c>
-      <c r="I1" s="58" t="s">
-        <v>356</v>
-      </c>
-      <c r="J1" s="58" t="s">
-        <v>357</v>
-      </c>
-      <c r="K1" s="59" t="s">
-        <v>358</v>
-      </c>
-      <c r="L1" s="58" t="s">
-        <v>359</v>
-      </c>
-      <c r="M1" s="58" t="s">
-        <v>360</v>
-      </c>
-      <c r="N1" s="58" t="s">
-        <v>361</v>
-      </c>
-      <c r="O1" s="59" t="s">
-        <v>434</v>
-      </c>
-      <c r="P1" s="59" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="S1" s="58" t="s">
-        <v>362</v>
-      </c>
-      <c r="T1" s="58" t="s">
-        <v>363</v>
-      </c>
-      <c r="U1" s="58" t="s">
-        <v>364</v>
-      </c>
-      <c r="V1" s="58" t="s">
-        <v>365</v>
-      </c>
-      <c r="W1" s="58" t="s">
-        <v>362</v>
-      </c>
-      <c r="X1" s="58" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y1" s="58" t="s">
-        <v>364</v>
-      </c>
-      <c r="Z1" s="58" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="str">
-        <f ca="1">'TC142-Sup2 Outbound Details'!E2</f>
-        <v>SP2-PS2-06-2310001</v>
-      </c>
-      <c r="B2" s="8" t="str">
-        <f>'TC142-Sup2 Outbound Details'!M2</f>
-        <v>CAIU9500009</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>410</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="G2" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H2" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="I2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="K2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="L2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="M2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="N2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="O2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="P2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="R2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="S2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="T2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="U2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="V2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="W2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="X2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="Z2" s="58" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="str">
-        <f ca="1">'TC142-Sup2 Outbound Details'!E3</f>
-        <v>SP2-PS2-06-2310001</v>
-      </c>
-      <c r="B3" s="8" t="str">
-        <f>'TC142-Sup2 Outbound Details'!M3</f>
-        <v>ONEU1162511</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>366</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="E3" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="F3" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="G3" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H3" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="I3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="J3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="K3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="L3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="M3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="N3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="O3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="P3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="R3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="S3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="T3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="U3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="V3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="W3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="X3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="Z3" s="58" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="str">
-        <f>'TC142-Sup2 Outbound Details'!M4</f>
-        <v>ONEU1162511</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>366</v>
-      </c>
-      <c r="D4" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="G4" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H4" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="I4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="J4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="K4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="L4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="M4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="N4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="O4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="P4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="R4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="S4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="T4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="U4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="V4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="W4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="X4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="Z4" s="58" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="str">
-        <f>'TC142-Sup2 Outbound Details'!M5</f>
-        <v>CNTW-SUP-C-230704001</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>366</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="F5" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="G5" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H5" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="I5" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="J5" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="K5" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="L5" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="M5" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="N5" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="O5" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="P5" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q5" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="R5" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="S5" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="T5" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="U5" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="V5" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="W5" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="X5" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y5" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="Z5" s="58" t="s">
-        <v>368</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C9A5B1-29D7-4956-B172-4B5608553D94}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
@@ -4562,7 +4242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8116E47-E965-422A-8693-76DDFCA1FEA2}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -4591,7 +4271,7 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4601,7 +4281,7 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B5" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4611,7 +4291,7 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>30 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4621,7 +4301,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>30 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
     </row>
   </sheetData>
@@ -4629,7 +4309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FD3DC9-8455-454F-900B-CE0142DEF889}">
   <dimension ref="A1:R4"/>
   <sheetViews>
@@ -4874,7 +4554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FC9381-9C44-4D71-A046-E8E5257B8C2C}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
@@ -5105,7 +4785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E273E9C-D253-448A-A191-322A7F577CB9}">
   <dimension ref="A1:R4"/>
   <sheetViews>
@@ -5348,7 +5028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FED2218-D12D-4A7B-A04C-1FA7717B8908}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
@@ -5579,7 +5259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2A4775-C7A0-48C6-8AE9-8CE8204A2253}">
   <dimension ref="A1:V7"/>
   <sheetViews>
@@ -6099,12 +5779,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F07E8E-A8B2-4548-8662-EE82B48E5DAA}">
   <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -6243,7 +5923,7 @@
       </c>
       <c r="D2" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
       <c r="E2" s="68" t="str">
         <f ca="1">"DC2-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -6272,11 +5952,11 @@
       </c>
       <c r="M2" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Nov 2023</v>
+        <v>01 Dec 2023</v>
       </c>
       <c r="N2" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())+1), "dd MMM yyyy")</f>
-        <v>01 Dec 2023</v>
+        <v>02 Dec 2023</v>
       </c>
       <c r="O2" s="70" t="s">
         <v>451</v>
@@ -6355,7 +6035,7 @@
       </c>
       <c r="D3" s="68" t="str">
         <f t="shared" ref="D3:D5" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
       <c r="E3" s="68" t="str">
         <f ca="1">"DC2-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -6384,11 +6064,11 @@
       </c>
       <c r="M3" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Nov 2023</v>
+        <v>01 Dec 2023</v>
       </c>
       <c r="N3" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())+1), "dd MMM yyyy")</f>
-        <v>01 Dec 2023</v>
+        <v>02 Dec 2023</v>
       </c>
       <c r="O3" s="70" t="s">
         <v>444</v>
@@ -6467,7 +6147,7 @@
       </c>
       <c r="D4" s="68" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>30 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
       <c r="E4" s="68" t="str">
         <f ca="1">"DC2-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -6496,11 +6176,11 @@
       </c>
       <c r="M4" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Nov 2023</v>
+        <v>01 Dec 2023</v>
       </c>
       <c r="N4" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())+1), "dd MMM yyyy")</f>
-        <v>01 Dec 2023</v>
+        <v>02 Dec 2023</v>
       </c>
       <c r="O4" s="70" t="s">
         <v>445</v>
@@ -6579,7 +6259,7 @@
       </c>
       <c r="D5" s="68" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>30 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
       <c r="F5" s="68" t="s">
         <v>294</v>
@@ -6604,11 +6284,11 @@
       </c>
       <c r="M5" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Nov 2023</v>
+        <v>01 Dec 2023</v>
       </c>
       <c r="N5" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())+1), "dd MMM yyyy")</f>
-        <v>01 Dec 2023</v>
+        <v>02 Dec 2023</v>
       </c>
       <c r="O5" s="70" t="s">
         <v>444</v>
@@ -6667,7 +6347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D846E8D1-B40C-4EA1-A7DE-A4F2ACF687C9}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -6705,6 +6385,51 @@
       </c>
       <c r="B3" t="s">
         <v>463</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA562B8C-4E20-40A9-B811-F501179C18C8}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.77734375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>'TC174-OutboundNo'!B2</f>
+        <v>o-SG-TTAP-DC-231030001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>'TC174-OutboundNo'!B3</f>
+        <v>o-SG-TTAP-DC-231030002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -6877,51 +6602,6 @@
 </file>
 
 <file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA562B8C-4E20-40A9-B811-F501179C18C8}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
-        <f>'TC174-OutboundNo'!B2</f>
-        <v>o-SG-TTAP-DC-231030001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <f>'TC174-OutboundNo'!B3</f>
-        <v>o-SG-TTAP-DC-231030002</v>
-      </c>
-      <c r="B3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BF097F-D619-46B3-8EE6-5FFD64FAA663}">
   <dimension ref="A1:Z8"/>
   <sheetViews>
@@ -7587,7 +7267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9239F5C2-D292-42C8-A6DA-300B765BC8BB}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -7616,7 +7296,7 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -7626,7 +7306,7 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B9" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -7636,7 +7316,7 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>30 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -7646,7 +7326,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>30 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -7656,7 +7336,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>30 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -7666,7 +7346,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>30 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -7676,7 +7356,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>30 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -7686,7 +7366,85 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>30 Oct 2023</v>
+        <v>31 Oct 2023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFED21D6-6F8B-455C-A709-69BBEFFF5A14}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="20.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.44140625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f ca="1">'TC174-DC2 Outbound Details'!E2</f>
+        <v>DC2-PS2-06-2310001</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'TC174-DC2 Outbound Details'!O2</f>
+        <v>CAJU9500009</v>
+      </c>
+      <c r="C2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f ca="1">'TC174-DC2 Outbound Details'!E3</f>
+        <v>DC2-PS2-06-2310001</v>
+      </c>
+      <c r="B3" t="str">
+        <f>'TC174-DC2 Outbound Details'!O3</f>
+        <v>ONEU1162511</v>
+      </c>
+      <c r="C3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f ca="1">'TC174-DC2 Outbound Details'!E4</f>
+        <v>DC2-PS2-06-2310001</v>
+      </c>
+      <c r="B4" t="str">
+        <f>'TC174-DC2 Outbound Details'!O4</f>
+        <v>CNTW-SUP-C-230704001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="str">
+        <f>'TC174-DC2 Outbound Details'!O5</f>
+        <v>ONEU1162511</v>
+      </c>
+      <c r="C5" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -7695,76 +7453,2653 @@
 </file>
 
 <file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFED21D6-6F8B-455C-A709-69BBEFFF5A14}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786791D2-EED2-4282-B662-7CAE12AD60B1}">
+  <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="N7" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="26" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="27" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>357</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>358</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="O1" s="59" t="s">
+        <v>434</v>
+      </c>
+      <c r="P1" s="59" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="S1" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="T1" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="U1" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="V1" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="W1" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="X1" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y1" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z1" s="58" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="57" t="str">
+        <f ca="1">'TC174-DC2 Outbound Details'!E2</f>
+        <v>DC2-PS2-06-2310001</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>'TC174-DC2 Outbound Details'!O2</f>
+        <v>CAJU9500009</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="N2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="P2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="R2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="S2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="T2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="U2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="V2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="W2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="X2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z2" s="58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="57" t="str">
+        <f ca="1">'TC174-DC2 Outbound Details'!E3</f>
+        <v>DC2-PS2-06-2310001</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>'TC174-DC2 Outbound Details'!O3</f>
+        <v>ONEU1162511</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="P3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="R3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="S3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="T3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="U3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="V3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="W3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="X3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z3" s="58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="57" t="str">
+        <f ca="1">'TC174-DC2 Outbound Details'!E4</f>
+        <v>DC2-PS2-06-2310001</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>'TC174-DC2 Outbound Details'!O4</f>
+        <v>CNTW-SUP-C-230704001</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="O4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="P4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="R4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="S4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="T4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="U4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="V4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="W4" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="X4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z4" s="58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="str">
+        <f>'TC142-Sup2 Outbound Details'!M4</f>
+        <v>ONEU1162511</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="J5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="K5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="L5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="M5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="N5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="O5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="P5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="R5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="S5" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="T5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="U5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="V5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="W5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="X5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z5" s="58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="str">
+        <f ca="1">'TC142-Sup2 Outbound Details'!E2</f>
+        <v>SP2-PS2-06-2310001</v>
+      </c>
+      <c r="B6" s="8" t="str">
+        <f>'TC142-Sup2 Outbound Details'!M2</f>
+        <v>CAIU9500009</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>410</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="H6" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="J6" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="K6" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="L6" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="M6" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="N6" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="O6" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="P6" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q6" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="R6" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="S6" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="T6" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="U6" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="V6" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="W6" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="X6" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y6" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z6" s="58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="str">
+        <f ca="1">'TC142-Sup2 Outbound Details'!E3</f>
+        <v>SP2-PS2-06-2310001</v>
+      </c>
+      <c r="B7" s="8" t="str">
+        <f>'TC142-Sup2 Outbound Details'!M3</f>
+        <v>ONEU1162511</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="J7" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="K7" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="L7" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="M7" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="N7" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="O7" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="P7" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q7" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="R7" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="S7" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="T7" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="U7" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="V7" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="W7" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="X7" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y7" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z7" s="58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="str">
+        <f>'TC142-Sup2 Outbound Details'!M5</f>
+        <v>CNTW-SUP-C-230704001</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="H8" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="I8" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="K8" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="L8" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="M8" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="N8" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="O8" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="P8" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q8" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="R8" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="S8" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="T8" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="U8" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="V8" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="W8" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="X8" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y8" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z8" s="58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C629F7-19B9-47D6-9C8E-5A77F5AC0864}">
+  <dimension ref="A1:V3"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="22" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="23" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>357</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>358</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="P1" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q1" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="R1" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="S1" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="T1" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="U1" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="V1" s="58" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="str">
+        <f ca="1">'TC74-Sup1 Outbound Details'!E3</f>
+        <v>SP1-PS2-06-2310001</v>
+      </c>
+      <c r="B2" s="8" t="str">
+        <f>'TC74-Sup1 Outbound Details'!M3</f>
+        <v>MY-ELA-C-230704001</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="N2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="P2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="R2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="S2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="T2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="U2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="V2" s="58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="str">
+        <f ca="1">'TC74-Sup1 Outbound Details'!E5</f>
+        <v>SP1-PS2-06-2310002</v>
+      </c>
+      <c r="B3" s="8" t="str">
+        <f>'TC74-Sup1 Outbound Details'!M5</f>
+        <v>MY-ELA-C-230704001</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="P3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="R3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="S3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="T3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="U3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="V3" s="58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FEF123-A1B5-4CDF-B51C-D45CE237A4C5}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="15" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>419</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>409</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>420</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>421</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>411</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>422</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>423</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>424</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>425</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>426</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>427</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="str">
+        <f ca="1">'TC74-Sup1 Outbound Details'!E2</f>
+        <v>SP1-PS2-06-2310001</v>
+      </c>
+      <c r="B2" s="8" t="str">
+        <f>'TC74-Sup1 Outbound Details'!M2</f>
+        <v>CAIU9500009</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>410</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="N2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5000B011-4769-4E9A-A947-34E6231FB82D}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="15" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>429</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>409</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>420</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>421</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>411</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>422</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>423</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>424</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>425</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>426</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>427</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="str">
+        <f ca="1">'TC74-Sup1 Outbound Details'!E4</f>
+        <v>SP1-PS2-06-2310001</v>
+      </c>
+      <c r="B2" s="8" t="str">
+        <f>'TC74-Sup1 Outbound Details'!M4</f>
+        <v>TCLU4249350</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>410</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="N2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7483A7FB-817C-448D-9FA1-492D7F03AB1A}">
+  <dimension ref="A1:AK4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:AK4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="22" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="24" max="27" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="28" max="37" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="38" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>357</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>434</v>
+      </c>
+      <c r="P1" s="58" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q1" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="R1" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="S1" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="T1" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="U1" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="V1" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="W1" s="58" t="s">
+        <v>357</v>
+      </c>
+      <c r="X1" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y1" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="Z1" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA1" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="AB1" s="58" t="s">
+        <v>436</v>
+      </c>
+      <c r="AC1" s="58" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD1" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="AE1" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="AF1" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="AG1" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="str">
+        <f ca="1">'TC111-DC3 Outbound Details'!E3</f>
+        <v>DC3-PS2-06-2310001</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>'TC111-DC3 Outbound Details'!M3</f>
+        <v>CAIU9492794</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="N2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="P2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="R2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="S2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="T2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="U2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="V2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="W2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="X2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="Z2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="AA2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="AB2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="AC2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AF2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AG2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AH2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AI2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AJ2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AK2" s="58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="str">
+        <f>'TC111-DC3 Outbound Details'!M5</f>
+        <v>CAIU9492794</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="P3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="R3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="S3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="T3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="U3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="V3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="W3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="X3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AA3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AC3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AD3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AE3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AF3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AG3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AH3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AI3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AJ3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AK3" s="58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="str">
+        <f ca="1">'TC111-DC3 Outbound Details'!E2</f>
+        <v>DC3-PS2-06-2310001</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>'TC111-DC3 Outbound Details'!M2</f>
+        <v>CAIU9500009</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>410</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="O4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="P4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="R4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="S4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="T4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="U4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="V4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="W4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="X4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="Z4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="AA4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="AB4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="AC4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD4" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AF4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AG4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AH4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AI4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AJ4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AK4" s="58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B137BAE1-B930-4B5D-AF31-3E1874611571}">
+  <dimension ref="A1:AG9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" style="68" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.77734375" style="68" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.109375" style="68" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.77734375" style="68" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.5546875" style="68" customWidth="1" collapsed="1"/>
+    <col min="6" max="16" width="15.77734375" style="68" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="24.109375" style="68" customWidth="1" collapsed="1"/>
+    <col min="18" max="21" width="15.77734375" style="68" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="22.5546875" style="68" customWidth="1" collapsed="1"/>
+    <col min="23" max="28" width="15.77734375" style="68" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="21.109375" style="68" customWidth="1" collapsed="1"/>
+    <col min="30" max="31" width="25.6640625" style="68" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="15.77734375" style="68" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="27.21875" style="68" customWidth="1" collapsed="1"/>
+    <col min="34" max="16384" width="8.88671875" style="68" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>314</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>327</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>315</v>
+      </c>
+      <c r="H1" s="68" t="s">
+        <v>316</v>
+      </c>
+      <c r="I1" s="68" t="s">
+        <v>317</v>
+      </c>
+      <c r="J1" s="68" t="s">
+        <v>318</v>
+      </c>
+      <c r="K1" s="68" t="s">
+        <v>319</v>
+      </c>
+      <c r="L1" s="68" t="s">
+        <v>329</v>
+      </c>
+      <c r="M1" s="68" t="s">
+        <v>333</v>
+      </c>
+      <c r="N1" s="68" t="s">
+        <v>452</v>
+      </c>
+      <c r="O1" s="68" t="s">
+        <v>453</v>
+      </c>
+      <c r="P1" s="68" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q1" s="68" t="s">
+        <v>337</v>
+      </c>
+      <c r="R1" s="68" t="s">
+        <v>320</v>
+      </c>
+      <c r="S1" s="68" t="s">
+        <v>339</v>
+      </c>
+      <c r="T1" s="68" t="s">
+        <v>340</v>
+      </c>
+      <c r="U1" s="68" t="s">
+        <v>341</v>
+      </c>
+      <c r="V1" s="68" t="s">
+        <v>338</v>
+      </c>
+      <c r="W1" s="68" t="s">
+        <v>321</v>
+      </c>
+      <c r="X1" s="68" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y1" s="68" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z1" s="68" t="s">
+        <v>344</v>
+      </c>
+      <c r="AA1" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB1" s="68" t="s">
+        <v>322</v>
+      </c>
+      <c r="AC1" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD1" s="68" t="s">
+        <v>323</v>
+      </c>
+      <c r="AE1" s="68" t="s">
+        <v>469</v>
+      </c>
+      <c r="AF1" s="68" t="s">
+        <v>324</v>
+      </c>
+      <c r="AG1" s="68" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A2" s="68">
+        <v>1</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="68" t="str">
+        <f ca="1">"o-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
+        <v>o-PK-CUS-DC-PS2-06-2310001</v>
+      </c>
+      <c r="D2" s="68" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
+        <v>31 Oct 2023</v>
+      </c>
+      <c r="E2" s="68" t="str">
+        <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
+        <v>DC1-PS2-06-2310001</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>290</v>
+      </c>
+      <c r="G2" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="67">
+        <v>1620</v>
+      </c>
+      <c r="I2" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="68" t="s">
+        <v>328</v>
+      </c>
+      <c r="K2" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="70" t="s">
+        <v>451</v>
+      </c>
+      <c r="N2" s="67">
+        <v>162</v>
+      </c>
+      <c r="O2" s="71">
+        <v>162</v>
+      </c>
+      <c r="P2" s="71">
+        <v>162</v>
+      </c>
+      <c r="Q2" s="68" t="str">
+        <f ca="1">"DC1-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
+        <v>DC1-OP-PS2-06-2310-01</v>
+      </c>
+      <c r="R2" s="68" t="s">
+        <v>334</v>
+      </c>
+      <c r="S2" s="67">
+        <v>162</v>
+      </c>
+      <c r="T2" s="71">
+        <v>162</v>
+      </c>
+      <c r="U2" s="71">
+        <v>162</v>
+      </c>
+      <c r="V2" s="68" t="str">
+        <f ca="1">"DC1-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
+        <v>DC1-IP-PS2-06-2310-01</v>
+      </c>
+      <c r="W2" s="71" t="s">
+        <v>456</v>
+      </c>
+      <c r="X2" s="67">
+        <v>162</v>
+      </c>
+      <c r="Y2" s="71">
+        <v>162</v>
+      </c>
+      <c r="Z2" s="67">
+        <v>162</v>
+      </c>
+      <c r="AA2" s="68" t="str">
+        <f ca="1">'TC20-Autogen SOPO'!A2</f>
+        <v>sPB106-2310001</v>
+      </c>
+      <c r="AB2" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC2" s="72" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD2" s="72" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE2" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF2" s="73">
+        <v>10</v>
+      </c>
+      <c r="AG2" s="73">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A3" s="68">
+        <v>2</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="68" t="str">
+        <f ca="1">"o-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
+        <v>o-PK-CUS-DC-PS2-06-2310001</v>
+      </c>
+      <c r="D3" s="68" t="str">
+        <f t="shared" ref="D3:D9" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
+        <v>31 Oct 2023</v>
+      </c>
+      <c r="E3" s="68" t="str">
+        <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
+        <v>DC1-PS2-06-2310001</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>291</v>
+      </c>
+      <c r="G3" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="67">
+        <v>1620</v>
+      </c>
+      <c r="I3" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="68" t="s">
+        <v>328</v>
+      </c>
+      <c r="K3" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" s="70" t="s">
+        <v>444</v>
+      </c>
+      <c r="N3" s="67">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="O3" s="71">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="P3" s="71">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="Q3" s="68" t="str">
+        <f ca="1">"DC1-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
+        <v>DC1-OP-PS2-06-2310-01</v>
+      </c>
+      <c r="R3" s="68" t="s">
+        <v>466</v>
+      </c>
+      <c r="S3" s="67">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="T3" s="71">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="U3" s="71">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="V3" s="68" t="str">
+        <f ca="1">"DC1-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
+        <v>DC1-IP-PS2-06-2310-02</v>
+      </c>
+      <c r="W3" s="71" t="s">
+        <v>457</v>
+      </c>
+      <c r="X3" s="67">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="Y3" s="71">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="Z3" s="67">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="AA3" s="68" t="str">
+        <f ca="1">'TC20-Autogen SOPO'!A2</f>
+        <v>sPB106-2310001</v>
+      </c>
+      <c r="AB3" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC3" s="72" t="s">
+        <v>297</v>
+      </c>
+      <c r="AD3" s="72" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE3" s="72" t="s">
+        <v>468</v>
+      </c>
+      <c r="AF3" s="73">
+        <v>10</v>
+      </c>
+      <c r="AG3" s="73">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A4" s="68">
+        <v>3</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="68" t="str">
+        <f ca="1">"o-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
+        <v>o-PK-CUS-DC-PS2-06-2310001</v>
+      </c>
+      <c r="D4" s="68" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>31 Oct 2023</v>
+      </c>
+      <c r="E4" s="68" t="str">
+        <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
+        <v>DC1-PS2-06-2310001</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>294</v>
+      </c>
+      <c r="G4" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="67">
+        <v>500</v>
+      </c>
+      <c r="I4" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="68" t="s">
+        <v>328</v>
+      </c>
+      <c r="K4" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="70" t="s">
+        <v>445</v>
+      </c>
+      <c r="N4" s="67">
+        <v>100.001</v>
+      </c>
+      <c r="O4" s="71">
+        <v>100.001</v>
+      </c>
+      <c r="P4" s="71">
+        <v>100.001</v>
+      </c>
+      <c r="Q4" s="68" t="str">
+        <f ca="1">"DC1-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
+        <v>DC1-OP-PS2-06-2310-02</v>
+      </c>
+      <c r="R4" s="68" t="s">
+        <v>334</v>
+      </c>
+      <c r="S4" s="67">
+        <v>100.001</v>
+      </c>
+      <c r="T4" s="71">
+        <v>100.001</v>
+      </c>
+      <c r="U4" s="71">
+        <v>100.001</v>
+      </c>
+      <c r="V4" s="68" t="str">
+        <f ca="1">"DC1-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
+        <v>DC1-IP-PS2-06-2310-02</v>
+      </c>
+      <c r="W4" s="71" t="s">
+        <v>457</v>
+      </c>
+      <c r="X4" s="67">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="Y4" s="71">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="Z4" s="67">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="AA4" s="68" t="str">
+        <f ca="1">'TC20-Autogen SOPO'!A2</f>
+        <v>sPB106-2310001</v>
+      </c>
+      <c r="AB4" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC4" s="72" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD4" s="72" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE4" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF4" s="73">
+        <v>5</v>
+      </c>
+      <c r="AG4" s="73">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A5" s="68">
+        <v>4</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="68" t="str">
+        <f ca="1">"o-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"002"</f>
+        <v>o-PK-CUS-DC-PS2-06-2310002</v>
+      </c>
+      <c r="D5" s="68" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>31 Oct 2023</v>
+      </c>
+      <c r="F5" s="68" t="s">
+        <v>294</v>
+      </c>
+      <c r="G5" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="67">
+        <v>300</v>
+      </c>
+      <c r="I5" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="68" t="s">
+        <v>328</v>
+      </c>
+      <c r="K5" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="70" t="s">
+        <v>444</v>
+      </c>
+      <c r="N5" s="67">
+        <v>100.001</v>
+      </c>
+      <c r="O5" s="71">
+        <v>100.001</v>
+      </c>
+      <c r="P5" s="71">
+        <v>100.001</v>
+      </c>
+      <c r="Q5" s="68" t="str">
+        <f ca="1">"DC1-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
+        <v>DC1-OP-PS2-06-2310-01</v>
+      </c>
+      <c r="R5" s="68" t="s">
+        <v>467</v>
+      </c>
+      <c r="S5" s="67">
+        <v>100.001</v>
+      </c>
+      <c r="T5" s="71">
+        <v>100.001</v>
+      </c>
+      <c r="U5" s="71">
+        <v>100.001</v>
+      </c>
+      <c r="W5" s="71" t="s">
+        <v>456</v>
+      </c>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="71"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="68" t="str">
+        <f ca="1">'TC20-Autogen SOPO'!A2</f>
+        <v>sPB106-2310001</v>
+      </c>
+      <c r="AB5" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC5" s="72" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD5" s="72" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE5" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF5" s="73">
+        <v>5</v>
+      </c>
+      <c r="AG5" s="73">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A6" s="68">
+        <v>5</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="68" t="str">
+        <f ca="1">"o-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"003"</f>
+        <v>o-PK-CUS-DC-PS2-06-2310003</v>
+      </c>
+      <c r="D6" s="68" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>31 Oct 2023</v>
+      </c>
+      <c r="E6" s="68" t="str">
+        <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"003"</f>
+        <v>DC1-PS2-06-2310003</v>
+      </c>
+      <c r="F6" s="68" t="s">
+        <v>292</v>
+      </c>
+      <c r="G6" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="68">
+        <v>660</v>
+      </c>
+      <c r="I6" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="68" t="s">
+        <v>328</v>
+      </c>
+      <c r="K6" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="68" t="s">
+        <v>408</v>
+      </c>
+      <c r="N6" s="68">
+        <v>100.001</v>
+      </c>
+      <c r="O6" s="68">
+        <v>100.001</v>
+      </c>
+      <c r="P6" s="68">
+        <v>100.001</v>
+      </c>
+      <c r="Q6" s="68" t="str">
+        <f ca="1">"DC1-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
+        <v>DC1-OP-PS2-06-2310-01</v>
+      </c>
+      <c r="R6" s="68" t="s">
+        <v>336</v>
+      </c>
+      <c r="S6" s="68">
+        <v>100.001</v>
+      </c>
+      <c r="T6" s="68">
+        <v>100.001</v>
+      </c>
+      <c r="U6" s="68">
+        <v>100.001</v>
+      </c>
+      <c r="W6" s="68" t="s">
+        <v>457</v>
+      </c>
+      <c r="X6" s="68">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="Y6" s="68">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="Z6" s="68">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="AA6" s="68" t="str">
+        <f ca="1">'TC47-Autogen OrderNo Spot'!B2</f>
+        <v>sPB106-2310002</v>
+      </c>
+      <c r="AB6" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC6" s="68" t="s">
+        <v>298</v>
+      </c>
+      <c r="AD6" s="68" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE6" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF6" s="68">
+        <v>5</v>
+      </c>
+      <c r="AG6" s="68">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A7" s="68">
+        <v>6</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="68" t="str">
+        <f ca="1">"o-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"004"</f>
+        <v>o-PK-CUS-DC-PS2-06-2310004</v>
+      </c>
+      <c r="D7" s="68" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>31 Oct 2023</v>
+      </c>
+      <c r="E7" s="68" t="str">
+        <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"004"</f>
+        <v>DC1-PS2-06-2310004</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>293</v>
+      </c>
+      <c r="G7" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="68">
+        <v>660</v>
+      </c>
+      <c r="I7" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="68" t="s">
+        <v>328</v>
+      </c>
+      <c r="K7" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="68" t="s">
+        <v>330</v>
+      </c>
+      <c r="N7" s="68">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="O7" s="68">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="P7" s="68">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="Q7" s="68" t="str">
+        <f ca="1">"DC1-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
+        <v>DC1-OP-PS2-06-2310-01</v>
+      </c>
+      <c r="R7" s="68" t="s">
+        <v>335</v>
+      </c>
+      <c r="S7" s="68">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="T7" s="68">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="U7" s="68">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="V7" s="68" t="str">
+        <f ca="1">"DC1-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
+        <v>DC1-IP-PS2-06-2310-01</v>
+      </c>
+      <c r="W7" s="68" t="s">
+        <v>457</v>
+      </c>
+      <c r="X7" s="68">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="Y7" s="68">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="Z7" s="68">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="AA7" s="68" t="str">
+        <f ca="1">'TC47-Autogen OrderNo Spot'!B2</f>
+        <v>sPB106-2310002</v>
+      </c>
+      <c r="AB7" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC7" s="68" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD7" s="68" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE7" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF7" s="68">
+        <v>5</v>
+      </c>
+      <c r="AG7" s="68">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A8" s="68">
+        <v>7</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="68" t="str">
+        <f ca="1">"o-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"005"</f>
+        <v>o-PK-CUS-DC-PS2-06-2310005</v>
+      </c>
+      <c r="D8" s="68" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>31 Oct 2023</v>
+      </c>
+      <c r="E8" s="68" t="str">
+        <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"005"</f>
+        <v>DC1-PS2-06-2310005</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>295</v>
+      </c>
+      <c r="G8" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="68">
+        <v>330</v>
+      </c>
+      <c r="I8" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="68" t="s">
+        <v>328</v>
+      </c>
+      <c r="K8" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="68" t="s">
+        <v>408</v>
+      </c>
+      <c r="N8" s="68">
+        <v>100.001</v>
+      </c>
+      <c r="O8" s="68">
+        <v>100.001</v>
+      </c>
+      <c r="P8" s="68">
+        <v>100.001</v>
+      </c>
+      <c r="Q8" s="68" t="str">
+        <f ca="1">"DC1-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
+        <v>DC1-OP-PS2-06-2310-02</v>
+      </c>
+      <c r="R8" s="68" t="s">
+        <v>336</v>
+      </c>
+      <c r="S8" s="68">
+        <v>100.001</v>
+      </c>
+      <c r="T8" s="68">
+        <v>100.001</v>
+      </c>
+      <c r="U8" s="68">
+        <v>100.001</v>
+      </c>
+      <c r="V8" s="68" t="str">
+        <f ca="1">"DC1-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
+        <v>DC1-IP-PS2-06-2310-02</v>
+      </c>
+      <c r="W8" s="68" t="s">
+        <v>457</v>
+      </c>
+      <c r="X8" s="68">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="Y8" s="68">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="Z8" s="68">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="AA8" s="68" t="str">
+        <f ca="1">'TC47-Autogen OrderNo Spot'!B2</f>
+        <v>sPB106-2310002</v>
+      </c>
+      <c r="AB8" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC8" s="68" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD8" s="68" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE8" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF8" s="68">
+        <v>5</v>
+      </c>
+      <c r="AG8" s="68">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A9" s="68">
+        <v>8</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="68" t="str">
+        <f ca="1">"o-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"006"</f>
+        <v>o-PK-CUS-DC-PS2-06-2310006</v>
+      </c>
+      <c r="D9" s="68" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>31 Oct 2023</v>
+      </c>
+      <c r="E9" s="68" t="str">
+        <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"005"</f>
+        <v>DC1-PS2-06-2310005</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>295</v>
+      </c>
+      <c r="G9" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="68">
+        <v>330</v>
+      </c>
+      <c r="I9" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="68" t="s">
+        <v>328</v>
+      </c>
+      <c r="K9" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9" s="68" t="s">
+        <v>408</v>
+      </c>
+      <c r="N9" s="68">
+        <v>100.001</v>
+      </c>
+      <c r="O9" s="68">
+        <v>100.001</v>
+      </c>
+      <c r="P9" s="68">
+        <v>100.001</v>
+      </c>
+      <c r="Q9" s="68" t="str">
+        <f ca="1">"DC1-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
+        <v>DC1-OP-PS2-06-2310-02</v>
+      </c>
+      <c r="R9" s="68" t="s">
+        <v>336</v>
+      </c>
+      <c r="S9" s="68">
+        <v>100.001</v>
+      </c>
+      <c r="T9" s="68">
+        <v>100.001</v>
+      </c>
+      <c r="U9" s="68">
+        <v>100.001</v>
+      </c>
+      <c r="V9" s="68" t="str">
+        <f ca="1">"DC1-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
+        <v>DC1-IP-PS2-06-2310-02</v>
+      </c>
+      <c r="W9" s="68" t="s">
+        <v>457</v>
+      </c>
+      <c r="X9" s="68">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="Y9" s="68">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="Z9" s="68">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="AA9" s="68" t="str">
+        <f ca="1">'TC47-Autogen OrderNo Spot'!B2</f>
+        <v>sPB106-2310002</v>
+      </c>
+      <c r="AB9" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC9" s="68" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD9" s="68" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE9" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF9" s="68">
+        <v>5</v>
+      </c>
+      <c r="AG9" s="68">
+        <v>660</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0128EDA1-566A-4405-9CB0-3F38A9C7F4F1}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="36.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
-        <f ca="1">'TC174-DC2 Outbound Details'!E2</f>
-        <v>DC2-PS2-06-2310001</v>
-      </c>
-      <c r="B2" t="str">
-        <f>'TC174-DC2 Outbound Details'!O2</f>
-        <v>CAJU9500009</v>
-      </c>
-      <c r="C2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <f ca="1">'TC204-DC1 Outbound Details'!C4</f>
+        <v>o-PK-CUS-DC-PS2-06-2310001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
-        <f ca="1">'TC174-DC2 Outbound Details'!E3</f>
-        <v>DC2-PS2-06-2310001</v>
-      </c>
-      <c r="B3" t="str">
-        <f>'TC174-DC2 Outbound Details'!O3</f>
-        <v>ONEU1162511</v>
-      </c>
-      <c r="C3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <f ca="1">'TC204-DC1 Outbound Details'!C5</f>
+        <v>o-PK-CUS-DC-PS2-06-2310002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
-        <f ca="1">'TC174-DC2 Outbound Details'!E4</f>
-        <v>DC2-PS2-06-2310001</v>
-      </c>
-      <c r="B4" t="str">
-        <f>'TC174-DC2 Outbound Details'!O4</f>
-        <v>CNTW-SUP-C-230704001</v>
-      </c>
-      <c r="C4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="str">
-        <f>'TC174-DC2 Outbound Details'!O5</f>
-        <v>ONEU1162511</v>
-      </c>
-      <c r="C5" t="s">
-        <v>365</v>
+        <f ca="1">'TC204-DC1 Outbound Details'!C6</f>
+        <v>o-PK-CUS-DC-PS2-06-2310003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f ca="1">'TC204-DC1 Outbound Details'!C7</f>
+        <v>o-PK-CUS-DC-PS2-06-2310004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f ca="1">'TC204-DC1 Outbound Details'!C8</f>
+        <v>o-PK-CUS-DC-PS2-06-2310005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f ca="1">'TC204-DC1 Outbound Details'!C9</f>
+        <v>o-PK-CUS-DC-PS2-06-2310006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -7878,6 +10213,1443 @@
       <formula1>CURRENCY_CODE</formula1>
     </dataValidation>
   </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70577FD9-CA84-46C6-AD1E-DF07144CB47C}">
+  <dimension ref="A1:V7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="22" width="15.77734375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" t="s">
+        <v>253</v>
+      </c>
+      <c r="L1" t="s">
+        <v>374</v>
+      </c>
+      <c r="M1" t="s">
+        <v>375</v>
+      </c>
+      <c r="N1" t="s">
+        <v>376</v>
+      </c>
+      <c r="O1" t="s">
+        <v>377</v>
+      </c>
+      <c r="P1" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>379</v>
+      </c>
+      <c r="R1" t="s">
+        <v>380</v>
+      </c>
+      <c r="S1" t="s">
+        <v>458</v>
+      </c>
+      <c r="T1" t="s">
+        <v>459</v>
+      </c>
+      <c r="U1" t="s">
+        <v>460</v>
+      </c>
+      <c r="V1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>'TC2-Contract Parts Info'!B2</f>
+        <v>s1001</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'TC2-Contract Parts Info'!A2</f>
+        <v>PK-TTAP-s1-001</v>
+      </c>
+      <c r="C2" s="52" t="str">
+        <f>'TC001-Req to Parts Master'!F2</f>
+        <v>b00001</v>
+      </c>
+      <c r="D2" t="str">
+        <f ca="1">'TC15-AutoGen CO'!A2</f>
+        <v>cPB106-2310001</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2" s="50">
+        <v>1620</v>
+      </c>
+      <c r="I2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="J2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K2" t="s">
+        <v>381</v>
+      </c>
+      <c r="L2" s="50">
+        <v>1620</v>
+      </c>
+      <c r="M2" s="50">
+        <v>1620</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="50">
+        <v>1620</v>
+      </c>
+      <c r="P2" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>264</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
+        <v>264</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>'TC2-Contract Parts Info'!B3</f>
+        <v>s1002</v>
+      </c>
+      <c r="B3" t="str">
+        <f>'TC2-Contract Parts Info'!A3</f>
+        <v>PK-TTAP-s1-002</v>
+      </c>
+      <c r="C3" s="52" t="str">
+        <f>'TC001-Req to Parts Master'!F3</f>
+        <v>b00002</v>
+      </c>
+      <c r="D3" t="str">
+        <f ca="1">'TC15-AutoGen CO'!A2</f>
+        <v>cPB106-2310001</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3" s="50">
+        <v>1620</v>
+      </c>
+      <c r="I3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="J3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K3" t="s">
+        <v>381</v>
+      </c>
+      <c r="L3" s="50">
+        <v>1620</v>
+      </c>
+      <c r="M3" s="50">
+        <v>1620</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="50">
+        <v>1620</v>
+      </c>
+      <c r="P3" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>264</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>264</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>'TC2-Contract Parts Info'!B4</f>
+        <v>s1003</v>
+      </c>
+      <c r="B4" t="str">
+        <f>'TC2-Contract Parts Info'!A4</f>
+        <v>PK-TTAP-s1-003</v>
+      </c>
+      <c r="C4" s="52" t="str">
+        <f>'TC001-Req to Parts Master'!F4</f>
+        <v>b00003</v>
+      </c>
+      <c r="D4" t="str">
+        <f ca="1">'TC15-AutoGen CO'!A2</f>
+        <v>cPB106-2310001</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>620</v>
+      </c>
+      <c r="I4">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="J4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" t="s">
+        <v>263</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q4">
+        <v>620</v>
+      </c>
+      <c r="R4" t="s">
+        <v>264</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>264</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f>'TC2-Contract Parts Info'!B5</f>
+        <v>s1004</v>
+      </c>
+      <c r="B5" t="str">
+        <f>'TC2-Contract Parts Info'!A5</f>
+        <v>PK-TTAP-s1-004</v>
+      </c>
+      <c r="C5" s="52" t="str">
+        <f>'TC001-Req to Parts Master'!F5</f>
+        <v>b00004</v>
+      </c>
+      <c r="D5" t="str">
+        <f ca="1">'TC15-AutoGen CO'!A2</f>
+        <v>cPB106-2310001</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>620</v>
+      </c>
+      <c r="I5">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="J5" t="s">
+        <v>147</v>
+      </c>
+      <c r="K5" t="s">
+        <v>263</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q5">
+        <v>620</v>
+      </c>
+      <c r="R5" t="s">
+        <v>264</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>264</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f>'TC2-Contract Parts Info'!B6</f>
+        <v>s1005</v>
+      </c>
+      <c r="B6" t="str">
+        <f>'TC2-Contract Parts Info'!A6</f>
+        <v>PK-TTAP-s1-005</v>
+      </c>
+      <c r="C6" s="52" t="str">
+        <f>'TC001-Req to Parts Master'!F6</f>
+        <v>b00005</v>
+      </c>
+      <c r="D6" t="str">
+        <f ca="1">'TC15-AutoGen CO'!A2</f>
+        <v>cPB106-2310001</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>800</v>
+      </c>
+      <c r="I6">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="J6" t="s">
+        <v>147</v>
+      </c>
+      <c r="K6" t="s">
+        <v>383</v>
+      </c>
+      <c r="L6">
+        <v>600</v>
+      </c>
+      <c r="M6">
+        <v>600</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>600</v>
+      </c>
+      <c r="P6" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>264</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>264</v>
+      </c>
+      <c r="U6">
+        <v>200</v>
+      </c>
+      <c r="V6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f>'TC2-Contract Parts Info'!B7</f>
+        <v>s1006</v>
+      </c>
+      <c r="B7" t="str">
+        <f>'TC2-Contract Parts Info'!A7</f>
+        <v>PK-TTAP-s1-006</v>
+      </c>
+      <c r="C7" s="52" t="str">
+        <f>'TC001-Req to Parts Master'!F7</f>
+        <v>b00006</v>
+      </c>
+      <c r="D7" t="str">
+        <f ca="1">'TC15-AutoGen CO'!A2</f>
+        <v>cPB106-2310001</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>820</v>
+      </c>
+      <c r="I7">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="J7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q7">
+        <v>620</v>
+      </c>
+      <c r="R7" t="s">
+        <v>264</v>
+      </c>
+      <c r="S7">
+        <v>200</v>
+      </c>
+      <c r="T7" t="s">
+        <v>264</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508C75F4-9487-47EE-9DA3-8D744FCFCEE9}">
+  <dimension ref="A1:R4"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="18" width="15.77734375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" t="s">
+        <v>253</v>
+      </c>
+      <c r="L1" t="s">
+        <v>374</v>
+      </c>
+      <c r="M1" t="s">
+        <v>375</v>
+      </c>
+      <c r="N1" t="s">
+        <v>376</v>
+      </c>
+      <c r="O1" t="s">
+        <v>377</v>
+      </c>
+      <c r="P1" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>379</v>
+      </c>
+      <c r="R1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>'TC2-Contract Parts Info'!B4</f>
+        <v>s1003</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'TC2-Contract Parts Info'!A4</f>
+        <v>PK-TTAP-s1-003</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="str">
+        <f ca="1">'TC47-Autogen OrderNo Spot'!A2</f>
+        <v>cPB106-2310002</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>660</v>
+      </c>
+      <c r="I2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="J2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K2" t="s">
+        <v>381</v>
+      </c>
+      <c r="L2">
+        <v>660</v>
+      </c>
+      <c r="M2">
+        <v>660</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q2">
+        <v>660</v>
+      </c>
+      <c r="R2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>'TC2-Contract Parts Info'!B5</f>
+        <v>s1004</v>
+      </c>
+      <c r="B3" t="str">
+        <f>'TC2-Contract Parts Info'!A5</f>
+        <v>PK-TTAP-s1-004</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="str">
+        <f ca="1">'TC47-Autogen OrderNo Spot'!A2</f>
+        <v>cPB106-2310002</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>660</v>
+      </c>
+      <c r="I3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="J3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K3" t="s">
+        <v>381</v>
+      </c>
+      <c r="L3">
+        <v>660</v>
+      </c>
+      <c r="M3">
+        <v>660</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>660</v>
+      </c>
+      <c r="P3" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>'TC2-Contract Parts Info'!B7</f>
+        <v>s1006</v>
+      </c>
+      <c r="B4" t="str">
+        <f>'TC2-Contract Parts Info'!A7</f>
+        <v>PK-TTAP-s1-006</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="str">
+        <f ca="1">'TC47-Autogen OrderNo Spot'!A2</f>
+        <v>cPB106-2310002</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>660</v>
+      </c>
+      <c r="I4">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="J4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" t="s">
+        <v>381</v>
+      </c>
+      <c r="L4">
+        <v>660</v>
+      </c>
+      <c r="M4">
+        <v>660</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>600</v>
+      </c>
+      <c r="P4" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q4">
+        <v>60</v>
+      </c>
+      <c r="R4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47916C1-3BA9-4151-B6D5-49B8BA285E50}">
+  <dimension ref="A1:Q7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="15.77734375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" t="s">
+        <v>253</v>
+      </c>
+      <c r="M1" t="s">
+        <v>384</v>
+      </c>
+      <c r="N1" t="s">
+        <v>385</v>
+      </c>
+      <c r="O1" t="s">
+        <v>386</v>
+      </c>
+      <c r="P1" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>'TC2-Contract Parts Info'!B2</f>
+        <v>s1001</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'TC001-Req to Parts Master'!B2</f>
+        <v>PK-CUS-s1-001</v>
+      </c>
+      <c r="C2" s="52" t="str">
+        <f>'TC001-Req to Parts Master'!F2</f>
+        <v>b00001</v>
+      </c>
+      <c r="D2" t="str">
+        <f ca="1">'TC20-Autogen SOPO'!A2</f>
+        <v>sPB106-2310001</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2" s="50">
+        <v>1620</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L2" t="s">
+        <v>383</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="50">
+        <v>1620</v>
+      </c>
+      <c r="O2" t="s">
+        <v>264</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>'TC2-Contract Parts Info'!B3</f>
+        <v>s1002</v>
+      </c>
+      <c r="B3" t="str">
+        <f>'TC001-Req to Parts Master'!B3</f>
+        <v>PK-CUS-s1-002</v>
+      </c>
+      <c r="C3" s="52" t="str">
+        <f>'TC001-Req to Parts Master'!F3</f>
+        <v>b00002</v>
+      </c>
+      <c r="D3" t="str">
+        <f ca="1">'TC20-Autogen SOPO'!A2</f>
+        <v>sPB106-2310001</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3" s="50">
+        <v>1620</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L3" t="s">
+        <v>383</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="50">
+        <v>1620</v>
+      </c>
+      <c r="O3" t="s">
+        <v>264</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>'TC2-Contract Parts Info'!B4</f>
+        <v>s1003</v>
+      </c>
+      <c r="B4" t="str">
+        <f>'TC001-Req to Parts Master'!B4</f>
+        <v>PK-CUS-s1-003</v>
+      </c>
+      <c r="C4" s="52" t="str">
+        <f>'TC001-Req to Parts Master'!F4</f>
+        <v>b00003</v>
+      </c>
+      <c r="D4" t="str">
+        <f ca="1">'TC20-Autogen SOPO'!A2</f>
+        <v>sPB106-2310001</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>620</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K4" t="s">
+        <v>147</v>
+      </c>
+      <c r="L4" t="s">
+        <v>263</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>264</v>
+      </c>
+      <c r="P4">
+        <v>620</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f>'TC2-Contract Parts Info'!B5</f>
+        <v>s1004</v>
+      </c>
+      <c r="B5" t="str">
+        <f>'TC001-Req to Parts Master'!B5</f>
+        <v>PK-CUS-s1-004</v>
+      </c>
+      <c r="C5" s="52" t="str">
+        <f>'TC001-Req to Parts Master'!F5</f>
+        <v>b00004</v>
+      </c>
+      <c r="D5" t="str">
+        <f ca="1">'TC20-Autogen SOPO'!A2</f>
+        <v>sPB106-2310001</v>
+      </c>
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>620</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K5" t="s">
+        <v>147</v>
+      </c>
+      <c r="L5" t="s">
+        <v>263</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>264</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f>'TC2-Contract Parts Info'!B6</f>
+        <v>s1005</v>
+      </c>
+      <c r="B6" t="str">
+        <f>'TC001-Req to Parts Master'!B6</f>
+        <v>PK-CUS-s1-005</v>
+      </c>
+      <c r="C6" s="52" t="str">
+        <f>'TC001-Req to Parts Master'!F6</f>
+        <v>b00005</v>
+      </c>
+      <c r="D6" t="str">
+        <f ca="1">'TC20-Autogen SOPO'!A2</f>
+        <v>sPB106-2310001</v>
+      </c>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>800</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K6" t="s">
+        <v>147</v>
+      </c>
+      <c r="L6" t="s">
+        <v>383</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>600</v>
+      </c>
+      <c r="O6" t="s">
+        <v>264</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f>'TC2-Contract Parts Info'!B7</f>
+        <v>s1006</v>
+      </c>
+      <c r="B7" t="str">
+        <f>'TC001-Req to Parts Master'!B7</f>
+        <v>PK-CUS-s1-006</v>
+      </c>
+      <c r="C7" s="52" t="str">
+        <f>'TC001-Req to Parts Master'!F7</f>
+        <v>b00006</v>
+      </c>
+      <c r="D7" t="str">
+        <f ca="1">'TC20-Autogen SOPO'!A2</f>
+        <v>sPB106-2310001</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>820</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" t="s">
+        <v>263</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P7">
+        <v>620</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A644DA6-5AFE-4AC7-A7AD-2B07CFF4F198}">
+  <dimension ref="A1:R4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="18" width="15.77734375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" t="s">
+        <v>253</v>
+      </c>
+      <c r="M1" t="s">
+        <v>384</v>
+      </c>
+      <c r="N1" t="s">
+        <v>385</v>
+      </c>
+      <c r="O1" t="s">
+        <v>386</v>
+      </c>
+      <c r="P1" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>388</v>
+      </c>
+      <c r="R1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>'TC2-Contract Parts Info'!B4</f>
+        <v>s1003</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'TC001-Req to Parts Master'!B4</f>
+        <v>PK-CUS-s1-003</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="str">
+        <f ca="1">'TC47-Autogen OrderNo Spot'!B2</f>
+        <v>sPB106-2310002</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>660</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L2" t="s">
+        <v>383</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>264</v>
+      </c>
+      <c r="P2">
+        <v>660</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>264</v>
+      </c>
+      <c r="R2">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>'TC2-Contract Parts Info'!B5</f>
+        <v>s1004</v>
+      </c>
+      <c r="B3" t="str">
+        <f>'TC001-Req to Parts Master'!B5</f>
+        <v>PK-CUS-s1-004</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="str">
+        <f ca="1">'TC47-Autogen OrderNo Spot'!B2</f>
+        <v>sPB106-2310002</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>660</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L3" t="s">
+        <v>383</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>660</v>
+      </c>
+      <c r="O3" t="s">
+        <v>264</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>264</v>
+      </c>
+      <c r="R3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>'TC2-Contract Parts Info'!B7</f>
+        <v>s1006</v>
+      </c>
+      <c r="B4" t="str">
+        <f>'TC001-Req to Parts Master'!B7</f>
+        <v>PK-CUS-s1-006</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="str">
+        <f ca="1">'TC47-Autogen OrderNo Spot'!B2</f>
+        <v>sPB106-2310002</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>660</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K4" t="s">
+        <v>147</v>
+      </c>
+      <c r="L4" t="s">
+        <v>383</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>600</v>
+      </c>
+      <c r="O4" t="s">
+        <v>264</v>
+      </c>
+      <c r="P4">
+        <v>60</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>264</v>
+      </c>
+      <c r="R4">
+        <v>660</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10058,7 +13830,7 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())+21), "dd MMM yyyy")</f>
-        <v>21 Dec 2023</v>
+        <v>22 Dec 2023</v>
       </c>
     </row>
   </sheetData>
@@ -10233,11 +14005,11 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="str">
         <f ca="1">'TC15-Inbound Date'!A2</f>
-        <v>21 Dec 2023</v>
+        <v>22 Dec 2023</v>
       </c>
       <c r="B2" s="49" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())+1), "dd MMM yyyy")</f>
-        <v>31 Dec 2023</v>
+        <v>01 Jan 2024</v>
       </c>
     </row>
   </sheetData>
@@ -13202,11 +16974,11 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Nov 2023</v>
+        <v>01 Dec 2023</v>
       </c>
       <c r="B5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Dec 2023</v>
+        <v>31 Dec 2023</v>
       </c>
     </row>
   </sheetData>
@@ -13218,7 +16990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E831F0-FB13-4336-A8E0-1297BED9134B}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -13402,11 +17174,11 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Nov 2023</v>
+        <v>01 Dec 2023</v>
       </c>
       <c r="B5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Dec 2023</v>
+        <v>31 Dec 2023</v>
       </c>
     </row>
   </sheetData>
@@ -13583,7 +17355,7 @@
       </c>
       <c r="D2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">"SP1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -13657,7 +17429,7 @@
       </c>
       <c r="D3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
       <c r="E3" t="str">
         <f ca="1">"SP1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -13743,7 +17515,7 @@
       </c>
       <c r="D4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
       <c r="E4" t="str">
         <f ca="1">"SP1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -13822,7 +17594,7 @@
       </c>
       <c r="D5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
       <c r="E5" t="str">
         <f ca="1">"SP1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"002"</f>
@@ -16629,18 +20401,18 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>09 Oct 2023</v>
+        <v>10 Oct 2023</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>19 Oct 2023</v>
+        <v>20 Oct 2023</v>
       </c>
       <c r="E2" t="s">
         <v>397</v>
       </c>
       <c r="F2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>29 Oct 2023</v>
+        <v>30 Oct 2023</v>
       </c>
       <c r="G2" t="s">
         <v>398</v>
@@ -16662,18 +20434,18 @@
       </c>
       <c r="C3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>09 Oct 2023</v>
+        <v>10 Oct 2023</v>
       </c>
       <c r="D3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>19 Oct 2023</v>
+        <v>20 Oct 2023</v>
       </c>
       <c r="E3" t="s">
         <v>400</v>
       </c>
       <c r="F3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>29 Oct 2023</v>
+        <v>30 Oct 2023</v>
       </c>
       <c r="G3" t="s">
         <v>401</v>
@@ -16695,18 +20467,18 @@
       </c>
       <c r="C4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>09 Oct 2023</v>
+        <v>10 Oct 2023</v>
       </c>
       <c r="D4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>19 Oct 2023</v>
+        <v>20 Oct 2023</v>
       </c>
       <c r="E4" t="s">
         <v>400</v>
       </c>
       <c r="F4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>29 Oct 2023</v>
+        <v>30 Oct 2023</v>
       </c>
       <c r="G4" t="s">
         <v>401</v>
@@ -16728,18 +20500,18 @@
       </c>
       <c r="C5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>09 Oct 2023</v>
+        <v>10 Oct 2023</v>
       </c>
       <c r="D5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>19 Oct 2023</v>
+        <v>20 Oct 2023</v>
       </c>
       <c r="E5" t="s">
         <v>400</v>
       </c>
       <c r="F5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>29 Oct 2023</v>
+        <v>30 Oct 2023</v>
       </c>
       <c r="G5" t="s">
         <v>401</v>
@@ -17245,7 +21017,7 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -17255,7 +21027,7 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B5" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -17265,7 +21037,7 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>30 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -17275,7 +21047,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>30 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
     </row>
   </sheetData>
@@ -19266,7 +23038,7 @@
   <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19387,7 +23159,7 @@
       </c>
       <c r="D2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">"DC3-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -19473,7 +23245,7 @@
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D4" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
       <c r="E3" t="str">
         <f ca="1">"DC3-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -19552,7 +23324,7 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>30 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
       <c r="E4" t="str">
         <f ca="1">"DC3-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -20273,20 +24045,19 @@
 </file>
 
 <file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508C75F4-9487-47EE-9DA3-8D744FCFCEE9}">
-  <dimension ref="A1:S4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2942BCB-47BD-48A2-81AC-11D891D1F509}">
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="18" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="16.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>132</v>
       </c>
@@ -20297,10 +24068,10 @@
         <v>371</v>
       </c>
       <c r="D1" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>382</v>
       </c>
       <c r="F1" t="s">
         <v>12</v>
@@ -20312,57 +24083,54 @@
         <v>373</v>
       </c>
       <c r="I1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J1" t="s">
         <v>145</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>122</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>253</v>
       </c>
-      <c r="L1" t="s">
-        <v>374</v>
-      </c>
       <c r="M1" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="N1" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="O1" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="P1" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="Q1" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="R1" t="s">
-        <v>380</v>
-      </c>
-      <c r="S1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>'TC2-Contract Parts Info'!B4</f>
         <v>s1003</v>
       </c>
       <c r="B2" t="str">
-        <f>'TC2-Contract Parts Info'!A4</f>
-        <v>PK-TTAP-s1-003</v>
+        <f>'TC001-Req to Parts Master'!B4</f>
+        <v>PK-CUS-s1-003</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="str">
-        <f ca="1">'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cPB106-2310002</v>
+        <f ca="1">'TC47-Autogen OrderNo Spot'!B2</f>
+        <v>sPB106-2310002</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -20374,57 +24142,54 @@
         <v>660</v>
       </c>
       <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>2.0499999999999998</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>147</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>383</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="O2" t="s">
         <v>264</v>
       </c>
-      <c r="Q2">
+      <c r="P2">
         <v>660</v>
       </c>
-      <c r="R2" t="s">
+      <c r="Q2" t="s">
         <v>264</v>
       </c>
-      <c r="S2">
+      <c r="R2">
         <v>660</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>'TC2-Contract Parts Info'!B5</f>
         <v>s1004</v>
       </c>
       <c r="B3" t="str">
-        <f>'TC2-Contract Parts Info'!A5</f>
-        <v>PK-TTAP-s1-004</v>
+        <f>'TC001-Req to Parts Master'!B5</f>
+        <v>PK-CUS-s1-004</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
       </c>
       <c r="D3" t="str">
-        <f ca="1">'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cPB106-2310002</v>
+        <f ca="1">'TC47-Autogen OrderNo Spot'!B2</f>
+        <v>sPB106-2310002</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -20436,57 +24201,54 @@
         <v>660</v>
       </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>2.0499999999999998</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>147</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>383</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
         <v>660</v>
       </c>
-      <c r="P3" t="s">
+      <c r="O3" t="s">
         <v>264</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
         <v>264</v>
       </c>
-      <c r="S3">
+      <c r="R3">
         <v>660</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>'TC2-Contract Parts Info'!B7</f>
         <v>s1006</v>
       </c>
       <c r="B4" t="str">
-        <f>'TC2-Contract Parts Info'!A7</f>
-        <v>PK-TTAP-s1-006</v>
+        <f>'TC001-Req to Parts Master'!B7</f>
+        <v>PK-CUS-s1-006</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
       </c>
       <c r="D4" t="str">
-        <f ca="1">'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cPB106-2310002</v>
+        <f ca="1">'TC47-Autogen OrderNo Spot'!B2</f>
+        <v>sPB106-2310002</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -20498,36 +24260,33 @@
         <v>660</v>
       </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>2.0499999999999998</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>147</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>383</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
         <v>600</v>
       </c>
-      <c r="P4" t="s">
+      <c r="O4" t="s">
         <v>264</v>
       </c>
-      <c r="Q4">
+      <c r="P4">
         <v>60</v>
       </c>
-      <c r="R4" t="s">
+      <c r="Q4" t="s">
         <v>264</v>
       </c>
-      <c r="S4">
+      <c r="R4">
         <v>660</v>
       </c>
     </row>
@@ -20702,258 +24461,6 @@
 </file>
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2942BCB-47BD-48A2-81AC-11D891D1F509}">
-  <dimension ref="A1:R4"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="18" width="15.77734375" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E1" t="s">
-        <v>382</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I1" t="s">
-        <v>391</v>
-      </c>
-      <c r="J1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L1" t="s">
-        <v>253</v>
-      </c>
-      <c r="M1" t="s">
-        <v>384</v>
-      </c>
-      <c r="N1" t="s">
-        <v>385</v>
-      </c>
-      <c r="O1" t="s">
-        <v>386</v>
-      </c>
-      <c r="P1" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>388</v>
-      </c>
-      <c r="R1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
-        <f>'TC2-Contract Parts Info'!B4</f>
-        <v>s1003</v>
-      </c>
-      <c r="B2" t="str">
-        <f>'TC001-Req to Parts Master'!B4</f>
-        <v>PK-CUS-s1-003</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="str">
-        <f ca="1">'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sPB106-2310002</v>
-      </c>
-      <c r="E2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>660</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="K2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L2" t="s">
-        <v>383</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>264</v>
-      </c>
-      <c r="P2">
-        <v>660</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>264</v>
-      </c>
-      <c r="R2">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <f>'TC2-Contract Parts Info'!B5</f>
-        <v>s1004</v>
-      </c>
-      <c r="B3" t="str">
-        <f>'TC001-Req to Parts Master'!B5</f>
-        <v>PK-CUS-s1-004</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="str">
-        <f ca="1">'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sPB106-2310002</v>
-      </c>
-      <c r="E3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>660</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="K3" t="s">
-        <v>147</v>
-      </c>
-      <c r="L3" t="s">
-        <v>383</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>660</v>
-      </c>
-      <c r="O3" t="s">
-        <v>264</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>264</v>
-      </c>
-      <c r="R3">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <f>'TC2-Contract Parts Info'!B7</f>
-        <v>s1006</v>
-      </c>
-      <c r="B4" t="str">
-        <f>'TC001-Req to Parts Master'!B7</f>
-        <v>PK-CUS-s1-006</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="str">
-        <f ca="1">'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sPB106-2310002</v>
-      </c>
-      <c r="E4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>660</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="K4" t="s">
-        <v>147</v>
-      </c>
-      <c r="L4" t="s">
-        <v>383</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>600</v>
-      </c>
-      <c r="O4" t="s">
-        <v>264</v>
-      </c>
-      <c r="P4">
-        <v>60</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>264</v>
-      </c>
-      <c r="R4">
-        <v>660</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792C3127-D423-43DE-AA8B-CB8CD61E82CE}">
   <dimension ref="A1:V3"/>
   <sheetViews>
@@ -21181,7 +24688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CBE502-D2C5-40B2-8CBE-8E9A45279F9A}">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -21297,7 +24804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A517EA-F9C1-45B6-B85F-2E8AC817BF4A}">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -21413,7 +24920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43C25A0-8CEE-474D-9859-BFA42304C446}">
   <dimension ref="A1:AK4"/>
   <sheetViews>
@@ -21890,7 +25397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF48F8E2-194F-4DC4-8FF3-822E5BA6FA9E}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -21942,7 +25449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701CCCF0-F24D-4D90-8B72-109EE6474988}">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -21993,18 +25500,18 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>09 Oct 2023</v>
+        <v>10 Oct 2023</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>19 Oct 2023</v>
+        <v>20 Oct 2023</v>
       </c>
       <c r="E2" t="s">
         <v>397</v>
       </c>
       <c r="F2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>29 Oct 2023</v>
+        <v>30 Oct 2023</v>
       </c>
       <c r="G2" t="s">
         <v>398</v>
@@ -22027,18 +25534,18 @@
       </c>
       <c r="C3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>09 Oct 2023</v>
+        <v>10 Oct 2023</v>
       </c>
       <c r="D3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>19 Oct 2023</v>
+        <v>20 Oct 2023</v>
       </c>
       <c r="E3" t="s">
         <v>400</v>
       </c>
       <c r="F3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>29 Oct 2023</v>
+        <v>30 Oct 2023</v>
       </c>
       <c r="G3" t="s">
         <v>401</v>
@@ -22061,18 +25568,18 @@
       </c>
       <c r="C4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>09 Oct 2023</v>
+        <v>10 Oct 2023</v>
       </c>
       <c r="D4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>19 Oct 2023</v>
+        <v>20 Oct 2023</v>
       </c>
       <c r="E4" t="s">
         <v>400</v>
       </c>
       <c r="F4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>29 Oct 2023</v>
+        <v>30 Oct 2023</v>
       </c>
       <c r="G4" t="s">
         <v>401</v>
@@ -22089,12 +25596,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A68731-D837-4182-B0B6-53F590B30F8E}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -22317,12 +25824,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539A7982-6062-42D6-A077-DFD32C13B06D}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -22433,12 +25940,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1F1861-43E0-47AB-BDA8-3E9A2C599FA9}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -22541,6 +26048,483 @@
         <v>368</v>
       </c>
       <c r="O2" s="58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E57809-F180-44FA-854E-6DB65F9F83F3}">
+  <dimension ref="A1:AK4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="22" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="24" max="27" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="28" max="37" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="38" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>357</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>434</v>
+      </c>
+      <c r="P1" s="58" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q1" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="R1" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="S1" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="T1" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="U1" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="V1" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="W1" s="58" t="s">
+        <v>357</v>
+      </c>
+      <c r="X1" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y1" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="Z1" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA1" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="AB1" s="58" t="s">
+        <v>436</v>
+      </c>
+      <c r="AC1" s="58" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD1" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="AE1" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="AF1" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="AG1" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="str">
+        <f ca="1">'TC111-DC3 Outbound Details'!E3</f>
+        <v>DC3-PS2-06-2310001</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>'TC111-DC3 Outbound Details'!M3</f>
+        <v>CAIU9492794</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="N2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="P2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="R2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="S2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="T2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="U2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="V2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="W2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="X2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AA2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AC2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AD2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AE2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AF2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AG2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AH2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AI2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AJ2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AK2" s="58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="str">
+        <f>'TC111-DC3 Outbound Details'!M5</f>
+        <v>CAIU9492794</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="P3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="R3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="S3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="T3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="U3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="V3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="W3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="X3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AA3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AC3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AD3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AE3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AF3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AG3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AH3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AI3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AJ3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AK3" s="58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="str">
+        <f ca="1">'TC111-DC3 Outbound Details'!E2</f>
+        <v>DC3-PS2-06-2310001</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>'TC111-DC3 Outbound Details'!M2</f>
+        <v>CAIU9500009</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>410</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="O4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="P4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="R4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="S4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="T4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="U4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="V4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="W4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="X4" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AA4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AC4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AD4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AE4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AF4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AG4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AH4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AI4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AJ4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="AK4" s="58" t="s">
         <v>368</v>
       </c>
     </row>
@@ -22703,483 +26687,6 @@
 </file>
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E57809-F180-44FA-854E-6DB65F9F83F3}">
-  <dimension ref="A1:AK4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="22" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="24" max="27" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="28" max="37" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="38" max="16384" width="8.88671875" style="2" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
-        <v>348</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C1" s="58" t="s">
-        <v>350</v>
-      </c>
-      <c r="D1" s="58" t="s">
-        <v>351</v>
-      </c>
-      <c r="E1" s="58" t="s">
-        <v>352</v>
-      </c>
-      <c r="F1" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="G1" s="58" t="s">
-        <v>354</v>
-      </c>
-      <c r="H1" s="58" t="s">
-        <v>355</v>
-      </c>
-      <c r="I1" s="58" t="s">
-        <v>356</v>
-      </c>
-      <c r="J1" s="58" t="s">
-        <v>357</v>
-      </c>
-      <c r="K1" s="58" t="s">
-        <v>358</v>
-      </c>
-      <c r="L1" s="58" t="s">
-        <v>359</v>
-      </c>
-      <c r="M1" s="58" t="s">
-        <v>360</v>
-      </c>
-      <c r="N1" s="58" t="s">
-        <v>361</v>
-      </c>
-      <c r="O1" s="58" t="s">
-        <v>434</v>
-      </c>
-      <c r="P1" s="58" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q1" s="58" t="s">
-        <v>351</v>
-      </c>
-      <c r="R1" s="58" t="s">
-        <v>352</v>
-      </c>
-      <c r="S1" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="T1" s="58" t="s">
-        <v>354</v>
-      </c>
-      <c r="U1" s="58" t="s">
-        <v>355</v>
-      </c>
-      <c r="V1" s="58" t="s">
-        <v>356</v>
-      </c>
-      <c r="W1" s="58" t="s">
-        <v>357</v>
-      </c>
-      <c r="X1" s="58" t="s">
-        <v>358</v>
-      </c>
-      <c r="Y1" s="58" t="s">
-        <v>359</v>
-      </c>
-      <c r="Z1" s="58" t="s">
-        <v>360</v>
-      </c>
-      <c r="AA1" s="58" t="s">
-        <v>361</v>
-      </c>
-      <c r="AB1" s="58" t="s">
-        <v>436</v>
-      </c>
-      <c r="AC1" s="58" t="s">
-        <v>437</v>
-      </c>
-      <c r="AD1" s="58" t="s">
-        <v>362</v>
-      </c>
-      <c r="AE1" s="58" t="s">
-        <v>363</v>
-      </c>
-      <c r="AF1" s="58" t="s">
-        <v>364</v>
-      </c>
-      <c r="AG1" s="58" t="s">
-        <v>365</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="str">
-        <f ca="1">'TC111-DC3 Outbound Details'!E3</f>
-        <v>DC3-PS2-06-2310001</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <f>'TC111-DC3 Outbound Details'!M3</f>
-        <v>CAIU9492794</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>366</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="G2" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H2" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="I2" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="K2" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="L2" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="M2" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="N2" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="O2" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="P2" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q2" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="R2" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="S2" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="T2" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="U2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="V2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="W2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="X2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="Z2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="AA2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="AC2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="AD2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="AE2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="AF2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="AG2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="AH2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="AI2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="AJ2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="AK2" s="58" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="str">
-        <f>'TC111-DC3 Outbound Details'!M5</f>
-        <v>CAIU9492794</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>366</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="E3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="F3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="G3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="H3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="I3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="J3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="K3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="L3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="M3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="N3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="O3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="P3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="R3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="S3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="T3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="U3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="V3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="W3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="X3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="Z3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="AA3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="AC3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="AD3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="AE3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="AF3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="AG3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="AH3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="AI3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="AJ3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="AK3" s="58" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="str">
-        <f ca="1">'TC111-DC3 Outbound Details'!E2</f>
-        <v>DC3-PS2-06-2310001</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <f>'TC111-DC3 Outbound Details'!M2</f>
-        <v>CAIU9500009</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>410</v>
-      </c>
-      <c r="D4" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="G4" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H4" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="I4" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="J4" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="K4" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="L4" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="M4" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="N4" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="O4" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="P4" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q4" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="R4" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="S4" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="T4" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="U4" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="V4" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="W4" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="X4" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="Z4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="AA4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="AC4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="AD4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="AE4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="AF4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="AG4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="AH4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="AI4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="AJ4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="AK4" s="58" t="s">
-        <v>368</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D9E9E2-90B4-4602-8379-D354F79B6E55}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -23224,7 +26731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99625522-DD57-4001-92EB-D5831E88A615}">
   <dimension ref="A1:AK4"/>
   <sheetViews>
@@ -23701,7 +27208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72431182-F20B-4CB6-9BF1-138CDF189B7D}">
   <dimension ref="A1:AK4"/>
   <sheetViews>
@@ -24178,12 +27685,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AF31E2-588B-4649-8029-6420C85DD400}">
   <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -24307,7 +27814,7 @@
       </c>
       <c r="D2" s="2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
       <c r="E2" s="2" t="str">
         <f ca="1">"SP2-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -24388,7 +27895,7 @@
       </c>
       <c r="D3" s="2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
       <c r="E3" s="2" t="str">
         <f ca="1">"SP2-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -24477,7 +27984,7 @@
       </c>
       <c r="D4" s="2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>294</v>
@@ -24556,7 +28063,7 @@
       </c>
       <c r="D5" s="2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>30 Oct 2023</v>
+        <v>31 Oct 2023</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>294</v>
@@ -24644,7 +28151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3EEEE6-B289-47CF-8DE7-A6A2FF5BC947}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -24689,7 +28196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF73A4B-C68A-43D4-8630-E19DD9005336}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
@@ -25109,7 +28616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352A00B5-D02F-4C38-BB99-907D191BAA2E}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
@@ -25529,7 +29036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAD4283-60EA-46FB-BA4D-BE7BDBF89C95}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -25574,7 +29081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86538E9-DC0F-41A5-9A2D-6FA6F49CAEAF}">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -25626,18 +29133,18 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>09 Oct 2023</v>
+        <v>10 Oct 2023</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>19 Oct 2023</v>
+        <v>20 Oct 2023</v>
       </c>
       <c r="E2" t="s">
         <v>397</v>
       </c>
       <c r="F2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>29 Oct 2023</v>
+        <v>30 Oct 2023</v>
       </c>
       <c r="G2" t="s">
         <v>398</v>
@@ -25656,18 +29163,18 @@
       </c>
       <c r="C3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>09 Oct 2023</v>
+        <v>10 Oct 2023</v>
       </c>
       <c r="D3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>19 Oct 2023</v>
+        <v>20 Oct 2023</v>
       </c>
       <c r="E3" t="s">
         <v>400</v>
       </c>
       <c r="F3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>29 Oct 2023</v>
+        <v>30 Oct 2023</v>
       </c>
       <c r="G3" t="s">
         <v>401</v>
@@ -25690,18 +29197,18 @@
       </c>
       <c r="C4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>09 Oct 2023</v>
+        <v>10 Oct 2023</v>
       </c>
       <c r="D4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>19 Oct 2023</v>
+        <v>20 Oct 2023</v>
       </c>
       <c r="E4" t="s">
         <v>400</v>
       </c>
       <c r="F4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>29 Oct 2023</v>
+        <v>30 Oct 2023</v>
       </c>
       <c r="G4" t="s">
         <v>401</v>
@@ -25724,18 +29231,18 @@
       </c>
       <c r="C5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>09 Oct 2023</v>
+        <v>10 Oct 2023</v>
       </c>
       <c r="D5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>19 Oct 2023</v>
+        <v>20 Oct 2023</v>
       </c>
       <c r="E5" t="s">
         <v>400</v>
       </c>
       <c r="F5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>29 Oct 2023</v>
+        <v>30 Oct 2023</v>
       </c>
       <c r="G5" t="s">
         <v>401</v>
@@ -25745,6 +29252,426 @@
       </c>
       <c r="I5" t="s">
         <v>354</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9350DC2-E670-43AA-B3A3-935A176BD77E}">
+  <dimension ref="A1:Z5"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="26" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="27" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>357</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>358</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="O1" s="59" t="s">
+        <v>434</v>
+      </c>
+      <c r="P1" s="59" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="S1" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="T1" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="U1" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="V1" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="W1" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="X1" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y1" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z1" s="58" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="str">
+        <f ca="1">'TC142-Sup2 Outbound Details'!E2</f>
+        <v>SP2-PS2-06-2310001</v>
+      </c>
+      <c r="B2" s="8" t="str">
+        <f>'TC142-Sup2 Outbound Details'!M2</f>
+        <v>CAIU9500009</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>410</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="N2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="P2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="R2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="S2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="T2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="U2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="V2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="W2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="X2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z2" s="58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="str">
+        <f ca="1">'TC142-Sup2 Outbound Details'!E3</f>
+        <v>SP2-PS2-06-2310001</v>
+      </c>
+      <c r="B3" s="8" t="str">
+        <f>'TC142-Sup2 Outbound Details'!M3</f>
+        <v>ONEU1162511</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="P3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="R3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="S3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="T3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="U3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="V3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="W3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="X3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z3" s="58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="str">
+        <f>'TC142-Sup2 Outbound Details'!M4</f>
+        <v>ONEU1162511</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="O4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="P4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="R4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="S4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="T4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="U4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="V4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="W4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="X4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z4" s="58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="str">
+        <f>'TC142-Sup2 Outbound Details'!M5</f>
+        <v>CNTW-SUP-C-230704001</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="J5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="K5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="L5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="M5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="N5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="O5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="P5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="R5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="S5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="T5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="U5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="V5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="W5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="X5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z5" s="58" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Files/Scenario 1/S1_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 1/S1_TestCases_Data.xlsx
@@ -1,595 +1,597 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawe\git\tb-ttap-brivge-v2-fatin\Excel Files\Scenario 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20878038-9AF4-44E6-BF6A-236448562A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{CB96B37C-4A46-4D35-9C65-8A4910C87DD1}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="547" firstSheet="118" activeTab="121" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="108" firstSheet="108" tabRatio="547" windowHeight="15840" windowWidth="29040" xWindow="28680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="AutoIncrement" sheetId="1" r:id="rId1"/>
-    <sheet name="TC001-Req to Parts Master" sheetId="2" r:id="rId2"/>
-    <sheet name="TC001-Description" sheetId="3" r:id="rId3"/>
-    <sheet name="TC001-Autogen" sheetId="4" r:id="rId4"/>
-    <sheet name="TC001.1" sheetId="5" r:id="rId5"/>
-    <sheet name="TC2-Contract Parts Info" sheetId="13" r:id="rId6"/>
-    <sheet name="TC2-BU1 to Customer Contract" sheetId="12" r:id="rId7"/>
-    <sheet name="TC002.1" sheetId="6" r:id="rId8"/>
-    <sheet name="TC3-Contract Parts Info" sheetId="17" r:id="rId9"/>
-    <sheet name="TC3-BU2 to BU1 Contract" sheetId="18" r:id="rId10"/>
-    <sheet name="TC003.1" sheetId="7" r:id="rId11"/>
-    <sheet name="TC4-Contract Parts Info" sheetId="22" r:id="rId12"/>
-    <sheet name="TC4-Sup2 to BU2 Contract" sheetId="23" r:id="rId13"/>
-    <sheet name="TC005.1" sheetId="8" r:id="rId14"/>
-    <sheet name="TC6-Contract Parts Info" sheetId="24" r:id="rId15"/>
-    <sheet name="TC6-BU3 to BU1 Contract" sheetId="25" r:id="rId16"/>
-    <sheet name="TC006.1" sheetId="9" r:id="rId17"/>
-    <sheet name="TC7-Contract Parts Info" sheetId="26" r:id="rId18"/>
-    <sheet name="TC7-Sup1 to BU3 Contract" sheetId="27" r:id="rId19"/>
-    <sheet name="TC10-Supplier2 Cargo Status" sheetId="28" r:id="rId20"/>
-    <sheet name="TC11-BU2 Cargo Status" sheetId="30" r:id="rId21"/>
-    <sheet name="TC12-Supplier1 Cargo Status" sheetId="32" r:id="rId22"/>
-    <sheet name="TC13-BU3 Cargo Status" sheetId="31" r:id="rId23"/>
-    <sheet name="TC14-BU1 Cargo Status" sheetId="33" r:id="rId24"/>
-    <sheet name="TC15-Customer Place Order" sheetId="29" r:id="rId25"/>
-    <sheet name="TC15-Inbound Date" sheetId="34" r:id="rId26"/>
-    <sheet name="TC15-AutoGen CO" sheetId="37" r:id="rId27"/>
-    <sheet name="TC17-Customer Change Order" sheetId="35" r:id="rId28"/>
-    <sheet name="TC17-Inbound Date Change" sheetId="36" r:id="rId29"/>
-    <sheet name="TC17-AutoGen ChangeRequestNo" sheetId="38" r:id="rId30"/>
-    <sheet name="TC20-Autogen SOPO" sheetId="39" r:id="rId31"/>
-    <sheet name="TC31-AutoGen ChangeRequestNo" sheetId="40" r:id="rId32"/>
-    <sheet name="TC34-BU1 Check Change1" sheetId="41" r:id="rId33"/>
-    <sheet name="TC34-BU1 Check Change2" sheetId="42" r:id="rId34"/>
-    <sheet name="TC35-BU2 Check Change" sheetId="43" r:id="rId35"/>
-    <sheet name="TC36-BU3 Check Change" sheetId="44" r:id="rId36"/>
-    <sheet name="TC37-Sup1 Check Change" sheetId="45" r:id="rId37"/>
-    <sheet name="TC38-Sup2 Check Change" sheetId="46" r:id="rId38"/>
-    <sheet name="TC43-BU1-Check Purchase Order2" sheetId="48" r:id="rId39"/>
-    <sheet name="TC43-BU1-Check Purchase Order3" sheetId="49" r:id="rId40"/>
-    <sheet name="TC44-BU1-Check Sales Order" sheetId="47" r:id="rId41"/>
-    <sheet name="TC45-Cus Check Customer Order" sheetId="50" r:id="rId42"/>
-    <sheet name="TC45-Cus Spot Order" sheetId="51" r:id="rId43"/>
-    <sheet name="TC45-Spot Date" sheetId="52" r:id="rId44"/>
-    <sheet name="TC47-Autogen OrderNo Spot" sheetId="54" r:id="rId45"/>
-    <sheet name="TC54-Sup2 Order Change Reg" sheetId="55" r:id="rId46"/>
-    <sheet name="TC54-Change Date" sheetId="56" r:id="rId47"/>
-    <sheet name="TC54-Change RequestNo" sheetId="57" r:id="rId48"/>
-    <sheet name="TC74-Sup1 Outbound Details" sheetId="58" r:id="rId49"/>
-    <sheet name="TC74-OutboundNo" sheetId="59" r:id="rId50"/>
-    <sheet name="TC75.1-Sup1 Cargo Tracking" sheetId="60" r:id="rId51"/>
-    <sheet name="TC75.2-Sup1 Cargo Tracking" sheetId="84" r:id="rId52"/>
-    <sheet name="TC75.3-Sup1 Cargo Tracking" sheetId="85" r:id="rId53"/>
-    <sheet name="TC82-Sup1 SO" sheetId="62" r:id="rId54"/>
-    <sheet name="TC83-BU3 PO" sheetId="63" r:id="rId55"/>
-    <sheet name="TC84-BU3 SO" sheetId="64" r:id="rId56"/>
-    <sheet name="TC85-BU1 PO" sheetId="65" r:id="rId57"/>
-    <sheet name="TC86-BU1 SO" sheetId="66" r:id="rId58"/>
-    <sheet name="TC87-Customer CO" sheetId="67" r:id="rId59"/>
-    <sheet name="TC88-Sup1 SellerGI Invoice" sheetId="61" r:id="rId60"/>
-    <sheet name="TC90-Sup1 Revise Shipment" sheetId="68" r:id="rId61"/>
-    <sheet name="TC93.1-Customer Cargo Tracking" sheetId="86" r:id="rId62"/>
-    <sheet name="TC93.2-Customer Cargo Tracking" sheetId="87" r:id="rId63"/>
-    <sheet name="TC93.3-Customer Cargo Tracking" sheetId="88" r:id="rId64"/>
-    <sheet name="TC97-DC3 Inbound Details" sheetId="70" r:id="rId65"/>
-    <sheet name="TC98-Sup1 SO" sheetId="71" r:id="rId66"/>
-    <sheet name="TC99-BU3 PO" sheetId="72" r:id="rId67"/>
-    <sheet name="TC100-BU3 SO" sheetId="73" r:id="rId68"/>
-    <sheet name="TC101-BU1 PO" sheetId="74" r:id="rId69"/>
-    <sheet name="TC102-BU1 SO" sheetId="75" r:id="rId70"/>
-    <sheet name="TC103-DC3 Revise Shipment" sheetId="76" r:id="rId71"/>
-    <sheet name="TC106.1-Sup1 Cargo Tracking" sheetId="89" r:id="rId72"/>
-    <sheet name="TC106.2-Sup1 Cargo Tracking" sheetId="90" r:id="rId73"/>
-    <sheet name="TC106.3-Sup1 Cargo Tracking" sheetId="91" r:id="rId74"/>
-    <sheet name="TC111-DC3 Outbound Details" sheetId="79" r:id="rId75"/>
-    <sheet name="TC111-OutboundNo" sheetId="80" r:id="rId76"/>
-    <sheet name="TC112-BU3 SO" sheetId="96" r:id="rId77"/>
-    <sheet name="TC113-BU1 PO" sheetId="97" r:id="rId78"/>
-    <sheet name="TC115-Customer CO" sheetId="99" r:id="rId79"/>
-    <sheet name="TC116.1-Customer Cargo Tracking" sheetId="92" r:id="rId80"/>
-    <sheet name="TC116.2-Customer Cargo Tracking" sheetId="93" r:id="rId81"/>
-    <sheet name="TC116.3-Customer Cargo Tracking" sheetId="94" r:id="rId82"/>
-    <sheet name="TC116.4-Customer Cargo Tracking" sheetId="95" r:id="rId83"/>
-    <sheet name="TC120-DC3 Shipping Details" sheetId="81" r:id="rId84"/>
-    <sheet name="TC124-DC3 Revise Shipment" sheetId="82" r:id="rId85"/>
-    <sheet name="TC128.1-Customer Cargo Tracking" sheetId="100" r:id="rId86"/>
-    <sheet name="TC128.2-Customer Cargo Tracking" sheetId="101" r:id="rId87"/>
-    <sheet name="TC128.3-Customer Cargo Tracking" sheetId="102" r:id="rId88"/>
-    <sheet name="TC128.4-Customer Cargo Tracking" sheetId="103" r:id="rId89"/>
-    <sheet name="TC132-BU2 SellerGI Invoice" sheetId="83" r:id="rId90"/>
-    <sheet name="TC136-BU3 Cargo Tracking" sheetId="104" r:id="rId91"/>
-    <sheet name="TC138-BU1 Cargo Tracking" sheetId="105" r:id="rId92"/>
-    <sheet name="TC142-Sup2 Outbound Details" sheetId="106" r:id="rId93"/>
-    <sheet name="TC142-OutboundNo" sheetId="107" r:id="rId94"/>
-    <sheet name="TC149-Customer Cargo Tracking" sheetId="108" r:id="rId95"/>
-    <sheet name="TC151-BU2 Cargo Tracking" sheetId="109" r:id="rId96"/>
-    <sheet name="TC156-Sup2 SellerGI Invoice" sheetId="110" r:id="rId97"/>
-    <sheet name="TC159-Sup2 Revise Shipment" sheetId="111" r:id="rId98"/>
-    <sheet name="TC162-Customer Cargo Tracking" sheetId="112" r:id="rId99"/>
-    <sheet name="TC165-Customer Cargo Tracking" sheetId="113" r:id="rId100"/>
-    <sheet name="TC168-DC2 Inbound Details" sheetId="114" r:id="rId101"/>
-    <sheet name="TC169-Sup2 SO" sheetId="117" r:id="rId102"/>
-    <sheet name="TC170-BU2 PO" sheetId="118" r:id="rId103"/>
-    <sheet name="TC171-BU2 SO" sheetId="119" r:id="rId104"/>
-    <sheet name="TC172-BU1 PO" sheetId="120" r:id="rId105"/>
-    <sheet name="TC173-BU1 SO" sheetId="121" r:id="rId106"/>
-    <sheet name="TC174-DC2 Outbound Details" sheetId="115" r:id="rId107"/>
-    <sheet name="TC174-OutboundNo" sheetId="116" r:id="rId108"/>
-    <sheet name="TC186-BU2 SellerGI Invoice" sheetId="123" r:id="rId109"/>
-    <sheet name="TC189-Customer Cargo Tracking" sheetId="124" r:id="rId110"/>
-    <sheet name="TC192-DC1 Inbound Details" sheetId="125" r:id="rId111"/>
-    <sheet name="TC197-DC1 Shipping Detail" sheetId="126" r:id="rId112"/>
-    <sheet name="TC198-Customer Cargo Tracking" sheetId="127" r:id="rId113"/>
-    <sheet name="TC202.1-BU3 Cargo Tracking" sheetId="131" r:id="rId114"/>
-    <sheet name="TC202.2-BU3 Cargo Tracking" sheetId="132" r:id="rId115"/>
-    <sheet name="TC202.3-BU3 Cargo Tracking" sheetId="133" r:id="rId116"/>
-    <sheet name="TC202.4-BU3 Cargo Tracking" sheetId="134" r:id="rId117"/>
-    <sheet name="TC204-DC1 Outbound Details" sheetId="135" r:id="rId118"/>
-    <sheet name="TC204-OutboundNo" sheetId="136" r:id="rId119"/>
-    <sheet name="TC205.1-BU1 SO-Regular" sheetId="137" r:id="rId120"/>
-    <sheet name="TC205.2-BU1 SO-Spot" sheetId="98" r:id="rId121"/>
-    <sheet name="TC206.1-Customer CO-Regular" sheetId="139" r:id="rId122"/>
-    <sheet name="TC206.2-Customer CO-Spot" sheetId="140" r:id="rId123"/>
+    <sheet name="AutoIncrement" r:id="rId1" sheetId="1"/>
+    <sheet name="TC001-Req to Parts Master" r:id="rId2" sheetId="2"/>
+    <sheet name="TC001-Description" r:id="rId3" sheetId="3"/>
+    <sheet name="TC001-Autogen" r:id="rId4" sheetId="4"/>
+    <sheet name="TC001.1" r:id="rId5" sheetId="5"/>
+    <sheet name="TC2-Contract Parts Info" r:id="rId6" sheetId="13"/>
+    <sheet name="TC2-BU1 to Customer Contract" r:id="rId7" sheetId="12"/>
+    <sheet name="TC002.1" r:id="rId8" sheetId="6"/>
+    <sheet name="TC3-Contract Parts Info" r:id="rId9" sheetId="17"/>
+    <sheet name="TC3-BU2 to BU1 Contract" r:id="rId10" sheetId="18"/>
+    <sheet name="TC003.1" r:id="rId11" sheetId="7"/>
+    <sheet name="TC4-Contract Parts Info" r:id="rId12" sheetId="22"/>
+    <sheet name="TC4-Sup2 to BU2 Contract" r:id="rId13" sheetId="23"/>
+    <sheet name="TC005.1" r:id="rId14" sheetId="8"/>
+    <sheet name="TC6-Contract Parts Info" r:id="rId15" sheetId="24"/>
+    <sheet name="TC6-BU3 to BU1 Contract" r:id="rId16" sheetId="25"/>
+    <sheet name="TC006.1" r:id="rId17" sheetId="9"/>
+    <sheet name="TC7-Contract Parts Info" r:id="rId18" sheetId="26"/>
+    <sheet name="TC7-Sup1 to BU3 Contract" r:id="rId19" sheetId="27"/>
+    <sheet name="TC10-Supplier2 Cargo Status" r:id="rId20" sheetId="28"/>
+    <sheet name="TC11-BU2 Cargo Status" r:id="rId21" sheetId="30"/>
+    <sheet name="TC12-Supplier1 Cargo Status" r:id="rId22" sheetId="32"/>
+    <sheet name="TC13-BU3 Cargo Status" r:id="rId23" sheetId="31"/>
+    <sheet name="TC14-BU1 Cargo Status" r:id="rId24" sheetId="33"/>
+    <sheet name="TC15-Customer Place Order" r:id="rId25" sheetId="29"/>
+    <sheet name="TC15-Inbound Date" r:id="rId26" sheetId="34"/>
+    <sheet name="TC15-AutoGen CO" r:id="rId27" sheetId="37"/>
+    <sheet name="TC17-Customer Change Order" r:id="rId28" sheetId="35"/>
+    <sheet name="TC17-Inbound Date Change" r:id="rId29" sheetId="36"/>
+    <sheet name="TC17-AutoGen ChangeRequestNo" r:id="rId30" sheetId="38"/>
+    <sheet name="TC20-Autogen SOPO" r:id="rId31" sheetId="39"/>
+    <sheet name="TC31-AutoGen ChangeRequestNo" r:id="rId32" sheetId="40"/>
+    <sheet name="TC34-BU1 Check Change1" r:id="rId33" sheetId="41"/>
+    <sheet name="TC34-BU1 Check Change2" r:id="rId34" sheetId="42"/>
+    <sheet name="TC35-BU2 Check Change" r:id="rId35" sheetId="43"/>
+    <sheet name="TC36-BU3 Check Change" r:id="rId36" sheetId="44"/>
+    <sheet name="TC37-Sup1 Check Change" r:id="rId37" sheetId="45"/>
+    <sheet name="TC38-Sup2 Check Change" r:id="rId38" sheetId="46"/>
+    <sheet name="TC43-BU1-Check Purchase Order2" r:id="rId39" sheetId="48"/>
+    <sheet name="TC43-BU1-Check Purchase Order3" r:id="rId40" sheetId="49"/>
+    <sheet name="TC44-BU1-Check Sales Order" r:id="rId41" sheetId="47"/>
+    <sheet name="TC45-Cus Check Customer Order" r:id="rId42" sheetId="50"/>
+    <sheet name="TC45-Cus Spot Order" r:id="rId43" sheetId="51"/>
+    <sheet name="TC45-Spot Date" r:id="rId44" sheetId="52"/>
+    <sheet name="TC47-Autogen OrderNo Spot" r:id="rId45" sheetId="54"/>
+    <sheet name="TC54-Sup2 Order Change Reg" r:id="rId46" sheetId="55"/>
+    <sheet name="TC54-Change Date" r:id="rId47" sheetId="56"/>
+    <sheet name="TC54-Change RequestNo" r:id="rId48" sheetId="57"/>
+    <sheet name="TC74-Sup1 Outbound Details" r:id="rId49" sheetId="58"/>
+    <sheet name="TC74-OutboundNo" r:id="rId50" sheetId="59"/>
+    <sheet name="TC75.1-Sup1 Cargo Tracking" r:id="rId51" sheetId="60"/>
+    <sheet name="TC75.2-Sup1 Cargo Tracking" r:id="rId52" sheetId="84"/>
+    <sheet name="TC75.3-Sup1 Cargo Tracking" r:id="rId53" sheetId="85"/>
+    <sheet name="TC82-Sup1 SO" r:id="rId54" sheetId="62"/>
+    <sheet name="TC83-BU3 PO" r:id="rId55" sheetId="63"/>
+    <sheet name="TC84-BU3 SO" r:id="rId56" sheetId="64"/>
+    <sheet name="TC85-BU1 PO" r:id="rId57" sheetId="65"/>
+    <sheet name="TC86-BU1 SO" r:id="rId58" sheetId="66"/>
+    <sheet name="TC87-Customer CO" r:id="rId59" sheetId="67"/>
+    <sheet name="TC88-Sup1 SellerGI Invoice" r:id="rId60" sheetId="61"/>
+    <sheet name="TC90-Sup1 Revise Shipment" r:id="rId61" sheetId="68"/>
+    <sheet name="TC93.1-Customer Cargo Tracking" r:id="rId62" sheetId="86"/>
+    <sheet name="TC93.2-Customer Cargo Tracking" r:id="rId63" sheetId="87"/>
+    <sheet name="TC93.3-Customer Cargo Tracking" r:id="rId64" sheetId="88"/>
+    <sheet name="TC97-DC3 Inbound Details" r:id="rId65" sheetId="70"/>
+    <sheet name="TC98-Sup1 SO" r:id="rId66" sheetId="71"/>
+    <sheet name="TC99-BU3 PO" r:id="rId67" sheetId="72"/>
+    <sheet name="TC100-BU3 SO" r:id="rId68" sheetId="73"/>
+    <sheet name="TC101-BU1 PO" r:id="rId69" sheetId="74"/>
+    <sheet name="TC102-BU1 SO" r:id="rId70" sheetId="75"/>
+    <sheet name="TC103-DC3 Revise Shipment" r:id="rId71" sheetId="76"/>
+    <sheet name="TC106.1-Sup1 Cargo Tracking" r:id="rId72" sheetId="89"/>
+    <sheet name="TC106.2-Sup1 Cargo Tracking" r:id="rId73" sheetId="90"/>
+    <sheet name="TC106.3-Sup1 Cargo Tracking" r:id="rId74" sheetId="91"/>
+    <sheet name="TC111-DC3 Outbound Details" r:id="rId75" sheetId="79"/>
+    <sheet name="TC111-OutboundNo" r:id="rId76" sheetId="80"/>
+    <sheet name="TC112-BU3 SO" r:id="rId77" sheetId="96"/>
+    <sheet name="TC113-BU1 PO" r:id="rId78" sheetId="97"/>
+    <sheet name="TC115-Customer CO" r:id="rId79" sheetId="99"/>
+    <sheet name="TC116.1-Customer Cargo Tracking" r:id="rId80" sheetId="92"/>
+    <sheet name="TC116.2-Customer Cargo Tracking" r:id="rId81" sheetId="93"/>
+    <sheet name="TC116.3-Customer Cargo Tracking" r:id="rId82" sheetId="94"/>
+    <sheet name="TC116.4-Customer Cargo Tracking" r:id="rId83" sheetId="95"/>
+    <sheet name="TC120-DC3 Shipping Details" r:id="rId84" sheetId="81"/>
+    <sheet name="TC124-DC3 Revise Shipment" r:id="rId85" sheetId="82"/>
+    <sheet name="TC128.1-Customer Cargo Tracking" r:id="rId86" sheetId="100"/>
+    <sheet name="TC128.2-Customer Cargo Tracking" r:id="rId87" sheetId="101"/>
+    <sheet name="TC128.3-Customer Cargo Tracking" r:id="rId88" sheetId="102"/>
+    <sheet name="TC128.4-Customer Cargo Tracking" r:id="rId89" sheetId="103"/>
+    <sheet name="TC132-BU2 SellerGI Invoice" r:id="rId90" sheetId="83"/>
+    <sheet name="TC136-BU3 Cargo Tracking" r:id="rId91" sheetId="104"/>
+    <sheet name="TC138-BU1 Cargo Tracking" r:id="rId92" sheetId="105"/>
+    <sheet name="TC142-Sup2 Outbound Details" r:id="rId93" sheetId="106"/>
+    <sheet name="TC142-OutboundNo" r:id="rId94" sheetId="107"/>
+    <sheet name="TC149-Customer Cargo Tracking" r:id="rId95" sheetId="108"/>
+    <sheet name="TC151-BU2 Cargo Tracking" r:id="rId96" sheetId="109"/>
+    <sheet name="TC156-Sup2 SellerGI Invoice" r:id="rId97" sheetId="110"/>
+    <sheet name="TC159-Sup2 Revise Shipment" r:id="rId98" sheetId="111"/>
+    <sheet name="TC162-Customer Cargo Tracking" r:id="rId99" sheetId="112"/>
+    <sheet name="TC165-Customer Cargo Tracking" r:id="rId100" sheetId="113"/>
+    <sheet name="TC168-DC2 Inbound Details" r:id="rId101" sheetId="114"/>
+    <sheet name="TC169-Sup2 SO" r:id="rId102" sheetId="117"/>
+    <sheet name="TC170-BU2 PO" r:id="rId103" sheetId="118"/>
+    <sheet name="TC171-BU2 SO" r:id="rId104" sheetId="119"/>
+    <sheet name="TC172-BU1 PO" r:id="rId105" sheetId="120"/>
+    <sheet name="TC173-BU1 SO" r:id="rId106" sheetId="121"/>
+    <sheet name="TC174-DC2 Outbound Details" r:id="rId107" sheetId="115"/>
+    <sheet name="TC174-OutboundNo" r:id="rId108" sheetId="116"/>
+    <sheet name="TC186-BU2 SellerGI Invoice" r:id="rId109" sheetId="123"/>
+    <sheet name="TC189-Customer Cargo Tracking" r:id="rId110" sheetId="124"/>
+    <sheet name="TC192-DC1 Inbound Details" r:id="rId111" sheetId="125"/>
+    <sheet name="TC197-DC1 Shipping Detail" r:id="rId112" sheetId="126"/>
+    <sheet name="TC198-Customer Cargo Tracking" r:id="rId113" sheetId="127"/>
+    <sheet name="TC202.1-BU3 Cargo Tracking" r:id="rId114" sheetId="131"/>
+    <sheet name="TC202.2-BU3 Cargo Tracking" r:id="rId115" sheetId="132"/>
+    <sheet name="TC202.3-BU3 Cargo Tracking" r:id="rId116" sheetId="133"/>
+    <sheet name="TC202.4-BU3 Cargo Tracking" r:id="rId117" sheetId="134"/>
+    <sheet name="TC204-DC1 Outbound Details" r:id="rId118" sheetId="135"/>
+    <sheet name="TC204-OutboundNo" r:id="rId119" sheetId="136"/>
+    <sheet name="TC205.1-BU1 SO-Regular" r:id="rId120" sheetId="137"/>
+    <sheet name="TC205.2-BU1 SO-Spot" r:id="rId121" sheetId="98"/>
+    <sheet name="TC206.1-Customer CO-Regular" r:id="rId122" sheetId="139"/>
+    <sheet name="TC206.2-Customer CO-Spot" r:id="rId123" sheetId="140"/>
+    <sheet name="TC207-BU1 Revise Shipment" r:id="rId124" sheetId="141"/>
+    <sheet name="TC214-BU1 SellerGI Invoice" r:id="rId125" sheetId="142"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId124"/>
-    <externalReference r:id="rId125"/>
     <externalReference r:id="rId126"/>
+    <externalReference r:id="rId127"/>
+    <externalReference r:id="rId128"/>
   </externalReferences>
   <definedNames>
-    <definedName name="activeFlagListArr" localSheetId="71">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="72">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="73">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="19">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="79">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="80">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="81">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="82">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="20">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="85">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="86">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="87">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="88">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="21">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="90">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="91">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="22">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="94">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="23">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="95">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="98">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="99">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="109">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="112">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="113">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="114">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="115">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="116">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="50">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="51">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="52">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="61">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="62">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="63">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="71" name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="72" name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="73" name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="19" name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="79" name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="80" name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="81" name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="82" name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="20" name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="85" name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="86" name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="87" name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="88" name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="21" name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="90" name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="91" name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="22" name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="94" name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="23" name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="95" name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="98" name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="99" name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="109" name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="112" name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="113" name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="114" name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="115" name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="116" name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="50" name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="51" name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="52" name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="61" name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="62" name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="63" name="activeFlagListArr">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr">#REF!</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="71">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="72">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="73">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="19">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="79">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="80">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="81">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="82">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="20">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="85">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="86">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="87">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="88">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="21">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="90">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="91">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="22">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="94">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="23">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="95">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="98">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="99">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="109">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="112">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="113">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="114">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="115">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="116">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="50">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="51">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="52">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="61">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="62">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="63">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="71" name="activeFlagStrArr">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="72" name="activeFlagStrArr">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="73" name="activeFlagStrArr">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="19" name="activeFlagStrArr">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="79" name="activeFlagStrArr">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="80" name="activeFlagStrArr">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="81" name="activeFlagStrArr">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="82" name="activeFlagStrArr">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="20" name="activeFlagStrArr">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="85" name="activeFlagStrArr">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="86" name="activeFlagStrArr">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="87" name="activeFlagStrArr">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="88" name="activeFlagStrArr">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="21" name="activeFlagStrArr">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="90" name="activeFlagStrArr">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="91" name="activeFlagStrArr">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="22" name="activeFlagStrArr">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="94" name="activeFlagStrArr">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="23" name="activeFlagStrArr">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="95" name="activeFlagStrArr">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="98" name="activeFlagStrArr">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="99" name="activeFlagStrArr">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="109" name="activeFlagStrArr">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="112" name="activeFlagStrArr">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="113" name="activeFlagStrArr">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="114" name="activeFlagStrArr">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="115" name="activeFlagStrArr">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="116" name="activeFlagStrArr">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="50" name="activeFlagStrArr">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="51" name="activeFlagStrArr">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="52" name="activeFlagStrArr">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="61" name="activeFlagStrArr">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="62" name="activeFlagStrArr">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="63" name="activeFlagStrArr">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr">#REF!</definedName>
     <definedName name="cargoStatus0">#REF!</definedName>
     <definedName name="cargoStatus1">#REF!</definedName>
     <definedName name="cargoStatus2">#REF!</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="71">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="72">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="73">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="19">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="79">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="80">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="81">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="82">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="20">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="85">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="86">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="87">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="88">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="21">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="90">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="91">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="22">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="94">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="23">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="95">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="98">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="99">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="109">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="112">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="113">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="114">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="115">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="116">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="50">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="51">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="52">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="61">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="62">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="63">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName localSheetId="71" name="CURRENCY_CODE">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName localSheetId="72" name="CURRENCY_CODE">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName localSheetId="73" name="CURRENCY_CODE">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName localSheetId="19" name="CURRENCY_CODE">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName localSheetId="79" name="CURRENCY_CODE">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName localSheetId="80" name="CURRENCY_CODE">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName localSheetId="81" name="CURRENCY_CODE">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName localSheetId="82" name="CURRENCY_CODE">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName localSheetId="20" name="CURRENCY_CODE">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName localSheetId="85" name="CURRENCY_CODE">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName localSheetId="86" name="CURRENCY_CODE">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName localSheetId="87" name="CURRENCY_CODE">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName localSheetId="88" name="CURRENCY_CODE">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName localSheetId="21" name="CURRENCY_CODE">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName localSheetId="90" name="CURRENCY_CODE">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName localSheetId="91" name="CURRENCY_CODE">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName localSheetId="22" name="CURRENCY_CODE">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName localSheetId="94" name="CURRENCY_CODE">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName localSheetId="23" name="CURRENCY_CODE">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName localSheetId="95" name="CURRENCY_CODE">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName localSheetId="98" name="CURRENCY_CODE">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName localSheetId="99" name="CURRENCY_CODE">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName localSheetId="109" name="CURRENCY_CODE">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName localSheetId="112" name="CURRENCY_CODE">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName localSheetId="113" name="CURRENCY_CODE">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName localSheetId="114" name="CURRENCY_CODE">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName localSheetId="115" name="CURRENCY_CODE">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName localSheetId="116" name="CURRENCY_CODE">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName localSheetId="50" name="CURRENCY_CODE">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName localSheetId="51" name="CURRENCY_CODE">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName localSheetId="52" name="CURRENCY_CODE">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName localSheetId="61" name="CURRENCY_CODE">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName localSheetId="62" name="CURRENCY_CODE">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName localSheetId="63" name="CURRENCY_CODE">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE">#REF!</definedName>
-    <definedName name="findAllUomArr" localSheetId="71">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="72">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="73">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="19">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="79">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="80">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="81">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="82">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="20">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="85">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="86">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="87">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="88">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="21">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="90">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="91">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="22">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="94">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="23">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="95">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="98">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="99">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="109">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="112">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="113">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="114">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="115">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="116">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="50">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="51">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="52">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="61">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="62">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="63">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="71" name="findAllUomArr">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="72" name="findAllUomArr">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="73" name="findAllUomArr">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="19" name="findAllUomArr">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="79" name="findAllUomArr">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="80" name="findAllUomArr">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="81" name="findAllUomArr">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="82" name="findAllUomArr">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="20" name="findAllUomArr">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="85" name="findAllUomArr">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="86" name="findAllUomArr">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="87" name="findAllUomArr">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="88" name="findAllUomArr">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="21" name="findAllUomArr">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="90" name="findAllUomArr">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="91" name="findAllUomArr">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="22" name="findAllUomArr">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="94" name="findAllUomArr">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="23" name="findAllUomArr">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="95" name="findAllUomArr">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="98" name="findAllUomArr">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="99" name="findAllUomArr">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="109" name="findAllUomArr">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="112" name="findAllUomArr">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="113" name="findAllUomArr">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="114" name="findAllUomArr">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="115" name="findAllUomArr">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="116" name="findAllUomArr">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="50" name="findAllUomArr">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="51" name="findAllUomArr">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="52" name="findAllUomArr">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="61" name="findAllUomArr">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="62" name="findAllUomArr">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="63" name="findAllUomArr">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="4">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="7">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="10">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="13">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="16">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="71">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="72">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="73">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="19">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="79">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="80">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="81">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="82">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="20">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="85">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="86">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="87">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="88">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="21">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="90">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="91">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="22">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="94">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="23">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="95">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="98">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="99">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="109">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="112">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="113">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="114">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="115">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="116">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="50">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="51">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="52">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="61">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="62">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="63">#REF!</definedName>
+    <definedName localSheetId="4" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="7" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="10" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="13" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="16" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="71" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="72" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="73" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="19" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="79" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="80" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="81" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="82" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="20" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="85" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="86" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="87" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="88" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="21" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="90" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="91" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="22" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="94" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="23" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="95" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="98" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="99" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="109" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="112" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="113" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="114" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="115" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="116" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="50" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="51" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="52" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="61" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="62" name="PAIRED_FLAG">#REF!</definedName>
+    <definedName localSheetId="63" name="PAIRED_FLAG">#REF!</definedName>
     <definedName name="PAIRED_FLAG">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="4">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="7">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="10">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="13">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="16">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="71">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="72">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="73">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="19">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="79">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="80">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="81">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="82">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="20">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="85">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="86">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="87">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="88">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="21">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="90">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="91">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="22">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="94">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="23">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="95">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="98">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="99">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="109">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="112">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="113">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="114">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="115">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="116">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="50">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="51">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="52">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="61">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="62">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="63">#REF!</definedName>
+    <definedName localSheetId="4" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="7" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="10" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="13" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="16" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="71" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="72" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="73" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="19" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="79" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="80" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="81" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="82" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="20" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="85" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="86" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="87" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="88" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="21" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="90" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="91" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="22" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="94" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="23" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="95" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="98" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="99" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="109" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="112" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="113" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="114" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="115" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="116" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="50" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="51" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="52" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="61" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="62" name="PAIRED_ORDER_FLAG">#REF!</definedName>
+    <definedName localSheetId="63" name="PAIRED_ORDER_FLAG">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG">#REF!</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="71">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="72">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="73">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="19">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="79">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="80">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="81">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="82">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="20">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="85">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="86">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="87">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="88">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="21">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="90">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="91">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="22">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="94">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="23">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="95">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="98">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="99">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="109">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="112">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="113">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="114">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="115">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="116">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="50">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="51">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="52">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="61">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="62">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="63">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="71" name="pairedPartsFlagStrArr">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="72" name="pairedPartsFlagStrArr">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="73" name="pairedPartsFlagStrArr">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="19" name="pairedPartsFlagStrArr">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="79" name="pairedPartsFlagStrArr">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="80" name="pairedPartsFlagStrArr">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="81" name="pairedPartsFlagStrArr">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="82" name="pairedPartsFlagStrArr">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="20" name="pairedPartsFlagStrArr">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="85" name="pairedPartsFlagStrArr">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="86" name="pairedPartsFlagStrArr">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="87" name="pairedPartsFlagStrArr">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="88" name="pairedPartsFlagStrArr">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="21" name="pairedPartsFlagStrArr">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="90" name="pairedPartsFlagStrArr">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="91" name="pairedPartsFlagStrArr">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="22" name="pairedPartsFlagStrArr">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="94" name="pairedPartsFlagStrArr">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="23" name="pairedPartsFlagStrArr">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="95" name="pairedPartsFlagStrArr">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="98" name="pairedPartsFlagStrArr">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="99" name="pairedPartsFlagStrArr">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="109" name="pairedPartsFlagStrArr">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="112" name="pairedPartsFlagStrArr">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="113" name="pairedPartsFlagStrArr">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="114" name="pairedPartsFlagStrArr">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="115" name="pairedPartsFlagStrArr">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="116" name="pairedPartsFlagStrArr">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="50" name="pairedPartsFlagStrArr">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="51" name="pairedPartsFlagStrArr">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="52" name="pairedPartsFlagStrArr">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="61" name="pairedPartsFlagStrArr">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="62" name="pairedPartsFlagStrArr">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="63" name="pairedPartsFlagStrArr">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr">#REF!</definedName>
-    <definedName name="partsTypeArr" localSheetId="71">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="72">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="73">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="19">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="79">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="80">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="81">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="82">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="20">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="85">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="86">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="87">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="88">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="21">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="90">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="91">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="22">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="94">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="23">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="95">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="98">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="99">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="109">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="112">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="113">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="114">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="115">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="116">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="50">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="51">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="52">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="61">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="62">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="63">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName localSheetId="71" name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName localSheetId="72" name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName localSheetId="73" name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName localSheetId="19" name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName localSheetId="79" name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName localSheetId="80" name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName localSheetId="81" name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName localSheetId="82" name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName localSheetId="20" name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName localSheetId="85" name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName localSheetId="86" name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName localSheetId="87" name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName localSheetId="88" name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName localSheetId="21" name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName localSheetId="90" name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName localSheetId="91" name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName localSheetId="22" name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName localSheetId="94" name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName localSheetId="23" name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName localSheetId="95" name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName localSheetId="98" name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName localSheetId="99" name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName localSheetId="109" name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName localSheetId="112" name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName localSheetId="113" name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName localSheetId="114" name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName localSheetId="115" name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName localSheetId="116" name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName localSheetId="50" name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName localSheetId="51" name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName localSheetId="52" name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName localSheetId="61" name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName localSheetId="62" name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName localSheetId="63" name="partsTypeArr">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="4">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="7">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="10">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="13">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="16">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="71">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="72">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="73">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="19">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="79">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="80">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="81">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="82">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="20">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="85">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="86">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="87">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="88">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="21">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="90">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="91">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="22">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="94">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="23">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="95">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="98">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="99">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="109">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="112">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="113">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="114">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="115">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="116">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="50">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="51">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="52">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="61">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="62">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="63">#REF!</definedName>
+    <definedName localSheetId="4" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="7" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="10" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="13" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="16" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="71" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="72" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="73" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="19" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="79" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="80" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="81" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="82" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="20" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="85" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="86" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="87" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="88" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="21" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="90" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="91" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="22" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="94" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="23" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="95" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="98" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="99" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="109" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="112" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="113" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="114" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="115" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="116" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="50" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="51" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="52" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="61" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="62" name="REPACKING_TYPE">#REF!</definedName>
+    <definedName localSheetId="63" name="REPACKING_TYPE">#REF!</definedName>
     <definedName name="REPACKING_TYPE">#REF!</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="71">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="72">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="73">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="19">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="79">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="80">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="81">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="82">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="20">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="85">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="86">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="87">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="88">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="21">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="90">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="91">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="22">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="94">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="23">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="95">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="98">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="99">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="109">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="112">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="113">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="114">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="115">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="116">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="50">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="51">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="52">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="61">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="62">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="63">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="71" name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="72" name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="73" name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="19" name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="79" name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="80" name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="81" name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="82" name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="20" name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="85" name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="86" name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="87" name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="88" name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="21" name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="90" name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="91" name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="22" name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="94" name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="23" name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="95" name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="98" name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="99" name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="109" name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="112" name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="113" name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="114" name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="115" name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="116" name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="50" name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="51" name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="52" name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="61" name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="62" name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName localSheetId="63" name="rolledPartsFlagArr">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr">#REF!</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="71">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="72">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="73">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="19">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="79">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="80">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="81">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="82">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="20">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="85">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="86">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="87">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="88">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="21">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="90">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="91">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="22">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="94">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="23">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="95">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="98">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="99">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="109">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="112">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="113">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="114">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="115">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="116">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="50">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="51">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="52">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="61">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="62">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="63">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="71" name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="72" name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="73" name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="19" name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="79" name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="80" name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="81" name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="82" name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="20" name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="85" name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="86" name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="87" name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="88" name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="21" name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="90" name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="91" name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="22" name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="94" name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="23" name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="95" name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="98" name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="99" name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="109" name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="112" name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="113" name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="114" name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="115" name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="116" name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="50" name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="51" name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="52" name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="61" name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="62" name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName localSheetId="63" name="rolledPartsUomArr">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="4">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="7">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="10">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="13">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="16">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="71">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="72">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="73">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="19">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="79">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="80">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="81">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="82">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="20">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="85">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="86">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="87">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="88">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="21">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="90">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="91">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="22">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="94">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="23">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="95">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="98">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="99">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="109">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="112">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="113">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="114">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="115">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="116">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="50">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="51">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="52">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="61">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="62">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="63">#REF!</definedName>
+    <definedName localSheetId="4" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="7" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="10" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="13" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="16" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="71" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="72" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="73" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="19" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="79" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="80" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="81" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="82" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="20" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="85" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="86" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="87" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="88" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="21" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="90" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="91" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="22" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="94" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="23" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="95" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="98" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="99" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="109" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="112" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="113" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="114" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="115" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="116" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="50" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="51" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="52" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="61" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="62" name="UOM_CODE">#REF!</definedName>
+    <definedName localSheetId="63" name="UOM_CODE">#REF!</definedName>
     <definedName name="UOM_CODE">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -608,7 +610,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4861" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4926" uniqueCount="492">
   <si>
     <t>No</t>
   </si>
@@ -2066,6 +2068,54 @@
   </si>
   <si>
     <t>o-PK-CUS-DC-231031006</t>
+  </si>
+  <si>
+    <t>Inbound Plan Qty 3</t>
+  </si>
+  <si>
+    <t>Inbound Plan Status 3</t>
+  </si>
+  <si>
+    <t>Inbound Plan Qty 4</t>
+  </si>
+  <si>
+    <t>Inbound Plan Status 4</t>
+  </si>
+  <si>
+    <t>V-1</t>
+  </si>
+  <si>
+    <t>V-2</t>
+  </si>
+  <si>
+    <t>Vessel-1</t>
+  </si>
+  <si>
+    <t>Vessel-2</t>
+  </si>
+  <si>
+    <t>BL-1</t>
+  </si>
+  <si>
+    <t>BL-2</t>
+  </si>
+  <si>
+    <t>PK12310014</t>
+  </si>
+  <si>
+    <t>PK12310015</t>
+  </si>
+  <si>
+    <t>PK12310016</t>
+  </si>
+  <si>
+    <t>PK12310017</t>
+  </si>
+  <si>
+    <t>PK12310018</t>
+  </si>
+  <si>
+    <t>PK12310019</t>
   </si>
 </sst>
 </file>
@@ -2277,224 +2327,228 @@
     </border>
   </borders>
   <cellStyleXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="77">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="4" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="6" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="2">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="5" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="4">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="168" xfId="3">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="169" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="170" xfId="5"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="43" xfId="5"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="169" xfId="4">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="171" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="3">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="3">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="172" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="3">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="167" xfId="6">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="173" xfId="6">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="6">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="3">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="6">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Comma" xfId="5" builtinId="3"/>
+    <cellStyle builtinId="3" name="Comma" xfId="5"/>
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{5DDC284F-6DE0-4840-BBBF-4F7780A81C17}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{B7213C7D-E029-46F8-828C-024E4283D935}"/>
     <cellStyle name="Normal 2 2" xfId="6" xr:uid="{932292EB-6B04-4FEC-8BA6-46C549172F91}"/>
     <cellStyle name="Normal 6 2" xfId="4" xr:uid="{966AEB45-5942-4F32-92C4-BAD55B237D99}"/>
     <cellStyle name="常规 2" xfId="3" xr:uid="{89E06330-DA94-459B-835A-8373A5A8B485}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3006,10 +3060,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3044,7 +3098,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3079,7 +3133,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3173,21 +3227,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3204,7 +3258,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3256,15 +3310,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11:E13"/>
@@ -3272,9 +3326,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="7" width="30.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.109375" collapsed="true"/>
+    <col min="3" max="7" customWidth="true" width="30.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -3385,19 +3439,19 @@
         <v>CSS-PB1-06</v>
       </c>
       <c r="D5" s="29" t="str">
-        <f t="shared" ref="D5:G5" si="0">"CSS-"&amp;D3</f>
+        <f ref="D5:G5" si="0" t="shared">"CSS-"&amp;D3</f>
         <v>CSS-PB2-06</v>
       </c>
       <c r="E5" s="29" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>CSS-PB3-06</v>
       </c>
       <c r="F5" s="29" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>CSS-PS2-06</v>
       </c>
       <c r="G5" s="29" t="str">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>CSS-PS1-06</v>
       </c>
     </row>
@@ -3462,10 +3516,10 @@
       <c r="C11" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="74" t="s">
+      <c r="E11" s="75" t="s">
         <v>82</v>
       </c>
       <c r="F11" s="38" t="s">
@@ -3485,8 +3539,8 @@
       <c r="C12" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
       <c r="F12" s="39" t="s">
         <v>202</v>
       </c>
@@ -3504,8 +3558,8 @@
       <c r="C13" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
       <c r="F13" s="40" t="s">
         <v>84</v>
       </c>
@@ -3555,10 +3609,10 @@
       <c r="C16" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="74" t="s">
+      <c r="E16" s="75" t="s">
         <v>85</v>
       </c>
       <c r="F16" s="38" t="s">
@@ -3578,8 +3632,8 @@
       <c r="C17" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
       <c r="F17" s="43" t="s">
         <v>201</v>
       </c>
@@ -3597,8 +3651,8 @@
       <c r="C18" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
       <c r="F18" s="40" t="s">
         <v>87</v>
       </c>
@@ -3639,25 +3693,25 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="D11:D13"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FCBDCA-F7C1-463C-AE89-9DF0BC88D279}">
-  <dimension ref="A1:W6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FCBDCA-F7C1-463C-AE89-9DF0BC88D279}">
+  <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="21" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="25.77734375" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="4.77734375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="4" max="21" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="15.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
@@ -3818,13 +3872,13 @@
       <c r="W6" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C9A5B1-29D7-4956-B172-4B5608553D94}">
-  <dimension ref="A1:Z5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C9A5B1-29D7-4956-B172-4B5608553D94}">
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
@@ -3832,9 +3886,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="26" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="27" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.6640625" collapsed="true"/>
+    <col min="3" max="26" customWidth="true" style="2" width="20.6640625" collapsed="true"/>
+    <col min="27" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
@@ -4238,13 +4292,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8116E47-E965-422A-8693-76DDFCA1FEA2}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8116E47-E965-422A-8693-76DDFCA1FEA2}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
@@ -4252,8 +4306,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="28.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -4280,7 +4334,7 @@
         <v>i-SG-TTAP-DC-PS2-06-2310001</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B5" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
+        <f ca="1" ref="B3:B5" si="0" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
         <v>31 Oct 2023</v>
       </c>
     </row>
@@ -4290,7 +4344,7 @@
         <v>i-SG-TTAP-DC-PS2-06-2310001</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>31 Oct 2023</v>
       </c>
     </row>
@@ -4300,18 +4354,18 @@
         <v>i-SG-TTAP-DC-PS2-06-2310002</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>31 Oct 2023</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FD3DC9-8455-454F-900B-CE0142DEF889}">
-  <dimension ref="A1:R4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FD3DC9-8455-454F-900B-CE0142DEF889}">
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2:J4"/>
@@ -4319,9 +4373,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23" customWidth="1" collapsed="1"/>
-    <col min="3" max="18" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="3" max="18" customWidth="true" width="15.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -4549,14 +4603,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FC9381-9C44-4D71-A046-E8E5257B8C2C}">
-  <dimension ref="A1:Q4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FC9381-9C44-4D71-A046-E8E5257B8C2C}">
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2:Q4"/>
@@ -4564,7 +4618,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="17" customWidth="true" width="15.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,14 +4834,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E273E9C-D253-448A-A191-322A7F577CB9}">
-  <dimension ref="A1:R4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E273E9C-D253-448A-A191-322A7F577CB9}">
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
@@ -4795,7 +4849,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="18" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="15.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -5023,14 +5077,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FED2218-D12D-4A7B-A04C-1FA7717B8908}">
-  <dimension ref="A1:Q4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FED2218-D12D-4A7B-A04C-1FA7717B8908}">
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD5"/>
@@ -5038,7 +5092,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="17" customWidth="true" width="15.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -5254,14 +5308,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2A4775-C7A0-48C6-8AE9-8CE8204A2253}">
-  <dimension ref="A1:V7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2A4775-C7A0-48C6-8AE9-8CE8204A2253}">
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
@@ -5269,7 +5323,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="22" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="22" customWidth="true" width="15.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -5774,14 +5828,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F07E8E-A8B2-4548-8662-EE82B48E5DAA}">
-  <dimension ref="A1:AH5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F07E8E-A8B2-4548-8662-EE82B48E5DAA}">
+  <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
@@ -5789,21 +5843,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="68" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.77734375" style="68" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.109375" style="68" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.77734375" style="68" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.5546875" style="68" customWidth="1" collapsed="1"/>
-    <col min="6" max="18" width="15.77734375" style="68" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="24.109375" style="68" customWidth="1" collapsed="1"/>
-    <col min="20" max="23" width="15.77734375" style="68" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="22.5546875" style="68" customWidth="1" collapsed="1"/>
-    <col min="25" max="30" width="15.77734375" style="68" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="21.109375" style="68" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="25.6640625" style="68" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.77734375" style="68" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="27.21875" style="68" customWidth="1" collapsed="1"/>
-    <col min="35" max="16384" width="8.88671875" style="68" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="68" width="4.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="68" width="15.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="68" width="31.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="68" width="15.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="68" width="22.5546875" collapsed="true"/>
+    <col min="6" max="18" customWidth="true" style="68" width="15.77734375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="68" width="24.109375" collapsed="true"/>
+    <col min="20" max="23" customWidth="true" style="68" width="15.77734375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="68" width="22.5546875" collapsed="true"/>
+    <col min="25" max="30" customWidth="true" style="68" width="15.77734375" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="68" width="21.109375" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="68" width="25.6640625" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="68" width="15.77734375" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="68" width="27.21875" collapsed="true"/>
+    <col min="35" max="16384" style="68" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
@@ -6034,7 +6088,7 @@
         <v>o-SG-TTAP-DC-PS2-06-2310001</v>
       </c>
       <c r="D3" s="68" t="str">
-        <f t="shared" ref="D3:D5" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
+        <f ca="1" ref="D3:D5" si="0" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
         <v>31 Oct 2023</v>
       </c>
       <c r="E3" s="68" t="str">
@@ -6146,7 +6200,7 @@
         <v>o-SG-TTAP-DC-PS2-06-2310001</v>
       </c>
       <c r="D4" s="68" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>31 Oct 2023</v>
       </c>
       <c r="E4" s="68" t="str">
@@ -6258,7 +6312,7 @@
         <v>o-SG-TTAP-DC-PS2-06-2310002</v>
       </c>
       <c r="D5" s="68" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>31 Oct 2023</v>
       </c>
       <c r="F5" s="68" t="s">
@@ -6343,13 +6397,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D846E8D1-B40C-4EA1-A7DE-A4F2ACF687C9}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D846E8D1-B40C-4EA1-A7DE-A4F2ACF687C9}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -6357,8 +6411,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="28.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -6388,22 +6442,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA562B8C-4E20-40A9-B811-F501179C18C8}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA562B8C-4E20-40A9-B811-F501179C18C8}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -6433,25 +6487,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A76425-F8C5-4BE4-AB78-B11CF11B8367}">
-  <dimension ref="A1:X2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A76425-F8C5-4BE4-AB78-B11CF11B8367}">
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="24" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="25" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="24" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="25" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row ht="14.4" r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
@@ -6525,7 +6579,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>113</v>
       </c>
@@ -6597,13 +6651,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BF097F-D619-46B3-8EE6-5FFD64FAA663}">
-  <dimension ref="A1:Z8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BF097F-D619-46B3-8EE6-5FFD64FAA663}">
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -6611,9 +6665,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="26" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="27" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.6640625" collapsed="true"/>
+    <col min="3" max="26" customWidth="true" style="2" width="20.6640625" collapsed="true"/>
+    <col min="27" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
@@ -7263,13 +7317,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9239F5C2-D292-42C8-A6DA-300B765BC8BB}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9239F5C2-D292-42C8-A6DA-300B765BC8BB}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
@@ -7277,8 +7331,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="28.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -7305,7 +7359,7 @@
         <v>i-PK-CUS-DC-PS2-06-2310004</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B9" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
+        <f ca="1" ref="B3:B9" si="0" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
         <v>31 Oct 2023</v>
       </c>
     </row>
@@ -7315,7 +7369,7 @@
         <v>i-PK-CUS-DC-PS2-06-2310005</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>31 Oct 2023</v>
       </c>
     </row>
@@ -7325,7 +7379,7 @@
         <v>i-PK-CUS-DC-PS2-06-2310005</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>31 Oct 2023</v>
       </c>
     </row>
@@ -7335,7 +7389,7 @@
         <v>i-PK-CUS-DC-PS2-06-2310001</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>31 Oct 2023</v>
       </c>
     </row>
@@ -7345,7 +7399,7 @@
         <v>i-PK-CUS-DC-PS2-06-2310001</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>31 Oct 2023</v>
       </c>
     </row>
@@ -7355,7 +7409,7 @@
         <v>i-PK-CUS-DC-PS2-06-2310001</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>31 Oct 2023</v>
       </c>
     </row>
@@ -7365,18 +7419,18 @@
         <v>i-PK-CUS-DC-PS2-06-2310002</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>31 Oct 2023</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFED21D6-6F8B-455C-A709-69BBEFFF5A14}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFED21D6-6F8B-455C-A709-69BBEFFF5A14}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -7384,8 +7438,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="20.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="20.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -7448,13 +7502,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786791D2-EED2-4282-B662-7CAE12AD60B1}">
-  <dimension ref="A1:Z8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786791D2-EED2-4282-B662-7CAE12AD60B1}">
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView topLeftCell="N7" workbookViewId="0">
       <selection activeCell="R21" sqref="R21"/>
@@ -7462,9 +7516,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="26" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="27" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.6640625" collapsed="true"/>
+    <col min="3" max="26" customWidth="true" style="2" width="20.6640625" collapsed="true"/>
+    <col min="27" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
@@ -8114,13 +8168,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C629F7-19B9-47D6-9C8E-5A77F5AC0864}">
-  <dimension ref="A1:V3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C629F7-19B9-47D6-9C8E-5A77F5AC0864}">
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="M43" sqref="M43"/>
@@ -8128,9 +8182,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="22" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="23" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.6640625" collapsed="true"/>
+    <col min="3" max="22" customWidth="true" style="2" width="20.6640625" collapsed="true"/>
+    <col min="23" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -8342,13 +8396,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FEF123-A1B5-4CDF-B51C-D45CE237A4C5}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FEF123-A1B5-4CDF-B51C-D45CE237A4C5}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
@@ -8356,9 +8410,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="15" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.6640625" collapsed="true"/>
+    <col min="3" max="15" customWidth="true" style="2" width="20.6640625" collapsed="true"/>
+    <col min="16" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -8458,13 +8512,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5000B011-4769-4E9A-A947-34E6231FB82D}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5000B011-4769-4E9A-A947-34E6231FB82D}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
@@ -8472,9 +8526,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="15" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.6640625" collapsed="true"/>
+    <col min="3" max="15" customWidth="true" style="2" width="20.6640625" collapsed="true"/>
+    <col min="16" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -8524,7 +8578,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="13.2" r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E4</f>
         <v>SP1-PS2-06-2310001</v>
@@ -8574,13 +8628,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7483A7FB-817C-448D-9FA1-492D7F03AB1A}">
-  <dimension ref="A1:AK4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7483A7FB-817C-448D-9FA1-492D7F03AB1A}">
+  <dimension ref="A1:AL4"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D4" sqref="D4:AK4"/>
@@ -8588,12 +8642,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="22" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="24" max="27" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="28" max="37" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="38" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.6640625" collapsed="true"/>
+    <col min="3" max="22" customWidth="true" style="2" width="20.6640625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="24" max="27" customWidth="true" style="2" width="20.6640625" collapsed="true"/>
+    <col min="28" max="37" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="38" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
@@ -9051,35 +9105,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B137BAE1-B930-4B5D-AF31-3E1874611571}">
-  <dimension ref="A1:AG9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B137BAE1-B930-4B5D-AF31-3E1874611571}">
+  <dimension ref="A1:AH9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="68" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.77734375" style="68" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.109375" style="68" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.77734375" style="68" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.5546875" style="68" customWidth="1" collapsed="1"/>
-    <col min="6" max="16" width="15.77734375" style="68" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="24.109375" style="68" customWidth="1" collapsed="1"/>
-    <col min="18" max="21" width="15.77734375" style="68" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="22.5546875" style="68" customWidth="1" collapsed="1"/>
-    <col min="23" max="28" width="15.77734375" style="68" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="21.109375" style="68" customWidth="1" collapsed="1"/>
-    <col min="30" max="31" width="25.6640625" style="68" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="15.77734375" style="68" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="27.21875" style="68" customWidth="1" collapsed="1"/>
-    <col min="34" max="16384" width="8.88671875" style="68" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="68" width="4.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="68" width="15.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="68" width="31.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="68" width="15.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="68" width="22.5546875" collapsed="true"/>
+    <col min="6" max="16" customWidth="true" style="68" width="15.77734375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="68" width="24.109375" collapsed="true"/>
+    <col min="18" max="21" customWidth="true" style="68" width="15.77734375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="68" width="22.5546875" collapsed="true"/>
+    <col min="23" max="28" customWidth="true" style="68" width="15.77734375" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="68" width="21.109375" collapsed="true"/>
+    <col min="30" max="31" customWidth="true" style="68" width="25.6640625" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="68" width="15.77734375" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="68" width="27.21875" collapsed="true"/>
+    <col min="34" max="16384" style="68" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
@@ -9302,7 +9356,7 @@
         <v>o-PK-CUS-DC-PS2-06-2310001</v>
       </c>
       <c r="D3" s="68" t="str">
-        <f t="shared" ref="D3:D9" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
+        <f ca="1" ref="D3:D9" si="0" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
         <v>31 Oct 2023</v>
       </c>
       <c r="E3" s="68" t="str">
@@ -9409,7 +9463,7 @@
         <v>o-PK-CUS-DC-PS2-06-2310001</v>
       </c>
       <c r="D4" s="68" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>31 Oct 2023</v>
       </c>
       <c r="E4" s="68" t="str">
@@ -9516,7 +9570,7 @@
         <v>o-PK-CUS-DC-PS2-06-2310002</v>
       </c>
       <c r="D5" s="68" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>31 Oct 2023</v>
       </c>
       <c r="F5" s="68" t="s">
@@ -9609,7 +9663,7 @@
         <v>o-PK-CUS-DC-PS2-06-2310003</v>
       </c>
       <c r="D6" s="68" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>31 Oct 2023</v>
       </c>
       <c r="E6" s="68" t="str">
@@ -9712,7 +9766,7 @@
         <v>o-PK-CUS-DC-PS2-06-2310004</v>
       </c>
       <c r="D7" s="68" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>31 Oct 2023</v>
       </c>
       <c r="E7" s="68" t="str">
@@ -9819,7 +9873,7 @@
         <v>o-PK-CUS-DC-PS2-06-2310005</v>
       </c>
       <c r="D8" s="68" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>31 Oct 2023</v>
       </c>
       <c r="E8" s="68" t="str">
@@ -9926,7 +9980,7 @@
         <v>o-PK-CUS-DC-PS2-06-2310006</v>
       </c>
       <c r="D9" s="68" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>31 Oct 2023</v>
       </c>
       <c r="E9" s="68" t="str">
@@ -10022,13 +10076,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0128EDA1-566A-4405-9CB0-3F38A9C7F4F1}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0128EDA1-566A-4405-9CB0-3F38A9C7F4F1}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -10036,8 +10090,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -10103,24 +10157,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861A0427-8C31-4BE2-9BBE-CBD261D1FA5A}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861A0427-8C31-4BE2-9BBE-CBD261D1FA5A}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.5546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="35.5546875" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="4" max="6" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="7" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -10209,18 +10263,18 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{43FBCDF0-1E48-4263-880D-9525C12BE205}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="E2:E4" type="list" xr:uid="{43FBCDF0-1E48-4263-880D-9525C12BE205}">
       <formula1>CURRENCY_CODE</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70577FD9-CA84-46C6-AD1E-DF07144CB47C}">
-  <dimension ref="A1:V7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70577FD9-CA84-46C6-AD1E-DF07144CB47C}">
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
@@ -10228,7 +10282,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="22" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="22" customWidth="true" width="15.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -10732,14 +10786,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508C75F4-9487-47EE-9DA3-8D744FCFCEE9}">
-  <dimension ref="A1:R4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508C75F4-9487-47EE-9DA3-8D744FCFCEE9}">
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="Q26" sqref="Q26"/>
@@ -10747,7 +10801,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="18" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="15.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -10984,25 +11038,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47916C1-3BA9-4151-B6D5-49B8BA285E50}">
-  <dimension ref="A1:Q7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47916C1-3BA9-4151-B6D5-49B8BA285E50}">
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="21" customWidth="true" width="15.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>132</v>
       </c>
@@ -11054,8 +11108,20 @@
       <c r="Q1" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" t="s">
+        <v>476</v>
+      </c>
+      <c r="S1" t="s">
+        <v>477</v>
+      </c>
+      <c r="T1" t="s">
+        <v>478</v>
+      </c>
+      <c r="U1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>'TC2-Contract Parts Info'!B2</f>
         <v>s1001</v>
@@ -11111,8 +11177,20 @@
       <c r="Q2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>264</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>'TC2-Contract Parts Info'!B3</f>
         <v>s1002</v>
@@ -11168,8 +11246,20 @@
       <c r="Q3" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>264</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>'TC2-Contract Parts Info'!B4</f>
         <v>s1003</v>
@@ -11225,8 +11315,20 @@
       <c r="Q4" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
+        <v>264</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>'TC2-Contract Parts Info'!B5</f>
         <v>s1004</v>
@@ -11277,13 +11379,25 @@
         <v>264</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="Q5" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>264</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>'TC2-Contract Parts Info'!B6</f>
         <v>s1005</v>
@@ -11339,8 +11453,20 @@
       <c r="Q6" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>264</v>
+      </c>
+      <c r="T6">
+        <v>200</v>
+      </c>
+      <c r="U6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>'TC2-Contract Parts Info'!B7</f>
         <v>s1006</v>
@@ -11396,24 +11522,36 @@
       <c r="Q7" t="s">
         <v>264</v>
       </c>
+      <c r="R7">
+        <v>200</v>
+      </c>
+      <c r="S7" t="s">
+        <v>264</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7" t="s">
+        <v>264</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A644DA6-5AFE-4AC7-A7AD-2B07CFF4F198}">
-  <dimension ref="A1:R4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A644DA6-5AFE-4AC7-A7AD-2B07CFF4F198}">
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="18" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="15.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -11650,25 +11788,425 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06068F2F-B4B2-48BE-9466-C323517F5F01}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" style="2" width="24.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="32.33203125" collapsed="true"/>
+    <col min="3" max="8" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="42.21875" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="8.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="str">
+        <f ca="1">'TC204-DC1 Outbound Details'!E2</f>
+        <v>DC1-PS2-06-2310001</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>'TC204-DC1 Outbound Details'!M2</f>
+        <v>CAJU9500009</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f ca="1" ref="C2:C9" si="0" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
+        <v>10 Oct 2023</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f ca="1" ref="D2:D9" si="1" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
+        <v>20 Oct 2023</v>
+      </c>
+      <c r="E2" s="74" t="s">
+        <v>484</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f ca="1" ref="F2:F9" si="2" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
+        <v>30 Oct 2023</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="H2" s="74" t="s">
+        <v>480</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="str">
+        <f ca="1">'TC204-DC1 Outbound Details'!E3</f>
+        <v>DC1-PS2-06-2310001</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>'TC204-DC1 Outbound Details'!M3</f>
+        <v>ONEU1162511</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f ca="1" si="0" t="shared"/>
+        <v>10 Oct 2023</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f ca="1" si="1" t="shared"/>
+        <v>20 Oct 2023</v>
+      </c>
+      <c r="E3" s="74" t="s">
+        <v>484</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f ca="1" si="2" t="shared"/>
+        <v>30 Oct 2023</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="H3" s="74" t="s">
+        <v>480</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="str">
+        <f ca="1">'TC204-DC1 Outbound Details'!E4</f>
+        <v>DC1-PS2-06-2310001</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>'TC204-DC1 Outbound Details'!M4</f>
+        <v>CNTW-SUP-C-230704001</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f ca="1" si="0" t="shared"/>
+        <v>10 Oct 2023</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f ca="1" si="1" t="shared"/>
+        <v>20 Oct 2023</v>
+      </c>
+      <c r="E4" s="74" t="s">
+        <v>484</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f ca="1" si="2" t="shared"/>
+        <v>30 Oct 2023</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="H4" s="74" t="s">
+        <v>480</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="str">
+        <f>'TC204-DC1 Outbound Details'!M5</f>
+        <v>ONEU1162511</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f ca="1" si="0" t="shared"/>
+        <v>10 Oct 2023</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f ca="1" si="1" t="shared"/>
+        <v>20 Oct 2023</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>484</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f ca="1" si="2" t="shared"/>
+        <v>30 Oct 2023</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="H5" s="74" t="s">
+        <v>480</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="str">
+        <f ca="1">'TC204-DC1 Outbound Details'!E6</f>
+        <v>DC1-PS2-06-2310003</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>'TC204-DC1 Outbound Details'!M6</f>
+        <v>CAIU9492794</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f ca="1" si="0" t="shared"/>
+        <v>10 Oct 2023</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f ca="1" si="1" t="shared"/>
+        <v>20 Oct 2023</v>
+      </c>
+      <c r="E6" s="74" t="s">
+        <v>485</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f ca="1" si="2" t="shared"/>
+        <v>30 Oct 2023</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="H6" s="74" t="s">
+        <v>481</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="str">
+        <f ca="1">'TC204-DC1 Outbound Details'!E7</f>
+        <v>DC1-PS2-06-2310004</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>'TC204-DC1 Outbound Details'!M7</f>
+        <v>CAIU9500009</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f ca="1" si="0" t="shared"/>
+        <v>10 Oct 2023</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f ca="1" si="1" t="shared"/>
+        <v>20 Oct 2023</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>485</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f ca="1" si="2" t="shared"/>
+        <v>30 Oct 2023</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="H7" s="74" t="s">
+        <v>481</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="str">
+        <f ca="1">'TC204-DC1 Outbound Details'!E8</f>
+        <v>DC1-PS2-06-2310005</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>'TC204-DC1 Outbound Details'!M8</f>
+        <v>CAIU9492794</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f ca="1" si="0" t="shared"/>
+        <v>10 Oct 2023</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f ca="1" si="1" t="shared"/>
+        <v>20 Oct 2023</v>
+      </c>
+      <c r="E8" s="74" t="s">
+        <v>485</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f ca="1" si="2" t="shared"/>
+        <v>30 Oct 2023</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="H8" s="74" t="s">
+        <v>481</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="str">
+        <f ca="1">'TC204-DC1 Outbound Details'!E9</f>
+        <v>DC1-PS2-06-2310005</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>'TC204-DC1 Outbound Details'!M9</f>
+        <v>CAIU9492794</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f ca="1" si="0" t="shared"/>
+        <v>10 Oct 2023</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f ca="1" si="1" t="shared"/>
+        <v>20 Oct 2023</v>
+      </c>
+      <c r="E9" s="74" t="s">
+        <v>485</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f ca="1" si="2" t="shared"/>
+        <v>30 Oct 2023</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="H9" s="74" t="s">
+        <v>481</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3849C6-0A3D-4565-B869-78D9F1366C43}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.5546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>'TC204-OutboundNo'!B2</f>
+        <v>o-PK-CUS-DC-231031001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>'TC204-OutboundNo'!B3</f>
+        <v>o-PK-CUS-DC-231031002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>'TC204-OutboundNo'!B4</f>
+        <v>o-PK-CUS-DC-231031003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f>'TC204-OutboundNo'!B5</f>
+        <v>o-PK-CUS-DC-231031004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f>'TC204-OutboundNo'!B6</f>
+        <v>o-PK-CUS-DC-231031005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f>'TC204-OutboundNo'!B7</f>
+        <v>o-PK-CUS-DC-231031006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D72B64C-4464-4C94-B259-341C7CAAEC56}">
-  <dimension ref="A1:Y2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D72B64C-4464-4C94-B259-341C7CAAEC56}">
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="24" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="25.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="4.77734375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="4" max="24" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="25.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
@@ -11834,25 +12372,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262C5D36-BB6A-4EDE-A3F6-B9021F5B26E8}">
-  <dimension ref="A1:X2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262C5D36-BB6A-4EDE-A3F6-B9021F5B26E8}">
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="24" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="25" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="24" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="25" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row ht="14.4" r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
@@ -11926,7 +12464,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>181</v>
       </c>
@@ -11998,25 +12536,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22EBF17A-A3EC-4416-AEFA-722E2DE8256A}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22EBF17A-A3EC-4416-AEFA-722E2DE8256A}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="8" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="26.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="39.77734375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="4" max="8" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="2" width="26.6640625" collapsed="true"/>
+    <col min="10" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -12140,26 +12678,26 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CE11F6-9A79-4C3E-806F-EEC3D8785C90}">
-  <dimension ref="A1:W6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CE11F6-9A79-4C3E-806F-EEC3D8785C90}">
+  <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="21" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="25.77734375" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="4.77734375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="4" max="21" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="15.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
@@ -12320,25 +12858,25 @@
       <c r="W6" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4A975D-ED34-4C33-BCA6-D3D59D8E9A5D}">
-  <dimension ref="A1:Z2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4A975D-ED34-4C33-BCA6-D3D59D8E9A5D}">
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="26" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="27" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="26" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="27" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
+    <row ht="14.4" r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
@@ -12418,7 +12956,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>185</v>
       </c>
@@ -12488,24 +13026,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9110446A-A929-4E01-B534-0CE671C519A7}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9110446A-A929-4E01-B534-0CE671C519A7}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.5546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="7" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="35.5546875" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="4" max="7" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="8" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -12606,31 +13144,31 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{BF8479C8-377B-4274-9EB4-EEC20386286C}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="F2:F4" type="list" xr:uid="{BF8479C8-377B-4274-9EB4-EEC20386286C}">
       <formula1>CURRENCY_CODE</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E478ED16-4135-483E-B929-6907FF91411A}">
-  <dimension ref="A1:V2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E478ED16-4135-483E-B929-6907FF91411A}">
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="15" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="17" max="21" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="25.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="4.77734375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="4" max="15" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="17" max="21" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="25.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -12778,29 +13316,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8894B363-C9AC-485F-9832-F1ABA390B560}">
-  <dimension ref="A1:Q7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8894B363-C9AC-485F-9832-F1ABA390B560}">
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="5" width="25.77734375" style="10" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="15.77734375" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="25.77734375" style="10" customWidth="1" collapsed="1"/>
-    <col min="11" max="17" width="15.77734375" style="10" customWidth="1" collapsed="1"/>
-    <col min="18" max="16384" width="8.88671875" style="10" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="5.77734375" collapsed="true"/>
+    <col min="2" max="5" customWidth="true" style="10" width="25.77734375" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="10" width="15.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="10" width="25.77734375" collapsed="true"/>
+    <col min="11" max="17" customWidth="true" style="10" width="15.77734375" collapsed="true"/>
+    <col min="18" max="16384" style="10" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12853,7 +13391,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -12901,7 +13439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="3" s="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -12949,7 +13487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="4" s="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -12997,7 +13535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="5" s="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -13045,7 +13583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="6" s="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -13089,7 +13627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="7" s="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -13136,24 +13674,24 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H7" xr:uid="{D2C76473-4C5A-4519-A7B0-B55F93CAFF40}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="H2:H7" type="list" xr:uid="{D2C76473-4C5A-4519-A7B0-B55F93CAFF40}">
       <formula1>UOM_CODE</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K2:K6" xr:uid="{74FAD954-C0D0-4C53-A58E-EE5250E7F49C}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="K2:K6" type="list" xr:uid="{74FAD954-C0D0-4C53-A58E-EE5250E7F49C}">
       <formula1>PAIRED_ORDER_FLAG</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:I7" xr:uid="{8959A81A-A9C0-4C94-8DF8-EB9963F162C5}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="I2:I7" type="list" xr:uid="{8959A81A-A9C0-4C94-8DF8-EB9963F162C5}">
       <formula1>PAIRED_FLAG</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704A3770-2ABF-48BD-877C-F6DAF93B01A2}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704A3770-2ABF-48BD-877C-F6DAF93B01A2}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F1"/>
@@ -13161,8 +13699,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="6" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="7" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -13230,13 +13768,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED4FBCF-971E-4D9D-AF35-215C7C02FB6E}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED4FBCF-971E-4D9D-AF35-215C7C02FB6E}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F1"/>
@@ -13244,7 +13782,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="6" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -13356,13 +13894,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DDE834-6C6D-48FD-A8AC-C8B2BB635E1C}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DDE834-6C6D-48FD-A8AC-C8B2BB635E1C}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F1"/>
@@ -13370,7 +13908,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="6" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -13416,13 +13954,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D980543-5449-4C71-9277-E0BFEF5A5ED2}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D980543-5449-4C71-9277-E0BFEF5A5ED2}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F1"/>
@@ -13430,7 +13968,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="6" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -13520,13 +14058,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A36B7F9-0822-4A7D-A5DC-78D24422F26B}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A36B7F9-0822-4A7D-A5DC-78D24422F26B}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
@@ -13534,7 +14072,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="6" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -13668,16 +14206,16 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <ignoredErrors>
-    <ignoredError sqref="F4" formula="1"/>
+    <ignoredError formula="1" sqref="F4"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBF2968-13DF-443F-89D7-83FE625EEAFE}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBF2968-13DF-443F-89D7-83FE625EEAFE}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
@@ -13685,13 +14223,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="22.88671875" style="44" customWidth="1" collapsed="1"/>
-    <col min="3" max="6" width="20.77734375" style="44" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.44140625" style="44" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="8.88671875" style="44" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="44" width="22.88671875" collapsed="true"/>
+    <col min="3" max="6" customWidth="true" style="44" width="20.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="44" width="9.44140625" collapsed="true"/>
+    <col min="8" max="16384" style="44" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>247</v>
       </c>
@@ -13805,41 +14343,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B300EF1A-FAF9-4422-986A-1F7341820C90}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())+21), "dd MMM yyyy")</f>
-        <v>22 Dec 2023</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4623132C-9A68-40B2-93E6-5D17ABD3AFB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B300EF1A-FAF9-4422-986A-1F7341820C90}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13848,8 +14357,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.88671875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="47" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())+21), "dd MMM yyyy")</f>
+        <v>22 Dec 2023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4623132C-9A68-40B2-93E6-5D17ABD3AFB1}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -13863,18 +14401,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
-        <f ca="1">"c"&amp;AutoIncrement!B2&amp;"B1"&amp;AutoIncrement!A2&amp;"-"&amp;B1&amp;"001"</f>
+        <f ca="1"><![CDATA["c"&AutoIncrement!B2&"B1"&AutoIncrement!A2&"-"&B1&"001"]]></f>
         <v>cPB106-2310001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01505AB6-D093-4F7D-9DFC-F54AE54DE6D5}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01505AB6-D093-4F7D-9DFC-F54AE54DE6D5}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
@@ -13882,11 +14420,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="20.77734375" style="44" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="8.88671875" style="44" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" style="44" width="20.77734375" collapsed="true"/>
+    <col min="5" max="16384" style="44" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -13976,13 +14514,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FA45CE-13CE-4533-9C8B-1EE71F8307A8}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FA45CE-13CE-4533-9C8B-1EE71F8307A8}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
@@ -13990,8 +14528,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="3" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -14014,22 +14552,22 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA2CB9C-F601-4CC7-BFA7-FE40BF98C41A}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA2CB9C-F601-4CC7-BFA7-FE40BF98C41A}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="2" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -14044,13 +14582,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAD4F0A-6227-4F65-A6C5-C08C6EAD4DBF}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAD4F0A-6227-4F65-A6C5-C08C6EAD4DBF}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
@@ -14058,12 +14596,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.88671875" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="21.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="13.88671875" collapsed="true"/>
+    <col min="3" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row ht="14.4" r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -14074,18 +14612,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
-        <f ca="1">"rc"&amp;AutoIncrement!B2&amp;"B1"&amp;AutoIncrement!A2&amp;"-"&amp;B1&amp;"001"&amp;"-01"</f>
+        <f ca="1"><![CDATA["rc"&AutoIncrement!B2&"B1"&AutoIncrement!A2&"-"&B1&"001"&"-01"]]></f>
         <v>rcPB106-2310001-01</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C995E7-3C41-44BE-92B7-C62CA640336D}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C995E7-3C41-44BE-92B7-C62CA640336D}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -14093,8 +14631,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="8" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -14129,57 +14667,57 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
-        <f ca="1">"s"&amp;AutoIncrement!B2&amp;"B1"&amp;AutoIncrement!A2&amp;"-"&amp;I1&amp;"001"</f>
+        <f ca="1"><![CDATA["s"&AutoIncrement!B2&"B1"&AutoIncrement!A2&"-"&I1&"001"]]></f>
         <v>sPB106-2310001</v>
       </c>
       <c r="B2" t="str">
-        <f ca="1">"p"&amp;AutoIncrement!B2&amp;"B2"&amp;AutoIncrement!A2&amp;"-"&amp;I1&amp;"001"</f>
+        <f ca="1"><![CDATA["p"&AutoIncrement!B2&"B2"&AutoIncrement!A2&"-"&I1&"001"]]></f>
         <v>pPB206-2310001</v>
       </c>
       <c r="C2" t="str">
-        <f ca="1">"s"&amp;AutoIncrement!B2&amp;"B2"&amp;AutoIncrement!A2&amp;"-"&amp;I1&amp;"001"</f>
+        <f ca="1"><![CDATA["s"&AutoIncrement!B2&"B2"&AutoIncrement!A2&"-"&I1&"001"]]></f>
         <v>sPB206-2310001</v>
       </c>
       <c r="D2" t="str">
-        <f ca="1">"p"&amp;AutoIncrement!B2&amp;"S2"&amp;AutoIncrement!A2&amp;"-"&amp;I1&amp;"001"</f>
+        <f ca="1"><![CDATA["p"&AutoIncrement!B2&"S2"&AutoIncrement!A2&"-"&I1&"001"]]></f>
         <v>pPS206-2310001</v>
       </c>
       <c r="E2" t="str">
-        <f ca="1">"s"&amp;AutoIncrement!B2&amp;"B3"&amp;AutoIncrement!A2&amp;"-"&amp;I1&amp;"001"</f>
+        <f ca="1"><![CDATA["s"&AutoIncrement!B2&"B3"&AutoIncrement!A2&"-"&I1&"001"]]></f>
         <v>sPB306-2310001</v>
       </c>
       <c r="F2" t="str">
-        <f ca="1">"p"&amp;AutoIncrement!B2&amp;"S1"&amp;AutoIncrement!A2&amp;"-"&amp;I1&amp;"001"</f>
+        <f ca="1"><![CDATA["p"&AutoIncrement!B2&"S1"&AutoIncrement!A2&"-"&I1&"001"]]></f>
         <v>pPS106-2310001</v>
       </c>
       <c r="G2" t="str">
-        <f ca="1">"s"&amp;AutoIncrement!B2&amp;"S1"&amp;AutoIncrement!A2&amp;"-"&amp;I1&amp;"001"</f>
+        <f ca="1"><![CDATA["s"&AutoIncrement!B2&"S1"&AutoIncrement!A2&"-"&I1&"001"]]></f>
         <v>sPS106-2310001</v>
       </c>
       <c r="H2" t="str">
-        <f ca="1">"s"&amp;AutoIncrement!B2&amp;"S2"&amp;AutoIncrement!A2&amp;"-"&amp;I1&amp;"001"</f>
+        <f ca="1"><![CDATA["s"&AutoIncrement!B2&"S2"&AutoIncrement!A2&"-"&I1&"001"]]></f>
         <v>sPS206-2310001</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="str">
-        <f ca="1">"p"&amp;AutoIncrement!B2&amp;"B3"&amp;AutoIncrement!A2&amp;"-"&amp;I1&amp;"001"</f>
+        <f ca="1"><![CDATA["p"&AutoIncrement!B2&"B3"&AutoIncrement!A2&"-"&I1&"001"]]></f>
         <v>pPB306-2310001</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75" t="s">
+      <c r="D4" s="76"/>
+      <c r="E4" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="75"/>
+      <c r="F4" s="76"/>
       <c r="G4" t="s">
         <v>79</v>
       </c>
@@ -14193,13 +14731,13 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4D8500-B389-496D-AD87-5E7738B6C290}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4D8500-B389-496D-AD87-5E7738B6C290}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
@@ -14207,8 +14745,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="21.109375" collapsed="true"/>
+    <col min="2" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -14216,19 +14754,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row ht="14.4" r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>418</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4C763-E53F-4B86-9C00-751B722E35A6}">
-  <dimension ref="A1:Q4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4C763-E53F-4B86-9C00-751B722E35A6}">
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N32" sqref="N32"/>
@@ -14236,10 +14774,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="17" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="4.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="4" max="17" customWidth="true" width="15.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -14315,21 +14853,21 @@
       <c r="J2" s="50">
         <v>10</v>
       </c>
-      <c r="K2" s="50">
+      <c r="K2" s="50" t="n">
         <f>'TC17-Customer Change Order'!B4</f>
-        <v>620</v>
-      </c>
-      <c r="L2" s="50">
+        <v>620.0</v>
+      </c>
+      <c r="L2" s="50" t="n">
         <f>'TC17-Customer Change Order'!B4</f>
-        <v>620</v>
+        <v>620.0</v>
       </c>
       <c r="M2" s="50"/>
       <c r="N2" t="s">
         <v>239</v>
       </c>
-      <c r="P2" s="50">
+      <c r="P2" s="50" t="n">
         <f>'TC17-Customer Change Order'!C4</f>
-        <v>620</v>
+        <v>620.0</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -14352,21 +14890,21 @@
       <c r="J3" s="50">
         <v>10</v>
       </c>
-      <c r="K3" s="50">
+      <c r="K3" s="50" t="n">
         <f>'TC17-Customer Change Order'!B5</f>
-        <v>620</v>
-      </c>
-      <c r="L3" s="50">
+        <v>620.0</v>
+      </c>
+      <c r="L3" s="50" t="n">
         <f>'TC17-Customer Change Order'!B5</f>
-        <v>620</v>
+        <v>620.0</v>
       </c>
       <c r="M3" s="50"/>
       <c r="N3" t="s">
         <v>239</v>
       </c>
-      <c r="P3" s="50">
+      <c r="P3" s="50" t="n">
         <f>'TC17-Customer Change Order'!C5</f>
-        <v>620</v>
+        <v>620.0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -14389,35 +14927,35 @@
       <c r="J4" s="50">
         <v>10</v>
       </c>
-      <c r="K4" s="50">
+      <c r="K4" s="50" t="n">
         <f>'TC17-Customer Change Order'!B7</f>
-        <v>820</v>
-      </c>
-      <c r="L4" s="50">
+        <v>820.0</v>
+      </c>
+      <c r="L4" s="50" t="n">
         <f>'TC17-Customer Change Order'!B7</f>
-        <v>820</v>
+        <v>820.0</v>
       </c>
       <c r="M4" s="50"/>
       <c r="N4" t="s">
         <v>239</v>
       </c>
-      <c r="P4" s="50">
+      <c r="P4" s="50" t="n">
         <f>'TC17-Customer Change Order'!C7</f>
-        <v>620</v>
-      </c>
-      <c r="Q4">
+        <v>620.0</v>
+      </c>
+      <c r="Q4" t="n">
         <f>'TC17-Customer Change Order'!D7</f>
-        <v>200</v>
+        <v>200.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2EDA7F-9C9B-43A4-99D5-B8A22CFF7128}">
-  <dimension ref="A1:P4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2EDA7F-9C9B-43A4-99D5-B8A22CFF7128}">
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K4" sqref="K4:L4"/>
@@ -14425,10 +14963,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="16" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="4.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="4" max="16" customWidth="true" width="15.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -14501,21 +15039,21 @@
       <c r="J2" s="50">
         <v>10</v>
       </c>
-      <c r="K2" s="50">
+      <c r="K2" s="50" t="n">
         <f>'TC17-Customer Change Order'!C2</f>
-        <v>1620</v>
-      </c>
-      <c r="L2" s="50">
+        <v>1620.0</v>
+      </c>
+      <c r="L2" s="50" t="n">
         <f>'TC17-Customer Change Order'!C2</f>
-        <v>1620</v>
+        <v>1620.0</v>
       </c>
       <c r="M2" s="50"/>
       <c r="N2" t="s">
         <v>239</v>
       </c>
-      <c r="P2" s="50">
+      <c r="P2" s="50" t="n">
         <f>'TC17-Customer Change Order'!C2</f>
-        <v>1620</v>
+        <v>1620.0</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -14538,21 +15076,21 @@
       <c r="J3" s="50">
         <v>10</v>
       </c>
-      <c r="K3" s="50">
+      <c r="K3" s="50" t="n">
         <f>'TC17-Customer Change Order'!C3</f>
-        <v>1620</v>
-      </c>
-      <c r="L3" s="50">
+        <v>1620.0</v>
+      </c>
+      <c r="L3" s="50" t="n">
         <f>'TC17-Customer Change Order'!C3</f>
-        <v>1620</v>
+        <v>1620.0</v>
       </c>
       <c r="M3" s="50"/>
       <c r="N3" t="s">
         <v>239</v>
       </c>
-      <c r="P3" s="50">
+      <c r="P3" s="50" t="n">
         <f>'TC17-Customer Change Order'!C3</f>
-        <v>1620</v>
+        <v>1620.0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -14590,13 +15128,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677818F9-51BA-444F-9CD2-46845E409802}">
-  <dimension ref="A1:P4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677818F9-51BA-444F-9CD2-46845E409802}">
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
@@ -14604,10 +15142,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="16" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="4.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="4" max="16" customWidth="true" width="15.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -14680,21 +15218,21 @@
       <c r="J2" s="50">
         <v>10</v>
       </c>
-      <c r="K2" s="50">
+      <c r="K2" s="50" t="n">
         <f>'TC17-Customer Change Order'!C2</f>
-        <v>1620</v>
-      </c>
-      <c r="L2" s="50">
+        <v>1620.0</v>
+      </c>
+      <c r="L2" s="50" t="n">
         <f>'TC17-Customer Change Order'!C2</f>
-        <v>1620</v>
+        <v>1620.0</v>
       </c>
       <c r="M2" s="50"/>
       <c r="N2" t="s">
         <v>239</v>
       </c>
-      <c r="P2" s="50">
+      <c r="P2" s="50" t="n">
         <f>'TC17-Customer Change Order'!C2</f>
-        <v>1620</v>
+        <v>1620.0</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -14717,21 +15255,21 @@
       <c r="J3" s="50">
         <v>10</v>
       </c>
-      <c r="K3" s="50">
+      <c r="K3" s="50" t="n">
         <f>'TC17-Customer Change Order'!C3</f>
-        <v>1620</v>
-      </c>
-      <c r="L3" s="50">
+        <v>1620.0</v>
+      </c>
+      <c r="L3" s="50" t="n">
         <f>'TC17-Customer Change Order'!C3</f>
-        <v>1620</v>
+        <v>1620.0</v>
       </c>
       <c r="M3" s="50"/>
       <c r="N3" t="s">
         <v>239</v>
       </c>
-      <c r="P3" s="50">
+      <c r="P3" s="50" t="n">
         <f>'TC17-Customer Change Order'!C3</f>
-        <v>1620</v>
+        <v>1620.0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -14769,13 +15307,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2834A9CC-9CCB-420F-A219-496B7C00AF46}">
-  <dimension ref="A1:Q4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2834A9CC-9CCB-420F-A219-496B7C00AF46}">
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
@@ -14783,10 +15321,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="17" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="4.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="4" max="17" customWidth="true" width="15.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -14862,21 +15400,21 @@
       <c r="J2" s="50">
         <v>10</v>
       </c>
-      <c r="K2" s="50">
+      <c r="K2" s="50" t="n">
         <f>'TC17-Customer Change Order'!B4</f>
-        <v>620</v>
-      </c>
-      <c r="L2" s="50">
+        <v>620.0</v>
+      </c>
+      <c r="L2" s="50" t="n">
         <f>'TC17-Customer Change Order'!B4</f>
-        <v>620</v>
+        <v>620.0</v>
       </c>
       <c r="M2" s="50"/>
       <c r="N2" t="s">
         <v>239</v>
       </c>
-      <c r="P2" s="50">
+      <c r="P2" s="50" t="n">
         <f>'TC17-Customer Change Order'!C4</f>
-        <v>620</v>
+        <v>620.0</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -14899,21 +15437,21 @@
       <c r="J3" s="50">
         <v>10</v>
       </c>
-      <c r="K3" s="50">
+      <c r="K3" s="50" t="n">
         <f>'TC17-Customer Change Order'!B5</f>
-        <v>620</v>
-      </c>
-      <c r="L3" s="50">
+        <v>620.0</v>
+      </c>
+      <c r="L3" s="50" t="n">
         <f>'TC17-Customer Change Order'!B5</f>
-        <v>620</v>
+        <v>620.0</v>
       </c>
       <c r="M3" s="50"/>
       <c r="N3" t="s">
         <v>239</v>
       </c>
-      <c r="P3" s="50">
+      <c r="P3" s="50" t="n">
         <f>'TC17-Customer Change Order'!C5</f>
-        <v>620</v>
+        <v>620.0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -14936,35 +15474,35 @@
       <c r="J4" s="50">
         <v>10</v>
       </c>
-      <c r="K4" s="50">
+      <c r="K4" s="50" t="n">
         <f>'TC17-Customer Change Order'!B7</f>
-        <v>820</v>
-      </c>
-      <c r="L4" s="50">
+        <v>820.0</v>
+      </c>
+      <c r="L4" s="50" t="n">
         <f>'TC17-Customer Change Order'!B7</f>
-        <v>820</v>
+        <v>820.0</v>
       </c>
       <c r="M4" s="50"/>
       <c r="N4" t="s">
         <v>239</v>
       </c>
-      <c r="P4" s="50">
+      <c r="P4" s="50" t="n">
         <f>'TC17-Customer Change Order'!C7</f>
-        <v>620</v>
-      </c>
-      <c r="Q4">
+        <v>620.0</v>
+      </c>
+      <c r="Q4" t="n">
         <f>'TC17-Customer Change Order'!D7</f>
-        <v>200</v>
+        <v>200.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807B64D5-863E-48FF-8906-21B81FA7BAD9}">
-  <dimension ref="A1:P4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807B64D5-863E-48FF-8906-21B81FA7BAD9}">
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
@@ -14972,10 +15510,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="16" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="4.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="4" max="16" customWidth="true" width="15.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -15049,21 +15587,21 @@
       <c r="I2" s="50">
         <v>10</v>
       </c>
-      <c r="J2" s="50">
+      <c r="J2" s="50" t="n">
         <f>'TC17-Customer Change Order'!B4</f>
-        <v>620</v>
-      </c>
-      <c r="K2" s="50">
+        <v>620.0</v>
+      </c>
+      <c r="K2" s="50" t="n">
         <f>'TC17-Customer Change Order'!B4</f>
-        <v>620</v>
+        <v>620.0</v>
       </c>
       <c r="L2" s="50"/>
       <c r="M2" t="s">
         <v>239</v>
       </c>
-      <c r="O2" s="50">
+      <c r="O2" s="50" t="n">
         <f>'TC17-Customer Change Order'!C4</f>
-        <v>620</v>
+        <v>620.0</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -15087,21 +15625,21 @@
       <c r="I3" s="50">
         <v>10</v>
       </c>
-      <c r="J3" s="50">
+      <c r="J3" s="50" t="n">
         <f>'TC17-Customer Change Order'!B5</f>
-        <v>620</v>
-      </c>
-      <c r="K3" s="50">
+        <v>620.0</v>
+      </c>
+      <c r="K3" s="50" t="n">
         <f>'TC17-Customer Change Order'!B5</f>
-        <v>620</v>
+        <v>620.0</v>
       </c>
       <c r="L3" s="50"/>
       <c r="M3" t="s">
         <v>239</v>
       </c>
-      <c r="O3" s="50">
+      <c r="O3" s="50" t="n">
         <f>'TC17-Customer Change Order'!C5</f>
-        <v>620</v>
+        <v>620.0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -15125,35 +15663,35 @@
       <c r="I4" s="50">
         <v>10</v>
       </c>
-      <c r="J4" s="50">
+      <c r="J4" s="50" t="n">
         <f>'TC17-Customer Change Order'!B7</f>
-        <v>820</v>
-      </c>
-      <c r="K4" s="50">
+        <v>820.0</v>
+      </c>
+      <c r="K4" s="50" t="n">
         <f>'TC17-Customer Change Order'!B7</f>
-        <v>820</v>
+        <v>820.0</v>
       </c>
       <c r="L4" s="50"/>
       <c r="M4" t="s">
         <v>239</v>
       </c>
-      <c r="O4" s="50">
+      <c r="O4" s="50" t="n">
         <f>'TC17-Customer Change Order'!C7</f>
-        <v>620</v>
-      </c>
-      <c r="P4">
+        <v>620.0</v>
+      </c>
+      <c r="P4" t="n">
         <f>'TC17-Customer Change Order'!D7</f>
-        <v>200</v>
+        <v>200.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DE501A-454E-41F6-949D-9798290C650B}">
-  <dimension ref="A1:O4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DE501A-454E-41F6-949D-9798290C650B}">
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
@@ -15161,10 +15699,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="15" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="4.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="4" max="15" customWidth="true" width="15.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -15235,21 +15773,21 @@
       <c r="I2" s="50">
         <v>10</v>
       </c>
-      <c r="J2" s="50">
+      <c r="J2" s="50" t="n">
         <f>'TC17-Customer Change Order'!B2</f>
-        <v>1620</v>
-      </c>
-      <c r="K2" s="50">
+        <v>1620.0</v>
+      </c>
+      <c r="K2" s="50" t="n">
         <f>'TC17-Customer Change Order'!B2</f>
-        <v>1620</v>
+        <v>1620.0</v>
       </c>
       <c r="L2" s="50"/>
       <c r="M2" t="s">
         <v>239</v>
       </c>
-      <c r="O2" s="50">
+      <c r="O2" s="50" t="n">
         <f>K2</f>
-        <v>1620</v>
+        <v>1620.0</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -15273,21 +15811,21 @@
       <c r="I3" s="50">
         <v>10</v>
       </c>
-      <c r="J3" s="50">
+      <c r="J3" s="50" t="n">
         <f>'TC17-Customer Change Order'!B3</f>
-        <v>1620</v>
-      </c>
-      <c r="K3" s="50">
+        <v>1620.0</v>
+      </c>
+      <c r="K3" s="50" t="n">
         <f>'TC17-Customer Change Order'!B3</f>
-        <v>1620</v>
+        <v>1620.0</v>
       </c>
       <c r="L3" s="50"/>
       <c r="M3" t="s">
         <v>239</v>
       </c>
-      <c r="O3" s="50">
-        <f t="shared" ref="O3:O4" si="0">K3</f>
-        <v>1620</v>
+      <c r="O3" s="50" t="n">
+        <f ref="O3:O4" si="0" t="shared">K3</f>
+        <v>1620.0</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -15321,19 +15859,19 @@
       <c r="M4" t="s">
         <v>239</v>
       </c>
-      <c r="O4" s="50">
-        <f t="shared" si="0"/>
-        <v>620</v>
+      <c r="O4" s="50" t="n">
+        <f si="0" t="shared"/>
+        <v>620.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB33BE9-85EA-4EE6-AF1C-CE875046DA7E}">
-  <dimension ref="A1:P4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB33BE9-85EA-4EE6-AF1C-CE875046DA7E}">
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
@@ -15341,9 +15879,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="16" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="3" max="16" customWidth="true" width="15.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -15416,17 +15954,17 @@
       <c r="F2" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="54">
+      <c r="G2" s="54" t="n">
         <f>'TC001-Req to Parts Master'!M2</f>
-        <v>10</v>
-      </c>
-      <c r="H2" s="50">
+        <v>10.0</v>
+      </c>
+      <c r="H2" s="50" t="n">
         <f>'TC001-Req to Parts Master'!L2</f>
-        <v>10</v>
-      </c>
-      <c r="I2" s="50">
+        <v>10.0</v>
+      </c>
+      <c r="I2" s="50" t="n">
         <f>'TC17-Customer Change Order'!B2</f>
-        <v>1620</v>
+        <v>1620.0</v>
       </c>
       <c r="J2" s="50">
         <v>10</v>
@@ -15440,16 +15978,16 @@
       <c r="M2">
         <v>0</v>
       </c>
-      <c r="N2" s="50">
+      <c r="N2" s="50" t="n">
         <f>'TC17-Customer Change Order'!C2</f>
-        <v>1620</v>
+        <v>1620.0</v>
       </c>
       <c r="O2" t="s">
         <v>264</v>
       </c>
-      <c r="P2" s="50">
+      <c r="P2" s="50" t="n">
         <f>N2</f>
-        <v>1620</v>
+        <v>1620.0</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -15472,17 +16010,17 @@
       <c r="F3" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="54">
+      <c r="G3" s="54" t="n">
         <f>'TC001-Req to Parts Master'!M3</f>
-        <v>10</v>
-      </c>
-      <c r="H3" s="50">
+        <v>10.0</v>
+      </c>
+      <c r="H3" s="50" t="n">
         <f>'TC001-Req to Parts Master'!L3</f>
-        <v>10</v>
-      </c>
-      <c r="I3" s="50">
+        <v>10.0</v>
+      </c>
+      <c r="I3" s="50" t="n">
         <f>'TC17-Customer Change Order'!B3</f>
-        <v>1620</v>
+        <v>1620.0</v>
       </c>
       <c r="J3" s="50">
         <v>10</v>
@@ -15496,16 +16034,16 @@
       <c r="M3">
         <v>0</v>
       </c>
-      <c r="N3" s="50">
+      <c r="N3" s="50" t="n">
         <f>'TC17-Customer Change Order'!C3</f>
-        <v>1620</v>
+        <v>1620.0</v>
       </c>
       <c r="O3" t="s">
         <v>264</v>
       </c>
-      <c r="P3" s="50">
+      <c r="P3" s="50" t="n">
         <f>N3</f>
-        <v>1620</v>
+        <v>1620.0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -15528,13 +16066,13 @@
       <c r="F4" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="54">
+      <c r="G4" s="54" t="n">
         <f>'TC001-Req to Parts Master'!M6</f>
-        <v>5</v>
-      </c>
-      <c r="H4" s="50">
+        <v>5.0</v>
+      </c>
+      <c r="H4" s="50" t="n">
         <f>'TC001-Req to Parts Master'!L6</f>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="I4" s="50">
         <v>620</v>
@@ -15562,23 +16100,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19B0C66-1EE7-4705-83A0-954838A8F82B}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19B0C66-1EE7-4705-83A0-954838A8F82B}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="5.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="3" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -15589,7 +16127,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row ht="14.4" r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -15598,13 +16136,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13B5E1B-EAA6-43F3-878C-EE38FADCDA62}">
-  <dimension ref="A1:Q4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13B5E1B-EAA6-43F3-878C-EE38FADCDA62}">
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
@@ -15612,9 +16150,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="17" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="3" max="17" customWidth="true" width="15.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -15690,17 +16228,17 @@
       <c r="F2" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="54">
+      <c r="G2" s="54" t="n">
         <f>'TC001-Req to Parts Master'!M4</f>
-        <v>5</v>
-      </c>
-      <c r="H2" s="50">
+        <v>5.0</v>
+      </c>
+      <c r="H2" s="50" t="n">
         <f>'TC001-Req to Parts Master'!L4</f>
-        <v>10</v>
-      </c>
-      <c r="I2" s="50">
+        <v>10.0</v>
+      </c>
+      <c r="I2" s="50" t="n">
         <f>'TC17-Customer Change Order'!B4</f>
-        <v>620</v>
+        <v>620.0</v>
       </c>
       <c r="J2" s="50">
         <v>100</v>
@@ -15715,16 +16253,16 @@
       <c r="M2">
         <v>0</v>
       </c>
-      <c r="N2" s="50">
+      <c r="N2" s="50" t="n">
         <f>'TC17-Customer Change Order'!C4</f>
-        <v>620</v>
+        <v>620.0</v>
       </c>
       <c r="O2" t="s">
         <v>264</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <f>'TC17-Customer Change Order'!D4</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q2" t="s">
         <v>264</v>
@@ -15750,17 +16288,17 @@
       <c r="F3" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="54">
+      <c r="G3" s="54" t="n">
         <f>'TC001-Req to Parts Master'!M5</f>
-        <v>5</v>
-      </c>
-      <c r="H3" s="50">
+        <v>5.0</v>
+      </c>
+      <c r="H3" s="50" t="n">
         <f>'TC001-Req to Parts Master'!L5</f>
-        <v>10</v>
-      </c>
-      <c r="I3" s="50">
+        <v>10.0</v>
+      </c>
+      <c r="I3" s="50" t="n">
         <f>'TC17-Customer Change Order'!B5</f>
-        <v>620</v>
+        <v>620.0</v>
       </c>
       <c r="J3" s="50">
         <v>100</v>
@@ -15775,16 +16313,16 @@
       <c r="M3">
         <v>0</v>
       </c>
-      <c r="N3" s="50">
+      <c r="N3" s="50" t="n">
         <f>'TC17-Customer Change Order'!C5</f>
-        <v>620</v>
+        <v>620.0</v>
       </c>
       <c r="O3" t="s">
         <v>264</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <f>'TC17-Customer Change Order'!D5</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q3" t="s">
         <v>264</v>
@@ -15810,17 +16348,17 @@
       <c r="F4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="54">
+      <c r="G4" s="54" t="n">
         <f>'TC001-Req to Parts Master'!M7</f>
-        <v>5</v>
-      </c>
-      <c r="H4" s="50">
+        <v>5.0</v>
+      </c>
+      <c r="H4" s="50" t="n">
         <f>'TC001-Req to Parts Master'!L7</f>
-        <v>10</v>
-      </c>
-      <c r="I4" s="50">
+        <v>10.0</v>
+      </c>
+      <c r="I4" s="50" t="n">
         <f>'TC17-Customer Change Order'!B7</f>
-        <v>820</v>
+        <v>820.0</v>
       </c>
       <c r="J4" s="50">
         <v>100</v>
@@ -15835,29 +16373,29 @@
       <c r="M4">
         <v>0</v>
       </c>
-      <c r="N4" s="50">
+      <c r="N4" s="50" t="n">
         <f>'TC17-Customer Change Order'!C7</f>
-        <v>620</v>
+        <v>620.0</v>
       </c>
       <c r="O4" t="s">
         <v>264</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <f>'TC17-Customer Change Order'!D7</f>
-        <v>200</v>
+        <v>200.0</v>
       </c>
       <c r="Q4" t="s">
         <v>264</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E111FC-A404-4654-B49A-FC1361784450}">
-  <dimension ref="A1:S7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E111FC-A404-4654-B49A-FC1361784450}">
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="R14" sqref="R14"/>
@@ -15865,9 +16403,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="19" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="3" max="19" customWidth="true" width="15.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -15949,21 +16487,21 @@
       <c r="E2" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="54">
+      <c r="F2" s="54" t="n">
         <f>'TC001-Req to Parts Master'!M2</f>
-        <v>10</v>
-      </c>
-      <c r="G2" s="50">
+        <v>10.0</v>
+      </c>
+      <c r="G2" s="50" t="n">
         <f>'TC001-Req to Parts Master'!L2</f>
-        <v>10</v>
-      </c>
-      <c r="H2" s="50">
+        <v>10.0</v>
+      </c>
+      <c r="H2" s="50" t="n">
         <f>'TC17-Customer Change Order'!B2</f>
-        <v>1620</v>
-      </c>
-      <c r="I2" s="55">
+        <v>1620.0</v>
+      </c>
+      <c r="I2" s="55" t="n">
         <f>'TC2-Contract Parts Info'!R2</f>
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="J2" s="50" t="str">
         <f>'TC2-Contract Parts Info'!Q2</f>
@@ -15981,23 +16519,23 @@
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2" s="50">
+      <c r="O2" s="50" t="n">
         <f>'TC17-Customer Change Order'!C2</f>
-        <v>1620</v>
+        <v>1620.0</v>
       </c>
       <c r="P2" t="s">
         <v>264</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <f>'TC17-Customer Change Order'!D2</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="R2" t="s">
         <v>264</v>
       </c>
-      <c r="S2" s="50">
+      <c r="S2" s="50" t="n">
         <f>O2</f>
-        <v>1620</v>
+        <v>1620.0</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -16020,21 +16558,21 @@
       <c r="E3" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="54" t="n">
         <f>'TC001-Req to Parts Master'!M3</f>
-        <v>10</v>
-      </c>
-      <c r="G3" s="50">
+        <v>10.0</v>
+      </c>
+      <c r="G3" s="50" t="n">
         <f>'TC001-Req to Parts Master'!L3</f>
-        <v>10</v>
-      </c>
-      <c r="H3" s="50">
+        <v>10.0</v>
+      </c>
+      <c r="H3" s="50" t="n">
         <f>'TC17-Customer Change Order'!B3</f>
-        <v>1620</v>
-      </c>
-      <c r="I3" s="55">
+        <v>1620.0</v>
+      </c>
+      <c r="I3" s="55" t="n">
         <f>'TC2-Contract Parts Info'!R3</f>
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="J3" s="50" t="str">
         <f>'TC2-Contract Parts Info'!Q3</f>
@@ -16052,23 +16590,23 @@
       <c r="N3">
         <v>0</v>
       </c>
-      <c r="O3" s="50">
+      <c r="O3" s="50" t="n">
         <f>'TC17-Customer Change Order'!C3</f>
-        <v>1620</v>
+        <v>1620.0</v>
       </c>
       <c r="P3" t="s">
         <v>264</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <f>'TC17-Customer Change Order'!D3</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="R3" t="s">
         <v>264</v>
       </c>
-      <c r="S3" s="50">
+      <c r="S3" s="50" t="n">
         <f>O3</f>
-        <v>1620</v>
+        <v>1620.0</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -16091,21 +16629,21 @@
       <c r="E4" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="54">
+      <c r="F4" s="54" t="n">
         <f>'TC001-Req to Parts Master'!M4</f>
-        <v>5</v>
-      </c>
-      <c r="G4" s="50">
+        <v>5.0</v>
+      </c>
+      <c r="G4" s="50" t="n">
         <f>'TC001-Req to Parts Master'!L4</f>
-        <v>10</v>
-      </c>
-      <c r="H4" s="50">
+        <v>10.0</v>
+      </c>
+      <c r="H4" s="50" t="n">
         <f>'TC17-Customer Change Order'!B4</f>
-        <v>620</v>
-      </c>
-      <c r="I4" s="55">
+        <v>620.0</v>
+      </c>
+      <c r="I4" s="55" t="n">
         <f>'TC2-Contract Parts Info'!R4</f>
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="J4" s="50" t="str">
         <f>'TC2-Contract Parts Info'!Q4</f>
@@ -16123,23 +16661,23 @@
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="O4" s="50">
+      <c r="O4" s="50" t="n">
         <f>'TC17-Customer Change Order'!C4</f>
-        <v>620</v>
+        <v>620.0</v>
       </c>
       <c r="P4" t="s">
         <v>264</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <f>'TC17-Customer Change Order'!D4</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="R4" t="s">
         <v>264</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <f>'TC17-Customer Change Order'!F4</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -16162,21 +16700,21 @@
       <c r="E5" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="54" t="n">
         <f>'TC001-Req to Parts Master'!M5</f>
-        <v>5</v>
-      </c>
-      <c r="G5" s="50">
+        <v>5.0</v>
+      </c>
+      <c r="G5" s="50" t="n">
         <f>'TC001-Req to Parts Master'!L5</f>
-        <v>10</v>
-      </c>
-      <c r="H5" s="50">
+        <v>10.0</v>
+      </c>
+      <c r="H5" s="50" t="n">
         <f>'TC17-Customer Change Order'!B5</f>
-        <v>620</v>
-      </c>
-      <c r="I5" s="55">
+        <v>620.0</v>
+      </c>
+      <c r="I5" s="55" t="n">
         <f>'TC2-Contract Parts Info'!R5</f>
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="J5" s="50" t="str">
         <f>'TC2-Contract Parts Info'!Q5</f>
@@ -16194,23 +16732,23 @@
       <c r="N5">
         <v>0</v>
       </c>
-      <c r="O5" s="50">
+      <c r="O5" s="50" t="n">
         <f>'TC17-Customer Change Order'!C5</f>
-        <v>620</v>
+        <v>620.0</v>
       </c>
       <c r="P5" t="s">
         <v>264</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <f>'TC17-Customer Change Order'!D5</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="R5" t="s">
         <v>264</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <f>'TC17-Customer Change Order'!F5</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -16233,20 +16771,20 @@
       <c r="E6" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="54" t="n">
         <f>'TC001-Req to Parts Master'!M6</f>
-        <v>5</v>
-      </c>
-      <c r="G6" s="50">
+        <v>5.0</v>
+      </c>
+      <c r="G6" s="50" t="n">
         <f>'TC001-Req to Parts Master'!L6</f>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="H6" s="50">
         <v>620</v>
       </c>
-      <c r="I6" s="55">
+      <c r="I6" s="55" t="n">
         <f>'TC2-Contract Parts Info'!R6</f>
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="J6" s="50" t="str">
         <f>'TC2-Contract Parts Info'!Q6</f>
@@ -16264,16 +16802,16 @@
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6" s="50">
+      <c r="O6" s="50" t="n">
         <f>'TC17-Customer Change Order'!C6</f>
-        <v>620</v>
+        <v>620.0</v>
       </c>
       <c r="P6" t="s">
         <v>264</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <f>'TC17-Customer Change Order'!D6</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="R6" t="s">
         <v>264</v>
@@ -16302,21 +16840,21 @@
       <c r="E7" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="54" t="n">
         <f>'TC001-Req to Parts Master'!M7</f>
-        <v>5</v>
-      </c>
-      <c r="G7" s="50">
+        <v>5.0</v>
+      </c>
+      <c r="G7" s="50" t="n">
         <f>'TC001-Req to Parts Master'!L7</f>
-        <v>10</v>
-      </c>
-      <c r="H7" s="50">
+        <v>10.0</v>
+      </c>
+      <c r="H7" s="50" t="n">
         <f>'TC17-Customer Change Order'!B7</f>
-        <v>820</v>
-      </c>
-      <c r="I7" s="55">
+        <v>820.0</v>
+      </c>
+      <c r="I7" s="55" t="n">
         <f>'TC2-Contract Parts Info'!R7</f>
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="J7" s="50" t="str">
         <f>'TC2-Contract Parts Info'!Q7</f>
@@ -16334,34 +16872,34 @@
       <c r="N7">
         <v>0</v>
       </c>
-      <c r="O7" s="50">
+      <c r="O7" s="50" t="n">
         <f>'TC17-Customer Change Order'!C7</f>
-        <v>620</v>
+        <v>620.0</v>
       </c>
       <c r="P7" t="s">
         <v>264</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <f>'TC17-Customer Change Order'!D7</f>
-        <v>200</v>
+        <v>200.0</v>
       </c>
       <c r="R7" t="s">
         <v>264</v>
       </c>
-      <c r="S7">
+      <c r="S7" t="n">
         <f>'TC17-Customer Change Order'!F7</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C598481B-C070-4874-9B6A-9B6F064D3EE9}">
-  <dimension ref="A1:R7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C598481B-C070-4874-9B6A-9B6F064D3EE9}">
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
@@ -16369,9 +16907,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="18" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="3" max="18" customWidth="true" width="15.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -16450,24 +16988,24 @@
       <c r="E2" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="54">
+      <c r="F2" s="54" t="n">
         <f>'TC001-Req to Parts Master'!M2</f>
-        <v>10</v>
-      </c>
-      <c r="G2" s="50">
+        <v>10.0</v>
+      </c>
+      <c r="G2" s="50" t="n">
         <f>'TC001-Req to Parts Master'!L2</f>
-        <v>10</v>
-      </c>
-      <c r="H2" s="50">
+        <v>10.0</v>
+      </c>
+      <c r="H2" s="50" t="n">
         <f>'TC17-Customer Change Order'!B2</f>
-        <v>1620</v>
+        <v>1620.0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" s="55">
+      <c r="J2" s="55" t="n">
         <f>'TC2-Contract Parts Info'!R2</f>
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="K2" s="50" t="str">
         <f>'TC2-Contract Parts Info'!Q2</f>
@@ -16479,23 +17017,23 @@
       <c r="M2">
         <v>0</v>
       </c>
-      <c r="N2" s="50">
+      <c r="N2" s="50" t="n">
         <f>'TC17-Customer Change Order'!C2</f>
-        <v>1620</v>
+        <v>1620.0</v>
       </c>
       <c r="O2" t="s">
         <v>264</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <f>'TC17-Customer Change Order'!D2</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q2" t="s">
         <v>264</v>
       </c>
-      <c r="R2" s="50">
+      <c r="R2" s="50" t="n">
         <f>N2</f>
-        <v>1620</v>
+        <v>1620.0</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -16518,24 +17056,24 @@
       <c r="E3" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="54" t="n">
         <f>'TC001-Req to Parts Master'!M3</f>
-        <v>10</v>
-      </c>
-      <c r="G3" s="50">
+        <v>10.0</v>
+      </c>
+      <c r="G3" s="50" t="n">
         <f>'TC001-Req to Parts Master'!L3</f>
-        <v>10</v>
-      </c>
-      <c r="H3" s="50">
+        <v>10.0</v>
+      </c>
+      <c r="H3" s="50" t="n">
         <f>'TC17-Customer Change Order'!B3</f>
-        <v>1620</v>
+        <v>1620.0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" s="55">
+      <c r="J3" s="55" t="n">
         <f>'TC2-Contract Parts Info'!R3</f>
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="K3" s="50" t="str">
         <f>'TC2-Contract Parts Info'!Q3</f>
@@ -16547,23 +17085,23 @@
       <c r="M3">
         <v>0</v>
       </c>
-      <c r="N3" s="50">
+      <c r="N3" s="50" t="n">
         <f>'TC17-Customer Change Order'!C3</f>
-        <v>1620</v>
+        <v>1620.0</v>
       </c>
       <c r="O3" t="s">
         <v>264</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <f>'TC17-Customer Change Order'!D3</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q3" t="s">
         <v>264</v>
       </c>
-      <c r="R3" s="50">
+      <c r="R3" s="50" t="n">
         <f>N3</f>
-        <v>1620</v>
+        <v>1620.0</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -16586,24 +17124,24 @@
       <c r="E4" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="54">
+      <c r="F4" s="54" t="n">
         <f>'TC001-Req to Parts Master'!M4</f>
-        <v>5</v>
-      </c>
-      <c r="G4" s="50">
+        <v>5.0</v>
+      </c>
+      <c r="G4" s="50" t="n">
         <f>'TC001-Req to Parts Master'!L4</f>
-        <v>10</v>
-      </c>
-      <c r="H4" s="50">
+        <v>10.0</v>
+      </c>
+      <c r="H4" s="50" t="n">
         <f>'TC17-Customer Change Order'!B4</f>
-        <v>620</v>
+        <v>620.0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" s="55">
+      <c r="J4" s="55" t="n">
         <f>'TC2-Contract Parts Info'!R4</f>
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="K4" s="50" t="str">
         <f>'TC2-Contract Parts Info'!Q4</f>
@@ -16615,23 +17153,23 @@
       <c r="M4">
         <v>0</v>
       </c>
-      <c r="N4" s="50">
+      <c r="N4" s="50" t="n">
         <f>'TC17-Customer Change Order'!C4</f>
-        <v>620</v>
+        <v>620.0</v>
       </c>
       <c r="O4" t="s">
         <v>264</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <f>'TC17-Customer Change Order'!D4</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q4" t="s">
         <v>264</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <f>'TC17-Customer Change Order'!F4</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -16654,24 +17192,24 @@
       <c r="E5" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="54" t="n">
         <f>'TC001-Req to Parts Master'!M5</f>
-        <v>5</v>
-      </c>
-      <c r="G5" s="50">
+        <v>5.0</v>
+      </c>
+      <c r="G5" s="50" t="n">
         <f>'TC001-Req to Parts Master'!L5</f>
-        <v>10</v>
-      </c>
-      <c r="H5" s="50">
+        <v>10.0</v>
+      </c>
+      <c r="H5" s="50" t="n">
         <f>'TC17-Customer Change Order'!B5</f>
-        <v>620</v>
+        <v>620.0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" s="55">
+      <c r="J5" s="55" t="n">
         <f>'TC2-Contract Parts Info'!R5</f>
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="K5" s="50" t="str">
         <f>'TC2-Contract Parts Info'!Q5</f>
@@ -16683,23 +17221,23 @@
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="N5" s="50">
+      <c r="N5" s="50" t="n">
         <f>'TC17-Customer Change Order'!C5</f>
-        <v>620</v>
+        <v>620.0</v>
       </c>
       <c r="O5" t="s">
         <v>264</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <f>'TC17-Customer Change Order'!D5</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q5" t="s">
         <v>264</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <f>'TC17-Customer Change Order'!F5</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -16722,13 +17260,13 @@
       <c r="E6" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="54" t="n">
         <f>'TC001-Req to Parts Master'!M6</f>
-        <v>5</v>
-      </c>
-      <c r="G6" s="50">
+        <v>5.0</v>
+      </c>
+      <c r="G6" s="50" t="n">
         <f>'TC001-Req to Parts Master'!L6</f>
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="H6" s="50">
         <v>620</v>
@@ -16736,9 +17274,9 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" s="55">
+      <c r="J6" s="55" t="n">
         <f>'TC2-Contract Parts Info'!R6</f>
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="K6" s="50" t="str">
         <f>'TC2-Contract Parts Info'!Q6</f>
@@ -16756,16 +17294,16 @@
       <c r="O6" t="s">
         <v>264</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <f>'TC17-Customer Change Order'!D6</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q6" t="s">
         <v>264</v>
       </c>
-      <c r="R6" s="50">
+      <c r="R6" s="50" t="n">
         <f>N6</f>
-        <v>620</v>
+        <v>620.0</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -16788,24 +17326,24 @@
       <c r="E7" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="54" t="n">
         <f>'TC001-Req to Parts Master'!M7</f>
-        <v>5</v>
-      </c>
-      <c r="G7" s="50">
+        <v>5.0</v>
+      </c>
+      <c r="G7" s="50" t="n">
         <f>'TC001-Req to Parts Master'!L7</f>
-        <v>10</v>
-      </c>
-      <c r="H7" s="50">
+        <v>10.0</v>
+      </c>
+      <c r="H7" s="50" t="n">
         <f>'TC17-Customer Change Order'!B7</f>
-        <v>820</v>
+        <v>820.0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" s="55">
+      <c r="J7" s="55" t="n">
         <f>'TC2-Contract Parts Info'!R7</f>
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="K7" s="50" t="str">
         <f>'TC2-Contract Parts Info'!Q7</f>
@@ -16817,33 +17355,33 @@
       <c r="M7">
         <v>0</v>
       </c>
-      <c r="N7" s="50">
+      <c r="N7" s="50" t="n">
         <f>'TC17-Customer Change Order'!C7</f>
-        <v>620</v>
+        <v>620.0</v>
       </c>
       <c r="O7" t="s">
         <v>264</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <f>'TC17-Customer Change Order'!D7</f>
-        <v>200</v>
+        <v>200.0</v>
       </c>
       <c r="Q7" t="s">
         <v>264</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <f>'TC17-Customer Change Order'!F7</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6163CC49-A75B-4280-B4F9-F3B922B12AE7}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6163CC49-A75B-4280-B4F9-F3B922B12AE7}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:D7"/>
@@ -16851,8 +17389,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="5" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="6" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -16939,13 +17477,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70F73BA-30F4-4A3C-9B5B-7688535C3360}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70F73BA-30F4-4A3C-9B5B-7688535C3360}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
@@ -16953,8 +17491,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -16982,13 +17520,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E831F0-FB13-4336-A8E0-1297BED9134B}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E831F0-FB13-4336-A8E0-1297BED9134B}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -16996,9 +17534,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="6" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="2" max="6" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -17027,39 +17565,39 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
-        <f ca="1">"c"&amp;AutoIncrement!B2&amp;"B1"&amp;AutoIncrement!A2&amp;"-"&amp;G1&amp;"002"</f>
+        <f ca="1"><![CDATA["c"&AutoIncrement!B2&"B1"&AutoIncrement!A2&"-"&G1&"002"]]></f>
         <v>cPB106-2310002</v>
       </c>
       <c r="B2" t="str">
-        <f ca="1">"s"&amp;AutoIncrement!B2&amp;"B1"&amp;AutoIncrement!A2&amp;"-"&amp;G1&amp;"002"</f>
+        <f ca="1"><![CDATA["s"&AutoIncrement!B2&"B1"&AutoIncrement!A2&"-"&G1&"002"]]></f>
         <v>sPB106-2310002</v>
       </c>
       <c r="C2" t="str">
-        <f ca="1">"p"&amp;AutoIncrement!B2&amp;"B3"&amp;AutoIncrement!A2&amp;"-"&amp;G1&amp;"002"</f>
+        <f ca="1"><![CDATA["p"&AutoIncrement!B2&"B3"&AutoIncrement!A2&"-"&G1&"002"]]></f>
         <v>pPB306-2310002</v>
       </c>
       <c r="D2" t="str">
-        <f ca="1">"s"&amp;AutoIncrement!B2&amp;"B3"&amp;AutoIncrement!A2&amp;"-"&amp;G1&amp;"002"</f>
+        <f ca="1"><![CDATA["s"&AutoIncrement!B2&"B3"&AutoIncrement!A2&"-"&G1&"002"]]></f>
         <v>sPB306-2310002</v>
       </c>
       <c r="E2" t="str">
-        <f ca="1">"p"&amp;AutoIncrement!B2&amp;"S1"&amp;AutoIncrement!A2&amp;"-"&amp;G1&amp;"002"</f>
+        <f ca="1"><![CDATA["p"&AutoIncrement!B2&"S1"&AutoIncrement!A2&"-"&G1&"002"]]></f>
         <v>pPS106-2310002</v>
       </c>
       <c r="F2" t="str">
-        <f ca="1">"s"&amp;AutoIncrement!B2&amp;"S1"&amp;AutoIncrement!A2&amp;"-"&amp;G1&amp;"002"</f>
+        <f ca="1"><![CDATA["s"&AutoIncrement!B2&"S1"&AutoIncrement!A2&"-"&G1&"002"]]></f>
         <v>sPS106-2310002</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75" t="s">
+      <c r="C3" s="76"/>
+      <c r="D3" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="75"/>
+      <c r="E3" s="76"/>
       <c r="F3" t="s">
         <v>79</v>
       </c>
@@ -17069,13 +17607,13 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8ECA8AB-5DE2-486E-83E1-3F6F5F02D68A}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8ECA8AB-5DE2-486E-83E1-3F6F5F02D68A}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:D4"/>
@@ -17083,7 +17621,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="20.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="20.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -17139,13 +17677,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78000B3A-FAB5-4D2D-BAD2-DBADE138323C}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78000B3A-FAB5-4D2D-BAD2-DBADE138323C}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:B5"/>
@@ -17153,8 +17691,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -17183,13 +17721,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAB8FB1-E281-4503-B32C-10C1BBE8B58A}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAB8FB1-E281-4503-B32C-10C1BBE8B58A}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
@@ -17197,9 +17735,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -17216,22 +17754,22 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="53" t="str">
-        <f ca="1">"rs"&amp;AutoIncrement!B2&amp;"S1"&amp;AutoIncrement!A2&amp;"-"&amp;C1&amp;"002-01"</f>
+        <f ca="1"><![CDATA["rs"&AutoIncrement!B2&"S1"&AutoIncrement!A2&"-"&C1&"002-01"]]></f>
         <v>rsPS106-2310002-01</v>
       </c>
       <c r="B2" t="str">
-        <f ca="1">"rs"&amp;AutoIncrement!B2&amp;"S2"&amp;AutoIncrement!A2&amp;"-"&amp;C1&amp;"001-01"</f>
+        <f ca="1"><![CDATA["rs"&AutoIncrement!B2&"S2"&AutoIncrement!A2&"-"&C1&"001-01"]]></f>
         <v>rsPS206-2310001-01</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B4AD15-D096-4230-A30E-24390192ED27}">
-  <dimension ref="A1:AC5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B4AD15-D096-4230-A30E-24390192ED27}">
+  <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
@@ -17239,18 +17777,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="13" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="24.109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="25" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="21.109375" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="25.6640625" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="27.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="4.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.5546875" collapsed="true"/>
+    <col min="6" max="13" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="24.109375" collapsed="true"/>
+    <col min="15" max="25" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="21.109375" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="27.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
@@ -17677,25 +18215,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AD9E74-86A6-4197-AD56-16BB790FB53E}">
-  <dimension ref="A1:X2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AD9E74-86A6-4197-AD56-16BB790FB53E}">
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="S34" sqref="S33:S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="24" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="25" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="24" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="25" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row ht="14.4" r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
@@ -17769,7 +18307,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>153</v>
       </c>
@@ -17837,13 +18375,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C7BBB8-5E7A-4FF7-9522-F8E2260B1411}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C7BBB8-5E7A-4FF7-9522-F8E2260B1411}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
@@ -17851,8 +18389,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -17882,13 +18420,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1761E0-256C-4A66-8025-1CFCEE6EDB75}">
-  <dimension ref="A1:V3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1761E0-256C-4A66-8025-1CFCEE6EDB75}">
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD3"/>
@@ -17896,9 +18434,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="22" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="23" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.6640625" collapsed="true"/>
+    <col min="3" max="22" customWidth="true" style="2" width="20.6640625" collapsed="true"/>
+    <col min="23" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -18110,13 +18648,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F4A9E0-9584-48DC-A0C8-F142CA2C4600}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F4A9E0-9584-48DC-A0C8-F142CA2C4600}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD3"/>
@@ -18124,9 +18662,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="15" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.6640625" collapsed="true"/>
+    <col min="3" max="15" customWidth="true" style="2" width="20.6640625" collapsed="true"/>
+    <col min="16" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -18226,13 +18764,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE2C45E-A17B-4D6D-A750-2F30AB8DCC73}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE2C45E-A17B-4D6D-A750-2F30AB8DCC73}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD3"/>
@@ -18240,9 +18778,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="15" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.6640625" collapsed="true"/>
+    <col min="3" max="15" customWidth="true" style="2" width="20.6640625" collapsed="true"/>
+    <col min="16" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -18292,7 +18830,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="13.2" r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E4</f>
         <v>SP1-PS2-06-2310001</v>
@@ -18342,13 +18880,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FB7B56-758E-4B97-993E-D8162FB0BF63}">
-  <dimension ref="A1:R4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FB7B56-758E-4B97-993E-D8162FB0BF63}">
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
@@ -18356,7 +18894,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="18" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="15.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -18585,756 +19123,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F03E436-B1F3-4466-9A16-FF34D5B9799C}">
-  <dimension ref="A1:R4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="18" width="15.77734375" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E1" t="s">
-        <v>382</v>
-      </c>
-      <c r="F1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I1" t="s">
-        <v>373</v>
-      </c>
-      <c r="J1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L1" t="s">
-        <v>253</v>
-      </c>
-      <c r="M1" t="s">
-        <v>384</v>
-      </c>
-      <c r="N1" t="s">
-        <v>385</v>
-      </c>
-      <c r="O1" t="s">
-        <v>386</v>
-      </c>
-      <c r="P1" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>388</v>
-      </c>
-      <c r="R1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
-        <f>'TC2-Contract Parts Info'!B4</f>
-        <v>s1003</v>
-      </c>
-      <c r="B2" t="str">
-        <f>'TC6-Contract Parts Info'!B2</f>
-        <v>MY-PNA-BU-s1-003</v>
-      </c>
-      <c r="D2" t="str">
-        <f ca="1">'TC47-Autogen OrderNo Spot'!D2</f>
-        <v>sPB306-2310002</v>
-      </c>
-      <c r="E2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>660</v>
-      </c>
-      <c r="J2">
-        <v>2.5</v>
-      </c>
-      <c r="K2" t="s">
-        <v>183</v>
-      </c>
-      <c r="L2" t="s">
-        <v>383</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>264</v>
-      </c>
-      <c r="P2">
-        <v>660</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>264</v>
-      </c>
-      <c r="R2">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <f>'TC2-Contract Parts Info'!B5</f>
-        <v>s1004</v>
-      </c>
-      <c r="B3" t="str">
-        <f>'TC6-Contract Parts Info'!B3</f>
-        <v>MY-PNA-BU-s1-004</v>
-      </c>
-      <c r="D3" t="str">
-        <f ca="1">'TC47-Autogen OrderNo Spot'!D2</f>
-        <v>sPB306-2310002</v>
-      </c>
-      <c r="E3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>660</v>
-      </c>
-      <c r="J3">
-        <v>2.5</v>
-      </c>
-      <c r="K3" t="s">
-        <v>183</v>
-      </c>
-      <c r="L3" t="s">
-        <v>383</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>660</v>
-      </c>
-      <c r="O3" t="s">
-        <v>264</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>264</v>
-      </c>
-      <c r="R3">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <f>'TC2-Contract Parts Info'!B7</f>
-        <v>s1006</v>
-      </c>
-      <c r="B4" t="str">
-        <f>'TC6-Contract Parts Info'!B4</f>
-        <v>MY-PNA-BU-s1-006</v>
-      </c>
-      <c r="D4" t="str">
-        <f ca="1">'TC47-Autogen OrderNo Spot'!D2</f>
-        <v>sPB306-2310002</v>
-      </c>
-      <c r="E4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>660</v>
-      </c>
-      <c r="J4">
-        <v>2.5</v>
-      </c>
-      <c r="K4" t="s">
-        <v>183</v>
-      </c>
-      <c r="L4" t="s">
-        <v>383</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>600</v>
-      </c>
-      <c r="O4" t="s">
-        <v>264</v>
-      </c>
-      <c r="P4">
-        <v>60</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>264</v>
-      </c>
-      <c r="R4">
-        <v>660</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06889E5C-8D38-4080-B164-A1CBA673CFDC}">
-  <dimension ref="A1:S4"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="18" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="16.44140625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D1" t="s">
-        <v>372</v>
-      </c>
-      <c r="E1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K1" t="s">
-        <v>253</v>
-      </c>
-      <c r="L1" t="s">
-        <v>374</v>
-      </c>
-      <c r="M1" t="s">
-        <v>375</v>
-      </c>
-      <c r="N1" t="s">
-        <v>376</v>
-      </c>
-      <c r="O1" t="s">
-        <v>377</v>
-      </c>
-      <c r="P1" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>379</v>
-      </c>
-      <c r="R1" t="s">
-        <v>380</v>
-      </c>
-      <c r="S1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
-        <f>'TC2-Contract Parts Info'!B4</f>
-        <v>s1003</v>
-      </c>
-      <c r="B2" t="str">
-        <f>'TC6-Contract Parts Info'!B2</f>
-        <v>MY-PNA-BU-s1-003</v>
-      </c>
-      <c r="D2" t="str">
-        <f ca="1">'TC47-Autogen OrderNo Spot'!C2</f>
-        <v>pPB306-2310002</v>
-      </c>
-      <c r="E2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>660</v>
-      </c>
-      <c r="I2">
-        <v>100</v>
-      </c>
-      <c r="J2" t="s">
-        <v>147</v>
-      </c>
-      <c r="K2" t="s">
-        <v>383</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q2">
-        <v>660</v>
-      </c>
-      <c r="R2" t="s">
-        <v>264</v>
-      </c>
-      <c r="S2">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <f>'TC2-Contract Parts Info'!B5</f>
-        <v>s1004</v>
-      </c>
-      <c r="B3" t="str">
-        <f>'TC6-Contract Parts Info'!B3</f>
-        <v>MY-PNA-BU-s1-004</v>
-      </c>
-      <c r="D3" t="str">
-        <f ca="1">'TC47-Autogen OrderNo Spot'!C2</f>
-        <v>pPB306-2310002</v>
-      </c>
-      <c r="E3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>660</v>
-      </c>
-      <c r="I3">
-        <v>100</v>
-      </c>
-      <c r="J3" t="s">
-        <v>147</v>
-      </c>
-      <c r="K3" t="s">
-        <v>383</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>660</v>
-      </c>
-      <c r="P3" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3" t="s">
-        <v>264</v>
-      </c>
-      <c r="S3">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <f>'TC2-Contract Parts Info'!B7</f>
-        <v>s1006</v>
-      </c>
-      <c r="B4" t="str">
-        <f>'TC6-Contract Parts Info'!B4</f>
-        <v>MY-PNA-BU-s1-006</v>
-      </c>
-      <c r="D4" t="str">
-        <f ca="1">'TC47-Autogen OrderNo Spot'!C2</f>
-        <v>pPB306-2310002</v>
-      </c>
-      <c r="E4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>660</v>
-      </c>
-      <c r="I4">
-        <v>100</v>
-      </c>
-      <c r="J4" t="s">
-        <v>147</v>
-      </c>
-      <c r="K4" t="s">
-        <v>383</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>600</v>
-      </c>
-      <c r="P4" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q4">
-        <v>60</v>
-      </c>
-      <c r="R4" t="s">
-        <v>264</v>
-      </c>
-      <c r="S4">
-        <v>660</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7DDA6F-D2F4-4C81-9148-1F02233EC501}">
-  <dimension ref="A1:R4"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="18" width="15.77734375" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E1" t="s">
-        <v>382</v>
-      </c>
-      <c r="F1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I1" t="s">
-        <v>373</v>
-      </c>
-      <c r="J1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L1" t="s">
-        <v>253</v>
-      </c>
-      <c r="M1" t="s">
-        <v>384</v>
-      </c>
-      <c r="N1" t="s">
-        <v>385</v>
-      </c>
-      <c r="O1" t="s">
-        <v>386</v>
-      </c>
-      <c r="P1" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>388</v>
-      </c>
-      <c r="R1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
-        <f>'TC2-Contract Parts Info'!B4</f>
-        <v>s1003</v>
-      </c>
-      <c r="B2" t="str">
-        <f>'TC2-Contract Parts Info'!A4</f>
-        <v>PK-TTAP-s1-003</v>
-      </c>
-      <c r="D2" t="str">
-        <f ca="1">'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sPB106-2310002</v>
-      </c>
-      <c r="E2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>660</v>
-      </c>
-      <c r="J2">
-        <v>100</v>
-      </c>
-      <c r="K2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L2" t="s">
-        <v>383</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>264</v>
-      </c>
-      <c r="P2">
-        <v>660</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>264</v>
-      </c>
-      <c r="R2">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <f>'TC2-Contract Parts Info'!B5</f>
-        <v>s1004</v>
-      </c>
-      <c r="B3" t="str">
-        <f>'TC2-Contract Parts Info'!A5</f>
-        <v>PK-TTAP-s1-004</v>
-      </c>
-      <c r="D3" t="str">
-        <f ca="1">'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sPB106-2310002</v>
-      </c>
-      <c r="E3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>660</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
-      </c>
-      <c r="K3" t="s">
-        <v>147</v>
-      </c>
-      <c r="L3" t="s">
-        <v>383</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>660</v>
-      </c>
-      <c r="O3" t="s">
-        <v>264</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>264</v>
-      </c>
-      <c r="R3">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <f>'TC2-Contract Parts Info'!B7</f>
-        <v>s1006</v>
-      </c>
-      <c r="B4" t="str">
-        <f>'TC2-Contract Parts Info'!A7</f>
-        <v>PK-TTAP-s1-006</v>
-      </c>
-      <c r="D4" t="str">
-        <f ca="1">'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sPB106-2310002</v>
-      </c>
-      <c r="E4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>660</v>
-      </c>
-      <c r="J4">
-        <v>100</v>
-      </c>
-      <c r="K4" t="s">
-        <v>147</v>
-      </c>
-      <c r="L4" t="s">
-        <v>383</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>600</v>
-      </c>
-      <c r="O4" t="s">
-        <v>264</v>
-      </c>
-      <c r="P4">
-        <v>60</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>264</v>
-      </c>
-      <c r="R4">
-        <v>660</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3656D698-790D-4F67-8855-EFFA32E0A306}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F03E436-B1F3-4466-9A16-FF34D5B9799C}">
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19343,8 +19138,252 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="18" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="15.77734375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" t="s">
+        <v>253</v>
+      </c>
+      <c r="M1" t="s">
+        <v>384</v>
+      </c>
+      <c r="N1" t="s">
+        <v>385</v>
+      </c>
+      <c r="O1" t="s">
+        <v>386</v>
+      </c>
+      <c r="P1" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>388</v>
+      </c>
+      <c r="R1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>'TC2-Contract Parts Info'!B4</f>
+        <v>s1003</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'TC6-Contract Parts Info'!B2</f>
+        <v>MY-PNA-BU-s1-003</v>
+      </c>
+      <c r="D2" t="str">
+        <f ca="1">'TC47-Autogen OrderNo Spot'!D2</f>
+        <v>sPB306-2310002</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>660</v>
+      </c>
+      <c r="J2">
+        <v>2.5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L2" t="s">
+        <v>383</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>264</v>
+      </c>
+      <c r="P2">
+        <v>660</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>264</v>
+      </c>
+      <c r="R2">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>'TC2-Contract Parts Info'!B5</f>
+        <v>s1004</v>
+      </c>
+      <c r="B3" t="str">
+        <f>'TC6-Contract Parts Info'!B3</f>
+        <v>MY-PNA-BU-s1-004</v>
+      </c>
+      <c r="D3" t="str">
+        <f ca="1">'TC47-Autogen OrderNo Spot'!D2</f>
+        <v>sPB306-2310002</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>660</v>
+      </c>
+      <c r="J3">
+        <v>2.5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>183</v>
+      </c>
+      <c r="L3" t="s">
+        <v>383</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>660</v>
+      </c>
+      <c r="O3" t="s">
+        <v>264</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>264</v>
+      </c>
+      <c r="R3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>'TC2-Contract Parts Info'!B7</f>
+        <v>s1006</v>
+      </c>
+      <c r="B4" t="str">
+        <f>'TC6-Contract Parts Info'!B4</f>
+        <v>MY-PNA-BU-s1-006</v>
+      </c>
+      <c r="D4" t="str">
+        <f ca="1">'TC47-Autogen OrderNo Spot'!D2</f>
+        <v>sPB306-2310002</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>660</v>
+      </c>
+      <c r="J4">
+        <v>2.5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>183</v>
+      </c>
+      <c r="L4" t="s">
+        <v>383</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>600</v>
+      </c>
+      <c r="O4" t="s">
+        <v>264</v>
+      </c>
+      <c r="P4">
+        <v>60</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>264</v>
+      </c>
+      <c r="R4">
+        <v>660</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06889E5C-8D38-4080-B164-A1CBA673CFDC}">
+  <dimension ref="A1:T4"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="18" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="16.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -19412,15 +19451,12 @@
         <v>s1003</v>
       </c>
       <c r="B2" t="str">
-        <f>'TC2-Contract Parts Info'!A4</f>
-        <v>PK-TTAP-s1-003</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
+        <f>'TC6-Contract Parts Info'!B2</f>
+        <v>MY-PNA-BU-s1-003</v>
       </c>
       <c r="D2" t="str">
-        <f ca="1">'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cPB106-2310002</v>
+        <f ca="1">'TC47-Autogen OrderNo Spot'!C2</f>
+        <v>pPB306-2310002</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -19435,7 +19471,7 @@
         <v>660</v>
       </c>
       <c r="I2">
-        <v>2.0499999999999998</v>
+        <v>100</v>
       </c>
       <c r="J2" t="s">
         <v>147</v>
@@ -19474,15 +19510,12 @@
         <v>s1004</v>
       </c>
       <c r="B3" t="str">
-        <f>'TC2-Contract Parts Info'!A5</f>
-        <v>PK-TTAP-s1-004</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
+        <f>'TC6-Contract Parts Info'!B3</f>
+        <v>MY-PNA-BU-s1-004</v>
       </c>
       <c r="D3" t="str">
-        <f ca="1">'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cPB106-2310002</v>
+        <f ca="1">'TC47-Autogen OrderNo Spot'!C2</f>
+        <v>pPB306-2310002</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -19497,7 +19530,7 @@
         <v>660</v>
       </c>
       <c r="I3">
-        <v>2.0499999999999998</v>
+        <v>100</v>
       </c>
       <c r="J3" t="s">
         <v>147</v>
@@ -19536,6 +19569,511 @@
         <v>s1006</v>
       </c>
       <c r="B4" t="str">
+        <f>'TC6-Contract Parts Info'!B4</f>
+        <v>MY-PNA-BU-s1-006</v>
+      </c>
+      <c r="D4" t="str">
+        <f ca="1">'TC47-Autogen OrderNo Spot'!C2</f>
+        <v>pPB306-2310002</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>660</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" t="s">
+        <v>383</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>600</v>
+      </c>
+      <c r="P4" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q4">
+        <v>60</v>
+      </c>
+      <c r="R4" t="s">
+        <v>264</v>
+      </c>
+      <c r="S4">
+        <v>660</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7DDA6F-D2F4-4C81-9148-1F02233EC501}">
+  <dimension ref="A1:S4"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="18" customWidth="true" width="15.77734375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" t="s">
+        <v>253</v>
+      </c>
+      <c r="M1" t="s">
+        <v>384</v>
+      </c>
+      <c r="N1" t="s">
+        <v>385</v>
+      </c>
+      <c r="O1" t="s">
+        <v>386</v>
+      </c>
+      <c r="P1" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>388</v>
+      </c>
+      <c r="R1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>'TC2-Contract Parts Info'!B4</f>
+        <v>s1003</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'TC2-Contract Parts Info'!A4</f>
+        <v>PK-TTAP-s1-003</v>
+      </c>
+      <c r="D2" t="str">
+        <f ca="1">'TC47-Autogen OrderNo Spot'!B2</f>
+        <v>sPB106-2310002</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>660</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L2" t="s">
+        <v>383</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>264</v>
+      </c>
+      <c r="P2">
+        <v>660</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>264</v>
+      </c>
+      <c r="R2">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>'TC2-Contract Parts Info'!B5</f>
+        <v>s1004</v>
+      </c>
+      <c r="B3" t="str">
+        <f>'TC2-Contract Parts Info'!A5</f>
+        <v>PK-TTAP-s1-004</v>
+      </c>
+      <c r="D3" t="str">
+        <f ca="1">'TC47-Autogen OrderNo Spot'!B2</f>
+        <v>sPB106-2310002</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>660</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L3" t="s">
+        <v>383</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>660</v>
+      </c>
+      <c r="O3" t="s">
+        <v>264</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>264</v>
+      </c>
+      <c r="R3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>'TC2-Contract Parts Info'!B7</f>
+        <v>s1006</v>
+      </c>
+      <c r="B4" t="str">
+        <f>'TC2-Contract Parts Info'!A7</f>
+        <v>PK-TTAP-s1-006</v>
+      </c>
+      <c r="D4" t="str">
+        <f ca="1">'TC47-Autogen OrderNo Spot'!B2</f>
+        <v>sPB106-2310002</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>660</v>
+      </c>
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="K4" t="s">
+        <v>147</v>
+      </c>
+      <c r="L4" t="s">
+        <v>383</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>600</v>
+      </c>
+      <c r="O4" t="s">
+        <v>264</v>
+      </c>
+      <c r="P4">
+        <v>60</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>264</v>
+      </c>
+      <c r="R4">
+        <v>660</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3656D698-790D-4F67-8855-EFFA32E0A306}">
+  <dimension ref="A1:T4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="18" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="16.44140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" t="s">
+        <v>253</v>
+      </c>
+      <c r="L1" t="s">
+        <v>374</v>
+      </c>
+      <c r="M1" t="s">
+        <v>375</v>
+      </c>
+      <c r="N1" t="s">
+        <v>376</v>
+      </c>
+      <c r="O1" t="s">
+        <v>377</v>
+      </c>
+      <c r="P1" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>379</v>
+      </c>
+      <c r="R1" t="s">
+        <v>380</v>
+      </c>
+      <c r="S1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>'TC2-Contract Parts Info'!B4</f>
+        <v>s1003</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'TC2-Contract Parts Info'!A4</f>
+        <v>PK-TTAP-s1-003</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="str">
+        <f ca="1">'TC47-Autogen OrderNo Spot'!A2</f>
+        <v>cPB106-2310002</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>660</v>
+      </c>
+      <c r="I2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="J2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K2" t="s">
+        <v>383</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q2">
+        <v>660</v>
+      </c>
+      <c r="R2" t="s">
+        <v>264</v>
+      </c>
+      <c r="S2">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>'TC2-Contract Parts Info'!B5</f>
+        <v>s1004</v>
+      </c>
+      <c r="B3" t="str">
+        <f>'TC2-Contract Parts Info'!A5</f>
+        <v>PK-TTAP-s1-004</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="str">
+        <f ca="1">'TC47-Autogen OrderNo Spot'!A2</f>
+        <v>cPB106-2310002</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>660</v>
+      </c>
+      <c r="I3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="J3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K3" t="s">
+        <v>383</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>660</v>
+      </c>
+      <c r="P3" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>264</v>
+      </c>
+      <c r="S3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>'TC2-Contract Parts Info'!B7</f>
+        <v>s1006</v>
+      </c>
+      <c r="B4" t="str">
         <f>'TC2-Contract Parts Info'!A7</f>
         <v>PK-TTAP-s1-006</v>
       </c>
@@ -19594,14 +20132,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEDF32D-5728-42B8-B179-A4930A65BAB6}">
-  <dimension ref="A1:R4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEDF32D-5728-42B8-B179-A4930A65BAB6}">
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
@@ -19609,7 +20147,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="18" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="15.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -19846,25 +20384,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C936284A-9B3D-4079-8AB1-102C762790D7}">
-  <dimension ref="A1:S7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C936284A-9B3D-4079-8AB1-102C762790D7}">
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="18" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="26.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="20" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="5" max="18" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="2" width="26.6640625" collapsed="true"/>
+    <col min="20" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -20289,21 +20827,21 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{6E1DE576-7A37-4C64-B881-DFF8AC16760D}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="E2:E7" type="list" xr:uid="{6E1DE576-7A37-4C64-B881-DFF8AC16760D}">
       <formula1>REPACKING_TYPE</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q2:Q7" xr:uid="{F6DC1429-A7E3-4E8D-9E38-D39659998A43}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="Q2:Q7" type="list" xr:uid="{F6DC1429-A7E3-4E8D-9E38-D39659998A43}">
       <formula1>CURRENCY_CODE</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C1376D-415D-43C3-9865-4E1A3AA1A16B}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C1376D-415D-43C3-9865-4E1A3AA1A16B}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
@@ -20311,8 +20849,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -20342,13 +20880,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79BBB87-EFAA-472E-ABFA-D929EF37873B}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79BBB87-EFAA-472E-ABFA-D929EF37873B}">
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:H1048576"/>
@@ -20356,10 +20894,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" customWidth="1" collapsed="1"/>
-    <col min="3" max="8" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="42.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="8" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="42.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -20524,13 +21062,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885E8C00-1989-4404-826A-0736319B34FF}">
-  <dimension ref="A1:V3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885E8C00-1989-4404-826A-0736319B34FF}">
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -20538,9 +21076,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="22" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="23" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.6640625" collapsed="true"/>
+    <col min="3" max="22" customWidth="true" style="2" width="20.6640625" collapsed="true"/>
+    <col min="23" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -20752,13 +21290,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC760812-2784-41E6-BC79-6E2615E33055}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC760812-2784-41E6-BC79-6E2615E33055}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
@@ -20766,9 +21304,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="15" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.6640625" collapsed="true"/>
+    <col min="3" max="15" customWidth="true" style="2" width="20.6640625" collapsed="true"/>
+    <col min="16" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -20868,13 +21406,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316C3CEE-F002-4D2A-A455-6D46BAC269B1}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316C3CEE-F002-4D2A-A455-6D46BAC269B1}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:F2"/>
@@ -20882,9 +21420,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="15" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.6640625" collapsed="true"/>
+    <col min="3" max="15" customWidth="true" style="2" width="20.6640625" collapsed="true"/>
+    <col min="16" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -20934,7 +21472,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="13.2" r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E4</f>
         <v>SP1-PS2-06-2310001</v>
@@ -20984,13 +21522,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A2A667-072D-4DED-9BCF-DF9A83D721F8}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A2A667-072D-4DED-9BCF-DF9A83D721F8}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L40" sqref="L40"/>
@@ -20998,8 +21536,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -21026,7 +21564,7 @@
         <v>i-MY-PNA-DC-PS2-06-2310001</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B5" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
+        <f ca="1" ref="B3:B5" si="0" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
         <v>31 Oct 2023</v>
       </c>
     </row>
@@ -21036,7 +21574,7 @@
         <v>i-MY-PNA-DC-PS2-06-2310001</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>31 Oct 2023</v>
       </c>
     </row>
@@ -21046,18 +21584,18 @@
         <v>i-MY-PNA-DC-PS2-06-2310001</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>31 Oct 2023</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9CA430-8349-4D97-A312-49BE11D3346B}">
-  <dimension ref="A1:R4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9CA430-8349-4D97-A312-49BE11D3346B}">
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
@@ -21065,7 +21603,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="18" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="15.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -21293,14 +21831,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51ED2276-CF0D-421E-8E14-6CBD612A18EA}">
-  <dimension ref="A1:Q4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51ED2276-CF0D-421E-8E14-6CBD612A18EA}">
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -21308,7 +21846,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="17" customWidth="true" width="15.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -21524,14 +22062,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DB2AE4-6DBD-4599-BBBD-B74C8A302690}">
-  <dimension ref="A1:S4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DB2AE4-6DBD-4599-BBBD-B74C8A302690}">
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -21539,8 +22077,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="18" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="16.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -21780,14 +22318,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9181535E-CC73-4B99-A809-0235BF7FFF75}">
-  <dimension ref="A1:R4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9181535E-CC73-4B99-A809-0235BF7FFF75}">
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -21795,7 +22333,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="18" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="15.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -22023,27 +22561,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD76B675-FCFA-42EE-A75C-9ED4202D7ACA}">
-  <dimension ref="A1:Z6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD76B675-FCFA-42EE-A75C-9ED4202D7ACA}">
+  <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="23" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="25.77734375" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="18" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="4.77734375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="4" max="23" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
@@ -22225,13 +22763,13 @@
       <c r="Y6" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF232363-4D27-4B9F-AF64-63F13D12FD63}">
-  <dimension ref="A1:S4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF232363-4D27-4B9F-AF64-63F13D12FD63}">
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -22239,8 +22777,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="18" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="16.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -22489,14 +23027,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7623CB-7485-4505-9711-C66466DA1232}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7623CB-7485-4505-9711-C66466DA1232}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -22504,9 +23042,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="42.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="42.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -22569,13 +23107,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D86A22-0D5B-4D50-BA71-F4C8DEEF1701}">
-  <dimension ref="A1:V3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D86A22-0D5B-4D50-BA71-F4C8DEEF1701}">
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -22583,9 +23121,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="22" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="23" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.6640625" collapsed="true"/>
+    <col min="3" max="22" customWidth="true" style="2" width="20.6640625" collapsed="true"/>
+    <col min="23" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -22797,13 +23335,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B543E1-C2F9-4F5E-A8C2-BE9BD480CAA0}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B543E1-C2F9-4F5E-A8C2-BE9BD480CAA0}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -22811,9 +23349,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="15" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.6640625" collapsed="true"/>
+    <col min="3" max="15" customWidth="true" style="2" width="20.6640625" collapsed="true"/>
+    <col min="16" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -22913,13 +23451,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565B5EDF-B499-49FE-9524-B52ED55F4F13}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565B5EDF-B499-49FE-9524-B52ED55F4F13}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -22927,9 +23465,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="15" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.6640625" collapsed="true"/>
+    <col min="3" max="15" customWidth="true" style="2" width="20.6640625" collapsed="true"/>
+    <col min="16" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -22979,7 +23517,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="13.2" r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E4</f>
         <v>SP1-PS2-06-2310001</v>
@@ -23029,13 +23567,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3541AEA-1AD1-42BD-90BE-AF06F0C7CF34}">
-  <dimension ref="A1:AC5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3541AEA-1AD1-42BD-90BE-AF06F0C7CF34}">
+  <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
@@ -23043,18 +23581,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="13" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="24.109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="25" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="21.109375" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="25.6640625" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="27.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="4.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="31.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.5546875" collapsed="true"/>
+    <col min="6" max="13" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="24.109375" collapsed="true"/>
+    <col min="15" max="25" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="21.109375" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="27.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
@@ -23244,7 +23782,7 @@
         <v>o-MY-PNA-DC-PS2-06-2310001</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D4" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
+        <f ca="1" ref="D3:D4" si="0" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
         <v>31 Oct 2023</v>
       </c>
       <c r="E3" t="str">
@@ -23323,7 +23861,7 @@
         <v>o-MY-PNA-DC-PS2-06-2310001</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1" si="0" t="shared"/>
         <v>31 Oct 2023</v>
       </c>
       <c r="E4" t="str">
@@ -23497,13 +24035,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557364EC-2587-4097-B396-C733F06BDA3E}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557364EC-2587-4097-B396-C733F06BDA3E}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -23511,8 +24049,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="28.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -23542,13 +24080,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F1F4A9-7BF2-46C7-8DE7-14F3DC622CFF}">
-  <dimension ref="A1:R4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F1F4A9-7BF2-46C7-8DE7-14F3DC622CFF}">
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
@@ -23556,7 +24094,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="18" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="15.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -23784,14 +24322,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BDC591-2C76-4A7F-84D6-01E144C3B521}">
-  <dimension ref="A1:S4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BDC591-2C76-4A7F-84D6-01E144C3B521}">
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
@@ -23799,7 +24337,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="19" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="19" customWidth="true" width="15.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -24039,14 +24577,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2942BCB-47BD-48A2-81AC-11D891D1F509}">
-  <dimension ref="A1:R4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2942BCB-47BD-48A2-81AC-11D891D1F509}">
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="Q30" sqref="Q30"/>
@@ -24054,7 +24592,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="18" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="15.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -24291,26 +24829,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964E2CA5-3B2C-49F9-84A2-423CC74B35D8}">
-  <dimension ref="A1:X2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964E2CA5-3B2C-49F9-84A2-423CC74B35D8}">
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="24" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="25" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="24" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="25" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row ht="14.4" r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
@@ -24384,7 +24922,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>112</v>
       </c>
@@ -24456,13 +24994,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792C3127-D423-43DE-AA8B-CB8CD61E82CE}">
-  <dimension ref="A1:V3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792C3127-D423-43DE-AA8B-CB8CD61E82CE}">
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:V1"/>
@@ -24470,9 +25008,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="22" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="23" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.6640625" collapsed="true"/>
+    <col min="3" max="22" customWidth="true" style="2" width="20.6640625" collapsed="true"/>
+    <col min="23" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -24684,13 +25222,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CBE502-D2C5-40B2-8CBE-8E9A45279F9A}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CBE502-D2C5-40B2-8CBE-8E9A45279F9A}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -24698,9 +25236,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="15" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.6640625" collapsed="true"/>
+    <col min="3" max="15" customWidth="true" style="2" width="20.6640625" collapsed="true"/>
+    <col min="16" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -24800,13 +25338,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A517EA-F9C1-45B6-B85F-2E8AC817BF4A}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A517EA-F9C1-45B6-B85F-2E8AC817BF4A}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:V1"/>
@@ -24814,9 +25352,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="15" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.6640625" collapsed="true"/>
+    <col min="3" max="15" customWidth="true" style="2" width="20.6640625" collapsed="true"/>
+    <col min="16" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -24866,7 +25404,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="13.2" r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E4</f>
         <v>SP1-PS2-06-2310001</v>
@@ -24916,13 +25454,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43C25A0-8CEE-474D-9859-BFA42304C446}">
-  <dimension ref="A1:AK4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43C25A0-8CEE-474D-9859-BFA42304C446}">
+  <dimension ref="A1:AL4"/>
   <sheetViews>
     <sheetView topLeftCell="AB1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:V1"/>
@@ -24930,12 +25468,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="22" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="24" max="27" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="28" max="37" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="38" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.6640625" collapsed="true"/>
+    <col min="3" max="22" customWidth="true" style="2" width="20.6640625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="24" max="27" customWidth="true" style="2" width="20.6640625" collapsed="true"/>
+    <col min="28" max="37" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="38" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
@@ -25393,13 +25931,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF48F8E2-194F-4DC4-8FF3-822E5BA6FA9E}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF48F8E2-194F-4DC4-8FF3-822E5BA6FA9E}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
@@ -25407,7 +25945,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="25.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -25445,13 +25983,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701CCCF0-F24D-4D90-8B72-109EE6474988}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701CCCF0-F24D-4D90-8B72-109EE6474988}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
@@ -25459,9 +25997,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="8" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="44.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="3" max="8" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="44.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -25592,13 +26130,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A68731-D837-4182-B0B6-53F590B30F8E}">
-  <dimension ref="A1:V3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A68731-D837-4182-B0B6-53F590B30F8E}">
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M43" sqref="M43"/>
@@ -25606,9 +26144,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="22" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="23" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.6640625" collapsed="true"/>
+    <col min="3" max="22" customWidth="true" style="2" width="20.6640625" collapsed="true"/>
+    <col min="23" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -25820,13 +26358,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539A7982-6062-42D6-A077-DFD32C13B06D}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539A7982-6062-42D6-A077-DFD32C13B06D}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M43" sqref="M43"/>
@@ -25834,9 +26372,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="15" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.6640625" collapsed="true"/>
+    <col min="3" max="15" customWidth="true" style="2" width="20.6640625" collapsed="true"/>
+    <col min="16" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -25936,13 +26474,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1F1861-43E0-47AB-BDA8-3E9A2C599FA9}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1F1861-43E0-47AB-BDA8-3E9A2C599FA9}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M43" sqref="M43"/>
@@ -25950,9 +26488,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="15" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.6640625" collapsed="true"/>
+    <col min="3" max="15" customWidth="true" style="2" width="20.6640625" collapsed="true"/>
+    <col min="16" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -26002,7 +26540,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="13.2" r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E4</f>
         <v>SP1-PS2-06-2310001</v>
@@ -26052,13 +26590,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E57809-F180-44FA-854E-6DB65F9F83F3}">
-  <dimension ref="A1:AK4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E57809-F180-44FA-854E-6DB65F9F83F3}">
+  <dimension ref="A1:AL4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M43" sqref="M43"/>
@@ -26066,12 +26604,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="22" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="24" max="27" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="28" max="37" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="38" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.6640625" collapsed="true"/>
+    <col min="3" max="22" customWidth="true" style="2" width="20.6640625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="24" max="27" customWidth="true" style="2" width="20.6640625" collapsed="true"/>
+    <col min="28" max="37" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="38" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
@@ -26529,24 +27067,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E3E846-8612-44D4-9AFD-B7D07F81F28A}">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E3E846-8612-44D4-9AFD-B7D07F81F28A}">
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="9" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="3" customWidth="true" style="2" width="25.77734375" collapsed="true"/>
+    <col min="4" max="9" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="2" width="26.6640625" collapsed="true"/>
+    <col min="11" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -26681,14 +27219,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D9E9E2-90B4-4602-8379-D354F79B6E55}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D9E9E2-90B4-4602-8379-D354F79B6E55}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B6"/>
@@ -26696,8 +27234,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -26727,13 +27265,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99625522-DD57-4001-92EB-D5831E88A615}">
-  <dimension ref="A1:AK4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99625522-DD57-4001-92EB-D5831E88A615}">
+  <dimension ref="A1:AL4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F52" sqref="F52"/>
@@ -26741,12 +27279,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="22" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="24" max="27" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="28" max="37" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="38" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.6640625" collapsed="true"/>
+    <col min="3" max="22" customWidth="true" style="2" width="20.6640625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="24" max="27" customWidth="true" style="2" width="20.6640625" collapsed="true"/>
+    <col min="28" max="37" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="38" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
@@ -27204,13 +27742,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72431182-F20B-4CB6-9BF1-138CDF189B7D}">
-  <dimension ref="A1:AK4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72431182-F20B-4CB6-9BF1-138CDF189B7D}">
+  <dimension ref="A1:AL4"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="AC4" sqref="T4:AC4"/>
@@ -27218,12 +27756,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="22" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="24" max="27" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="28" max="37" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="38" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.6640625" collapsed="true"/>
+    <col min="3" max="22" customWidth="true" style="2" width="20.6640625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="24" max="27" customWidth="true" style="2" width="20.6640625" collapsed="true"/>
+    <col min="28" max="37" customWidth="true" style="2" width="20.77734375" collapsed="true"/>
+    <col min="38" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
@@ -27681,13 +28219,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AF31E2-588B-4649-8029-6420C85DD400}">
-  <dimension ref="A1:AC5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AF31E2-588B-4649-8029-6420C85DD400}">
+  <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
@@ -27695,21 +28233,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.5546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="13" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="24.109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="15" max="23" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="17.88671875" style="2" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="21.109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="27.21875" style="2" customWidth="1" collapsed="1"/>
-    <col min="30" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="4.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="33.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="22.5546875" collapsed="true"/>
+    <col min="6" max="13" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="2" width="24.109375" collapsed="true"/>
+    <col min="15" max="23" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="2" width="17.88671875" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="2" width="21.109375" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="2" width="25.6640625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="2" width="15.77734375" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="2" width="27.21875" collapsed="true"/>
+    <col min="30" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
@@ -28143,17 +28681,17 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="I2:I5" xr:uid="{07984675-C100-4D82-B4FF-31ACBD2D4863}">
+    <dataValidation allowBlank="1" sqref="I2:I5" type="list" xr:uid="{07984675-C100-4D82-B4FF-31ACBD2D4863}">
       <formula1>"Sea,Air,Truck,LCL,Hand Carry,Others"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3EEEE6-B289-47CF-8DE7-A6A2FF5BC947}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3EEEE6-B289-47CF-8DE7-A6A2FF5BC947}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K36" sqref="K36"/>
@@ -28161,8 +28699,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -28192,13 +28730,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF73A4B-C68A-43D4-8630-E19DD9005336}">
-  <dimension ref="A1:Z5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF73A4B-C68A-43D4-8630-E19DD9005336}">
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
@@ -28206,9 +28744,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="26" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="27" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.6640625" collapsed="true"/>
+    <col min="3" max="26" customWidth="true" style="2" width="20.6640625" collapsed="true"/>
+    <col min="27" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
@@ -28612,13 +29150,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352A00B5-D02F-4C38-BB99-907D191BAA2E}">
-  <dimension ref="A1:Z5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352A00B5-D02F-4C38-BB99-907D191BAA2E}">
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -28626,9 +29164,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="26" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="27" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.6640625" collapsed="true"/>
+    <col min="3" max="26" customWidth="true" style="2" width="20.6640625" collapsed="true"/>
+    <col min="27" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
@@ -29032,13 +29570,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAD4283-60EA-46FB-BA4D-BE7BDBF89C95}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAD4283-60EA-46FB-BA4D-BE7BDBF89C95}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
@@ -29046,8 +29584,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -29077,13 +29615,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86538E9-DC0F-41A5-9A2D-6FA6F49CAEAF}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86538E9-DC0F-41A5-9A2D-6FA6F49CAEAF}">
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1:I5"/>
@@ -29091,10 +29629,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" customWidth="1" collapsed="1"/>
-    <col min="3" max="8" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="42.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="8" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="42.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -29255,13 +29793,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9350DC2-E670-43AA-B3A3-935A176BD77E}">
-  <dimension ref="A1:Z5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9350DC2-E670-43AA-B3A3-935A176BD77E}">
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
@@ -29269,9 +29807,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="26" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="27" max="16384" width="8.88671875" style="2" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="2" width="25.6640625" collapsed="true"/>
+    <col min="3" max="26" customWidth="true" style="2" width="20.6640625" collapsed="true"/>
+    <col min="27" max="16384" style="2" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
@@ -29675,20 +30213,11 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097067AA9A672F346A1B58BE42AD9877C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0ef2f7333e7198281d6d67dc69cb8223">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3e097ef-e44a-4305-852f-ab2ffd6265ef" xmlns:ns3="1febb254-c9d7-4bcc-acc6-e4d894a01278" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e89638c2f66ce85fb696f0de602d87f" ns2:_="" ns3:_="">
     <xsd:import namespace="c3e097ef-e44a-4305-852f-ab2ffd6265ef"/>
@@ -29883,15 +30412,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E2C79DA-185A-4930-B550-F1E1B294AAD1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8199A157-58BA-4B82-BEE5-7E82A9CB26D1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29908,4 +30438,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E2C79DA-185A-4930-B550-F1E1B294AAD1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Excel Files/Scenario 1/S1_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 1/S1_TestCases_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawe\git\tb-ttap-brivge-v2-fatin\Excel Files\Scenario 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luqma\git\tb-ttap-brivge-v2\Excel Files\Scenario 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20878038-9AF4-44E6-BF6A-236448562A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15762EC-F6EC-4A1F-835D-A222AA9CB59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="547" firstSheet="118" activeTab="121" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="547" firstSheet="93" activeTab="94" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AutoIncrement" sheetId="1" r:id="rId1"/>
@@ -107,40 +107,42 @@
     <sheet name="TC138-BU1 Cargo Tracking" sheetId="105" r:id="rId92"/>
     <sheet name="TC142-Sup2 Outbound Details" sheetId="106" r:id="rId93"/>
     <sheet name="TC142-OutboundNo" sheetId="107" r:id="rId94"/>
-    <sheet name="TC149-Customer Cargo Tracking" sheetId="108" r:id="rId95"/>
-    <sheet name="TC151-BU2 Cargo Tracking" sheetId="109" r:id="rId96"/>
-    <sheet name="TC156-Sup2 SellerGI Invoice" sheetId="110" r:id="rId97"/>
-    <sheet name="TC159-Sup2 Revise Shipment" sheetId="111" r:id="rId98"/>
-    <sheet name="TC162-Customer Cargo Tracking" sheetId="112" r:id="rId99"/>
-    <sheet name="TC165-Customer Cargo Tracking" sheetId="113" r:id="rId100"/>
-    <sheet name="TC168-DC2 Inbound Details" sheetId="114" r:id="rId101"/>
-    <sheet name="TC169-Sup2 SO" sheetId="117" r:id="rId102"/>
-    <sheet name="TC170-BU2 PO" sheetId="118" r:id="rId103"/>
-    <sheet name="TC171-BU2 SO" sheetId="119" r:id="rId104"/>
-    <sheet name="TC172-BU1 PO" sheetId="120" r:id="rId105"/>
-    <sheet name="TC173-BU1 SO" sheetId="121" r:id="rId106"/>
-    <sheet name="TC174-DC2 Outbound Details" sheetId="115" r:id="rId107"/>
-    <sheet name="TC174-OutboundNo" sheetId="116" r:id="rId108"/>
-    <sheet name="TC186-BU2 SellerGI Invoice" sheetId="123" r:id="rId109"/>
-    <sheet name="TC189-Customer Cargo Tracking" sheetId="124" r:id="rId110"/>
-    <sheet name="TC192-DC1 Inbound Details" sheetId="125" r:id="rId111"/>
-    <sheet name="TC197-DC1 Shipping Detail" sheetId="126" r:id="rId112"/>
-    <sheet name="TC198-Customer Cargo Tracking" sheetId="127" r:id="rId113"/>
-    <sheet name="TC202.1-BU3 Cargo Tracking" sheetId="131" r:id="rId114"/>
-    <sheet name="TC202.2-BU3 Cargo Tracking" sheetId="132" r:id="rId115"/>
-    <sheet name="TC202.3-BU3 Cargo Tracking" sheetId="133" r:id="rId116"/>
-    <sheet name="TC202.4-BU3 Cargo Tracking" sheetId="134" r:id="rId117"/>
-    <sheet name="TC204-DC1 Outbound Details" sheetId="135" r:id="rId118"/>
-    <sheet name="TC204-OutboundNo" sheetId="136" r:id="rId119"/>
-    <sheet name="TC205.1-BU1 SO-Regular" sheetId="137" r:id="rId120"/>
-    <sheet name="TC205.2-BU1 SO-Spot" sheetId="98" r:id="rId121"/>
-    <sheet name="TC206.1-Customer CO-Regular" sheetId="139" r:id="rId122"/>
-    <sheet name="TC206.2-Customer CO-Spot" sheetId="140" r:id="rId123"/>
+    <sheet name="TC143" sheetId="141" r:id="rId95"/>
+    <sheet name="TC144-148" sheetId="142" r:id="rId96"/>
+    <sheet name="TC149-Customer Cargo Tracking" sheetId="108" r:id="rId97"/>
+    <sheet name="TC151-BU2 Cargo Tracking" sheetId="109" r:id="rId98"/>
+    <sheet name="TC156-Sup2 SellerGI Invoice" sheetId="110" r:id="rId99"/>
+    <sheet name="TC159-Sup2 Revise Shipment" sheetId="111" r:id="rId100"/>
+    <sheet name="TC162-Customer Cargo Tracking" sheetId="112" r:id="rId101"/>
+    <sheet name="TC165-Customer Cargo Tracking" sheetId="113" r:id="rId102"/>
+    <sheet name="TC168-DC2 Inbound Details" sheetId="114" r:id="rId103"/>
+    <sheet name="TC169-Sup2 SO" sheetId="117" r:id="rId104"/>
+    <sheet name="TC170-BU2 PO" sheetId="118" r:id="rId105"/>
+    <sheet name="TC171-BU2 SO" sheetId="119" r:id="rId106"/>
+    <sheet name="TC172-BU1 PO" sheetId="120" r:id="rId107"/>
+    <sheet name="TC173-BU1 SO" sheetId="121" r:id="rId108"/>
+    <sheet name="TC174-DC2 Outbound Details" sheetId="115" r:id="rId109"/>
+    <sheet name="TC174-OutboundNo" sheetId="116" r:id="rId110"/>
+    <sheet name="TC186-BU2 SellerGI Invoice" sheetId="123" r:id="rId111"/>
+    <sheet name="TC189-Customer Cargo Tracking" sheetId="124" r:id="rId112"/>
+    <sheet name="TC192-DC1 Inbound Details" sheetId="125" r:id="rId113"/>
+    <sheet name="TC197-DC1 Shipping Detail" sheetId="126" r:id="rId114"/>
+    <sheet name="TC198-Customer Cargo Tracking" sheetId="127" r:id="rId115"/>
+    <sheet name="TC202.1-BU3 Cargo Tracking" sheetId="131" r:id="rId116"/>
+    <sheet name="TC202.2-BU3 Cargo Tracking" sheetId="132" r:id="rId117"/>
+    <sheet name="TC202.3-BU3 Cargo Tracking" sheetId="133" r:id="rId118"/>
+    <sheet name="TC202.4-BU3 Cargo Tracking" sheetId="134" r:id="rId119"/>
+    <sheet name="TC204-DC1 Outbound Details" sheetId="135" r:id="rId120"/>
+    <sheet name="TC204-OutboundNo" sheetId="136" r:id="rId121"/>
+    <sheet name="TC205.1-BU1 SO-Regular" sheetId="137" r:id="rId122"/>
+    <sheet name="TC205.2-BU1 SO-Spot" sheetId="98" r:id="rId123"/>
+    <sheet name="TC206.1-Customer CO-Regular" sheetId="139" r:id="rId124"/>
+    <sheet name="TC206.2-Customer CO-Spot" sheetId="140" r:id="rId125"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId124"/>
-    <externalReference r:id="rId125"/>
     <externalReference r:id="rId126"/>
+    <externalReference r:id="rId127"/>
+    <externalReference r:id="rId128"/>
   </externalReferences>
   <definedNames>
     <definedName name="activeFlagListArr" localSheetId="71">[1]activeFlagListArr!$A$1:$A$2</definedName>
@@ -160,17 +162,17 @@
     <definedName name="activeFlagListArr" localSheetId="90">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="91">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="22">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="94">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="96">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="23">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="95">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="98">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="99">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="109">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="112">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="113">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="97">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="100">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="101">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="111">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="114">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="115">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="116">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="117">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="118">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="50">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="51">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="52">[1]activeFlagListArr!$A$1:$A$2</definedName>
@@ -195,17 +197,17 @@
     <definedName name="activeFlagStrArr" localSheetId="90">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="91">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="22">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="94">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="96">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="23">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="95">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="98">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="99">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="109">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="112">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="113">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="97">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="100">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="101">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="111">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="114">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="115">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="116">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="117">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="118">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="50">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="51">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="52">[2]activeFlagStrArr!$A$1:$A$2</definedName>
@@ -233,17 +235,17 @@
     <definedName name="CURRENCY_CODE" localSheetId="90">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="91">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="22">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="94">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="96">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="23">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="95">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="98">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="99">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="109">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="112">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="113">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="97">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="100">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="101">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="111">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="114">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="115">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="116">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="117">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="118">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="50">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="51">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="52">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
@@ -268,17 +270,17 @@
     <definedName name="findAllUomArr" localSheetId="90">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="91">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="22">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="94">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="96">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="23">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="95">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="98">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="99">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="109">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="112">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="113">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="97">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="100">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="101">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="111">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="114">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="115">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="116">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="117">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="118">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="50">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="51">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="52">[1]findAllUomArr!$A$1:$A$29</definedName>
@@ -308,17 +310,17 @@
     <definedName name="PAIRED_FLAG" localSheetId="90">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="91">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="22">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="94">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="96">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="23">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="95">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="98">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="99">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="109">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="112">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="113">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="97">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="100">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="101">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="111">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="114">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="115">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="116">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="117">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="118">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="50">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="51">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="52">#REF!</definedName>
@@ -348,17 +350,17 @@
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="90">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="91">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="22">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="94">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="96">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="23">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="95">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="98">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="99">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="109">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="112">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="113">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="97">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="100">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="101">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="111">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="114">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="115">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="116">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="117">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="118">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="50">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="51">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="52">#REF!</definedName>
@@ -383,17 +385,17 @@
     <definedName name="pairedPartsFlagStrArr" localSheetId="90">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="91">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="22">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="94">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="96">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="23">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="95">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="98">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="99">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="109">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="112">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="113">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="97">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="100">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="101">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="111">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="114">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="115">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="116">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="117">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="118">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="50">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="51">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="52">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
@@ -418,17 +420,17 @@
     <definedName name="partsTypeArr" localSheetId="90">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="91">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="22">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="94">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="96">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="23">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="95">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="98">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="99">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="109">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="112">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="113">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="97">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="100">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="101">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="111">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="114">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="115">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="116">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="117">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="118">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="50">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="51">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="52">[1]partsTypeArr!$A$1:$A$4</definedName>
@@ -458,17 +460,17 @@
     <definedName name="REPACKING_TYPE" localSheetId="90">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="91">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="22">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="94">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="96">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="23">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="95">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="98">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="99">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="109">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="112">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="113">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="97">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="100">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="101">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="111">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="114">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="115">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="116">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="117">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="118">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="50">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="51">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="52">#REF!</definedName>
@@ -493,17 +495,17 @@
     <definedName name="rolledPartsFlagArr" localSheetId="90">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="91">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="22">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="94">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="96">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="23">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="95">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="98">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="99">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="109">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="112">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="113">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="97">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="100">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="101">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="111">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="114">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="115">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="116">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="117">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="118">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="50">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="51">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="52">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
@@ -528,17 +530,17 @@
     <definedName name="rolledPartsUomArr" localSheetId="90">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="91">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="22">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="94">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="96">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="23">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="95">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="98">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="99">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="109">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="112">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="113">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="97">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="100">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="101">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="111">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="114">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="115">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="116">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="117">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="118">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="50">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="51">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="52">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
@@ -568,17 +570,17 @@
     <definedName name="UOM_CODE" localSheetId="90">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="91">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="22">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="94">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="96">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="23">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="95">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="98">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="99">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="109">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="112">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="113">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="97">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="100">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="101">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="111">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="114">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="115">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="116">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="117">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="118">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="50">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="51">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="52">#REF!</definedName>
@@ -608,7 +610,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4861" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4882" uniqueCount="483">
   <si>
     <t>No</t>
   </si>
@@ -2066,6 +2068,27 @@
   </si>
   <si>
     <t>o-PK-CUS-DC-231031006</t>
+  </si>
+  <si>
+    <t>SO Number</t>
+  </si>
+  <si>
+    <t>List Status</t>
+  </si>
+  <si>
+    <t>Detailed Status</t>
+  </si>
+  <si>
+    <t>Outbound QTY</t>
+  </si>
+  <si>
+    <t>Estimate Inbound Plan</t>
+  </si>
+  <si>
+    <t>sPB206-2310001</t>
+  </si>
+  <si>
+    <t>Estimate OutInbound Plan</t>
   </si>
 </sst>
 </file>
@@ -2085,7 +2108,7 @@
     <numFmt numFmtId="172" formatCode="0.00_ "/>
     <numFmt numFmtId="173" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2200,6 +2223,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2239,7 +2270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2275,6 +2306,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2289,7 +2404,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2476,6 +2591,24 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3462,10 +3595,10 @@
       <c r="C11" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="74" t="s">
+      <c r="E11" s="80" t="s">
         <v>82</v>
       </c>
       <c r="F11" s="38" t="s">
@@ -3485,8 +3618,8 @@
       <c r="C12" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
       <c r="F12" s="39" t="s">
         <v>202</v>
       </c>
@@ -3504,8 +3637,8 @@
       <c r="C13" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
       <c r="F13" s="40" t="s">
         <v>84</v>
       </c>
@@ -3555,10 +3688,10 @@
       <c r="C16" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="74" t="s">
+      <c r="E16" s="80" t="s">
         <v>85</v>
       </c>
       <c r="F16" s="38" t="s">
@@ -3578,8 +3711,8 @@
       <c r="C17" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
       <c r="F17" s="43" t="s">
         <v>201</v>
       </c>
@@ -3597,8 +3730,8 @@
       <c r="C18" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
       <c r="F18" s="40" t="s">
         <v>87</v>
       </c>
@@ -3823,6 +3956,604 @@
 </file>
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86538E9-DC0F-41A5-9A2D-6FA6F49CAEAF}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" customWidth="1" collapsed="1"/>
+    <col min="3" max="8" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="42.21875" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G1" t="s">
+        <v>395</v>
+      </c>
+      <c r="H1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" t="str">
+        <f>'TC142-Sup2 Outbound Details'!M4</f>
+        <v>ONEU1162511</v>
+      </c>
+      <c r="C2" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
+        <v>10 Oct 2023</v>
+      </c>
+      <c r="D2" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
+        <v>20 Oct 2023</v>
+      </c>
+      <c r="E2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F2" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
+        <v>30 Oct 2023</v>
+      </c>
+      <c r="G2" t="s">
+        <v>398</v>
+      </c>
+      <c r="H2" t="s">
+        <v>399</v>
+      </c>
+      <c r="I2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3" t="str">
+        <f>'TC142-Sup2 Outbound Details'!M5</f>
+        <v>CNTW-SUP-C-230704001</v>
+      </c>
+      <c r="C3" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
+        <v>10 Oct 2023</v>
+      </c>
+      <c r="D3" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
+        <v>20 Oct 2023</v>
+      </c>
+      <c r="E3" t="s">
+        <v>400</v>
+      </c>
+      <c r="F3" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
+        <v>30 Oct 2023</v>
+      </c>
+      <c r="G3" t="s">
+        <v>401</v>
+      </c>
+      <c r="H3" t="s">
+        <v>402</v>
+      </c>
+      <c r="I3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f ca="1">'TC142-Sup2 Outbound Details'!E3</f>
+        <v>SP2-PS2-06-2310001</v>
+      </c>
+      <c r="B4" t="str">
+        <f>'TC142-Sup2 Outbound Details'!M3</f>
+        <v>ONEU1162511</v>
+      </c>
+      <c r="C4" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
+        <v>10 Oct 2023</v>
+      </c>
+      <c r="D4" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
+        <v>20 Oct 2023</v>
+      </c>
+      <c r="E4" t="s">
+        <v>400</v>
+      </c>
+      <c r="F4" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
+        <v>30 Oct 2023</v>
+      </c>
+      <c r="G4" t="s">
+        <v>401</v>
+      </c>
+      <c r="H4" t="s">
+        <v>402</v>
+      </c>
+      <c r="I4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f ca="1">'TC142-Sup2 Outbound Details'!E2</f>
+        <v>SP2-PS2-06-2310001</v>
+      </c>
+      <c r="B5" t="str">
+        <f>'TC142-Sup2 Outbound Details'!M2</f>
+        <v>CAIU9500009</v>
+      </c>
+      <c r="C5" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
+        <v>10 Oct 2023</v>
+      </c>
+      <c r="D5" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
+        <v>20 Oct 2023</v>
+      </c>
+      <c r="E5" t="s">
+        <v>400</v>
+      </c>
+      <c r="F5" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
+        <v>30 Oct 2023</v>
+      </c>
+      <c r="G5" t="s">
+        <v>401</v>
+      </c>
+      <c r="H5" t="s">
+        <v>402</v>
+      </c>
+      <c r="I5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9350DC2-E670-43AA-B3A3-935A176BD77E}">
+  <dimension ref="A1:Z5"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="26" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="27" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>357</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>358</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="O1" s="59" t="s">
+        <v>434</v>
+      </c>
+      <c r="P1" s="59" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="S1" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="T1" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="U1" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="V1" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="W1" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="X1" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y1" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z1" s="58" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="str">
+        <f ca="1">'TC142-Sup2 Outbound Details'!E2</f>
+        <v>SP2-PS2-06-2310001</v>
+      </c>
+      <c r="B2" s="8" t="str">
+        <f>'TC142-Sup2 Outbound Details'!M2</f>
+        <v>CAIU9500009</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>410</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="N2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="P2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="R2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="S2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="T2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="U2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="V2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="W2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="X2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y2" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z2" s="58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="str">
+        <f ca="1">'TC142-Sup2 Outbound Details'!E3</f>
+        <v>SP2-PS2-06-2310001</v>
+      </c>
+      <c r="B3" s="8" t="str">
+        <f>'TC142-Sup2 Outbound Details'!M3</f>
+        <v>ONEU1162511</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="P3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="R3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="S3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="T3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="U3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="V3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="W3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="X3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y3" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z3" s="58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="str">
+        <f>'TC142-Sup2 Outbound Details'!M4</f>
+        <v>ONEU1162511</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="O4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="P4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="R4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="S4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="T4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="U4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="V4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="W4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="X4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y4" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z4" s="58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="str">
+        <f>'TC142-Sup2 Outbound Details'!M5</f>
+        <v>CNTW-SUP-C-230704001</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="J5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="K5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="L5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="M5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="N5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="O5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="P5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="R5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="S5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="T5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="U5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="V5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="W5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="X5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y5" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Z5" s="58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C9A5B1-29D7-4956-B172-4B5608553D94}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
@@ -4242,7 +4973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8116E47-E965-422A-8693-76DDFCA1FEA2}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -4309,7 +5040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FD3DC9-8455-454F-900B-CE0142DEF889}">
   <dimension ref="A1:R4"/>
   <sheetViews>
@@ -4554,12 +5285,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FC9381-9C44-4D71-A046-E8E5257B8C2C}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:Q4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4785,7 +5516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E273E9C-D253-448A-A191-322A7F577CB9}">
   <dimension ref="A1:R4"/>
   <sheetViews>
@@ -5028,7 +5759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FED2218-D12D-4A7B-A04C-1FA7717B8908}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
@@ -5259,7 +5990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2A4775-C7A0-48C6-8AE9-8CE8204A2253}">
   <dimension ref="A1:V7"/>
   <sheetViews>
@@ -5779,7 +6510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F07E8E-A8B2-4548-8662-EE82B48E5DAA}">
   <dimension ref="A1:AH5"/>
   <sheetViews>
@@ -6347,96 +7078,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D846E8D1-B40C-4EA1-A7DE-A4F2ACF687C9}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.77734375" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
-        <f ca="1">'TC174-DC2 Outbound Details'!C4</f>
-        <v>o-SG-TTAP-DC-PS2-06-2310001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <f ca="1">'TC174-DC2 Outbound Details'!C5</f>
-        <v>o-SG-TTAP-DC-PS2-06-2310002</v>
-      </c>
-      <c r="B3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA562B8C-4E20-40A9-B811-F501179C18C8}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
-        <f>'TC174-OutboundNo'!B2</f>
-        <v>o-SG-TTAP-DC-231030001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <f>'TC174-OutboundNo'!B3</f>
-        <v>o-SG-TTAP-DC-231030002</v>
-      </c>
-      <c r="B3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A76425-F8C5-4BE4-AB78-B11CF11B8367}">
   <dimension ref="A1:X2"/>
@@ -6602,6 +7243,96 @@
 </file>
 
 <file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D846E8D1-B40C-4EA1-A7DE-A4F2ACF687C9}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.77734375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f ca="1">'TC174-DC2 Outbound Details'!C4</f>
+        <v>o-SG-TTAP-DC-PS2-06-2310001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f ca="1">'TC174-DC2 Outbound Details'!C5</f>
+        <v>o-SG-TTAP-DC-PS2-06-2310002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA562B8C-4E20-40A9-B811-F501179C18C8}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.77734375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>'TC174-OutboundNo'!B2</f>
+        <v>o-SG-TTAP-DC-231030001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>'TC174-OutboundNo'!B3</f>
+        <v>o-SG-TTAP-DC-231030002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BF097F-D619-46B3-8EE6-5FFD64FAA663}">
   <dimension ref="A1:Z8"/>
   <sheetViews>
@@ -7267,7 +7998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9239F5C2-D292-42C8-A6DA-300B765BC8BB}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -7374,7 +8105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFED21D6-6F8B-455C-A709-69BBEFFF5A14}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -7452,7 +8183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786791D2-EED2-4282-B662-7CAE12AD60B1}">
   <dimension ref="A1:Z8"/>
   <sheetViews>
@@ -8118,7 +8849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C629F7-19B9-47D6-9C8E-5A77F5AC0864}">
   <dimension ref="A1:V3"/>
   <sheetViews>
@@ -8346,7 +9077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FEF123-A1B5-4CDF-B51C-D45CE237A4C5}">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -8462,7 +9193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5000B011-4769-4E9A-A947-34E6231FB82D}">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -8578,7 +9309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7483A7FB-817C-448D-9FA1-492D7F03AB1A}">
   <dimension ref="A1:AK4"/>
   <sheetViews>
@@ -9055,7 +9786,118 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861A0427-8C31-4BE2-9BBE-CBD261D1FA5A}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="16" t="str">
+        <f>AutoIncrement!F4</f>
+        <v>CNTWSUP-SGTTAP-PS2-06</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="23">
+        <v>9.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" s="16" t="str">
+        <f>AutoIncrement!F4</f>
+        <v>CNTWSUP-SGTTAP-PS2-06</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" s="16" t="str">
+        <f>AutoIncrement!F4</f>
+        <v>CNTWSUP-SGTTAP-PS2-06</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="23">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{43FBCDF0-1E48-4263-880D-9525C12BE205}">
+      <formula1>CURRENCY_CODE</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B137BAE1-B930-4B5D-AF31-3E1874611571}">
   <dimension ref="A1:AG9"/>
   <sheetViews>
@@ -10026,7 +10868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0128EDA1-566A-4405-9CB0-3F38A9C7F4F1}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -10107,118 +10949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861A0427-8C31-4BE2-9BBE-CBD261D1FA5A}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="35.5546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C2" s="16" t="str">
-        <f>AutoIncrement!F4</f>
-        <v>CNTWSUP-SGTTAP-PS2-06</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" s="23">
-        <v>9.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C3" s="16" t="str">
-        <f>AutoIncrement!F4</f>
-        <v>CNTWSUP-SGTTAP-PS2-06</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F3" s="23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="C4" s="16" t="str">
-        <f>AutoIncrement!F4</f>
-        <v>CNTWSUP-SGTTAP-PS2-06</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F4" s="23">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{43FBCDF0-1E48-4263-880D-9525C12BE205}">
-      <formula1>CURRENCY_CODE</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70577FD9-CA84-46C6-AD1E-DF07144CB47C}">
   <dimension ref="A1:V7"/>
   <sheetViews>
@@ -10737,7 +11468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508C75F4-9487-47EE-9DA3-8D744FCFCEE9}">
   <dimension ref="A1:R4"/>
   <sheetViews>
@@ -10989,11 +11720,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47916C1-3BA9-4151-B6D5-49B8BA285E50}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -11403,7 +12134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A644DA6-5AFE-4AC7-A7AD-2B07CFF4F198}">
   <dimension ref="A1:R4"/>
   <sheetViews>
@@ -14168,18 +14899,18 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75" t="s">
+      <c r="B4" s="81"/>
+      <c r="C4" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75" t="s">
+      <c r="D4" s="81"/>
+      <c r="E4" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="75"/>
+      <c r="F4" s="81"/>
       <c r="G4" t="s">
         <v>79</v>
       </c>
@@ -17052,14 +17783,14 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75" t="s">
+      <c r="C3" s="81"/>
+      <c r="D3" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="75"/>
+      <c r="E3" s="81"/>
       <c r="F3" t="s">
         <v>79</v>
       </c>
@@ -28197,6 +28928,142 @@
 </file>
 
 <file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64680E82-0BB9-46FF-B6BC-EF214124755E}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>478</v>
+      </c>
+      <c r="E1" s="78" t="s">
+        <v>479</v>
+      </c>
+      <c r="F1" s="79" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="74">
+        <v>1</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>481</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>383</v>
+      </c>
+      <c r="D2" s="75" t="s">
+        <v>381</v>
+      </c>
+      <c r="E2" s="75">
+        <v>600</v>
+      </c>
+      <c r="F2" s="76"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94767B18-9AE3-48C2-9F25-112C9799EFE7}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="74">
+        <v>1</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>481</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>476</v>
+      </c>
+      <c r="C6" s="78" t="s">
+        <v>477</v>
+      </c>
+      <c r="D6" s="78" t="s">
+        <v>479</v>
+      </c>
+      <c r="E6" s="79" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="74">
+        <v>1</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>481</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>383</v>
+      </c>
+      <c r="D7" s="75">
+        <v>600</v>
+      </c>
+      <c r="E7" s="76"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF73A4B-C68A-43D4-8630-E19DD9005336}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
@@ -28616,7 +29483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352A00B5-D02F-4C38-BB99-907D191BAA2E}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
@@ -29036,7 +29903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAD4283-60EA-46FB-BA4D-BE7BDBF89C95}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -29081,614 +29948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86538E9-DC0F-41A5-9A2D-6FA6F49CAEAF}">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" customWidth="1" collapsed="1"/>
-    <col min="3" max="8" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="42.21875" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E1" t="s">
-        <v>404</v>
-      </c>
-      <c r="F1" t="s">
-        <v>394</v>
-      </c>
-      <c r="G1" t="s">
-        <v>395</v>
-      </c>
-      <c r="H1" t="s">
-        <v>403</v>
-      </c>
-      <c r="I1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B2" t="str">
-        <f>'TC142-Sup2 Outbound Details'!M4</f>
-        <v>ONEU1162511</v>
-      </c>
-      <c r="C2" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>10 Oct 2023</v>
-      </c>
-      <c r="D2" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>20 Oct 2023</v>
-      </c>
-      <c r="E2" t="s">
-        <v>397</v>
-      </c>
-      <c r="F2" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>30 Oct 2023</v>
-      </c>
-      <c r="G2" t="s">
-        <v>398</v>
-      </c>
-      <c r="H2" t="s">
-        <v>399</v>
-      </c>
-      <c r="I2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B3" t="str">
-        <f>'TC142-Sup2 Outbound Details'!M5</f>
-        <v>CNTW-SUP-C-230704001</v>
-      </c>
-      <c r="C3" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>10 Oct 2023</v>
-      </c>
-      <c r="D3" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>20 Oct 2023</v>
-      </c>
-      <c r="E3" t="s">
-        <v>400</v>
-      </c>
-      <c r="F3" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>30 Oct 2023</v>
-      </c>
-      <c r="G3" t="s">
-        <v>401</v>
-      </c>
-      <c r="H3" t="s">
-        <v>402</v>
-      </c>
-      <c r="I3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <f ca="1">'TC142-Sup2 Outbound Details'!E3</f>
-        <v>SP2-PS2-06-2310001</v>
-      </c>
-      <c r="B4" t="str">
-        <f>'TC142-Sup2 Outbound Details'!M3</f>
-        <v>ONEU1162511</v>
-      </c>
-      <c r="C4" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>10 Oct 2023</v>
-      </c>
-      <c r="D4" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>20 Oct 2023</v>
-      </c>
-      <c r="E4" t="s">
-        <v>400</v>
-      </c>
-      <c r="F4" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>30 Oct 2023</v>
-      </c>
-      <c r="G4" t="s">
-        <v>401</v>
-      </c>
-      <c r="H4" t="s">
-        <v>402</v>
-      </c>
-      <c r="I4" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
-        <f ca="1">'TC142-Sup2 Outbound Details'!E2</f>
-        <v>SP2-PS2-06-2310001</v>
-      </c>
-      <c r="B5" t="str">
-        <f>'TC142-Sup2 Outbound Details'!M2</f>
-        <v>CAIU9500009</v>
-      </c>
-      <c r="C5" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>10 Oct 2023</v>
-      </c>
-      <c r="D5" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>20 Oct 2023</v>
-      </c>
-      <c r="E5" t="s">
-        <v>400</v>
-      </c>
-      <c r="F5" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>30 Oct 2023</v>
-      </c>
-      <c r="G5" t="s">
-        <v>401</v>
-      </c>
-      <c r="H5" t="s">
-        <v>402</v>
-      </c>
-      <c r="I5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9350DC2-E670-43AA-B3A3-935A176BD77E}">
-  <dimension ref="A1:Z5"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="26" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="27" max="16384" width="8.88671875" style="2" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
-        <v>348</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C1" s="58" t="s">
-        <v>350</v>
-      </c>
-      <c r="D1" s="58" t="s">
-        <v>351</v>
-      </c>
-      <c r="E1" s="58" t="s">
-        <v>352</v>
-      </c>
-      <c r="F1" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="G1" s="58" t="s">
-        <v>354</v>
-      </c>
-      <c r="H1" s="58" t="s">
-        <v>355</v>
-      </c>
-      <c r="I1" s="58" t="s">
-        <v>356</v>
-      </c>
-      <c r="J1" s="58" t="s">
-        <v>357</v>
-      </c>
-      <c r="K1" s="59" t="s">
-        <v>358</v>
-      </c>
-      <c r="L1" s="58" t="s">
-        <v>359</v>
-      </c>
-      <c r="M1" s="58" t="s">
-        <v>360</v>
-      </c>
-      <c r="N1" s="58" t="s">
-        <v>361</v>
-      </c>
-      <c r="O1" s="59" t="s">
-        <v>434</v>
-      </c>
-      <c r="P1" s="59" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="S1" s="58" t="s">
-        <v>362</v>
-      </c>
-      <c r="T1" s="58" t="s">
-        <v>363</v>
-      </c>
-      <c r="U1" s="58" t="s">
-        <v>364</v>
-      </c>
-      <c r="V1" s="58" t="s">
-        <v>365</v>
-      </c>
-      <c r="W1" s="58" t="s">
-        <v>362</v>
-      </c>
-      <c r="X1" s="58" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y1" s="58" t="s">
-        <v>364</v>
-      </c>
-      <c r="Z1" s="58" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="str">
-        <f ca="1">'TC142-Sup2 Outbound Details'!E2</f>
-        <v>SP2-PS2-06-2310001</v>
-      </c>
-      <c r="B2" s="8" t="str">
-        <f>'TC142-Sup2 Outbound Details'!M2</f>
-        <v>CAIU9500009</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>410</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="G2" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H2" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="I2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="K2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="L2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="M2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="N2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="O2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="P2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="R2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="S2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="T2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="U2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="V2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="W2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="X2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y2" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="Z2" s="58" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="str">
-        <f ca="1">'TC142-Sup2 Outbound Details'!E3</f>
-        <v>SP2-PS2-06-2310001</v>
-      </c>
-      <c r="B3" s="8" t="str">
-        <f>'TC142-Sup2 Outbound Details'!M3</f>
-        <v>ONEU1162511</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>366</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="E3" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="F3" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="G3" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H3" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="I3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="J3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="K3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="L3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="M3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="N3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="O3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="P3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="R3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="S3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="T3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="U3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="V3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="W3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="X3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y3" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="Z3" s="58" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="str">
-        <f>'TC142-Sup2 Outbound Details'!M4</f>
-        <v>ONEU1162511</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>366</v>
-      </c>
-      <c r="D4" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="G4" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H4" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="I4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="J4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="K4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="L4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="M4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="N4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="O4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="P4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="R4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="S4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="T4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="U4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="V4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="W4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="X4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y4" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="Z4" s="58" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="str">
-        <f>'TC142-Sup2 Outbound Details'!M5</f>
-        <v>CNTW-SUP-C-230704001</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>366</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="F5" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="G5" s="58" t="s">
-        <v>405</v>
-      </c>
-      <c r="H5" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="I5" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="J5" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="K5" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="L5" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="M5" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="N5" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="O5" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="P5" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q5" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="R5" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="S5" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="T5" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="U5" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="V5" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="W5" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="X5" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y5" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="Z5" s="58" t="s">
-        <v>368</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097067AA9A672F346A1B58BE42AD9877C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0ef2f7333e7198281d6d67dc69cb8223">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3e097ef-e44a-4305-852f-ab2ffd6265ef" xmlns:ns3="1febb254-c9d7-4bcc-acc6-e4d894a01278" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e89638c2f66ce85fb696f0de602d87f" ns2:_="" ns3:_="">
     <xsd:import namespace="c3e097ef-e44a-4305-852f-ab2ffd6265ef"/>
@@ -29883,15 +30143,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E2C79DA-185A-4930-B550-F1E1B294AAD1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8199A157-58BA-4B82-BEE5-7E82A9CB26D1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29908,4 +30169,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E2C79DA-185A-4930-B550-F1E1B294AAD1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Excel Files/Scenario 1/S1_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 1/S1_TestCases_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawe\git\tb-ttap-brivge-v2-fatin\Excel Files\Scenario 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{9547CA6D-C536-4052-9CAA-D3F3DB4985F9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{52EE57C0-DEA2-4F80-B937-1E3370F36D9C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="40" firstSheet="35" tabRatio="547" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView activeTab="31" firstSheet="31" tabRatio="547" windowHeight="15840" windowWidth="29040" xWindow="28680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="AutoIncrement" r:id="rId1" sheetId="1"/>
@@ -19437,8 +19437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C995E7-3C41-44BE-92B7-C62CA640336D}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D19:D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20088,7 +20088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4C763-E53F-4B86-9C00-751B722E35A6}">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>

--- a/Excel Files/Scenario 1/S1_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 1/S1_TestCases_Data.xlsx
@@ -753,7 +753,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6907" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6908" uniqueCount="571">
   <si>
     <t>No</t>
   </si>
@@ -2493,6 +2493,9 @@
   </si>
   <si>
     <t>cCB102-2311002</t>
+  </si>
+  <si>
+    <t>rsCS202-2311001-01</t>
   </si>
 </sst>
 </file>
@@ -31932,7 +31935,7 @@
         <v>502</v>
       </c>
       <c r="B2" t="s">
-        <v>503</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Files/Scenario 1/S1_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 1/S1_TestCases_Data.xlsx
@@ -753,7 +753,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6908" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6909" uniqueCount="572">
   <si>
     <t>No</t>
   </si>
@@ -2496,6 +2496,9 @@
   </si>
   <si>
     <t>rsCS202-2311001-01</t>
+  </si>
+  <si>
+    <t>rsCS102-2311002-01</t>
   </si>
 </sst>
 </file>
@@ -31932,7 +31935,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>502</v>
+        <v>571</v>
       </c>
       <c r="B2" t="s">
         <v>570</v>

--- a/Excel Files/Scenario 1/S1_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 1/S1_TestCases_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawe\git\tb-ttap-brivge-v2-fatin\Excel Files\Scenario 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{B1B03021-38EE-41C7-8E4A-424DA78C49C2}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{8B65CEF5-5681-4C12-946E-1A780B98077A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="84" firstSheet="81" tabRatio="620" windowHeight="15840" windowWidth="29040" xWindow="28680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView activeTab="64" firstSheet="64" tabRatio="620" windowHeight="15840" windowWidth="29040" xWindow="28680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="AutoIncrement" r:id="rId1" sheetId="1"/>
@@ -753,7 +753,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6909" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6894" uniqueCount="556">
   <si>
     <t>No</t>
   </si>
@@ -2231,57 +2231,9 @@
     <t>C</t>
   </si>
   <si>
-    <t>CR-PK-CUS-POC-2311001</t>
-  </si>
-  <si>
-    <t>sCB101-2311001</t>
-  </si>
-  <si>
-    <t>pCB201-2311001</t>
-  </si>
-  <si>
-    <t>pCB301-2311001</t>
-  </si>
-  <si>
-    <t>pCS201-2311001</t>
-  </si>
-  <si>
-    <t>sCB301-2311001</t>
-  </si>
-  <si>
-    <t>pCS101-2311001</t>
-  </si>
-  <si>
-    <t>sCS101-2311001</t>
-  </si>
-  <si>
-    <t>sCS201-2311001</t>
-  </si>
-  <si>
-    <t>rcCB101-2311001-02</t>
-  </si>
-  <si>
-    <t>cCB101-2311002</t>
-  </si>
-  <si>
-    <t>sCB201-2311001</t>
-  </si>
-  <si>
     <t>Spot</t>
   </si>
   <si>
-    <t>sCB101-2311002</t>
-  </si>
-  <si>
-    <t>pCB301-2311002</t>
-  </si>
-  <si>
-    <t>pCS101-2311002</t>
-  </si>
-  <si>
-    <t>sCS101-2311002</t>
-  </si>
-  <si>
     <t>Firm1</t>
   </si>
   <si>
@@ -2291,12 +2243,6 @@
     <t>Date2</t>
   </si>
   <si>
-    <t>rsCS101-2311002-01</t>
-  </si>
-  <si>
-    <t>rsCS201-2311001-01</t>
-  </si>
-  <si>
     <t>newInboundQty1</t>
   </si>
   <si>
@@ -2330,18 +2276,12 @@
     <t>Price</t>
   </si>
   <si>
-    <t>22,28</t>
-  </si>
-  <si>
     <t>o-MY-ELA-SUP-231101001</t>
   </si>
   <si>
     <t>o-MY-ELA-SUP-231101002</t>
   </si>
   <si>
-    <t>sCB301-2311002</t>
-  </si>
-  <si>
     <t>ELA2311001</t>
   </si>
   <si>
@@ -2499,6 +2439,18 @@
   </si>
   <si>
     <t>rsCS102-2311002-01</t>
+  </si>
+  <si>
+    <t>Nov 21, 2023</t>
+  </si>
+  <si>
+    <t>Dec 15, 2023</t>
+  </si>
+  <si>
+    <t>44, 49</t>
+  </si>
+  <si>
+    <t>Dec 10, 2023</t>
   </si>
 </sst>
 </file>
@@ -3946,7 +3898,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>481</v>
@@ -4381,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="C2" t="str">
         <f>AutoIncrement!D4</f>
@@ -6997,7 +6949,7 @@
         <v>o-MY-PNA-DC-231102001</v>
       </c>
       <c r="B2" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -7006,7 +6958,7 @@
         <v>o-MY-PNA-DC-231102002</v>
       </c>
       <c r="B3" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -7988,16 +7940,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="B1" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="C1" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="D1" s="91" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
     </row>
     <row ht="57.6" r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -8008,10 +7960,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
     </row>
     <row ht="57.6" r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -8022,10 +7974,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -8036,7 +7988,7 @@
         <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -8061,43 +8013,43 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="B1" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="C1" s="91" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="B2" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="C2" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="B3" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="C3" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="B4" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -8118,7 +8070,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="B1" t="s">
         <v>122</v>
@@ -8649,7 +8601,7 @@
         <v>o-CNTW-SUP-POC-CS2-02-2311001</v>
       </c>
       <c r="B2" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -8658,7 +8610,7 @@
         <v>o-CNTW-SUP-POC-CS2-02-2311002</v>
       </c>
       <c r="B3" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -9649,7 +9601,7 @@
         <v>o-CNTW-SUP-POC-231102001</v>
       </c>
       <c r="B2" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -9658,7 +9610,7 @@
         <v>o-CNTW-SUP-POC-231102002</v>
       </c>
       <c r="B3" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -12970,7 +12922,7 @@
         <v>o-SG-TTAP-DC-CS2-02-2311001</v>
       </c>
       <c r="B2" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -12979,7 +12931,7 @@
         <v>o-SG-TTAP-DC-CS2-02-2311002</v>
       </c>
       <c r="B3" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -13079,7 +13031,7 @@
         <v>o-SG-TTAP-DC-231102001</v>
       </c>
       <c r="B2" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -13088,7 +13040,7 @@
         <v>o-SG-TTAP-DC-231102002</v>
       </c>
       <c r="B3" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -16724,7 +16676,7 @@
         <v>o-PK-CUS-DC-CS2-02-2311001</v>
       </c>
       <c r="B2" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -16733,7 +16685,7 @@
         <v>o-PK-CUS-DC-CS2-02-2311002</v>
       </c>
       <c r="B3" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -16742,7 +16694,7 @@
         <v>o-PK-CUS-DC-CS2-02-2311003</v>
       </c>
       <c r="B4" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -16751,7 +16703,7 @@
         <v>o-PK-CUS-DC-CS2-02-2311004</v>
       </c>
       <c r="B5" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -16760,7 +16712,7 @@
         <v>o-PK-CUS-DC-CS2-02-2311005</v>
       </c>
       <c r="B6" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -16769,7 +16721,7 @@
         <v>o-PK-CUS-DC-CS2-02-2311006</v>
       </c>
       <c r="B7" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -21384,7 +21336,7 @@
         <v>o-PK-CUS-DC-231102001</v>
       </c>
       <c r="B2" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -21393,7 +21345,7 @@
         <v>o-PK-CUS-DC-231102002</v>
       </c>
       <c r="B3" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -21402,7 +21354,7 @@
         <v>o-PK-CUS-DC-231102003</v>
       </c>
       <c r="B4" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -21411,7 +21363,7 @@
         <v>o-PK-CUS-DC-231102004</v>
       </c>
       <c r="B5" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -21420,7 +21372,7 @@
         <v>o-PK-CUS-DC-231102005</v>
       </c>
       <c r="B6" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -21429,7 +21381,7 @@
         <v>o-PK-CUS-DC-231102006</v>
       </c>
       <c r="B7" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -21639,7 +21591,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="C2" t="str">
         <f>AutoIncrement!E4</f>
@@ -27510,7 +27462,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -27888,33 +27840,33 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="B2" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="C2" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="D2" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="E2" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="F2" t="s">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="G2" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="H2" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -28301,7 +28253,7 @@
         <v>MYELASUP-MYPNA-CS1-02</v>
       </c>
       <c r="D2" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -28352,7 +28304,7 @@
         <v>CNTWSUP-SGTTAP-CS2-02</v>
       </c>
       <c r="D2" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -28382,7 +28334,7 @@
     </row>
     <row ht="14.4" r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -28419,7 +28371,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -31503,22 +31455,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="B2" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="C2" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="D2" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
       <c r="E2" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="F2" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -31728,7 +31680,7 @@
         <v>MYPNA-PKTTAP-CB3-02</v>
       </c>
       <c r="D2" s="80" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="E2" s="86" t="s">
         <v>262</v>
@@ -31822,7 +31774,7 @@
         <v>MYELASUP-MYPNA-CS1-02</v>
       </c>
       <c r="D2" s="80" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="E2" s="86" t="s">
         <v>262</v>
@@ -31874,13 +31826,13 @@
         <v>480</v>
       </c>
       <c r="D1" s="89" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="E1" s="89" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="F1" s="89" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
     </row>
     <row ht="15" r="2" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
@@ -31935,10 +31887,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="B2" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -32674,8 +32626,8 @@
   <sheetPr codeName="Sheet65"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" activeCellId="1" sqref="C2 C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32687,16 +32639,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="B1" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="C1" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="D1" s="91" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
     </row>
     <row ht="57.6" r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -32707,10 +32659,10 @@
         <v>660</v>
       </c>
       <c r="C2" t="s">
-        <v>515</v>
+        <v>554</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
     </row>
     <row ht="57.6" r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -32721,10 +32673,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>515</v>
+        <v>554</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -32735,7 +32687,7 @@
         <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>515</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -32760,43 +32712,43 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="B1" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="C1" s="91" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>526</v>
+        <v>555</v>
       </c>
       <c r="B2" t="s">
-        <v>527</v>
+        <v>553</v>
       </c>
       <c r="C2" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>526</v>
+        <v>555</v>
       </c>
       <c r="B3" t="s">
-        <v>527</v>
+        <v>553</v>
       </c>
       <c r="C3" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>526</v>
+        <v>555</v>
       </c>
       <c r="B4" t="s">
-        <v>527</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -32817,7 +32769,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="B1" t="s">
         <v>122</v>
@@ -33318,7 +33270,7 @@
         <v>o-MY-ELA-SUP-CS2-02-2311001</v>
       </c>
       <c r="B2" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -33327,7 +33279,7 @@
         <v>o-MY-ELA-SUP-CS2-02-2311002</v>
       </c>
       <c r="B3" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -33439,7 +33391,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="C2" t="str">
         <f>AutoIncrement!C4</f>
@@ -33513,7 +33465,7 @@
         <v>130</v>
       </c>
       <c r="X2" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="Y2" t="str">
         <f>"BU2toBU1-"&amp;H2</f>
@@ -35773,7 +35725,7 @@
         <v>o-MY-ELA-SUP-231101001</v>
       </c>
       <c r="B2" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -35782,7 +35734,7 @@
         <v>o-MY-ELA-SUP-231101002</v>
       </c>
       <c r="B3" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -36441,7 +36393,7 @@
   <sheetPr codeName="Sheet85"/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
@@ -38942,7 +38894,7 @@
         <v>o-MY-PNA-DC-CS2-02-2311001</v>
       </c>
       <c r="B2" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -38951,7 +38903,7 @@
         <v>o-MY-PNA-DC-CS2-02-2311002</v>
       </c>
       <c r="B3" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -39726,15 +39678,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097067AA9A672F346A1B58BE42AD9877C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0ef2f7333e7198281d6d67dc69cb8223">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3e097ef-e44a-4305-852f-ab2ffd6265ef" xmlns:ns3="1febb254-c9d7-4bcc-acc6-e4d894a01278" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e89638c2f66ce85fb696f0de602d87f" ns2:_="" ns3:_="">
     <xsd:import namespace="c3e097ef-e44a-4305-852f-ab2ffd6265ef"/>
@@ -39929,15 +39872,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E2C79DA-185A-4930-B550-F1E1B294AAD1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8199A157-58BA-4B82-BEE5-7E82A9CB26D1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -39954,4 +39898,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E2C79DA-185A-4930-B550-F1E1B294AAD1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Excel Files/Scenario 1/S1_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 1/S1_TestCases_Data.xlsx
@@ -753,7 +753,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6894" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6898" uniqueCount="560">
   <si>
     <t>No</t>
   </si>
@@ -2451,6 +2451,18 @@
   </si>
   <si>
     <t>Dec 10, 2023</t>
+  </si>
+  <si>
+    <t>o-MY-ELA-SUP-231103001</t>
+  </si>
+  <si>
+    <t>o-MY-ELA-SUP-231103002</t>
+  </si>
+  <si>
+    <t>ELA2311003</t>
+  </si>
+  <si>
+    <t>ELA2311004</t>
   </si>
 </sst>
 </file>
@@ -33270,7 +33282,7 @@
         <v>o-MY-ELA-SUP-CS2-02-2311001</v>
       </c>
       <c r="B2" t="s">
-        <v>497</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -33279,7 +33291,7 @@
         <v>o-MY-ELA-SUP-CS2-02-2311002</v>
       </c>
       <c r="B3" t="s">
-        <v>498</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -35722,19 +35734,19 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>'TC74-OutboundNo'!B2</f>
-        <v>o-MY-ELA-SUP-231101001</v>
+        <v>o-MY-ELA-SUP-231103001</v>
       </c>
       <c r="B2" t="s">
-        <v>499</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>'TC74-OutboundNo'!B3</f>
-        <v>o-MY-ELA-SUP-231101002</v>
+        <v>o-MY-ELA-SUP-231103002</v>
       </c>
       <c r="B3" t="s">
-        <v>500</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Files/Scenario 1/S1_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 1/S1_TestCases_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawe\git\tb-ttap-brivge-v2-fatin\Excel Files\Scenario 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{8B65CEF5-5681-4C12-946E-1A780B98077A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{3F0BB305-58FB-4376-9602-5A0FA8508C84}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="64" firstSheet="64" tabRatio="620" windowHeight="15840" windowWidth="29040" xWindow="28680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView tabRatio="620" windowHeight="15840" windowWidth="29040" xWindow="28680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="AutoIncrement" r:id="rId1" sheetId="1"/>
@@ -66,14 +66,14 @@
     <sheet name="TC46-Spot Date" r:id="rId51" sheetId="52"/>
     <sheet name="TC046" r:id="rId52" sheetId="151"/>
     <sheet name="TC47-Autogen OrderNo Spot" r:id="rId53" sheetId="54"/>
-    <sheet name="TC47-Autogen OrderNo Spot (2)" r:id="rId54" sheetId="157"/>
+    <sheet name="TC47-Autogen OrderNo Spot (2)" r:id="rId54" sheetId="157" state="hidden"/>
     <sheet name="TC048" r:id="rId55" sheetId="152"/>
     <sheet name="TC049" r:id="rId56" sheetId="153"/>
     <sheet name="TC051" r:id="rId57" sheetId="158"/>
     <sheet name="TC054" r:id="rId58" sheetId="154"/>
     <sheet name="TC54-Change RequestNo" r:id="rId59" sheetId="57"/>
-    <sheet name="TC54-Sup2 Order Change Reg" r:id="rId60" sheetId="55"/>
-    <sheet name="TC54-Change Date" r:id="rId61" sheetId="56"/>
+    <sheet name="TC54-Sup2 Order Change Reg" r:id="rId60" sheetId="55" state="hidden"/>
+    <sheet name="TC54-Change Date" r:id="rId61" sheetId="56" state="hidden"/>
     <sheet name="TC068-BU2" r:id="rId62" sheetId="159"/>
     <sheet name="TC070-BU1" r:id="rId63" sheetId="160"/>
     <sheet name="TC072-Cus" r:id="rId64" sheetId="161"/>
@@ -753,7 +753,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6898" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6923" uniqueCount="578">
   <si>
     <t>No</t>
   </si>
@@ -2276,18 +2276,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>o-MY-ELA-SUP-231101001</t>
-  </si>
-  <si>
-    <t>o-MY-ELA-SUP-231101002</t>
-  </si>
-  <si>
-    <t>ELA2311001</t>
-  </si>
-  <si>
-    <t>ELA2311002</t>
-  </si>
-  <si>
     <t>o-MY-PNA-DC-231102001</t>
   </si>
   <si>
@@ -2369,9 +2357,6 @@
     <t>PK12311006</t>
   </si>
   <si>
-    <t>02</t>
-  </si>
-  <si>
     <t>R-PK-CUS-POC-2311008</t>
   </si>
   <si>
@@ -2441,15 +2426,9 @@
     <t>rsCS102-2311002-01</t>
   </si>
   <si>
-    <t>Nov 21, 2023</t>
-  </si>
-  <si>
     <t>Dec 15, 2023</t>
   </si>
   <si>
-    <t>44, 49</t>
-  </si>
-  <si>
     <t>Dec 10, 2023</t>
   </si>
   <si>
@@ -2463,6 +2442,81 @@
   </si>
   <si>
     <t>ELA2311004</t>
+  </si>
+  <si>
+    <t>20,28</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>R-PK-CUS-POC-2311009</t>
+  </si>
+  <si>
+    <t>CR-PK-CUS-POC-2311005</t>
+  </si>
+  <si>
+    <t>R-PK-CUS-TTAP-2311005</t>
+  </si>
+  <si>
+    <t>R-SG-TTAP-2311003</t>
+  </si>
+  <si>
+    <t>R-PK-CUS-TTAP-2311006</t>
+  </si>
+  <si>
+    <t>R-MY-PNA-BU-2311009</t>
+  </si>
+  <si>
+    <t>cCB103-2311001</t>
+  </si>
+  <si>
+    <t>sCB103-2311001</t>
+  </si>
+  <si>
+    <t>pCB203-2311001</t>
+  </si>
+  <si>
+    <t>pCB303-2311001</t>
+  </si>
+  <si>
+    <t>sCB203-2311001</t>
+  </si>
+  <si>
+    <t>pCS203-2311001</t>
+  </si>
+  <si>
+    <t>sCB303-2311001</t>
+  </si>
+  <si>
+    <t>pCS103-2311001</t>
+  </si>
+  <si>
+    <t>sCS103-2311001</t>
+  </si>
+  <si>
+    <t>sCS203-2311001</t>
+  </si>
+  <si>
+    <t>rcCB103-2311001-02</t>
+  </si>
+  <si>
+    <t>cCB103-2311002</t>
+  </si>
+  <si>
+    <t>sCB103-2311002</t>
+  </si>
+  <si>
+    <t>pCB303-2311002</t>
+  </si>
+  <si>
+    <t>sCB303-2311002</t>
+  </si>
+  <si>
+    <t>pCS103-2311002</t>
+  </si>
+  <si>
+    <t>sCS103-2311002</t>
   </si>
 </sst>
 </file>
@@ -3874,8 +3928,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3910,7 +3964,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>528</v>
+        <v>554</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>481</v>
@@ -3938,23 +3992,23 @@
       </c>
       <c r="C3" s="29" t="str">
         <f>B2&amp;C2&amp;"-"&amp;A2</f>
-        <v>CB1-02</v>
+        <v>CB1-03</v>
       </c>
       <c r="D3" s="29" t="str">
         <f>B2&amp;D2&amp;"-"&amp;A2</f>
-        <v>CB2-02</v>
+        <v>CB2-03</v>
       </c>
       <c r="E3" s="29" t="str">
         <f>B2&amp;E2&amp;"-"&amp;A2</f>
-        <v>CB3-02</v>
+        <v>CB3-03</v>
       </c>
       <c r="F3" s="29" t="str">
         <f>B2&amp;F2&amp;"-"&amp;A2</f>
-        <v>CS2-02</v>
+        <v>CS2-03</v>
       </c>
       <c r="G3" s="29" t="str">
         <f>B2&amp;G2&amp;"-"&amp;A2</f>
-        <v>CS1-02</v>
+        <v>CS1-03</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -3964,23 +4018,23 @@
       </c>
       <c r="C4" s="29" t="str">
         <f>"PKTTAP-PKCUS-"&amp;C3</f>
-        <v>PKTTAP-PKCUS-CB1-02</v>
+        <v>PKTTAP-PKCUS-CB1-03</v>
       </c>
       <c r="D4" s="29" t="str">
         <f>"SGTTAP-PKTTAP-"&amp;D3</f>
-        <v>SGTTAP-PKTTAP-CB2-02</v>
+        <v>SGTTAP-PKTTAP-CB2-03</v>
       </c>
       <c r="E4" s="29" t="str">
         <f>"MYPNA-PKTTAP-"&amp;E3</f>
-        <v>MYPNA-PKTTAP-CB3-02</v>
+        <v>MYPNA-PKTTAP-CB3-03</v>
       </c>
       <c r="F4" s="29" t="str">
         <f>"CNTWSUP-SGTTAP-"&amp;F3</f>
-        <v>CNTWSUP-SGTTAP-CS2-02</v>
+        <v>CNTWSUP-SGTTAP-CS2-03</v>
       </c>
       <c r="G4" s="29" t="str">
         <f>"MYELASUP-MYPNA-"&amp;G3</f>
-        <v>MYELASUP-MYPNA-CS1-02</v>
+        <v>MYELASUP-MYPNA-CS1-03</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -3990,23 +4044,23 @@
       </c>
       <c r="C5" s="29" t="str">
         <f>"CSS-"&amp;C3</f>
-        <v>CSS-CB1-02</v>
+        <v>CSS-CB1-03</v>
       </c>
       <c r="D5" s="29" t="str">
         <f ref="D5:G5" si="0" t="shared">"CSS-"&amp;D3</f>
-        <v>CSS-CB2-02</v>
+        <v>CSS-CB2-03</v>
       </c>
       <c r="E5" s="29" t="str">
         <f si="0" t="shared"/>
-        <v>CSS-CB3-02</v>
+        <v>CSS-CB3-03</v>
       </c>
       <c r="F5" s="29" t="str">
         <f si="0" t="shared"/>
-        <v>CSS-CS2-02</v>
+        <v>CSS-CS2-03</v>
       </c>
       <c r="G5" s="29" t="str">
         <f si="0" t="shared"/>
-        <v>CSS-CS1-02</v>
+        <v>CSS-CS1-03</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -4345,26 +4399,26 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>532</v>
+        <v>560</v>
       </c>
       <c r="C2" t="str">
         <f>AutoIncrement!D4</f>
-        <v>SGTTAP-PKTTAP-CB2-02</v>
+        <v>SGTTAP-PKTTAP-CB2-03</v>
       </c>
       <c r="D2" t="s">
         <v>68</v>
       </c>
       <c r="E2" t="str">
         <f>AutoIncrement!D3</f>
-        <v>CB2-02</v>
+        <v>CB2-03</v>
       </c>
       <c r="F2" t="str">
         <f>"CD-"&amp;E2</f>
-        <v>CD-CB2-02</v>
+        <v>CD-CB2-03</v>
       </c>
       <c r="G2" t="str">
         <f>"Payment-"&amp;E2</f>
-        <v>Payment-CB2-02</v>
+        <v>Payment-CB2-03</v>
       </c>
       <c r="H2" t="str">
         <f>I2</f>
@@ -4384,7 +4438,7 @@
       </c>
       <c r="M2" t="str">
         <f>G2&amp;"(" &amp;H2&amp;")"</f>
-        <v>Payment-CB2-02(By Invoice Date)</v>
+        <v>Payment-CB2-03(By Invoice Date)</v>
       </c>
       <c r="N2" t="s">
         <v>165</v>
@@ -4413,11 +4467,11 @@
       </c>
       <c r="V2" t="str">
         <f>'TC2-BU1 to Customer Contract'!X2</f>
-        <v>CR-PK-CUS-POC-2311004</v>
+        <v>CR-PK-CUS-POC-2311005</v>
       </c>
       <c r="W2" t="str">
         <f>"SP2toBU2-"&amp;E2</f>
-        <v>SP2toBU2-CB2-02</v>
+        <v>SP2toBU2-CB2-03</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -4515,7 +4569,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB102-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>79</v>
@@ -4574,7 +4628,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB102-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>79</v>
@@ -4633,7 +4687,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB102-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>79</v>
@@ -4771,7 +4825,7 @@
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E3</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M3</f>
@@ -4841,7 +4895,7 @@
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E5</f>
-        <v>SP1-CS2-02-2311002</v>
+        <v>SP1-CS2-03-2311002</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M5</f>
@@ -4979,7 +5033,7 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E2</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M2</f>
@@ -5096,7 +5150,7 @@
     <row customHeight="1" ht="13.2" r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E4</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M4</f>
@@ -5282,7 +5336,7 @@
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC111-DC3 Outbound Details'!E3</f>
-        <v>DC3-CS2-02-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>'TC111-DC3 Outbound Details'!M3</f>
@@ -5508,7 +5562,7 @@
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f ca="1">'TC111-DC3 Outbound Details'!E2</f>
-        <v>DC3-CS2-02-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>'TC111-DC3 Outbound Details'!M2</f>
@@ -5656,7 +5710,7 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">'TC111-DC3 Outbound Details'!E2</f>
-        <v>DC3-CS2-02-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="B3" t="str">
         <f>'TC111-DC3 Outbound Details'!M2</f>
@@ -5666,7 +5720,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f ca="1">'TC111-DC3 Outbound Details'!E4</f>
-        <v>DC3-CS2-02-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="B4" t="str">
         <f>'TC111-DC3 Outbound Details'!M4</f>
@@ -5756,7 +5810,7 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">'TC111-DC3 Outbound Details'!E2</f>
-        <v>DC3-CS2-02-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="B3" t="str">
         <f>'TC111-DC3 Outbound Details'!M2</f>
@@ -5790,7 +5844,7 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f ca="1">'TC111-DC3 Outbound Details'!E4</f>
-        <v>DC3-CS2-02-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="B4" t="str">
         <f>'TC111-DC3 Outbound Details'!M4</f>
@@ -5913,7 +5967,7 @@
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E3</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M3</f>
@@ -5983,7 +6037,7 @@
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E5</f>
-        <v>SP1-CS2-02-2311002</v>
+        <v>SP1-CS2-03-2311002</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M5</f>
@@ -6121,7 +6175,7 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E2</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M2</f>
@@ -6238,7 +6292,7 @@
     <row customHeight="1" ht="13.2" r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E4</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M4</f>
@@ -6589,7 +6643,7 @@
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC111-DC3 Outbound Details'!E3</f>
-        <v>DC3-CS2-02-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>'TC111-DC3 Outbound Details'!M3</f>
@@ -6815,7 +6869,7 @@
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f ca="1">'TC111-DC3 Outbound Details'!E2</f>
-        <v>DC3-CS2-02-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>'TC111-DC3 Outbound Details'!M2</f>
@@ -6961,7 +7015,7 @@
         <v>o-MY-PNA-DC-231102001</v>
       </c>
       <c r="B2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -6970,7 +7024,7 @@
         <v>o-MY-PNA-DC-231102002</v>
       </c>
       <c r="B3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -7113,7 +7167,7 @@
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC111-DC3 Outbound Details'!E3</f>
-        <v>DC3-CS2-02-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>'TC111-DC3 Outbound Details'!M3</f>
@@ -7339,7 +7393,7 @@
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f ca="1">'TC111-DC3 Outbound Details'!E2</f>
-        <v>DC3-CS2-02-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>'TC111-DC3 Outbound Details'!M2</f>
@@ -7591,7 +7645,7 @@
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC111-DC3 Outbound Details'!E3</f>
-        <v>DC3-CS2-02-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>'TC111-DC3 Outbound Details'!M3</f>
@@ -7817,7 +7871,7 @@
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f ca="1">'TC111-DC3 Outbound Details'!E2</f>
-        <v>DC3-CS2-02-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>'TC111-DC3 Outbound Details'!M2</f>
@@ -7972,7 +8026,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>490</v>
@@ -7986,7 +8040,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D3" s="53" t="s">
         <v>491</v>
@@ -8000,7 +8054,7 @@
         <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -8036,10 +8090,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C2" t="s">
         <v>494</v>
@@ -8047,10 +8101,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C3" t="s">
         <v>495</v>
@@ -8058,10 +8112,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B4" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -8122,8 +8176,8 @@
   <sheetPr codeName="Sheet117"/>
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -8243,7 +8297,7 @@
       </c>
       <c r="C2" s="2" t="str">
         <f ca="1">"o-CNTW-SUP-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>o-CNTW-SUP-POC-CS2-02-2311001</v>
+        <v>o-CNTW-SUP-POC-CS2-03-2311001</v>
       </c>
       <c r="D2" s="2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
@@ -8251,7 +8305,7 @@
       </c>
       <c r="E2" s="2" t="str">
         <f ca="1">"SP2-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>SP2-CS2-02-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>289</v>
@@ -8279,7 +8333,7 @@
       </c>
       <c r="N2" s="2" t="str">
         <f ca="1">"SP2-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>SP2-OP-CS2-02-2311-01</v>
+        <v>SP2-OP-CS2-03-2311-01</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>333</v>
@@ -8289,7 +8343,7 @@
       <c r="R2" s="65"/>
       <c r="S2" s="2" t="str">
         <f ca="1">"SP2-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>SP2-IP-CS2-02-2311-01</v>
+        <v>SP2-IP-CS2-03-2311-01</v>
       </c>
       <c r="T2" s="66"/>
       <c r="U2" s="65"/>
@@ -8297,7 +8351,7 @@
       <c r="W2" s="65"/>
       <c r="X2" s="64" t="str">
         <f>'TC20-Autogen SOPO'!H2</f>
-        <v>sCS202-2311001</v>
+        <v>sCS203-2311001</v>
       </c>
       <c r="Y2" s="64" t="s">
         <v>93</v>
@@ -8324,7 +8378,7 @@
       </c>
       <c r="C3" s="2" t="str">
         <f ca="1">"o-CNTW-SUP-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>o-CNTW-SUP-POC-CS2-02-2311001</v>
+        <v>o-CNTW-SUP-POC-CS2-03-2311001</v>
       </c>
       <c r="D3" s="2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
@@ -8332,7 +8386,7 @@
       </c>
       <c r="E3" s="2" t="str">
         <f ca="1">"SP2-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>SP2-CS2-02-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>290</v>
@@ -8360,7 +8414,7 @@
       </c>
       <c r="N3" s="2" t="str">
         <f ca="1">"SP2-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>SP2-OP-CS2-02-2311-01</v>
+        <v>SP2-OP-CS2-03-2311-01</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>334</v>
@@ -8370,7 +8424,7 @@
       <c r="R3" s="65"/>
       <c r="S3" s="2" t="str">
         <f ca="1">"SP2-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>SP2-IP-CS2-02-2311-02</v>
+        <v>SP2-IP-CS2-03-2311-02</v>
       </c>
       <c r="T3" s="66">
         <v>10.000999999999999</v>
@@ -8386,7 +8440,7 @@
       </c>
       <c r="X3" s="64" t="str">
         <f>'TC20-Autogen SOPO'!H2</f>
-        <v>sCS202-2311001</v>
+        <v>sCS203-2311001</v>
       </c>
       <c r="Y3" s="64" t="s">
         <v>93</v>
@@ -8413,7 +8467,7 @@
       </c>
       <c r="C4" s="2" t="str">
         <f ca="1">"o-CNTW-SUP-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"002"</f>
-        <v>o-CNTW-SUP-POC-CS2-02-2311002</v>
+        <v>o-CNTW-SUP-POC-CS2-03-2311002</v>
       </c>
       <c r="D4" s="2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
@@ -8445,7 +8499,7 @@
       </c>
       <c r="N4" s="2" t="str">
         <f ca="1">"SP2-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>SP2-OP-CS2-02-2311-01</v>
+        <v>SP2-OP-CS2-03-2311-01</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>335</v>
@@ -8465,7 +8519,7 @@
       <c r="W4" s="66"/>
       <c r="X4" s="64" t="str">
         <f>'TC20-Autogen SOPO'!H2</f>
-        <v>sCS202-2311001</v>
+        <v>sCS203-2311001</v>
       </c>
       <c r="Y4" s="64" t="s">
         <v>93</v>
@@ -8492,7 +8546,7 @@
       </c>
       <c r="C5" s="2" t="str">
         <f ca="1">"o-CNTW-SUP-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"002"</f>
-        <v>o-CNTW-SUP-POC-CS2-02-2311002</v>
+        <v>o-CNTW-SUP-POC-CS2-03-2311002</v>
       </c>
       <c r="D5" s="2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
@@ -8524,7 +8578,7 @@
       </c>
       <c r="N5" s="2" t="str">
         <f ca="1">"SP2-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>SP2-OP-CS2-02-2311-02</v>
+        <v>SP2-OP-CS2-03-2311-02</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>333</v>
@@ -8540,7 +8594,7 @@
       </c>
       <c r="S5" s="2" t="str">
         <f ca="1">"SP2-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>SP2-IP-CS2-02-2311-02</v>
+        <v>SP2-IP-CS2-03-2311-02</v>
       </c>
       <c r="T5" s="66">
         <v>10.000999999999999</v>
@@ -8556,7 +8610,7 @@
       </c>
       <c r="X5" s="64" t="str">
         <f>'TC20-Autogen SOPO'!H2</f>
-        <v>sCS202-2311001</v>
+        <v>sCS203-2311001</v>
       </c>
       <c r="Y5" s="64" t="s">
         <v>93</v>
@@ -8589,7 +8643,7 @@
   <sheetPr codeName="Sheet118"/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
@@ -8610,19 +8664,19 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">'TC142-Sup2 Outbound Details'!C2</f>
-        <v>o-CNTW-SUP-POC-CS2-02-2311001</v>
+        <v>o-CNTW-SUP-POC-CS2-03-2311001</v>
       </c>
       <c r="B2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">'TC142-Sup2 Outbound Details'!C4</f>
-        <v>o-CNTW-SUP-POC-CS2-02-2311002</v>
+        <v>o-CNTW-SUP-POC-CS2-03-2311002</v>
       </c>
       <c r="B3" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -8729,7 +8783,7 @@
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC142-Sup2 Outbound Details'!E2</f>
-        <v>SP2-CS2-02-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC142-Sup2 Outbound Details'!M2</f>
@@ -8811,7 +8865,7 @@
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">'TC142-Sup2 Outbound Details'!E3</f>
-        <v>SP2-CS2-02-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>'TC142-Sup2 Outbound Details'!M3</f>
@@ -9097,7 +9151,7 @@
       </c>
       <c r="C2" s="16" t="str">
         <f>AutoIncrement!F4</f>
-        <v>CNTWSUP-SGTTAP-CS2-02</v>
+        <v>CNTWSUP-SGTTAP-CS2-03</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>29</v>
@@ -9118,7 +9172,7 @@
       </c>
       <c r="C3" s="16" t="str">
         <f>AutoIncrement!F4</f>
-        <v>CNTWSUP-SGTTAP-CS2-02</v>
+        <v>CNTWSUP-SGTTAP-CS2-03</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>29</v>
@@ -9139,7 +9193,7 @@
       </c>
       <c r="C4" s="16" t="str">
         <f>AutoIncrement!F4</f>
-        <v>CNTWSUP-SGTTAP-CS2-02</v>
+        <v>CNTWSUP-SGTTAP-CS2-03</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>21</v>
@@ -9262,7 +9316,7 @@
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC142-Sup2 Outbound Details'!E2</f>
-        <v>SP2-CS2-02-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC142-Sup2 Outbound Details'!M2</f>
@@ -9344,7 +9398,7 @@
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">'TC142-Sup2 Outbound Details'!E3</f>
-        <v>SP2-CS2-02-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>'TC142-Sup2 Outbound Details'!M3</f>
@@ -9613,7 +9667,7 @@
         <v>o-CNTW-SUP-POC-231102001</v>
       </c>
       <c r="B2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -9622,7 +9676,7 @@
         <v>o-CNTW-SUP-POC-231102002</v>
       </c>
       <c r="B3" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -9739,7 +9793,7 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f ca="1">'TC142-Sup2 Outbound Details'!E3</f>
-        <v>SP2-CS2-02-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="B4" t="str">
         <f>'TC142-Sup2 Outbound Details'!M3</f>
@@ -9773,7 +9827,7 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f ca="1">'TC142-Sup2 Outbound Details'!E2</f>
-        <v>SP2-CS2-02-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="B5" t="str">
         <f>'TC142-Sup2 Outbound Details'!M2</f>
@@ -9908,7 +9962,7 @@
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC142-Sup2 Outbound Details'!E2</f>
-        <v>SP2-CS2-02-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC142-Sup2 Outbound Details'!M2</f>
@@ -9990,7 +10044,7 @@
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">'TC142-Sup2 Outbound Details'!E3</f>
-        <v>SP2-CS2-02-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>'TC142-Sup2 Outbound Details'!M3</f>
@@ -10329,7 +10383,7 @@
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC142-Sup2 Outbound Details'!E2</f>
-        <v>SP2-CS2-02-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC142-Sup2 Outbound Details'!M2</f>
@@ -10411,7 +10465,7 @@
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">'TC142-Sup2 Outbound Details'!E3</f>
-        <v>SP2-CS2-02-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>'TC142-Sup2 Outbound Details'!M3</f>
@@ -10677,7 +10731,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">"i-SG-TTAP-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-SG-TTAP-DC-CS2-02-2311001</v>
+        <v>i-SG-TTAP-DC-CS2-03-2311001</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
@@ -10687,7 +10741,7 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">"i-SG-TTAP-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-SG-TTAP-DC-CS2-02-2311001</v>
+        <v>i-SG-TTAP-DC-CS2-03-2311001</v>
       </c>
       <c r="B3" t="str">
         <f ca="1" ref="B3:B5" si="0" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
@@ -10697,7 +10751,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f ca="1">"i-SG-TTAP-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-SG-TTAP-DC-CS2-02-2311001</v>
+        <v>i-SG-TTAP-DC-CS2-03-2311001</v>
       </c>
       <c r="B4" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -10707,7 +10761,7 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f ca="1">"i-SG-TTAP-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"002"</f>
-        <v>i-SG-TTAP-DC-CS2-02-2311002</v>
+        <v>i-SG-TTAP-DC-CS2-03-2311002</v>
       </c>
       <c r="B5" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -10802,7 +10856,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC20-Autogen SOPO'!D2</f>
-        <v>pCS202-2311001</v>
+        <v>pCS203-2311001</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -10858,7 +10912,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC20-Autogen SOPO'!D2</f>
-        <v>pCS202-2311001</v>
+        <v>pCS203-2311001</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -10914,7 +10968,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC20-Autogen SOPO'!D2</f>
-        <v>pCS202-2311001</v>
+        <v>pCS203-2311001</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -11043,7 +11097,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC20-Autogen SOPO'!C2</f>
-        <v>sCB202-2311001</v>
+        <v>sCB203-2311001</v>
       </c>
       <c r="E2" t="s">
         <v>93</v>
@@ -11096,7 +11150,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC20-Autogen SOPO'!C2</f>
-        <v>sCB202-2311001</v>
+        <v>sCB203-2311001</v>
       </c>
       <c r="E3" t="s">
         <v>93</v>
@@ -11149,7 +11203,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC20-Autogen SOPO'!C2</f>
-        <v>sCB202-2311001</v>
+        <v>sCB203-2311001</v>
       </c>
       <c r="E4" t="s">
         <v>93</v>
@@ -11278,7 +11332,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC20-Autogen SOPO'!B2</f>
-        <v>pCB202-2311001</v>
+        <v>pCB203-2311001</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -11334,7 +11388,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC20-Autogen SOPO'!B2</f>
-        <v>pCB202-2311001</v>
+        <v>pCB203-2311001</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -11390,7 +11444,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC20-Autogen SOPO'!B2</f>
-        <v>pCB202-2311001</v>
+        <v>pCB203-2311001</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -11519,7 +11573,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB102-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E2" t="s">
         <v>93</v>
@@ -11572,7 +11626,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB102-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E3" t="s">
         <v>93</v>
@@ -11625,7 +11679,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB102-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E4" t="s">
         <v>93</v>
@@ -11776,7 +11830,7 @@
       </c>
       <c r="C2" t="str">
         <f>AutoIncrement!F4</f>
-        <v>CNTWSUP-SGTTAP-CS2-02</v>
+        <v>CNTWSUP-SGTTAP-CS2-03</v>
       </c>
       <c r="D2" t="s">
         <v>72</v>
@@ -11792,15 +11846,15 @@
       </c>
       <c r="H2" t="str">
         <f>AutoIncrement!F3</f>
-        <v>CS2-02</v>
+        <v>CS2-03</v>
       </c>
       <c r="I2" t="str">
         <f>"CD-"&amp;H2</f>
-        <v>CD-CS2-02</v>
+        <v>CD-CS2-03</v>
       </c>
       <c r="J2" t="str">
         <f>"Payment-"&amp;H2</f>
-        <v>Payment-CS2-02</v>
+        <v>Payment-CS2-03</v>
       </c>
       <c r="K2" t="str">
         <f>L2</f>
@@ -11820,7 +11874,7 @@
       </c>
       <c r="P2" t="str">
         <f>J2&amp;"(" &amp;K2&amp;")"</f>
-        <v>Payment-CS2-02(By Invoice Date)</v>
+        <v>Payment-CS2-03(By Invoice Date)</v>
       </c>
       <c r="Q2" t="s">
         <v>174</v>
@@ -11849,7 +11903,7 @@
       </c>
       <c r="Y2" t="str">
         <f>'TC2-BU1 to Customer Contract'!X2</f>
-        <v>CR-PK-CUS-POC-2311004</v>
+        <v>CR-PK-CUS-POC-2311005</v>
       </c>
     </row>
   </sheetData>
@@ -11948,7 +12002,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB102-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -12014,7 +12068,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB102-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -12080,7 +12134,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB102-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -12146,7 +12200,7 @@
       </c>
       <c r="D5" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB102-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E5" t="s">
         <v>69</v>
@@ -12212,7 +12266,7 @@
       </c>
       <c r="D6" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB102-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E6" t="s">
         <v>69</v>
@@ -12278,7 +12332,7 @@
       </c>
       <c r="D7" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB102-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E7" t="s">
         <v>69</v>
@@ -12341,8 +12395,8 @@
   <sheetPr codeName="Sheet131"/>
   <dimension ref="A1:AI5"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AC26" sqref="AC26"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -12477,7 +12531,7 @@
       </c>
       <c r="C2" s="68" t="str">
         <f ca="1">"o-SG-TTAP-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>o-SG-TTAP-DC-CS2-02-2311001</v>
+        <v>o-SG-TTAP-DC-CS2-03-2311001</v>
       </c>
       <c r="D2" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
@@ -12485,7 +12539,7 @@
       </c>
       <c r="E2" s="68" t="str">
         <f ca="1">"DC2-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>DC2-CS2-02-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="F2" s="68" t="s">
         <v>289</v>
@@ -12530,7 +12584,7 @@
       </c>
       <c r="S2" s="68" t="str">
         <f ca="1">"DC2-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>DC2-OP-CS2-02-2311-01</v>
+        <v>DC2-OP-CS2-03-2311-01</v>
       </c>
       <c r="T2" s="68" t="s">
         <v>436</v>
@@ -12546,7 +12600,7 @@
       </c>
       <c r="X2" s="68" t="str">
         <f ca="1">"DC2-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>DC2-IP-CS2-02-2311-01</v>
+        <v>DC2-IP-CS2-03-2311-01</v>
       </c>
       <c r="Y2" s="71" t="s">
         <v>437</v>
@@ -12562,7 +12616,7 @@
       </c>
       <c r="AC2" s="68" t="str">
         <f>'TC20-Autogen SOPO'!C2</f>
-        <v>sCB202-2311001</v>
+        <v>sCB203-2311001</v>
       </c>
       <c r="AD2" s="68" t="s">
         <v>90</v>
@@ -12589,7 +12643,7 @@
       </c>
       <c r="C3" s="68" t="str">
         <f ca="1">"o-SG-TTAP-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>o-SG-TTAP-DC-CS2-02-2311001</v>
+        <v>o-SG-TTAP-DC-CS2-03-2311001</v>
       </c>
       <c r="D3" s="68" t="str">
         <f ca="1" ref="D3:D5" si="0" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
@@ -12597,7 +12651,7 @@
       </c>
       <c r="E3" s="68" t="str">
         <f ca="1">"DC2-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>DC2-CS2-02-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="F3" s="68" t="s">
         <v>290</v>
@@ -12642,7 +12696,7 @@
       </c>
       <c r="S3" s="68" t="str">
         <f ca="1">"DC2-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>DC2-OP-CS2-02-2311-01</v>
+        <v>DC2-OP-CS2-03-2311-01</v>
       </c>
       <c r="T3" s="68" t="s">
         <v>436</v>
@@ -12658,7 +12712,7 @@
       </c>
       <c r="X3" s="68" t="str">
         <f ca="1">"DC2-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>DC2-IP-CS2-02-2311-02</v>
+        <v>DC2-IP-CS2-03-2311-02</v>
       </c>
       <c r="Y3" s="71" t="s">
         <v>438</v>
@@ -12674,7 +12728,7 @@
       </c>
       <c r="AC3" s="68" t="str">
         <f>'TC20-Autogen SOPO'!C2</f>
-        <v>sCB202-2311001</v>
+        <v>sCB203-2311001</v>
       </c>
       <c r="AD3" s="68" t="s">
         <v>90</v>
@@ -12701,7 +12755,7 @@
       </c>
       <c r="C4" s="68" t="str">
         <f ca="1">"o-SG-TTAP-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>o-SG-TTAP-DC-CS2-02-2311001</v>
+        <v>o-SG-TTAP-DC-CS2-03-2311001</v>
       </c>
       <c r="D4" s="68" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -12709,7 +12763,7 @@
       </c>
       <c r="E4" s="68" t="str">
         <f ca="1">"DC2-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>DC2-CS2-02-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="F4" s="68" t="s">
         <v>293</v>
@@ -12754,7 +12808,7 @@
       </c>
       <c r="S4" s="68" t="str">
         <f ca="1">"DC2-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>DC2-OP-CS2-02-2311-02</v>
+        <v>DC2-OP-CS2-03-2311-02</v>
       </c>
       <c r="T4" s="68" t="s">
         <v>334</v>
@@ -12770,7 +12824,7 @@
       </c>
       <c r="X4" s="68" t="str">
         <f ca="1">"DC2-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>DC2-IP-CS2-02-2311-02</v>
+        <v>DC2-IP-CS2-03-2311-02</v>
       </c>
       <c r="Y4" s="71" t="s">
         <v>438</v>
@@ -12786,7 +12840,7 @@
       </c>
       <c r="AC4" s="68" t="str">
         <f>'TC20-Autogen SOPO'!C2</f>
-        <v>sCB202-2311001</v>
+        <v>sCB203-2311001</v>
       </c>
       <c r="AD4" s="68" t="s">
         <v>90</v>
@@ -12813,7 +12867,7 @@
       </c>
       <c r="C5" s="68" t="str">
         <f ca="1">"o-SG-TTAP-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"002"</f>
-        <v>o-SG-TTAP-DC-CS2-02-2311002</v>
+        <v>o-SG-TTAP-DC-CS2-03-2311002</v>
       </c>
       <c r="D5" s="68" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -12862,7 +12916,7 @@
       </c>
       <c r="S5" s="68" t="str">
         <f ca="1">"DC2-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>DC2-OP-CS2-02-2311-01</v>
+        <v>DC2-OP-CS2-03-2311-01</v>
       </c>
       <c r="T5" s="68" t="s">
         <v>335</v>
@@ -12882,7 +12936,7 @@
       <c r="AB5" s="67"/>
       <c r="AC5" s="68" t="str">
         <f>'TC20-Autogen SOPO'!C2</f>
-        <v>sCB202-2311001</v>
+        <v>sCB203-2311001</v>
       </c>
       <c r="AD5" s="68" t="s">
         <v>90</v>
@@ -12931,19 +12985,19 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">'TC174-DC2 Outbound Details'!C4</f>
-        <v>o-SG-TTAP-DC-CS2-02-2311001</v>
+        <v>o-SG-TTAP-DC-CS2-03-2311001</v>
       </c>
       <c r="B2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">'TC174-DC2 Outbound Details'!C5</f>
-        <v>o-SG-TTAP-DC-CS2-02-2311002</v>
+        <v>o-SG-TTAP-DC-CS2-03-2311002</v>
       </c>
       <c r="B3" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -12976,7 +13030,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">'TC174-DC2 Outbound Details'!E2</f>
-        <v>DC2-CS2-02-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="B2" t="str">
         <f>'TC174-DC2 Outbound Details'!O2</f>
@@ -12986,7 +13040,7 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">'TC174-DC2 Outbound Details'!E3</f>
-        <v>DC2-CS2-02-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="B3" t="str">
         <f>'TC174-DC2 Outbound Details'!O3</f>
@@ -12996,7 +13050,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f ca="1">'TC174-DC2 Outbound Details'!E4</f>
-        <v>DC2-CS2-02-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="B4" t="str">
         <f>'TC174-DC2 Outbound Details'!O4</f>
@@ -13043,7 +13097,7 @@
         <v>o-SG-TTAP-DC-231102001</v>
       </c>
       <c r="B2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -13052,7 +13106,7 @@
         <v>o-SG-TTAP-DC-231102002</v>
       </c>
       <c r="B3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -13159,7 +13213,7 @@
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="str">
         <f ca="1">'TC174-DC2 Outbound Details'!E2</f>
-        <v>DC2-CS2-02-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>'TC174-DC2 Outbound Details'!O2</f>
@@ -13241,7 +13295,7 @@
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="str">
         <f ca="1">'TC174-DC2 Outbound Details'!E3</f>
-        <v>DC2-CS2-02-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>'TC174-DC2 Outbound Details'!O3</f>
@@ -13323,7 +13377,7 @@
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="57" t="str">
         <f ca="1">'TC174-DC2 Outbound Details'!E4</f>
-        <v>DC2-CS2-02-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>'TC174-DC2 Outbound Details'!O4</f>
@@ -13483,7 +13537,7 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="str">
         <f ca="1">'TC142-Sup2 Outbound Details'!E2</f>
-        <v>SP2-CS2-02-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="B6" s="8" t="str">
         <f>'TC142-Sup2 Outbound Details'!M2</f>
@@ -13565,7 +13619,7 @@
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="str">
         <f ca="1">'TC142-Sup2 Outbound Details'!E3</f>
-        <v>SP2-CS2-02-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="B7" s="8" t="str">
         <f>'TC142-Sup2 Outbound Details'!M3</f>
@@ -13753,7 +13807,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">"i-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"003"</f>
-        <v>i-PK-CUS-DC-CS2-02-2311003</v>
+        <v>i-PK-CUS-DC-CS2-03-2311003</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
@@ -13763,7 +13817,7 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">"i-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"004"</f>
-        <v>i-PK-CUS-DC-CS2-02-2311004</v>
+        <v>i-PK-CUS-DC-CS2-03-2311004</v>
       </c>
       <c r="B3" t="str">
         <f ca="1" ref="B3:B9" si="0" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
@@ -13773,7 +13827,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f ca="1">"i-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"005"</f>
-        <v>i-PK-CUS-DC-CS2-02-2311005</v>
+        <v>i-PK-CUS-DC-CS2-03-2311005</v>
       </c>
       <c r="B4" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -13783,7 +13837,7 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f ca="1">"i-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"005"</f>
-        <v>i-PK-CUS-DC-CS2-02-2311005</v>
+        <v>i-PK-CUS-DC-CS2-03-2311005</v>
       </c>
       <c r="B5" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -13793,7 +13847,7 @@
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f ca="1">"i-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-PK-CUS-DC-CS2-02-2311001</v>
+        <v>i-PK-CUS-DC-CS2-03-2311001</v>
       </c>
       <c r="B6" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -13803,7 +13857,7 @@
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f ca="1">"i-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-PK-CUS-DC-CS2-02-2311001</v>
+        <v>i-PK-CUS-DC-CS2-03-2311001</v>
       </c>
       <c r="B7" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -13813,7 +13867,7 @@
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f ca="1">"i-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-PK-CUS-DC-CS2-02-2311001</v>
+        <v>i-PK-CUS-DC-CS2-03-2311001</v>
       </c>
       <c r="B8" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -13823,7 +13877,7 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f ca="1">"i-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"002"</f>
-        <v>i-PK-CUS-DC-CS2-02-2311002</v>
+        <v>i-PK-CUS-DC-CS2-03-2311002</v>
       </c>
       <c r="B9" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -13864,7 +13918,7 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">'TC174-DC2 Outbound Details'!E2</f>
-        <v>DC2-CS2-02-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="B2" t="str">
         <f>'TC174-DC2 Outbound Details'!O2</f>
@@ -13877,7 +13931,7 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">'TC174-DC2 Outbound Details'!E3</f>
-        <v>DC2-CS2-02-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="B3" t="str">
         <f>'TC174-DC2 Outbound Details'!O3</f>
@@ -13890,7 +13944,7 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f ca="1">'TC174-DC2 Outbound Details'!E4</f>
-        <v>DC2-CS2-02-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="B4" t="str">
         <f>'TC174-DC2 Outbound Details'!O4</f>
@@ -14013,7 +14067,7 @@
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="str">
         <f ca="1">'TC174-DC2 Outbound Details'!E2</f>
-        <v>DC2-CS2-02-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>'TC174-DC2 Outbound Details'!O2</f>
@@ -14095,7 +14149,7 @@
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="str">
         <f ca="1">'TC174-DC2 Outbound Details'!E3</f>
-        <v>DC2-CS2-02-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>'TC174-DC2 Outbound Details'!O3</f>
@@ -14177,7 +14231,7 @@
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="57" t="str">
         <f ca="1">'TC174-DC2 Outbound Details'!E4</f>
-        <v>DC2-CS2-02-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>'TC174-DC2 Outbound Details'!O4</f>
@@ -14337,7 +14391,7 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="str">
         <f ca="1">'TC142-Sup2 Outbound Details'!E2</f>
-        <v>SP2-CS2-02-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="B6" s="8" t="str">
         <f>'TC142-Sup2 Outbound Details'!M2</f>
@@ -14419,7 +14473,7 @@
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="str">
         <f ca="1">'TC142-Sup2 Outbound Details'!E3</f>
-        <v>SP2-CS2-02-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="B7" s="8" t="str">
         <f>'TC142-Sup2 Outbound Details'!M3</f>
@@ -14668,7 +14722,7 @@
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E3</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M3</f>
@@ -14738,7 +14792,7 @@
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E5</f>
-        <v>SP1-CS2-02-2311002</v>
+        <v>SP1-CS2-03-2311002</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M5</f>
@@ -15041,7 +15095,7 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E2</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M2</f>
@@ -15158,7 +15212,7 @@
     <row customHeight="1" ht="13.2" r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E4</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M4</f>
@@ -15344,7 +15398,7 @@
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC111-DC3 Outbound Details'!E3</f>
-        <v>DC3-CS2-02-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>'TC111-DC3 Outbound Details'!M3</f>
@@ -15570,7 +15624,7 @@
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f ca="1">'TC111-DC3 Outbound Details'!E2</f>
-        <v>DC3-CS2-02-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>'TC111-DC3 Outbound Details'!M2</f>
@@ -15825,7 +15879,7 @@
       </c>
       <c r="C2" s="68" t="str">
         <f ca="1">"o-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>o-PK-CUS-DC-CS2-02-2311001</v>
+        <v>o-PK-CUS-DC-CS2-03-2311001</v>
       </c>
       <c r="D2" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
@@ -15833,7 +15887,7 @@
       </c>
       <c r="E2" s="68" t="str">
         <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>DC1-CS2-02-2311001</v>
+        <v>DC1-CS2-03-2311001</v>
       </c>
       <c r="F2" s="68" t="s">
         <v>289</v>
@@ -15870,7 +15924,7 @@
       </c>
       <c r="Q2" s="68" t="str">
         <f ca="1">"DC1-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>DC1-OP-CS2-02-2311-01</v>
+        <v>DC1-OP-CS2-03-2311-01</v>
       </c>
       <c r="R2" s="68" t="s">
         <v>333</v>
@@ -15886,7 +15940,7 @@
       </c>
       <c r="V2" s="68" t="str">
         <f ca="1">"DC1-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>DC1-IP-CS2-02-2311-01</v>
+        <v>DC1-IP-CS2-03-2311-01</v>
       </c>
       <c r="W2" s="71" t="s">
         <v>437</v>
@@ -15902,7 +15956,7 @@
       </c>
       <c r="AA2" s="68" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB102-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="AB2" s="68" t="s">
         <v>89</v>
@@ -15932,7 +15986,7 @@
       </c>
       <c r="C3" s="68" t="str">
         <f ca="1">"o-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>o-PK-CUS-DC-CS2-02-2311001</v>
+        <v>o-PK-CUS-DC-CS2-03-2311001</v>
       </c>
       <c r="D3" s="68" t="str">
         <f ca="1" ref="D3:D9" si="0" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
@@ -15940,7 +15994,7 @@
       </c>
       <c r="E3" s="68" t="str">
         <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>DC1-CS2-02-2311001</v>
+        <v>DC1-CS2-03-2311001</v>
       </c>
       <c r="F3" s="68" t="s">
         <v>290</v>
@@ -15977,7 +16031,7 @@
       </c>
       <c r="Q3" s="68" t="str">
         <f ca="1">"DC1-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>DC1-OP-CS2-02-2311-01</v>
+        <v>DC1-OP-CS2-03-2311-01</v>
       </c>
       <c r="R3" s="68" t="s">
         <v>441</v>
@@ -15993,7 +16047,7 @@
       </c>
       <c r="V3" s="68" t="str">
         <f ca="1">"DC1-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>DC1-IP-CS2-02-2311-02</v>
+        <v>DC1-IP-CS2-03-2311-02</v>
       </c>
       <c r="W3" s="71" t="s">
         <v>438</v>
@@ -16009,7 +16063,7 @@
       </c>
       <c r="AA3" s="68" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB102-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="AB3" s="68" t="s">
         <v>89</v>
@@ -16039,7 +16093,7 @@
       </c>
       <c r="C4" s="68" t="str">
         <f ca="1">"o-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>o-PK-CUS-DC-CS2-02-2311001</v>
+        <v>o-PK-CUS-DC-CS2-03-2311001</v>
       </c>
       <c r="D4" s="68" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -16047,7 +16101,7 @@
       </c>
       <c r="E4" s="68" t="str">
         <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>DC1-CS2-02-2311001</v>
+        <v>DC1-CS2-03-2311001</v>
       </c>
       <c r="F4" s="68" t="s">
         <v>293</v>
@@ -16084,7 +16138,7 @@
       </c>
       <c r="Q4" s="68" t="str">
         <f ca="1">"DC1-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>DC1-OP-CS2-02-2311-02</v>
+        <v>DC1-OP-CS2-03-2311-02</v>
       </c>
       <c r="R4" s="68" t="s">
         <v>333</v>
@@ -16100,7 +16154,7 @@
       </c>
       <c r="V4" s="68" t="str">
         <f ca="1">"DC1-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>DC1-IP-CS2-02-2311-02</v>
+        <v>DC1-IP-CS2-03-2311-02</v>
       </c>
       <c r="W4" s="71" t="s">
         <v>438</v>
@@ -16116,7 +16170,7 @@
       </c>
       <c r="AA4" s="68" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB102-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="AB4" s="68" t="s">
         <v>89</v>
@@ -16146,7 +16200,7 @@
       </c>
       <c r="C5" s="68" t="str">
         <f ca="1">"o-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"002"</f>
-        <v>o-PK-CUS-DC-CS2-02-2311002</v>
+        <v>o-PK-CUS-DC-CS2-03-2311002</v>
       </c>
       <c r="D5" s="68" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -16187,7 +16241,7 @@
       </c>
       <c r="Q5" s="68" t="str">
         <f ca="1">"DC1-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>DC1-OP-CS2-02-2311-01</v>
+        <v>DC1-OP-CS2-03-2311-01</v>
       </c>
       <c r="R5" s="68" t="s">
         <v>442</v>
@@ -16209,7 +16263,7 @@
       <c r="Z5" s="67"/>
       <c r="AA5" s="68" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB102-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="AB5" s="68" t="s">
         <v>89</v>
@@ -16239,7 +16293,7 @@
       </c>
       <c r="C6" s="68" t="str">
         <f ca="1">"o-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"003"</f>
-        <v>o-PK-CUS-DC-CS2-02-2311003</v>
+        <v>o-PK-CUS-DC-CS2-03-2311003</v>
       </c>
       <c r="D6" s="68" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -16247,7 +16301,7 @@
       </c>
       <c r="E6" s="68" t="str">
         <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"003"</f>
-        <v>DC1-CS2-02-2311003</v>
+        <v>DC1-CS2-03-2311003</v>
       </c>
       <c r="F6" s="68" t="s">
         <v>291</v>
@@ -16284,7 +16338,7 @@
       </c>
       <c r="Q6" s="68" t="str">
         <f ca="1">"DC1-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>DC1-OP-CS2-02-2311-01</v>
+        <v>DC1-OP-CS2-03-2311-01</v>
       </c>
       <c r="R6" s="68" t="s">
         <v>335</v>
@@ -16312,7 +16366,7 @@
       </c>
       <c r="AA6" s="68" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB102-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="AB6" s="68" t="s">
         <v>89</v>
@@ -16342,7 +16396,7 @@
       </c>
       <c r="C7" s="68" t="str">
         <f ca="1">"o-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"004"</f>
-        <v>o-PK-CUS-DC-CS2-02-2311004</v>
+        <v>o-PK-CUS-DC-CS2-03-2311004</v>
       </c>
       <c r="D7" s="68" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -16350,7 +16404,7 @@
       </c>
       <c r="E7" s="68" t="str">
         <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"004"</f>
-        <v>DC1-CS2-02-2311004</v>
+        <v>DC1-CS2-03-2311004</v>
       </c>
       <c r="F7" s="68" t="s">
         <v>292</v>
@@ -16387,7 +16441,7 @@
       </c>
       <c r="Q7" s="68" t="str">
         <f ca="1">"DC1-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>DC1-OP-CS2-02-2311-01</v>
+        <v>DC1-OP-CS2-03-2311-01</v>
       </c>
       <c r="R7" s="68" t="s">
         <v>334</v>
@@ -16403,7 +16457,7 @@
       </c>
       <c r="V7" s="68" t="str">
         <f ca="1">"DC1-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>DC1-IP-CS2-02-2311-01</v>
+        <v>DC1-IP-CS2-03-2311-01</v>
       </c>
       <c r="W7" s="68" t="s">
         <v>438</v>
@@ -16419,7 +16473,7 @@
       </c>
       <c r="AA7" s="68" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB102-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="AB7" s="68" t="s">
         <v>89</v>
@@ -16449,7 +16503,7 @@
       </c>
       <c r="C8" s="68" t="str">
         <f ca="1">"o-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"005"</f>
-        <v>o-PK-CUS-DC-CS2-02-2311005</v>
+        <v>o-PK-CUS-DC-CS2-03-2311005</v>
       </c>
       <c r="D8" s="68" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -16457,7 +16511,7 @@
       </c>
       <c r="E8" s="68" t="str">
         <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"005"</f>
-        <v>DC1-CS2-02-2311005</v>
+        <v>DC1-CS2-03-2311005</v>
       </c>
       <c r="F8" s="68" t="s">
         <v>294</v>
@@ -16494,7 +16548,7 @@
       </c>
       <c r="Q8" s="68" t="str">
         <f ca="1">"DC1-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>DC1-OP-CS2-02-2311-02</v>
+        <v>DC1-OP-CS2-03-2311-02</v>
       </c>
       <c r="R8" s="68" t="s">
         <v>335</v>
@@ -16510,7 +16564,7 @@
       </c>
       <c r="V8" s="68" t="str">
         <f ca="1">"DC1-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>DC1-IP-CS2-02-2311-02</v>
+        <v>DC1-IP-CS2-03-2311-02</v>
       </c>
       <c r="W8" s="68" t="s">
         <v>438</v>
@@ -16526,7 +16580,7 @@
       </c>
       <c r="AA8" s="68" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB102-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="AB8" s="68" t="s">
         <v>89</v>
@@ -16556,7 +16610,7 @@
       </c>
       <c r="C9" s="68" t="str">
         <f ca="1">"o-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"006"</f>
-        <v>o-PK-CUS-DC-CS2-02-2311006</v>
+        <v>o-PK-CUS-DC-CS2-03-2311006</v>
       </c>
       <c r="D9" s="68" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -16564,7 +16618,7 @@
       </c>
       <c r="E9" s="68" t="str">
         <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"005"</f>
-        <v>DC1-CS2-02-2311005</v>
+        <v>DC1-CS2-03-2311005</v>
       </c>
       <c r="F9" s="68" t="s">
         <v>294</v>
@@ -16601,7 +16655,7 @@
       </c>
       <c r="Q9" s="68" t="str">
         <f ca="1">"DC1-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>DC1-OP-CS2-02-2311-02</v>
+        <v>DC1-OP-CS2-03-2311-02</v>
       </c>
       <c r="R9" s="68" t="s">
         <v>335</v>
@@ -16617,7 +16671,7 @@
       </c>
       <c r="V9" s="68" t="str">
         <f ca="1">"DC1-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>DC1-IP-CS2-02-2311-02</v>
+        <v>DC1-IP-CS2-03-2311-02</v>
       </c>
       <c r="W9" s="68" t="s">
         <v>438</v>
@@ -16633,7 +16687,7 @@
       </c>
       <c r="AA9" s="68" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB102-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="AB9" s="68" t="s">
         <v>89</v>
@@ -16685,55 +16739,55 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!C4</f>
-        <v>o-PK-CUS-DC-CS2-02-2311001</v>
+        <v>o-PK-CUS-DC-CS2-03-2311001</v>
       </c>
       <c r="B2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!C5</f>
-        <v>o-PK-CUS-DC-CS2-02-2311002</v>
+        <v>o-PK-CUS-DC-CS2-03-2311002</v>
       </c>
       <c r="B3" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!C6</f>
-        <v>o-PK-CUS-DC-CS2-02-2311003</v>
+        <v>o-PK-CUS-DC-CS2-03-2311003</v>
       </c>
       <c r="B4" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!C7</f>
-        <v>o-PK-CUS-DC-CS2-02-2311004</v>
+        <v>o-PK-CUS-DC-CS2-03-2311004</v>
       </c>
       <c r="B5" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!C8</f>
-        <v>o-PK-CUS-DC-CS2-02-2311005</v>
+        <v>o-PK-CUS-DC-CS2-03-2311005</v>
       </c>
       <c r="B6" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!C9</f>
-        <v>o-PK-CUS-DC-CS2-02-2311006</v>
+        <v>o-PK-CUS-DC-CS2-03-2311006</v>
       </c>
       <c r="B7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -16832,7 +16886,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB102-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -16898,7 +16952,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB102-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -16964,7 +17018,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB102-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -17030,7 +17084,7 @@
       </c>
       <c r="D5" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB102-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E5" t="s">
         <v>69</v>
@@ -17096,7 +17150,7 @@
       </c>
       <c r="D6" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB102-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E6" t="s">
         <v>69</v>
@@ -17162,7 +17216,7 @@
       </c>
       <c r="D7" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB102-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E7" t="s">
         <v>69</v>
@@ -17303,7 +17357,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cCB102-2311002</v>
+        <v>cCB103-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -17362,7 +17416,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cCB102-2311002</v>
+        <v>cCB103-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -17421,7 +17475,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cCB102-2311002</v>
+        <v>cCB103-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -17560,7 +17614,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB102-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E2" t="s">
         <v>93</v>
@@ -17623,7 +17677,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB102-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E3" t="s">
         <v>93</v>
@@ -17686,7 +17740,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB102-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E4" t="s">
         <v>79</v>
@@ -17749,7 +17803,7 @@
       </c>
       <c r="D5" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB102-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E5" t="s">
         <v>79</v>
@@ -17812,7 +17866,7 @@
       </c>
       <c r="D6" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB102-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E6" t="s">
         <v>93</v>
@@ -17875,7 +17929,7 @@
       </c>
       <c r="D7" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB102-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E7" t="s">
         <v>79</v>
@@ -18013,7 +18067,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB102-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>79</v>
@@ -18072,7 +18126,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB102-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>79</v>
@@ -18131,7 +18185,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB102-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>79</v>
@@ -18232,7 +18286,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!E2</f>
-        <v>DC1-CS2-02-2311001</v>
+        <v>DC1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>'TC204-DC1 Outbound Details'!M2</f>
@@ -18266,7 +18320,7 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!E3</f>
-        <v>DC1-CS2-02-2311001</v>
+        <v>DC1-CS2-03-2311001</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>'TC204-DC1 Outbound Details'!M3</f>
@@ -18300,7 +18354,7 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!E4</f>
-        <v>DC1-CS2-02-2311001</v>
+        <v>DC1-CS2-03-2311001</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>'TC204-DC1 Outbound Details'!M4</f>
@@ -18364,7 +18418,7 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!E6</f>
-        <v>DC1-CS2-02-2311003</v>
+        <v>DC1-CS2-03-2311003</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>'TC204-DC1 Outbound Details'!M6</f>
@@ -18398,7 +18452,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!E7</f>
-        <v>DC1-CS2-02-2311004</v>
+        <v>DC1-CS2-03-2311004</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>'TC204-DC1 Outbound Details'!M7</f>
@@ -18432,7 +18486,7 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!E8</f>
-        <v>DC1-CS2-02-2311005</v>
+        <v>DC1-CS2-03-2311005</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>'TC204-DC1 Outbound Details'!M8</f>
@@ -18466,7 +18520,7 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!E9</f>
-        <v>DC1-CS2-02-2311005</v>
+        <v>DC1-CS2-03-2311005</v>
       </c>
       <c r="B9" s="2" t="str">
         <f>'TC204-DC1 Outbound Details'!M9</f>
@@ -18558,7 +18612,7 @@
       </c>
       <c r="C2" s="16" t="str">
         <f>AutoIncrement!E4</f>
-        <v>MYPNA-PKTTAP-CB3-02</v>
+        <v>MYPNA-PKTTAP-CB3-03</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>146</v>
@@ -18588,7 +18642,7 @@
       </c>
       <c r="C3" s="16" t="str">
         <f>AutoIncrement!E4</f>
-        <v>MYPNA-PKTTAP-CB3-02</v>
+        <v>MYPNA-PKTTAP-CB3-03</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>146</v>
@@ -18618,7 +18672,7 @@
       </c>
       <c r="C4" s="16" t="str">
         <f>AutoIncrement!E4</f>
-        <v>MYPNA-PKTTAP-CB3-02</v>
+        <v>MYPNA-PKTTAP-CB3-03</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>149</v>
@@ -18778,7 +18832,7 @@
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="str">
         <f ca="1">'TC198-Customer Cargo Tracking'!A2</f>
-        <v>DC2-CS2-02-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC198-Customer Cargo Tracking'!B2</f>
@@ -18893,7 +18947,7 @@
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="str">
         <f ca="1">'TC198-Customer Cargo Tracking'!A3</f>
-        <v>DC2-CS2-02-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="B3" s="57" t="str">
         <f>'TC198-Customer Cargo Tracking'!B3</f>
@@ -19008,7 +19062,7 @@
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="57" t="str">
         <f ca="1">'TC198-Customer Cargo Tracking'!A4</f>
-        <v>DC2-CS2-02-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="B4" s="57" t="str">
         <f>'TC198-Customer Cargo Tracking'!B4</f>
@@ -19335,7 +19389,7 @@
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="str">
         <f ca="1">'TC198-Customer Cargo Tracking'!A6</f>
-        <v>SP2-CS2-02-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC198-Customer Cargo Tracking'!B6</f>
@@ -19417,7 +19471,7 @@
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="str">
         <f ca="1">'TC198-Customer Cargo Tracking'!A7</f>
-        <v>SP2-CS2-02-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="B3" s="57" t="str">
         <f>'TC198-Customer Cargo Tracking'!B7</f>
@@ -19688,7 +19742,7 @@
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!E2</f>
-        <v>DC1-CS2-02-2311001</v>
+        <v>DC1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>'TC204-DC1 Outbound Details'!M2</f>
@@ -19779,7 +19833,7 @@
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!E3</f>
-        <v>DC1-CS2-02-2311001</v>
+        <v>DC1-CS2-03-2311001</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>'TC204-DC1 Outbound Details'!M3</f>
@@ -19870,7 +19924,7 @@
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!E4</f>
-        <v>DC1-CS2-02-2311001</v>
+        <v>DC1-CS2-03-2311001</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>'TC204-DC1 Outbound Details'!M4</f>
@@ -20062,7 +20116,7 @@
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="str">
         <f ca="1">'TC128.1-Customer Cargo Tracking'!A2</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC128.1-Customer Cargo Tracking'!B2</f>
@@ -20144,7 +20198,7 @@
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="str">
         <f ca="1">'TC128.1-Customer Cargo Tracking'!A3</f>
-        <v>SP1-CS2-02-2311002</v>
+        <v>SP1-CS2-03-2311002</v>
       </c>
       <c r="B3" s="57" t="str">
         <f>'TC128.1-Customer Cargo Tracking'!B3</f>
@@ -20293,7 +20347,7 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="str">
         <f ca="1">'TC128.2-Customer Cargo Tracking'!A2</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>'TC128.2-Customer Cargo Tracking'!B2</f>
@@ -20409,7 +20463,7 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="str">
         <f ca="1">'TC128.3-Customer Cargo Tracking'!A2</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>'TC128.3-Customer Cargo Tracking'!B2</f>
@@ -20592,7 +20646,7 @@
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="str">
         <f ca="1">'TC128.4-Customer Cargo Tracking'!A2</f>
-        <v>DC3-CS2-02-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>'TC128.4-Customer Cargo Tracking'!B2</f>
@@ -20819,7 +20873,7 @@
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="57" t="str">
         <f ca="1">'TC128.4-Customer Cargo Tracking'!A4</f>
-        <v>DC3-CS2-02-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>'TC128.4-Customer Cargo Tracking'!B4</f>
@@ -21044,7 +21098,7 @@
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!E6</f>
-        <v>DC1-CS2-02-2311003</v>
+        <v>DC1-CS2-03-2311003</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>'TC204-DC1 Outbound Details'!M6</f>
@@ -21135,7 +21189,7 @@
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!E7</f>
-        <v>DC1-CS2-02-2311004</v>
+        <v>DC1-CS2-03-2311004</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>'TC204-DC1 Outbound Details'!M7</f>
@@ -21226,7 +21280,7 @@
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!E9</f>
-        <v>DC1-CS2-02-2311005</v>
+        <v>DC1-CS2-03-2311005</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>'TC204-DC1 Outbound Details'!M9</f>
@@ -21348,7 +21402,7 @@
         <v>o-PK-CUS-DC-231102001</v>
       </c>
       <c r="B2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -21357,7 +21411,7 @@
         <v>o-PK-CUS-DC-231102002</v>
       </c>
       <c r="B3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -21366,7 +21420,7 @@
         <v>o-PK-CUS-DC-231102003</v>
       </c>
       <c r="B4" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -21375,7 +21429,7 @@
         <v>o-PK-CUS-DC-231102004</v>
       </c>
       <c r="B5" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -21384,7 +21438,7 @@
         <v>o-PK-CUS-DC-231102005</v>
       </c>
       <c r="B6" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -21393,7 +21447,7 @@
         <v>o-PK-CUS-DC-231102006</v>
       </c>
       <c r="B7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -21427,7 +21481,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">"i-PK-CUS-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-PK-CUS-POC-CS2-02-2311001</v>
+        <v>i-PK-CUS-POC-CS2-03-2311001</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
@@ -21437,7 +21491,7 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">"i-PK-CUS-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-PK-CUS-POC-CS2-02-2311001</v>
+        <v>i-PK-CUS-POC-CS2-03-2311001</v>
       </c>
       <c r="B3" t="str">
         <f ca="1" ref="B3:B9" si="0" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
@@ -21447,7 +21501,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f ca="1">"i-PK-CUS-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-PK-CUS-POC-CS2-02-2311001</v>
+        <v>i-PK-CUS-POC-CS2-03-2311001</v>
       </c>
       <c r="B4" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -21457,7 +21511,7 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f ca="1">"i-PK-CUS-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-PK-CUS-POC-CS2-02-2311001</v>
+        <v>i-PK-CUS-POC-CS2-03-2311001</v>
       </c>
       <c r="B5" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -21467,7 +21521,7 @@
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f ca="1">"i-PK-CUS-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-PK-CUS-POC-CS2-02-2311001</v>
+        <v>i-PK-CUS-POC-CS2-03-2311001</v>
       </c>
       <c r="B6" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -21477,7 +21531,7 @@
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f ca="1">"i-PK-CUS-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-PK-CUS-POC-CS2-02-2311001</v>
+        <v>i-PK-CUS-POC-CS2-03-2311001</v>
       </c>
       <c r="B7" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -21487,7 +21541,7 @@
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f ca="1">"i-PK-CUS-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-PK-CUS-POC-CS2-02-2311001</v>
+        <v>i-PK-CUS-POC-CS2-03-2311001</v>
       </c>
       <c r="B8" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -21497,7 +21551,7 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f ca="1">"i-PK-CUS-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"002"</f>
-        <v>i-PK-CUS-POC-CS2-02-2311002</v>
+        <v>i-PK-CUS-POC-CS2-03-2311002</v>
       </c>
       <c r="B9" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -21603,26 +21657,26 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>531</v>
+        <v>559</v>
       </c>
       <c r="C2" t="str">
         <f>AutoIncrement!E4</f>
-        <v>MYPNA-PKTTAP-CB3-02</v>
+        <v>MYPNA-PKTTAP-CB3-03</v>
       </c>
       <c r="D2" t="s">
         <v>68</v>
       </c>
       <c r="E2" t="str">
         <f>AutoIncrement!E3</f>
-        <v>CB3-02</v>
+        <v>CB3-03</v>
       </c>
       <c r="F2" t="str">
         <f>"CD-"&amp;E2</f>
-        <v>CD-CB3-02</v>
+        <v>CD-CB3-03</v>
       </c>
       <c r="G2" t="str">
         <f>"Payment-"&amp;E2</f>
-        <v>Payment-CB3-02</v>
+        <v>Payment-CB3-03</v>
       </c>
       <c r="H2" t="str">
         <f>I2</f>
@@ -21642,7 +21696,7 @@
       </c>
       <c r="M2" t="str">
         <f>G2&amp;"(" &amp;H2&amp;")"</f>
-        <v>Payment-CB3-02(By Invoice Date)</v>
+        <v>Payment-CB3-03(By Invoice Date)</v>
       </c>
       <c r="N2" t="s">
         <v>147</v>
@@ -21671,11 +21725,11 @@
       </c>
       <c r="V2" t="str">
         <f>'TC2-BU1 to Customer Contract'!X2</f>
-        <v>CR-PK-CUS-POC-2311004</v>
+        <v>CR-PK-CUS-POC-2311005</v>
       </c>
       <c r="W2" t="str">
         <f>"SP1toBU3-"&amp;E2</f>
-        <v>SP1toBU3-CB3-02</v>
+        <v>SP1toBU3-CB3-03</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -21779,7 +21833,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB102-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -21845,7 +21899,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB102-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -21911,7 +21965,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB102-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -21977,7 +22031,7 @@
       </c>
       <c r="D5" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB102-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E5" t="s">
         <v>69</v>
@@ -22043,7 +22097,7 @@
       </c>
       <c r="D6" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB102-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E6" t="s">
         <v>69</v>
@@ -22109,7 +22163,7 @@
       </c>
       <c r="D7" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB102-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E7" t="s">
         <v>69</v>
@@ -22249,7 +22303,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cCB102-2311002</v>
+        <v>cCB103-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -22308,7 +22362,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cCB102-2311002</v>
+        <v>cCB103-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -22367,7 +22421,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cCB102-2311002</v>
+        <v>cCB103-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -22505,7 +22559,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB102-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E2" t="s">
         <v>93</v>
@@ -22568,7 +22622,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB102-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E3" t="s">
         <v>93</v>
@@ -22631,7 +22685,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB102-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E4" t="s">
         <v>79</v>
@@ -22694,7 +22748,7 @@
       </c>
       <c r="D5" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB102-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E5" t="s">
         <v>79</v>
@@ -22757,7 +22811,7 @@
       </c>
       <c r="D6" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB102-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E6" t="s">
         <v>93</v>
@@ -22820,7 +22874,7 @@
       </c>
       <c r="D7" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB102-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E7" t="s">
         <v>79</v>
@@ -22957,7 +23011,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB102-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>79</v>
@@ -23016,7 +23070,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB102-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>79</v>
@@ -23075,7 +23129,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB102-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>79</v>
@@ -23154,7 +23208,7 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">'TC207-BU1 Revise Shipment'!A2</f>
-        <v>DC1-CS2-02-2311001</v>
+        <v>DC1-CS2-03-2311001</v>
       </c>
       <c r="B2" t="str">
         <f>'TC207-BU1 Revise Shipment'!B2</f>
@@ -23167,7 +23221,7 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">'TC207-BU1 Revise Shipment'!A3</f>
-        <v>DC1-CS2-02-2311001</v>
+        <v>DC1-CS2-03-2311001</v>
       </c>
       <c r="B3" t="str">
         <f>'TC207-BU1 Revise Shipment'!B3</f>
@@ -23180,7 +23234,7 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f ca="1">'TC207-BU1 Revise Shipment'!A4</f>
-        <v>DC1-CS2-02-2311001</v>
+        <v>DC1-CS2-03-2311001</v>
       </c>
       <c r="B4" t="str">
         <f>'TC207-BU1 Revise Shipment'!B4</f>
@@ -23202,7 +23256,7 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f ca="1">'TC207-BU1 Revise Shipment'!A6</f>
-        <v>DC1-CS2-02-2311003</v>
+        <v>DC1-CS2-03-2311003</v>
       </c>
       <c r="B6" t="str">
         <f>'TC207-BU1 Revise Shipment'!B6</f>
@@ -23215,7 +23269,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f ca="1">'TC207-BU1 Revise Shipment'!A7</f>
-        <v>DC1-CS2-02-2311004</v>
+        <v>DC1-CS2-03-2311004</v>
       </c>
       <c r="B7" t="str">
         <f>'TC207-BU1 Revise Shipment'!B7</f>
@@ -23228,7 +23282,7 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f ca="1">'TC207-BU1 Revise Shipment'!A8</f>
-        <v>DC1-CS2-02-2311005</v>
+        <v>DC1-CS2-03-2311005</v>
       </c>
       <c r="B8" t="str">
         <f>'TC207-BU1 Revise Shipment'!B8</f>
@@ -23241,7 +23295,7 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f ca="1">'TC207-BU1 Revise Shipment'!A9</f>
-        <v>DC1-CS2-02-2311005</v>
+        <v>DC1-CS2-03-2311005</v>
       </c>
       <c r="B9" t="str">
         <f>'TC207-BU1 Revise Shipment'!B9</f>
@@ -23388,7 +23442,7 @@
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="str">
         <f ca="1">'TC198-Customer Cargo Tracking'!A2</f>
-        <v>DC2-CS2-02-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC198-Customer Cargo Tracking'!B2</f>
@@ -23503,7 +23557,7 @@
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="str">
         <f ca="1">'TC198-Customer Cargo Tracking'!A3</f>
-        <v>DC2-CS2-02-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="B3" s="57" t="str">
         <f>'TC198-Customer Cargo Tracking'!B3</f>
@@ -23618,7 +23672,7 @@
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="57" t="str">
         <f ca="1">'TC198-Customer Cargo Tracking'!A4</f>
-        <v>DC2-CS2-02-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="B4" s="57" t="str">
         <f>'TC198-Customer Cargo Tracking'!B4</f>
@@ -23945,7 +23999,7 @@
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="str">
         <f ca="1">'TC198-Customer Cargo Tracking'!A6</f>
-        <v>SP2-CS2-02-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC198-Customer Cargo Tracking'!B6</f>
@@ -24027,7 +24081,7 @@
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="str">
         <f ca="1">'TC198-Customer Cargo Tracking'!A7</f>
-        <v>SP2-CS2-02-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="B3" s="57" t="str">
         <f>'TC198-Customer Cargo Tracking'!B7</f>
@@ -24298,7 +24352,7 @@
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!E2</f>
-        <v>DC1-CS2-02-2311001</v>
+        <v>DC1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>'TC204-DC1 Outbound Details'!M2</f>
@@ -24389,7 +24443,7 @@
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!E3</f>
-        <v>DC1-CS2-02-2311001</v>
+        <v>DC1-CS2-03-2311001</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>'TC204-DC1 Outbound Details'!M3</f>
@@ -24480,7 +24534,7 @@
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!E4</f>
-        <v>DC1-CS2-02-2311001</v>
+        <v>DC1-CS2-03-2311001</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>'TC204-DC1 Outbound Details'!M4</f>
@@ -24671,7 +24725,7 @@
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="str">
         <f ca="1">'TC128.1-Customer Cargo Tracking'!A2</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC128.1-Customer Cargo Tracking'!B2</f>
@@ -24753,7 +24807,7 @@
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="str">
         <f ca="1">'TC128.1-Customer Cargo Tracking'!A3</f>
-        <v>SP1-CS2-02-2311002</v>
+        <v>SP1-CS2-03-2311002</v>
       </c>
       <c r="B3" s="57" t="str">
         <f>'TC128.1-Customer Cargo Tracking'!B3</f>
@@ -24902,7 +24956,7 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="str">
         <f ca="1">'TC128.2-Customer Cargo Tracking'!A2</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>'TC128.2-Customer Cargo Tracking'!B2</f>
@@ -25187,7 +25241,7 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="str">
         <f ca="1">'TC128.3-Customer Cargo Tracking'!A2</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>'TC128.3-Customer Cargo Tracking'!B2</f>
@@ -25370,7 +25424,7 @@
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="str">
         <f ca="1">'TC128.4-Customer Cargo Tracking'!A2</f>
-        <v>DC3-CS2-02-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>'TC128.4-Customer Cargo Tracking'!B2</f>
@@ -25597,7 +25651,7 @@
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="57" t="str">
         <f ca="1">'TC128.4-Customer Cargo Tracking'!A4</f>
-        <v>DC3-CS2-02-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>'TC128.4-Customer Cargo Tracking'!B4</f>
@@ -25822,7 +25876,7 @@
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!E6</f>
-        <v>DC1-CS2-02-2311003</v>
+        <v>DC1-CS2-03-2311003</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>'TC204-DC1 Outbound Details'!M6</f>
@@ -25913,7 +25967,7 @@
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!E7</f>
-        <v>DC1-CS2-02-2311004</v>
+        <v>DC1-CS2-03-2311004</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>'TC204-DC1 Outbound Details'!M7</f>
@@ -26004,7 +26058,7 @@
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!E9</f>
-        <v>DC1-CS2-02-2311005</v>
+        <v>DC1-CS2-03-2311005</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>'TC204-DC1 Outbound Details'!M9</f>
@@ -26146,7 +26200,7 @@
       </c>
       <c r="C2" s="16" t="str">
         <f>AutoIncrement!G4</f>
-        <v>MYELASUP-MYPNA-CS1-02</v>
+        <v>MYELASUP-MYPNA-CS1-03</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>21</v>
@@ -26170,7 +26224,7 @@
       </c>
       <c r="C3" s="16" t="str">
         <f>AutoIncrement!G4</f>
-        <v>MYELASUP-MYPNA-CS1-02</v>
+        <v>MYELASUP-MYPNA-CS1-03</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>21</v>
@@ -26194,7 +26248,7 @@
       </c>
       <c r="C4" s="16" t="str">
         <f>AutoIncrement!G4</f>
-        <v>MYELASUP-MYPNA-CS1-02</v>
+        <v>MYELASUP-MYPNA-CS1-03</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>21</v>
@@ -26317,7 +26371,7 @@
       </c>
       <c r="C2" t="str">
         <f>AutoIncrement!G4</f>
-        <v>MYELASUP-MYPNA-CS1-02</v>
+        <v>MYELASUP-MYPNA-CS1-03</v>
       </c>
       <c r="D2" t="s">
         <v>64</v>
@@ -26333,15 +26387,15 @@
       </c>
       <c r="H2" t="str">
         <f>AutoIncrement!G3</f>
-        <v>CS1-02</v>
+        <v>CS1-03</v>
       </c>
       <c r="I2" t="str">
         <f>"CD-"&amp;H2</f>
-        <v>CD-CS1-02</v>
+        <v>CD-CS1-03</v>
       </c>
       <c r="J2" t="str">
         <f>"Payment-"&amp;H2</f>
-        <v>Payment-CS1-02</v>
+        <v>Payment-CS1-03</v>
       </c>
       <c r="K2" t="str">
         <f>L2</f>
@@ -26361,7 +26415,7 @@
       </c>
       <c r="P2" t="str">
         <f>J2&amp;"(" &amp;K2&amp;")"</f>
-        <v>Payment-CS1-02(By Free)</v>
+        <v>Payment-CS1-03(By Free)</v>
       </c>
       <c r="Q2" t="s">
         <v>183</v>
@@ -26381,7 +26435,7 @@
       </c>
       <c r="V2" t="str">
         <f>'TC2-BU1 to Customer Contract'!X2</f>
-        <v>CR-PK-CUS-POC-2311004</v>
+        <v>CR-PK-CUS-POC-2311005</v>
       </c>
     </row>
   </sheetData>
@@ -26803,7 +26857,7 @@
       </c>
       <c r="C2" s="46" t="str">
         <f>AutoIncrement!F5</f>
-        <v>CSS-CS2-02</v>
+        <v>CSS-CS2-03</v>
       </c>
       <c r="D2" s="46" t="s">
         <v>69</v>
@@ -26813,7 +26867,7 @@
       </c>
       <c r="F2" s="46" t="str">
         <f>AutoIncrement!F4</f>
-        <v>CNTWSUP-SGTTAP-CS2-02</v>
+        <v>CNTWSUP-SGTTAP-CS2-03</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -26825,7 +26879,7 @@
       </c>
       <c r="C3" s="46" t="str">
         <f>AutoIncrement!F5</f>
-        <v>CSS-CS2-02</v>
+        <v>CSS-CS2-03</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>69</v>
@@ -26835,7 +26889,7 @@
       </c>
       <c r="F3" s="46" t="str">
         <f>AutoIncrement!F4</f>
-        <v>CNTWSUP-SGTTAP-CS2-02</v>
+        <v>CNTWSUP-SGTTAP-CS2-03</v>
       </c>
     </row>
   </sheetData>
@@ -26886,7 +26940,7 @@
       </c>
       <c r="C2" s="46" t="str">
         <f>AutoIncrement!D5</f>
-        <v>CSS-CB2-02</v>
+        <v>CSS-CB2-03</v>
       </c>
       <c r="D2" s="46" t="s">
         <v>69</v>
@@ -26896,7 +26950,7 @@
       </c>
       <c r="F2" s="46" t="str">
         <f>AutoIncrement!D4</f>
-        <v>SGTTAP-PKTTAP-CB2-02</v>
+        <v>SGTTAP-PKTTAP-CB2-03</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -26908,7 +26962,7 @@
       </c>
       <c r="C3" s="46" t="str">
         <f>AutoIncrement!D5</f>
-        <v>CSS-CB2-02</v>
+        <v>CSS-CB2-03</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>69</v>
@@ -26918,7 +26972,7 @@
       </c>
       <c r="F3" s="46" t="str">
         <f>AutoIncrement!D4</f>
-        <v>SGTTAP-PKTTAP-CB2-02</v>
+        <v>SGTTAP-PKTTAP-CB2-03</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -26930,7 +26984,7 @@
       </c>
       <c r="C4" s="46" t="str">
         <f>AutoIncrement!D5</f>
-        <v>CSS-CB2-02</v>
+        <v>CSS-CB2-03</v>
       </c>
       <c r="D4" s="46" t="s">
         <v>69</v>
@@ -26940,7 +26994,7 @@
       </c>
       <c r="F4" s="2" t="str">
         <f>AutoIncrement!F4</f>
-        <v>CNTWSUP-SGTTAP-CS2-02</v>
+        <v>CNTWSUP-SGTTAP-CS2-03</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -26952,7 +27006,7 @@
       </c>
       <c r="C5" s="46" t="str">
         <f>AutoIncrement!D5</f>
-        <v>CSS-CB2-02</v>
+        <v>CSS-CB2-03</v>
       </c>
       <c r="D5" s="46" t="s">
         <v>69</v>
@@ -26962,7 +27016,7 @@
       </c>
       <c r="F5" s="2" t="str">
         <f>AutoIncrement!F4</f>
-        <v>CNTWSUP-SGTTAP-CS2-02</v>
+        <v>CNTWSUP-SGTTAP-CS2-03</v>
       </c>
     </row>
   </sheetData>
@@ -27013,7 +27067,7 @@
       </c>
       <c r="C2" s="46" t="str">
         <f>AutoIncrement!D5</f>
-        <v>CSS-CB2-02</v>
+        <v>CSS-CB2-03</v>
       </c>
       <c r="D2" s="46" t="s">
         <v>69</v>
@@ -27023,7 +27077,7 @@
       </c>
       <c r="F2" s="46" t="str">
         <f>AutoIncrement!G4</f>
-        <v>MYELASUP-MYPNA-CS1-02</v>
+        <v>MYELASUP-MYPNA-CS1-03</v>
       </c>
     </row>
   </sheetData>
@@ -27074,7 +27128,7 @@
       </c>
       <c r="C2" s="46" t="str">
         <f>AutoIncrement!E5</f>
-        <v>CSS-CB3-02</v>
+        <v>CSS-CB3-03</v>
       </c>
       <c r="D2" s="46" t="s">
         <v>69</v>
@@ -27084,7 +27138,7 @@
       </c>
       <c r="F2" s="46" t="str">
         <f>AutoIncrement!E4</f>
-        <v>MYPNA-PKTTAP-CB3-02</v>
+        <v>MYPNA-PKTTAP-CB3-03</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -27096,7 +27150,7 @@
       </c>
       <c r="C3" s="46" t="str">
         <f>AutoIncrement!E5</f>
-        <v>CSS-CB3-02</v>
+        <v>CSS-CB3-03</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>69</v>
@@ -27106,7 +27160,7 @@
       </c>
       <c r="F3" s="46" t="str">
         <f>AutoIncrement!E4</f>
-        <v>MYPNA-PKTTAP-CB3-02</v>
+        <v>MYPNA-PKTTAP-CB3-03</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -27118,7 +27172,7 @@
       </c>
       <c r="C4" s="46" t="str">
         <f>AutoIncrement!E5</f>
-        <v>CSS-CB3-02</v>
+        <v>CSS-CB3-03</v>
       </c>
       <c r="D4" s="46" t="s">
         <v>69</v>
@@ -27128,7 +27182,7 @@
       </c>
       <c r="F4" s="2" t="str">
         <f>AutoIncrement!G4</f>
-        <v>MYELASUP-MYPNA-CS1-02</v>
+        <v>MYELASUP-MYPNA-CS1-03</v>
       </c>
     </row>
   </sheetData>
@@ -27179,7 +27233,7 @@
       </c>
       <c r="C2" s="46" t="str">
         <f>AutoIncrement!C5</f>
-        <v>CSS-CB1-02</v>
+        <v>CSS-CB1-03</v>
       </c>
       <c r="D2" s="46" t="s">
         <v>69</v>
@@ -27189,7 +27243,7 @@
       </c>
       <c r="F2" s="46" t="str">
         <f>AutoIncrement!C4</f>
-        <v>PKTTAP-PKCUS-CB1-02</v>
+        <v>PKTTAP-PKCUS-CB1-03</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -27201,7 +27255,7 @@
       </c>
       <c r="C3" s="46" t="str">
         <f>AutoIncrement!C5</f>
-        <v>CSS-CB1-02</v>
+        <v>CSS-CB1-03</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>69</v>
@@ -27211,7 +27265,7 @@
       </c>
       <c r="F3" s="46" t="str">
         <f>AutoIncrement!D4</f>
-        <v>SGTTAP-PKTTAP-CB2-02</v>
+        <v>SGTTAP-PKTTAP-CB2-03</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -27223,7 +27277,7 @@
       </c>
       <c r="C4" s="46" t="str">
         <f>AutoIncrement!C5</f>
-        <v>CSS-CB1-02</v>
+        <v>CSS-CB1-03</v>
       </c>
       <c r="D4" s="46" t="s">
         <v>69</v>
@@ -27233,7 +27287,7 @@
       </c>
       <c r="F4" s="2" t="str">
         <f>AutoIncrement!E4</f>
-        <v>MYPNA-PKTTAP-CB3-02</v>
+        <v>MYPNA-PKTTAP-CB3-03</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -27245,7 +27299,7 @@
       </c>
       <c r="C5" s="2" t="str">
         <f>AutoIncrement!C5</f>
-        <v>CSS-CB1-02</v>
+        <v>CSS-CB1-03</v>
       </c>
       <c r="D5" s="46" t="s">
         <v>69</v>
@@ -27255,7 +27309,7 @@
       </c>
       <c r="F5" s="2" t="str">
         <f>AutoIncrement!D4</f>
-        <v>SGTTAP-PKTTAP-CB2-02</v>
+        <v>SGTTAP-PKTTAP-CB2-03</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -27267,7 +27321,7 @@
       </c>
       <c r="C6" s="2" t="str">
         <f>AutoIncrement!C5</f>
-        <v>CSS-CB1-02</v>
+        <v>CSS-CB1-03</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>69</v>
@@ -27277,7 +27331,7 @@
       </c>
       <c r="F6" s="2" t="str">
         <f>AutoIncrement!E4</f>
-        <v>MYPNA-PKTTAP-CB3-02</v>
+        <v>MYPNA-PKTTAP-CB3-03</v>
       </c>
     </row>
   </sheetData>
@@ -27328,11 +27382,11 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="str">
         <f>AutoIncrement!C4</f>
-        <v>PKTTAP-PKCUS-CB1-02</v>
+        <v>PKTTAP-PKCUS-CB1-03</v>
       </c>
       <c r="B2" s="44" t="str">
         <f>'TC2-BU1 to Customer Contract'!X2</f>
-        <v>CR-PK-CUS-POC-2311004</v>
+        <v>CR-PK-CUS-POC-2311005</v>
       </c>
       <c r="C2" s="45" t="s">
         <v>289</v>
@@ -27429,7 +27483,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27444,8 +27498,8 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())+21), "dd MMM yyyy")</f>
-        <v>24 Dec 2023</v>
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+15), "dd MMM yyyy")</f>
+        <v>18 Nov 2023</v>
       </c>
     </row>
   </sheetData>
@@ -27474,7 +27528,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>533</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -27617,7 +27671,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="str">
         <f ca="1">'TC15-Inbound Date'!A2</f>
-        <v>24 Dec 2023</v>
+        <v>18 Nov 2023</v>
       </c>
       <c r="B2" s="49" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())+1), "dd MMM yyyy")</f>
@@ -27653,7 +27707,7 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f>AutoIncrement!C3&amp;"-Request Parts"</f>
-        <v>CB1-02-Request Parts</v>
+        <v>CB1-03-Request Parts</v>
       </c>
     </row>
   </sheetData>
@@ -27689,7 +27743,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1"><![CDATA["rc"&AutoIncrement!B2&"B1"&AutoIncrement!A2&"-"&B1&"001"&"-01"]]></f>
-        <v>rcCB102-2311001-01</v>
+        <v>rcCB103-2311001-01</v>
       </c>
     </row>
   </sheetData>
@@ -27852,33 +27906,33 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>534</v>
+        <v>562</v>
       </c>
       <c r="B2" t="s">
-        <v>535</v>
+        <v>563</v>
       </c>
       <c r="C2" t="s">
-        <v>537</v>
+        <v>565</v>
       </c>
       <c r="D2" t="s">
-        <v>538</v>
+        <v>566</v>
       </c>
       <c r="E2" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
       <c r="F2" t="s">
-        <v>540</v>
+        <v>568</v>
       </c>
       <c r="G2" t="s">
-        <v>541</v>
+        <v>569</v>
       </c>
       <c r="H2" t="s">
-        <v>542</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>536</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -27936,41 +27990,41 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1"><![CDATA["s"&AutoIncrement!B2&"B1"&AutoIncrement!A2&"-"&I1&"001"]]></f>
-        <v>sCB102-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="B2" t="str">
         <f ca="1"><![CDATA["p"&AutoIncrement!B2&"B2"&AutoIncrement!A2&"-"&I1&"001"]]></f>
-        <v>pCB202-2311001</v>
+        <v>pCB203-2311001</v>
       </c>
       <c r="C2" t="str">
         <f ca="1"><![CDATA["s"&AutoIncrement!B2&"B2"&AutoIncrement!A2&"-"&I1&"001"]]></f>
-        <v>sCB202-2311001</v>
+        <v>sCB203-2311001</v>
       </c>
       <c r="D2" t="str">
         <f ca="1"><![CDATA["p"&AutoIncrement!B2&"S2"&AutoIncrement!A2&"-"&I1&"001"]]></f>
-        <v>pCS202-2311001</v>
+        <v>pCS203-2311001</v>
       </c>
       <c r="E2" t="str">
         <f ca="1"><![CDATA["s"&AutoIncrement!B2&"B3"&AutoIncrement!A2&"-"&I1&"001"]]></f>
-        <v>sCB302-2311001</v>
+        <v>sCB303-2311001</v>
       </c>
       <c r="F2" t="str">
         <f ca="1"><![CDATA["p"&AutoIncrement!B2&"S1"&AutoIncrement!A2&"-"&I1&"001"]]></f>
-        <v>pCS102-2311001</v>
+        <v>pCS103-2311001</v>
       </c>
       <c r="G2" t="str">
         <f ca="1"><![CDATA["s"&AutoIncrement!B2&"S1"&AutoIncrement!A2&"-"&I1&"001"]]></f>
-        <v>sCS102-2311001</v>
+        <v>sCS103-2311001</v>
       </c>
       <c r="H2" t="str">
         <f ca="1"><![CDATA["s"&AutoIncrement!B2&"S2"&AutoIncrement!A2&"-"&I1&"001"]]></f>
-        <v>sCS202-2311001</v>
+        <v>sCS203-2311001</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="str">
         <f ca="1"><![CDATA["p"&AutoIncrement!B2&"B3"&AutoIncrement!A2&"-"&I1&"001"]]></f>
-        <v>pCB302-2311001</v>
+        <v>pCB303-2311001</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -28062,11 +28116,11 @@
       </c>
       <c r="B2" s="80" t="str">
         <f>'TC20-Autogen SOPO'!B2</f>
-        <v>pCB202-2311001</v>
+        <v>pCB203-2311001</v>
       </c>
       <c r="C2" t="str">
         <f>'TC3-BU2 to BU1 Contract'!C2</f>
-        <v>SGTTAP-PKTTAP-CB2-02</v>
+        <v>SGTTAP-PKTTAP-CB2-03</v>
       </c>
       <c r="D2" s="80" t="s">
         <v>462</v>
@@ -28097,11 +28151,11 @@
       </c>
       <c r="B3" s="80" t="str">
         <f>'TC20-Autogen SOPO'!B3</f>
-        <v>pCB302-2311001</v>
+        <v>pCB303-2311001</v>
       </c>
       <c r="C3" t="str">
         <f>'TC6-BU3 to BU1 Contract'!C2</f>
-        <v>MYPNA-PKTTAP-CB3-02</v>
+        <v>MYPNA-PKTTAP-CB3-03</v>
       </c>
       <c r="D3" s="80" t="s">
         <v>462</v>
@@ -28163,11 +28217,11 @@
       </c>
       <c r="B2" s="84" t="str">
         <f>'TC20-Autogen SOPO'!D2</f>
-        <v>pCS202-2311001</v>
+        <v>pCS203-2311001</v>
       </c>
       <c r="C2" s="85" t="str">
         <f>'TC4-Sup2 to BU2 Contract'!C2</f>
-        <v>CNTWSUP-SGTTAP-CS2-02</v>
+        <v>CNTWSUP-SGTTAP-CS2-03</v>
       </c>
     </row>
   </sheetData>
@@ -28209,11 +28263,11 @@
       </c>
       <c r="B2" s="80" t="str">
         <f>'TC20-Autogen SOPO'!F2</f>
-        <v>pCS102-2311001</v>
+        <v>pCS103-2311001</v>
       </c>
       <c r="C2" s="85" t="str">
         <f>'TC7-Sup1 to BU3 Contract'!C2</f>
-        <v>MYELASUP-MYPNA-CS1-02</v>
+        <v>MYELASUP-MYPNA-CS1-03</v>
       </c>
     </row>
   </sheetData>
@@ -28258,14 +28312,14 @@
       </c>
       <c r="B2" s="86" t="str">
         <f>'TC20-Autogen SOPO'!G2</f>
-        <v>sCS102-2311001</v>
+        <v>sCS103-2311001</v>
       </c>
       <c r="C2" t="str">
         <f>'TC7-Sup1 to BU3 Contract'!C2</f>
-        <v>MYELASUP-MYPNA-CS1-02</v>
+        <v>MYELASUP-MYPNA-CS1-03</v>
       </c>
       <c r="D2" t="s">
-        <v>530</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -28309,14 +28363,14 @@
       </c>
       <c r="B2" s="86" t="str">
         <f>'TC20-Autogen SOPO'!H2</f>
-        <v>sCS202-2311001</v>
+        <v>sCS203-2311001</v>
       </c>
       <c r="C2" t="str">
         <f>'TC4-Sup2 to BU2 Contract'!C2</f>
-        <v>CNTWSUP-SGTTAP-CS2-02</v>
+        <v>CNTWSUP-SGTTAP-CS2-03</v>
       </c>
       <c r="D2" t="s">
-        <v>530</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -28346,7 +28400,7 @@
     </row>
     <row ht="14.4" r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>543</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -28383,7 +28437,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>529</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -29580,7 +29634,7 @@
       <c r="C2" s="52"/>
       <c r="D2" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB102-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E2" s="53" t="s">
         <v>93</v>
@@ -29636,7 +29690,7 @@
       <c r="C3" s="52"/>
       <c r="D3" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB102-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E3" s="53" t="s">
         <v>93</v>
@@ -29692,7 +29746,7 @@
       <c r="C4" s="52"/>
       <c r="D4" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB102-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E4" s="53" t="s">
         <v>93</v>
@@ -29819,7 +29873,7 @@
       <c r="C2" s="52"/>
       <c r="D2" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB102-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E2" s="53" t="s">
         <v>79</v>
@@ -29879,7 +29933,7 @@
       <c r="C3" s="52"/>
       <c r="D3" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB102-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E3" s="53" t="s">
         <v>79</v>
@@ -29939,7 +29993,7 @@
       <c r="C4" s="52"/>
       <c r="D4" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB102-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E4" s="53" t="s">
         <v>79</v>
@@ -30082,7 +30136,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB102-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E2" s="53" t="s">
         <v>69</v>
@@ -30153,7 +30207,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB102-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E3" s="53" t="s">
         <v>69</v>
@@ -30224,7 +30278,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB102-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E4" s="53" t="s">
         <v>69</v>
@@ -30295,7 +30349,7 @@
       </c>
       <c r="D5" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB102-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E5" s="53" t="s">
         <v>69</v>
@@ -30366,7 +30420,7 @@
       </c>
       <c r="D6" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB102-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E6" s="53" t="s">
         <v>69</v>
@@ -30435,7 +30489,7 @@
       </c>
       <c r="D7" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB102-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E7" s="53" t="s">
         <v>69</v>
@@ -30584,7 +30638,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB102-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E2" s="53" t="s">
         <v>93</v>
@@ -30652,7 +30706,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB102-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E3" s="53" t="s">
         <v>93</v>
@@ -30720,7 +30774,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB102-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E4" s="53" t="s">
         <v>79</v>
@@ -30788,7 +30842,7 @@
       </c>
       <c r="D5" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB102-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E5" s="53" t="s">
         <v>79</v>
@@ -30856,7 +30910,7 @@
       </c>
       <c r="D6" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB102-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E6" s="53" t="s">
         <v>93</v>
@@ -30922,7 +30976,7 @@
       </c>
       <c r="D7" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB102-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E7" s="53" t="s">
         <v>79</v>
@@ -31374,11 +31428,11 @@
       </c>
       <c r="B2" s="80" t="str">
         <f>'TC2-BU1 to Customer Contract'!C2</f>
-        <v>PKTTAP-PKCUS-CB1-02</v>
+        <v>PKTTAP-PKCUS-CB1-03</v>
       </c>
       <c r="C2" s="80" t="str">
         <f>'TC2-BU1 to Customer Contract'!X2</f>
-        <v>CR-PK-CUS-POC-2311004</v>
+        <v>CR-PK-CUS-POC-2311005</v>
       </c>
       <c r="D2" s="80" t="s">
         <v>79</v>
@@ -31467,22 +31521,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>549</v>
+        <v>572</v>
       </c>
       <c r="B2" t="s">
-        <v>544</v>
+        <v>573</v>
       </c>
       <c r="C2" t="s">
-        <v>545</v>
+        <v>574</v>
       </c>
       <c r="D2" t="s">
-        <v>546</v>
+        <v>575</v>
       </c>
       <c r="E2" t="s">
-        <v>547</v>
+        <v>576</v>
       </c>
       <c r="F2" t="s">
-        <v>548</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -31535,27 +31589,27 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1"><![CDATA["c"&AutoIncrement!B2&"B1"&AutoIncrement!A2&"-"&G1&"002"]]></f>
-        <v>cCB102-2311002</v>
+        <v>cCB103-2311002</v>
       </c>
       <c r="B2" t="str">
         <f ca="1"><![CDATA["s"&AutoIncrement!B2&"B1"&AutoIncrement!A2&"-"&G1&"002"]]></f>
-        <v>sCB102-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="C2" t="str">
         <f ca="1"><![CDATA["p"&AutoIncrement!B2&"B3"&AutoIncrement!A2&"-"&G1&"002"]]></f>
-        <v>pCB302-2311002</v>
+        <v>pCB303-2311002</v>
       </c>
       <c r="D2" t="str">
         <f ca="1"><![CDATA["s"&AutoIncrement!B2&"B3"&AutoIncrement!A2&"-"&G1&"002"]]></f>
-        <v>sCB302-2311002</v>
+        <v>sCB303-2311002</v>
       </c>
       <c r="E2" t="str">
         <f ca="1"><![CDATA["p"&AutoIncrement!B2&"S1"&AutoIncrement!A2&"-"&G1&"002"]]></f>
-        <v>pCS102-2311002</v>
+        <v>pCS103-2311002</v>
       </c>
       <c r="F2" t="str">
         <f ca="1"><![CDATA["s"&AutoIncrement!B2&"S1"&AutoIncrement!A2&"-"&G1&"002"]]></f>
-        <v>sCS102-2311002</v>
+        <v>sCS103-2311002</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -31613,11 +31667,11 @@
       </c>
       <c r="B2" s="80" t="str">
         <f>'TC2-BU1 to Customer Contract'!C2</f>
-        <v>PKTTAP-PKCUS-CB1-02</v>
+        <v>PKTTAP-PKCUS-CB1-03</v>
       </c>
       <c r="C2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB102-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
     </row>
   </sheetData>
@@ -31685,11 +31739,11 @@
       </c>
       <c r="B2" s="80" t="str">
         <f>'TC47-Autogen OrderNo Spot'!C2</f>
-        <v>pCB302-2311002</v>
+        <v>pCB303-2311002</v>
       </c>
       <c r="C2" t="str">
         <f>'TC6-BU3 to BU1 Contract'!C2</f>
-        <v>MYPNA-PKTTAP-CB3-02</v>
+        <v>MYPNA-PKTTAP-CB3-03</v>
       </c>
       <c r="D2" s="80" t="s">
         <v>482</v>
@@ -31779,11 +31833,11 @@
       </c>
       <c r="B2" s="80" t="str">
         <f>'TC47-Autogen OrderNo Spot'!E2</f>
-        <v>pCS102-2311002</v>
+        <v>pCS103-2311002</v>
       </c>
       <c r="C2" t="str">
         <f>'TC7-Sup1 to BU3 Contract'!C2</f>
-        <v>MYELASUP-MYPNA-CS1-02</v>
+        <v>MYELASUP-MYPNA-CS1-03</v>
       </c>
       <c r="D2" s="80" t="s">
         <v>482</v>
@@ -31819,7 +31873,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31853,7 +31907,7 @@
       </c>
       <c r="B2" s="80" t="str">
         <f>'TC20-Autogen SOPO'!H2</f>
-        <v>sCS202-2311001</v>
+        <v>sCS203-2311001</v>
       </c>
       <c r="C2" s="81">
         <v>800</v>
@@ -31865,8 +31919,8 @@
         <v>200</v>
       </c>
       <c r="F2" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())+1), "dd MMM yyyy")</f>
-        <v>04 Jan 2024</v>
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
+        <v>03 Dec 2023</v>
       </c>
     </row>
   </sheetData>
@@ -31899,10 +31953,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -31998,7 +32052,7 @@
       </c>
       <c r="D2" s="16" t="str">
         <f>AutoIncrement!C4</f>
-        <v>PKTTAP-PKCUS-CB1-02</v>
+        <v>PKTTAP-PKCUS-CB1-03</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>146</v>
@@ -32058,7 +32112,7 @@
       </c>
       <c r="D3" s="16" t="str">
         <f>AutoIncrement!C4</f>
-        <v>PKTTAP-PKCUS-CB1-02</v>
+        <v>PKTTAP-PKCUS-CB1-03</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>148</v>
@@ -32118,7 +32172,7 @@
       </c>
       <c r="D4" s="16" t="str">
         <f>AutoIncrement!C4</f>
-        <v>PKTTAP-PKCUS-CB1-02</v>
+        <v>PKTTAP-PKCUS-CB1-03</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>148</v>
@@ -32178,7 +32232,7 @@
       </c>
       <c r="D5" s="16" t="str">
         <f>AutoIncrement!C4</f>
-        <v>PKTTAP-PKCUS-CB1-02</v>
+        <v>PKTTAP-PKCUS-CB1-03</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>148</v>
@@ -32238,7 +32292,7 @@
       </c>
       <c r="D6" s="16" t="str">
         <f>AutoIncrement!C4</f>
-        <v>PKTTAP-PKCUS-CB1-02</v>
+        <v>PKTTAP-PKCUS-CB1-03</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>149</v>
@@ -32298,7 +32352,7 @@
       </c>
       <c r="D7" s="16" t="str">
         <f>AutoIncrement!C4</f>
-        <v>PKTTAP-PKCUS-CB1-02</v>
+        <v>PKTTAP-PKCUS-CB1-03</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>149</v>
@@ -32369,7 +32423,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32517,14 +32571,14 @@
       </c>
       <c r="B2" s="86" t="str">
         <f>'TC20-Autogen SOPO'!D2</f>
-        <v>pCS202-2311001</v>
+        <v>pCS203-2311001</v>
       </c>
       <c r="C2" s="80">
         <v>800</v>
       </c>
       <c r="D2" s="90" t="str">
         <f>'TC4-Sup2 to BU2 Contract'!C2</f>
-        <v>CNTWSUP-SGTTAP-CS2-02</v>
+        <v>CNTWSUP-SGTTAP-CS2-03</v>
       </c>
     </row>
   </sheetData>
@@ -32568,14 +32622,14 @@
       </c>
       <c r="B2" s="80" t="str">
         <f>'TC20-Autogen SOPO'!B2</f>
-        <v>pCB202-2311001</v>
+        <v>pCB203-2311001</v>
       </c>
       <c r="C2" s="80">
         <v>800</v>
       </c>
       <c r="D2" s="81" t="str">
         <f>'TC3-BU2 to BU1 Contract'!C2</f>
-        <v>SGTTAP-PKTTAP-CB2-02</v>
+        <v>SGTTAP-PKTTAP-CB2-03</v>
       </c>
     </row>
   </sheetData>
@@ -32618,14 +32672,14 @@
       </c>
       <c r="B2" s="86" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB102-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="C2" s="80">
         <v>800</v>
       </c>
       <c r="D2" s="81" t="str">
         <f>'TC2-BU1 to Customer Contract'!C2</f>
-        <v>PKTTAP-PKCUS-CB1-02</v>
+        <v>PKTTAP-PKCUS-CB1-03</v>
       </c>
     </row>
   </sheetData>
@@ -32638,7 +32692,7 @@
   <sheetPr codeName="Sheet65"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" activeCellId="1" sqref="C2 C3:C4"/>
     </sheetView>
   </sheetViews>
@@ -32671,7 +32725,7 @@
         <v>660</v>
       </c>
       <c r="C2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>490</v>
@@ -32685,7 +32739,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D3" s="53" t="s">
         <v>491</v>
@@ -32699,7 +32753,7 @@
         <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -32735,10 +32789,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C2" t="s">
         <v>494</v>
@@ -32746,10 +32800,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B3" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C3" t="s">
         <v>495</v>
@@ -32757,10 +32811,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B4" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -32821,8 +32875,8 @@
   <sheetPr codeName="Sheet68"/>
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32939,7 +32993,7 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">"o-MY-ELA-SUP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>o-MY-ELA-SUP-CS2-02-2311001</v>
+        <v>o-MY-ELA-SUP-CS2-03-2311001</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
@@ -32947,7 +33001,7 @@
       </c>
       <c r="E2" t="str">
         <f ca="1">"SP1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="F2" t="s">
         <v>291</v>
@@ -32975,18 +33029,18 @@
       </c>
       <c r="N2" t="str">
         <f ca="1">"SP1-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>SP1-OP-CS2-02-2311-01</v>
+        <v>SP1-OP-CS2-03-2311-01</v>
       </c>
       <c r="O2" t="s">
         <v>333</v>
       </c>
       <c r="S2" t="str">
         <f ca="1">"SP1-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>SP1-IP-CS2-02-2311-01</v>
+        <v>SP1-IP-CS2-03-2311-01</v>
       </c>
       <c r="X2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!F2</f>
-        <v>sCS102-2311002</v>
+        <v>sCS103-2311002</v>
       </c>
       <c r="Y2" t="s">
         <v>79</v>
@@ -33013,7 +33067,7 @@
       </c>
       <c r="C3" t="str">
         <f ca="1">"o-MY-ELA-SUP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>o-MY-ELA-SUP-CS2-02-2311001</v>
+        <v>o-MY-ELA-SUP-CS2-03-2311001</v>
       </c>
       <c r="D3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
@@ -33021,7 +33075,7 @@
       </c>
       <c r="E3" t="str">
         <f ca="1">"SP1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="F3" t="s">
         <v>292</v>
@@ -33049,14 +33103,14 @@
       </c>
       <c r="N3" t="str">
         <f ca="1">"SP1-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>SP1-OP-CS2-02-2311-01</v>
+        <v>SP1-OP-CS2-03-2311-01</v>
       </c>
       <c r="O3" t="s">
         <v>334</v>
       </c>
       <c r="S3" t="str">
         <f ca="1">"SP1-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>SP1-IP-CS2-02-2311-02</v>
+        <v>SP1-IP-CS2-03-2311-02</v>
       </c>
       <c r="T3">
         <v>10.000999999999999</v>
@@ -33072,7 +33126,7 @@
       </c>
       <c r="X3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!F2</f>
-        <v>sCS102-2311002</v>
+        <v>sCS103-2311002</v>
       </c>
       <c r="Y3" t="s">
         <v>79</v>
@@ -33099,7 +33153,7 @@
       </c>
       <c r="C4" t="str">
         <f ca="1">"o-MY-ELA-SUP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>o-MY-ELA-SUP-CS2-02-2311001</v>
+        <v>o-MY-ELA-SUP-CS2-03-2311001</v>
       </c>
       <c r="D4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
@@ -33107,7 +33161,7 @@
       </c>
       <c r="E4" t="str">
         <f ca="1">"SP1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="F4" t="s">
         <v>294</v>
@@ -33135,7 +33189,7 @@
       </c>
       <c r="N4" t="str">
         <f ca="1">"SP1-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>SP1-OP-CS2-02-2311-02</v>
+        <v>SP1-OP-CS2-03-2311-02</v>
       </c>
       <c r="O4" t="s">
         <v>335</v>
@@ -33151,7 +33205,7 @@
       </c>
       <c r="X4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!F2</f>
-        <v>sCS102-2311002</v>
+        <v>sCS103-2311002</v>
       </c>
       <c r="Y4" t="s">
         <v>79</v>
@@ -33178,7 +33232,7 @@
       </c>
       <c r="C5" t="str">
         <f ca="1">"o-MY-ELA-SUP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"002"</f>
-        <v>o-MY-ELA-SUP-CS2-02-2311002</v>
+        <v>o-MY-ELA-SUP-CS2-03-2311002</v>
       </c>
       <c r="D5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
@@ -33186,7 +33240,7 @@
       </c>
       <c r="E5" t="str">
         <f ca="1">"SP1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"002"</f>
-        <v>SP1-CS2-02-2311002</v>
+        <v>SP1-CS2-03-2311002</v>
       </c>
       <c r="F5" t="s">
         <v>294</v>
@@ -33214,7 +33268,7 @@
       </c>
       <c r="N5" t="str">
         <f ca="1">"SP1-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>SP1-OP-CS2-02-2311-02</v>
+        <v>SP1-OP-CS2-03-2311-02</v>
       </c>
       <c r="O5" t="s">
         <v>333</v>
@@ -33230,7 +33284,7 @@
       </c>
       <c r="X5" t="str">
         <f>'TC47-Autogen OrderNo Spot'!F2</f>
-        <v>sCS102-2311002</v>
+        <v>sCS103-2311002</v>
       </c>
       <c r="Y5" t="s">
         <v>79</v>
@@ -33279,19 +33333,19 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!C2</f>
-        <v>o-MY-ELA-SUP-CS2-02-2311001</v>
+        <v>o-MY-ELA-SUP-CS2-03-2311001</v>
       </c>
       <c r="B2" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!C5</f>
-        <v>o-MY-ELA-SUP-CS2-02-2311002</v>
+        <v>o-MY-ELA-SUP-CS2-03-2311002</v>
       </c>
       <c r="B3" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -33403,11 +33457,11 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>529</v>
+        <v>555</v>
       </c>
       <c r="C2" t="str">
         <f>AutoIncrement!C4</f>
-        <v>PKTTAP-PKCUS-CB1-02</v>
+        <v>PKTTAP-PKCUS-CB1-03</v>
       </c>
       <c r="D2" t="s">
         <v>127</v>
@@ -33423,15 +33477,15 @@
       </c>
       <c r="H2" t="str">
         <f>AutoIncrement!C3</f>
-        <v>CB1-02</v>
+        <v>CB1-03</v>
       </c>
       <c r="I2" t="str">
         <f>"CD-"&amp;H2</f>
-        <v>CD-CB1-02</v>
+        <v>CD-CB1-03</v>
       </c>
       <c r="J2" t="str">
         <f>"Payment-"&amp;H2</f>
-        <v>Payment-CB1-02</v>
+        <v>Payment-CB1-03</v>
       </c>
       <c r="K2" t="str">
         <f>L2</f>
@@ -33451,7 +33505,7 @@
       </c>
       <c r="P2" t="str">
         <f>J2&amp;"(" &amp;K2&amp;")"</f>
-        <v>Payment-CB1-02(By Invoice Date)</v>
+        <v>Payment-CB1-03(By Invoice Date)</v>
       </c>
       <c r="Q2" t="s">
         <v>147</v>
@@ -33471,21 +33525,21 @@
       </c>
       <c r="V2" t="str">
         <f>"RD-"&amp;H2</f>
-        <v>RD-CB1-02</v>
+        <v>RD-CB1-03</v>
       </c>
       <c r="W2" t="s">
         <v>130</v>
       </c>
       <c r="X2" t="s">
-        <v>530</v>
+        <v>556</v>
       </c>
       <c r="Y2" t="str">
         <f>"BU2toBU1-"&amp;H2</f>
-        <v>BU2toBU1-CB1-02</v>
+        <v>BU2toBU1-CB1-03</v>
       </c>
       <c r="Z2" t="str">
         <f>"BU3toBU1-"&amp;H2</f>
-        <v>BU3toBU1-CB1-02</v>
+        <v>BU3toBU1-CB1-03</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -33588,7 +33642,7 @@
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E3</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M3</f>
@@ -33658,7 +33712,7 @@
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E5</f>
-        <v>SP1-CS2-02-2311002</v>
+        <v>SP1-CS2-03-2311002</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M5</f>
@@ -33796,7 +33850,7 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E2</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M2</f>
@@ -33913,7 +33967,7 @@
     <row customHeight="1" ht="13.2" r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E4</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M4</f>
@@ -33990,7 +34044,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E2</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M2</f>
@@ -34000,7 +34054,7 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E3</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M3</f>
@@ -34010,7 +34064,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E4</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B4" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M4</f>
@@ -34020,7 +34074,7 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E5</f>
-        <v>SP1-CS2-02-2311002</v>
+        <v>SP1-CS2-03-2311002</v>
       </c>
       <c r="B5" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M5</f>
@@ -34113,7 +34167,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!E2</f>
-        <v>pCS102-2311002</v>
+        <v>pCS103-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -34169,7 +34223,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!E2</f>
-        <v>pCS102-2311002</v>
+        <v>pCS103-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -34225,7 +34279,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!E2</f>
-        <v>pCS102-2311002</v>
+        <v>pCS103-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -34358,7 +34412,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!D2</f>
-        <v>sCB302-2311002</v>
+        <v>sCB303-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>79</v>
@@ -34414,7 +34468,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!D2</f>
-        <v>sCB302-2311002</v>
+        <v>sCB303-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>79</v>
@@ -34470,7 +34524,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!D2</f>
-        <v>sCB302-2311002</v>
+        <v>sCB303-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>79</v>
@@ -34607,7 +34661,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!C2</f>
-        <v>pCB302-2311002</v>
+        <v>pCB303-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -34666,7 +34720,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!C2</f>
-        <v>pCB302-2311002</v>
+        <v>pCB303-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -34725,7 +34779,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!C2</f>
-        <v>pCB302-2311002</v>
+        <v>pCB303-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -34860,7 +34914,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB102-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>79</v>
@@ -34916,7 +34970,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB102-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>79</v>
@@ -34972,7 +35026,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB102-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>79</v>
@@ -35111,7 +35165,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cCB102-2311002</v>
+        <v>cCB103-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -35173,7 +35227,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cCB102-2311002</v>
+        <v>cCB103-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -35235,7 +35289,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cCB102-2311002</v>
+        <v>cCB103-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -35374,7 +35428,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB102-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>79</v>
@@ -35433,7 +35487,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB102-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>79</v>
@@ -35492,7 +35546,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB102-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>79</v>
@@ -35737,7 +35791,7 @@
         <v>o-MY-ELA-SUP-231103001</v>
       </c>
       <c r="B2" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -35746,7 +35800,7 @@
         <v>o-MY-ELA-SUP-231103002</v>
       </c>
       <c r="B3" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -35803,7 +35857,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E5</f>
-        <v>SP1-CS2-02-2311002</v>
+        <v>SP1-CS2-03-2311002</v>
       </c>
       <c r="B2" t="s">
         <v>330</v>
@@ -35836,7 +35890,7 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E2</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B3" t="s">
         <v>331</v>
@@ -35869,7 +35923,7 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E2</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B4" t="s">
         <v>330</v>
@@ -35902,7 +35956,7 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E2</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B5" t="s">
         <v>329</v>
@@ -36024,7 +36078,7 @@
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E3</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M3</f>
@@ -36094,7 +36148,7 @@
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E5</f>
-        <v>SP1-CS2-02-2311002</v>
+        <v>SP1-CS2-03-2311002</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M5</f>
@@ -36232,7 +36286,7 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E2</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M2</f>
@@ -36349,7 +36403,7 @@
     <row customHeight="1" ht="13.2" r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E4</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M4</f>
@@ -36426,7 +36480,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">"i-MY-PNA-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-MY-PNA-DC-CS2-02-2311001</v>
+        <v>i-MY-PNA-DC-CS2-03-2311001</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
@@ -36436,7 +36490,7 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">"i-MY-PNA-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-MY-PNA-DC-CS2-02-2311001</v>
+        <v>i-MY-PNA-DC-CS2-03-2311001</v>
       </c>
       <c r="B3" t="str">
         <f ca="1" ref="B3:B5" si="0" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
@@ -36446,7 +36500,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f ca="1">"i-MY-PNA-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-MY-PNA-DC-CS2-02-2311001</v>
+        <v>i-MY-PNA-DC-CS2-03-2311001</v>
       </c>
       <c r="B4" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -36456,7 +36510,7 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f ca="1">"i-MY-PNA-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-MY-PNA-DC-CS2-02-2311001</v>
+        <v>i-MY-PNA-DC-CS2-03-2311001</v>
       </c>
       <c r="B5" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -36549,7 +36603,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!E2</f>
-        <v>pCS102-2311002</v>
+        <v>pCS103-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -36605,7 +36659,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!E2</f>
-        <v>pCS102-2311002</v>
+        <v>pCS103-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -36661,7 +36715,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!E2</f>
-        <v>pCS102-2311002</v>
+        <v>pCS103-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -36790,7 +36844,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!D2</f>
-        <v>sCB302-2311002</v>
+        <v>sCB303-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>79</v>
@@ -36843,7 +36897,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!D2</f>
-        <v>sCB302-2311002</v>
+        <v>sCB303-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>79</v>
@@ -36896,7 +36950,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!D2</f>
-        <v>sCB302-2311002</v>
+        <v>sCB303-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>79</v>
@@ -37029,7 +37083,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!C2</f>
-        <v>pCB302-2311002</v>
+        <v>pCB303-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -37088,7 +37142,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!C2</f>
-        <v>pCB302-2311002</v>
+        <v>pCB303-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -37147,7 +37201,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!C2</f>
-        <v>pCB302-2311002</v>
+        <v>pCB303-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -37282,7 +37336,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB102-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>79</v>
@@ -37338,7 +37392,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB102-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>79</v>
@@ -37394,7 +37448,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB102-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>79</v>
@@ -37503,7 +37557,7 @@
       </c>
       <c r="C2" s="16" t="str">
         <f>AutoIncrement!D4</f>
-        <v>SGTTAP-PKTTAP-CB2-02</v>
+        <v>SGTTAP-PKTTAP-CB2-03</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>146</v>
@@ -37536,7 +37590,7 @@
       </c>
       <c r="C3" s="16" t="str">
         <f>AutoIncrement!D4</f>
-        <v>SGTTAP-PKTTAP-CB2-02</v>
+        <v>SGTTAP-PKTTAP-CB2-03</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>148</v>
@@ -37569,7 +37623,7 @@
       </c>
       <c r="C4" s="16" t="str">
         <f>AutoIncrement!D4</f>
-        <v>SGTTAP-PKTTAP-CB2-02</v>
+        <v>SGTTAP-PKTTAP-CB2-03</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>149</v>
@@ -37687,7 +37741,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cCB102-2311002</v>
+        <v>cCB103-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -37749,7 +37803,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cCB102-2311002</v>
+        <v>cCB103-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -37811,7 +37865,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cCB102-2311002</v>
+        <v>cCB103-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -37895,7 +37949,7 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E5</f>
-        <v>SP1-CS2-02-2311002</v>
+        <v>SP1-CS2-03-2311002</v>
       </c>
       <c r="B2" t="s">
         <v>330</v>
@@ -37907,7 +37961,7 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E2</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B3" t="s">
         <v>331</v>
@@ -37919,7 +37973,7 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E2</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B4" t="s">
         <v>330</v>
@@ -37931,7 +37985,7 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E2</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B5" t="s">
         <v>329</v>
@@ -38032,7 +38086,7 @@
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E3</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M3</f>
@@ -38102,7 +38156,7 @@
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E5</f>
-        <v>SP1-CS2-02-2311002</v>
+        <v>SP1-CS2-03-2311002</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M5</f>
@@ -38240,7 +38294,7 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E2</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M2</f>
@@ -38357,7 +38411,7 @@
     <row customHeight="1" ht="13.2" r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E4</f>
-        <v>SP1-CS2-02-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M4</f>
@@ -38531,7 +38585,7 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">"o-MY-PNA-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>o-MY-PNA-DC-CS2-02-2311001</v>
+        <v>o-MY-PNA-DC-CS2-03-2311001</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
@@ -38539,7 +38593,7 @@
       </c>
       <c r="E2" t="str">
         <f ca="1">"DC3-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>DC3-CS2-02-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="F2" t="s">
         <v>291</v>
@@ -38567,14 +38621,14 @@
       </c>
       <c r="N2" t="str">
         <f ca="1">"DC3-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>DC3-OP-CS2-02-2311-01</v>
+        <v>DC3-OP-CS2-03-2311-01</v>
       </c>
       <c r="O2" t="s">
         <v>334</v>
       </c>
       <c r="S2" t="str">
         <f ca="1">"DC3-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>DC3-IP-CS2-02-2311-01</v>
+        <v>DC3-IP-CS2-03-2311-01</v>
       </c>
       <c r="T2">
         <v>10.000999999999999</v>
@@ -38590,7 +38644,7 @@
       </c>
       <c r="X2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!D2</f>
-        <v>sCB302-2311002</v>
+        <v>sCB303-2311002</v>
       </c>
       <c r="Y2" t="s">
         <v>91</v>
@@ -38617,7 +38671,7 @@
       </c>
       <c r="C3" t="str">
         <f ca="1">"o-MY-PNA-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>o-MY-PNA-DC-CS2-02-2311001</v>
+        <v>o-MY-PNA-DC-CS2-03-2311001</v>
       </c>
       <c r="D3" t="str">
         <f ca="1" ref="D3:D4" si="0" t="shared">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
@@ -38625,7 +38679,7 @@
       </c>
       <c r="E3" t="str">
         <f ca="1">"DC3-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>DC3-CS2-02-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="F3" t="s">
         <v>292</v>
@@ -38653,7 +38707,7 @@
       </c>
       <c r="N3" t="str">
         <f ca="1">"DC3-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>DC3-OP-CS2-02-2311-01</v>
+        <v>DC3-OP-CS2-03-2311-01</v>
       </c>
       <c r="O3" t="s">
         <v>335</v>
@@ -38669,7 +38723,7 @@
       </c>
       <c r="X3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!D2</f>
-        <v>sCB302-2311002</v>
+        <v>sCB303-2311002</v>
       </c>
       <c r="Y3" t="s">
         <v>91</v>
@@ -38696,7 +38750,7 @@
       </c>
       <c r="C4" t="str">
         <f ca="1">"o-MY-PNA-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>o-MY-PNA-DC-CS2-02-2311001</v>
+        <v>o-MY-PNA-DC-CS2-03-2311001</v>
       </c>
       <c r="D4" t="str">
         <f ca="1" si="0" t="shared"/>
@@ -38704,7 +38758,7 @@
       </c>
       <c r="E4" t="str">
         <f ca="1">"DC3-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>DC3-CS2-02-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="F4" t="s">
         <v>294</v>
@@ -38732,7 +38786,7 @@
       </c>
       <c r="N4" t="str">
         <f ca="1">"DC3-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>DC3-OP-CS2-02-2311-02</v>
+        <v>DC3-OP-CS2-03-2311-02</v>
       </c>
       <c r="O4" t="s">
         <v>335</v>
@@ -38748,7 +38802,7 @@
       </c>
       <c r="S4" t="str">
         <f ca="1">"DC3-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>DC3-IP-CS2-02-2311-02</v>
+        <v>DC3-IP-CS2-03-2311-02</v>
       </c>
       <c r="T4">
         <v>10.000999999999999</v>
@@ -38764,7 +38818,7 @@
       </c>
       <c r="X4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!D2</f>
-        <v>sCB302-2311002</v>
+        <v>sCB303-2311002</v>
       </c>
       <c r="Y4" t="s">
         <v>91</v>
@@ -38791,7 +38845,7 @@
       </c>
       <c r="C5" t="str">
         <f ca="1">"o-MY-PNA-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"002"</f>
-        <v>o-MY-PNA-DC-CS2-02-2311002</v>
+        <v>o-MY-PNA-DC-CS2-03-2311002</v>
       </c>
       <c r="D5" s="60">
         <v>45112</v>
@@ -38822,7 +38876,7 @@
       </c>
       <c r="N5" t="str">
         <f ca="1">"DC3-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>DC3-OP-CS2-02-2311-02</v>
+        <v>DC3-OP-CS2-03-2311-02</v>
       </c>
       <c r="O5" t="s">
         <v>335</v>
@@ -38838,7 +38892,7 @@
       </c>
       <c r="S5" t="str">
         <f ca="1">"DC3-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>DC3-IP-CS2-02-2311-02</v>
+        <v>DC3-IP-CS2-03-2311-02</v>
       </c>
       <c r="T5">
         <v>10.000999999999999</v>
@@ -38854,7 +38908,7 @@
       </c>
       <c r="X5" t="str">
         <f>'TC47-Autogen OrderNo Spot'!D2</f>
-        <v>sCB302-2311002</v>
+        <v>sCB303-2311002</v>
       </c>
       <c r="Y5" t="s">
         <v>91</v>
@@ -38903,19 +38957,19 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">'TC111-DC3 Outbound Details'!C4</f>
-        <v>o-MY-PNA-DC-CS2-02-2311001</v>
+        <v>o-MY-PNA-DC-CS2-03-2311001</v>
       </c>
       <c r="B2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">'TC111-DC3 Outbound Details'!C5</f>
-        <v>o-MY-PNA-DC-CS2-02-2311002</v>
+        <v>o-MY-PNA-DC-CS2-03-2311002</v>
       </c>
       <c r="B3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -39004,7 +39058,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!C2</f>
-        <v>pCB302-2311002</v>
+        <v>pCB303-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -39060,7 +39114,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!C2</f>
-        <v>pCB302-2311002</v>
+        <v>pCB303-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -39116,7 +39170,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!C2</f>
-        <v>pCB302-2311002</v>
+        <v>pCB303-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -39251,7 +39305,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB102-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>79</v>
@@ -39310,7 +39364,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB102-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>79</v>
@@ -39369,7 +39423,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB102-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>79</v>
@@ -39511,7 +39565,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cCB102-2311002</v>
+        <v>cCB103-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -39573,7 +39627,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cCB102-2311002</v>
+        <v>cCB103-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -39635,7 +39689,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cCB102-2311002</v>
+        <v>cCB103-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -39690,6 +39744,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097067AA9A672F346A1B58BE42AD9877C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0ef2f7333e7198281d6d67dc69cb8223">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3e097ef-e44a-4305-852f-ab2ffd6265ef" xmlns:ns3="1febb254-c9d7-4bcc-acc6-e4d894a01278" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e89638c2f66ce85fb696f0de602d87f" ns2:_="" ns3:_="">
     <xsd:import namespace="c3e097ef-e44a-4305-852f-ab2ffd6265ef"/>
@@ -39884,16 +39947,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E2C79DA-185A-4930-B550-F1E1B294AAD1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8199A157-58BA-4B82-BEE5-7E82A9CB26D1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -39910,12 +39972,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E2C79DA-185A-4930-B550-F1E1B294AAD1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Excel Files/Scenario 1/S1_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 1/S1_TestCases_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawe\git\tb-ttap-brivge-v2-fatin\Excel Files\Scenario 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6BA9BD-4AA4-4F2C-A5DE-51A877F5FF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4FE8BC-E35F-4D6D-9625-7D10462C9FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="620" firstSheet="160" activeTab="163" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="620" firstSheet="49" activeTab="58" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AutoIncrement" sheetId="1" r:id="rId1"/>
@@ -66,14 +66,14 @@
     <sheet name="TC46-Spot Date" sheetId="52" r:id="rId51"/>
     <sheet name="TC046" sheetId="151" r:id="rId52"/>
     <sheet name="TC47-Autogen OrderNo Spot" sheetId="54" r:id="rId53"/>
-    <sheet name="TC47-Autogen OrderNo Spot (2)" sheetId="157" r:id="rId54"/>
+    <sheet name="TC47-Autogen OrderNo Spot (2)" sheetId="157" state="hidden" r:id="rId54"/>
     <sheet name="TC048" sheetId="152" r:id="rId55"/>
     <sheet name="TC049" sheetId="153" r:id="rId56"/>
     <sheet name="TC051" sheetId="158" r:id="rId57"/>
     <sheet name="TC054" sheetId="154" r:id="rId58"/>
     <sheet name="TC54-Change RequestNo" sheetId="57" r:id="rId59"/>
-    <sheet name="TC54-Sup2 Order Change Reg" sheetId="55" r:id="rId60"/>
-    <sheet name="TC54-Change Date" sheetId="56" r:id="rId61"/>
+    <sheet name="TC54-Sup2 Order Change Reg" sheetId="55" state="hidden" r:id="rId60"/>
+    <sheet name="TC54-Change Date" sheetId="56" state="hidden" r:id="rId61"/>
     <sheet name="TC068-BU2" sheetId="159" r:id="rId62"/>
     <sheet name="TC070-BU1" sheetId="160" r:id="rId63"/>
     <sheet name="TC072-Cus" sheetId="161" r:id="rId64"/>
@@ -177,11 +177,19 @@
     <sheet name="TC219.1-Customer CO-Regular" sheetId="180" r:id="rId162"/>
     <sheet name="TC219.2-Customer CO-Spot" sheetId="181" r:id="rId163"/>
     <sheet name="TC220-Cus Shipping Detail" sheetId="182" r:id="rId164"/>
+    <sheet name="TC221.1-Customer CT-Regular" sheetId="183" r:id="rId165"/>
+    <sheet name="TC221.2-Customer CT-Regular" sheetId="184" r:id="rId166"/>
+    <sheet name="TC221.3-Customer CT-Regular" sheetId="185" r:id="rId167"/>
+    <sheet name="TC221.1-Customer CT-Spot" sheetId="186" r:id="rId168"/>
+    <sheet name="TC221.2-Customer CT-Spot" sheetId="187" r:id="rId169"/>
+    <sheet name="TC221.3-Customer CT-Spot" sheetId="188" r:id="rId170"/>
+    <sheet name="TC221.4-Customer CT-Spot" sheetId="189" r:id="rId171"/>
+    <sheet name="TC221.5-Customer CT-Spot" sheetId="190" r:id="rId172"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId165"/>
-    <externalReference r:id="rId166"/>
-    <externalReference r:id="rId167"/>
+    <externalReference r:id="rId173"/>
+    <externalReference r:id="rId174"/>
+    <externalReference r:id="rId175"/>
   </externalReferences>
   <definedNames>
     <definedName name="activeFlagListArr" localSheetId="91">[1]activeFlagListArr!$A$1:$A$2</definedName>
@@ -216,6 +224,10 @@
     <definedName name="activeFlagListArr" localSheetId="152">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="150">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="151">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="164">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="167">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="165">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="166">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="69">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="70">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="71">[1]activeFlagListArr!$A$1:$A$2</definedName>
@@ -255,6 +267,10 @@
     <definedName name="activeFlagStrArr" localSheetId="152">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="150">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="151">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="164">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="167">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="165">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="166">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="69">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="70">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="71">[2]activeFlagStrArr!$A$1:$A$2</definedName>
@@ -297,6 +313,10 @@
     <definedName name="CURRENCY_CODE" localSheetId="152">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="150">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="151">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="164">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="167">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="165">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="166">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="69">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="70">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="71">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
@@ -336,6 +356,10 @@
     <definedName name="findAllUomArr" localSheetId="152">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="150">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="151">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="164">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="167">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="165">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="166">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="69">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="70">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="71">[1]findAllUomArr!$A$1:$A$29</definedName>
@@ -380,6 +404,10 @@
     <definedName name="PAIRED_FLAG" localSheetId="152">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="150">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="151">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="164">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="167">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="165">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="166">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="69">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="70">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="71">#REF!</definedName>
@@ -424,6 +452,10 @@
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="152">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="150">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="151">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="164">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="167">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="165">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="166">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="69">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="70">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="71">#REF!</definedName>
@@ -463,6 +495,10 @@
     <definedName name="pairedPartsFlagStrArr" localSheetId="152">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="150">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="151">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="164">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="167">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="165">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="166">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="69">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="70">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="71">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
@@ -502,6 +538,10 @@
     <definedName name="partsTypeArr" localSheetId="152">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="150">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="151">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="164">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="167">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="165">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="166">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="69">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="70">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="71">[1]partsTypeArr!$A$1:$A$4</definedName>
@@ -546,6 +586,10 @@
     <definedName name="REPACKING_TYPE" localSheetId="152">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="150">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="151">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="164">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="167">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="165">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="166">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="69">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="70">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="71">#REF!</definedName>
@@ -585,6 +629,10 @@
     <definedName name="rolledPartsFlagArr" localSheetId="152">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="150">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="151">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="164">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="167">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="165">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="166">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="69">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="70">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="71">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
@@ -624,6 +672,10 @@
     <definedName name="rolledPartsUomArr" localSheetId="152">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="150">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="151">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="164">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="167">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="165">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="166">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="69">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="70">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="71">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
@@ -668,6 +720,10 @@
     <definedName name="UOM_CODE" localSheetId="152">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="150">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="151">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="164">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="167">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="165">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="166">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="69">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="70">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="71">#REF!</definedName>
@@ -697,7 +753,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6121" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6888" uniqueCount="555">
   <si>
     <t>No</t>
   </si>
@@ -2088,9 +2144,6 @@
     <t>BL-2</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
     <t>CustomerPartsNo</t>
   </si>
   <si>
@@ -2178,69 +2231,9 @@
     <t>C</t>
   </si>
   <si>
-    <t>R-PK-CUS-POC-2311001</t>
-  </si>
-  <si>
-    <t>CR-PK-CUS-POC-2311001</t>
-  </si>
-  <si>
-    <t>R-PK-CUS-TTAP-2311002</t>
-  </si>
-  <si>
-    <t>R-MY-PNA-BU-2311001</t>
-  </si>
-  <si>
-    <t>cCB101-2311001</t>
-  </si>
-  <si>
-    <t>sCB101-2311001</t>
-  </si>
-  <si>
-    <t>pCB201-2311001</t>
-  </si>
-  <si>
-    <t>pCB301-2311001</t>
-  </si>
-  <si>
-    <t>pCS201-2311001</t>
-  </si>
-  <si>
-    <t>sCB301-2311001</t>
-  </si>
-  <si>
-    <t>pCS101-2311001</t>
-  </si>
-  <si>
-    <t>sCS101-2311001</t>
-  </si>
-  <si>
-    <t>sCS201-2311001</t>
-  </si>
-  <si>
-    <t>rcCB101-2311001-02</t>
-  </si>
-  <si>
-    <t>cCB101-2311002</t>
-  </si>
-  <si>
-    <t>sCB201-2311001</t>
-  </si>
-  <si>
     <t>Spot</t>
   </si>
   <si>
-    <t>sCB101-2311002</t>
-  </si>
-  <si>
-    <t>pCB301-2311002</t>
-  </si>
-  <si>
-    <t>pCS101-2311002</t>
-  </si>
-  <si>
-    <t>sCS101-2311002</t>
-  </si>
-  <si>
     <t>Firm1</t>
   </si>
   <si>
@@ -2250,12 +2243,6 @@
     <t>Date2</t>
   </si>
   <si>
-    <t>rsCS101-2311002-01</t>
-  </si>
-  <si>
-    <t>rsCS201-2311001-01</t>
-  </si>
-  <si>
     <t>newInboundQty1</t>
   </si>
   <si>
@@ -2289,24 +2276,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>22,28</t>
-  </si>
-  <si>
-    <t>o-MY-ELA-SUP-231101001</t>
-  </si>
-  <si>
-    <t>o-MY-ELA-SUP-231101002</t>
-  </si>
-  <si>
-    <t>sCB301-2311002</t>
-  </si>
-  <si>
-    <t>ELA2311001</t>
-  </si>
-  <si>
-    <t>ELA2311002</t>
-  </si>
-  <si>
     <t>o-MY-PNA-DC-231102001</t>
   </si>
   <si>
@@ -2386,6 +2355,99 @@
   </si>
   <si>
     <t>PK12311006</t>
+  </si>
+  <si>
+    <t>Dec 15, 2023</t>
+  </si>
+  <si>
+    <t>Dec 10, 2023</t>
+  </si>
+  <si>
+    <t>o-MY-ELA-SUP-231103001</t>
+  </si>
+  <si>
+    <t>o-MY-ELA-SUP-231103002</t>
+  </si>
+  <si>
+    <t>ELA2311003</t>
+  </si>
+  <si>
+    <t>ELA2311004</t>
+  </si>
+  <si>
+    <t>20,28</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>R-PK-CUS-POC-2311009</t>
+  </si>
+  <si>
+    <t>CR-PK-CUS-POC-2311005</t>
+  </si>
+  <si>
+    <t>R-PK-CUS-TTAP-2311006</t>
+  </si>
+  <si>
+    <t>R-MY-PNA-BU-2311009</t>
+  </si>
+  <si>
+    <t>cCB103-2311001</t>
+  </si>
+  <si>
+    <t>sCB103-2311001</t>
+  </si>
+  <si>
+    <t>pCB203-2311001</t>
+  </si>
+  <si>
+    <t>pCB303-2311001</t>
+  </si>
+  <si>
+    <t>sCB203-2311001</t>
+  </si>
+  <si>
+    <t>pCS203-2311001</t>
+  </si>
+  <si>
+    <t>sCB303-2311001</t>
+  </si>
+  <si>
+    <t>pCS103-2311001</t>
+  </si>
+  <si>
+    <t>sCS103-2311001</t>
+  </si>
+  <si>
+    <t>sCS203-2311001</t>
+  </si>
+  <si>
+    <t>rcCB103-2311001-02</t>
+  </si>
+  <si>
+    <t>cCB103-2311002</t>
+  </si>
+  <si>
+    <t>sCB103-2311002</t>
+  </si>
+  <si>
+    <t>pCB303-2311002</t>
+  </si>
+  <si>
+    <t>sCB303-2311002</t>
+  </si>
+  <si>
+    <t>pCS103-2311002</t>
+  </si>
+  <si>
+    <t>sCS103-2311002</t>
+  </si>
+  <si>
+    <t>rsCS203-2311001-01</t>
+  </si>
+  <si>
+    <t>rsCS103-2311002-01</t>
   </si>
 </sst>
 </file>
@@ -3797,8 +3859,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3833,10 +3895,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>453</v>
+        <v>531</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>94</v>
@@ -3861,23 +3923,23 @@
       </c>
       <c r="C3" s="29" t="str">
         <f>B2&amp;C2&amp;"-"&amp;A2</f>
-        <v>CB1-01</v>
+        <v>CB1-03</v>
       </c>
       <c r="D3" s="29" t="str">
         <f>B2&amp;D2&amp;"-"&amp;A2</f>
-        <v>CB2-01</v>
+        <v>CB2-03</v>
       </c>
       <c r="E3" s="29" t="str">
         <f>B2&amp;E2&amp;"-"&amp;A2</f>
-        <v>CB3-01</v>
+        <v>CB3-03</v>
       </c>
       <c r="F3" s="29" t="str">
         <f>B2&amp;F2&amp;"-"&amp;A2</f>
-        <v>CS2-01</v>
+        <v>CS2-03</v>
       </c>
       <c r="G3" s="29" t="str">
         <f>B2&amp;G2&amp;"-"&amp;A2</f>
-        <v>CS1-01</v>
+        <v>CS1-03</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -3887,23 +3949,23 @@
       </c>
       <c r="C4" s="29" t="str">
         <f>"PKTTAP-PKCUS-"&amp;C3</f>
-        <v>PKTTAP-PKCUS-CB1-01</v>
+        <v>PKTTAP-PKCUS-CB1-03</v>
       </c>
       <c r="D4" s="29" t="str">
         <f>"SGTTAP-PKTTAP-"&amp;D3</f>
-        <v>SGTTAP-PKTTAP-CB2-01</v>
+        <v>SGTTAP-PKTTAP-CB2-03</v>
       </c>
       <c r="E4" s="29" t="str">
         <f>"MYPNA-PKTTAP-"&amp;E3</f>
-        <v>MYPNA-PKTTAP-CB3-01</v>
+        <v>MYPNA-PKTTAP-CB3-03</v>
       </c>
       <c r="F4" s="29" t="str">
         <f>"CNTWSUP-SGTTAP-"&amp;F3</f>
-        <v>CNTWSUP-SGTTAP-CS2-01</v>
+        <v>CNTWSUP-SGTTAP-CS2-03</v>
       </c>
       <c r="G4" s="29" t="str">
         <f>"MYELASUP-MYPNA-"&amp;G3</f>
-        <v>MYELASUP-MYPNA-CS1-01</v>
+        <v>MYELASUP-MYPNA-CS1-03</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -3913,23 +3975,23 @@
       </c>
       <c r="C5" s="29" t="str">
         <f>"CSS-"&amp;C3</f>
-        <v>CSS-CB1-01</v>
+        <v>CSS-CB1-03</v>
       </c>
       <c r="D5" s="29" t="str">
         <f t="shared" ref="D5:G5" si="0">"CSS-"&amp;D3</f>
-        <v>CSS-CB2-01</v>
+        <v>CSS-CB2-03</v>
       </c>
       <c r="E5" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CSS-CB3-01</v>
+        <v>CSS-CB3-03</v>
       </c>
       <c r="F5" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CSS-CS2-01</v>
+        <v>CSS-CS2-03</v>
       </c>
       <c r="G5" s="29" t="str">
         <f t="shared" si="0"/>
-        <v>CSS-CS1-01</v>
+        <v>CSS-CS1-03</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -4268,26 +4330,26 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>486</v>
+        <v>535</v>
       </c>
       <c r="C2" t="str">
         <f>AutoIncrement!D4</f>
-        <v>SGTTAP-PKTTAP-CB2-01</v>
+        <v>SGTTAP-PKTTAP-CB2-03</v>
       </c>
       <c r="D2" t="s">
         <v>68</v>
       </c>
       <c r="E2" t="str">
         <f>AutoIncrement!D3</f>
-        <v>CB2-01</v>
+        <v>CB2-03</v>
       </c>
       <c r="F2" t="str">
         <f>"CD-"&amp;E2</f>
-        <v>CD-CB2-01</v>
+        <v>CD-CB2-03</v>
       </c>
       <c r="G2" t="str">
         <f>"Payment-"&amp;E2</f>
-        <v>Payment-CB2-01</v>
+        <v>Payment-CB2-03</v>
       </c>
       <c r="H2" t="str">
         <f>I2</f>
@@ -4307,7 +4369,7 @@
       </c>
       <c r="M2" t="str">
         <f>G2&amp;"(" &amp;H2&amp;")"</f>
-        <v>Payment-CB2-01(By Invoice Date)</v>
+        <v>Payment-CB2-03(By Invoice Date)</v>
       </c>
       <c r="N2" t="s">
         <v>165</v>
@@ -4336,11 +4398,11 @@
       </c>
       <c r="V2" t="str">
         <f>'TC2-BU1 to Customer Contract'!X2</f>
-        <v>CR-PK-CUS-POC-2311001</v>
+        <v>CR-PK-CUS-POC-2311005</v>
       </c>
       <c r="W2" t="str">
         <f>"SP2toBU2-"&amp;E2</f>
-        <v>SP2toBU2-CB2-01</v>
+        <v>SP2toBU2-CB2-03</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -4438,7 +4500,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB101-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>79</v>
@@ -4497,7 +4559,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB101-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>79</v>
@@ -4556,7 +4618,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB101-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>79</v>
@@ -4694,7 +4756,7 @@
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E3</f>
-        <v>SP1-CS2-01-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M3</f>
@@ -4764,7 +4826,7 @@
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E5</f>
-        <v>SP1-CS2-01-2311002</v>
+        <v>SP1-CS2-03-2311002</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M5</f>
@@ -4902,7 +4964,7 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E2</f>
-        <v>SP1-CS2-01-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M2</f>
@@ -5019,7 +5081,7 @@
     <row r="2" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E4</f>
-        <v>SP1-CS2-01-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M4</f>
@@ -5205,7 +5267,7 @@
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC111-DC3 Outbound Details'!E3</f>
-        <v>DC3-CS2-01-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>'TC111-DC3 Outbound Details'!M3</f>
@@ -5431,7 +5493,7 @@
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f ca="1">'TC111-DC3 Outbound Details'!E2</f>
-        <v>DC3-CS2-01-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>'TC111-DC3 Outbound Details'!M2</f>
@@ -5579,7 +5641,7 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">'TC111-DC3 Outbound Details'!E2</f>
-        <v>DC3-CS2-01-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="B3" t="str">
         <f>'TC111-DC3 Outbound Details'!M2</f>
@@ -5589,7 +5651,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f ca="1">'TC111-DC3 Outbound Details'!E4</f>
-        <v>DC3-CS2-01-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="B4" t="str">
         <f>'TC111-DC3 Outbound Details'!M4</f>
@@ -5653,18 +5715,18 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>12 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>22 Nov 2023</v>
+        <v>23 Nov 2023</v>
       </c>
       <c r="E2" t="s">
         <v>396</v>
       </c>
       <c r="F2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="G2" t="s">
         <v>397</v>
@@ -5679,7 +5741,7 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">'TC111-DC3 Outbound Details'!E2</f>
-        <v>DC3-CS2-01-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="B3" t="str">
         <f>'TC111-DC3 Outbound Details'!M2</f>
@@ -5687,18 +5749,18 @@
       </c>
       <c r="C3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>12 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="D3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>22 Nov 2023</v>
+        <v>23 Nov 2023</v>
       </c>
       <c r="E3" t="s">
         <v>399</v>
       </c>
       <c r="F3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="G3" t="s">
         <v>400</v>
@@ -5713,7 +5775,7 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f ca="1">'TC111-DC3 Outbound Details'!E4</f>
-        <v>DC3-CS2-01-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="B4" t="str">
         <f>'TC111-DC3 Outbound Details'!M4</f>
@@ -5721,18 +5783,18 @@
       </c>
       <c r="C4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>12 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="D4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>22 Nov 2023</v>
+        <v>23 Nov 2023</v>
       </c>
       <c r="E4" t="s">
         <v>399</v>
       </c>
       <c r="F4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="G4" t="s">
         <v>400</v>
@@ -5836,7 +5898,7 @@
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E3</f>
-        <v>SP1-CS2-01-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M3</f>
@@ -5906,7 +5968,7 @@
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E5</f>
-        <v>SP1-CS2-01-2311002</v>
+        <v>SP1-CS2-03-2311002</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M5</f>
@@ -6044,7 +6106,7 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E2</f>
-        <v>SP1-CS2-01-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M2</f>
@@ -6161,7 +6223,7 @@
     <row r="2" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E4</f>
-        <v>SP1-CS2-01-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M4</f>
@@ -6512,7 +6574,7 @@
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC111-DC3 Outbound Details'!E3</f>
-        <v>DC3-CS2-01-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>'TC111-DC3 Outbound Details'!M3</f>
@@ -6738,7 +6800,7 @@
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f ca="1">'TC111-DC3 Outbound Details'!E2</f>
-        <v>DC3-CS2-01-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>'TC111-DC3 Outbound Details'!M2</f>
@@ -6884,7 +6946,7 @@
         <v>o-MY-PNA-DC-231102001</v>
       </c>
       <c r="B2" t="s">
-        <v>528</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -6893,7 +6955,7 @@
         <v>o-MY-PNA-DC-231102002</v>
       </c>
       <c r="B3" t="s">
-        <v>529</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -7036,7 +7098,7 @@
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC111-DC3 Outbound Details'!E3</f>
-        <v>DC3-CS2-01-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>'TC111-DC3 Outbound Details'!M3</f>
@@ -7262,7 +7324,7 @@
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f ca="1">'TC111-DC3 Outbound Details'!E2</f>
-        <v>DC3-CS2-01-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>'TC111-DC3 Outbound Details'!M2</f>
@@ -7514,7 +7576,7 @@
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC111-DC3 Outbound Details'!E3</f>
-        <v>DC3-CS2-01-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>'TC111-DC3 Outbound Details'!M3</f>
@@ -7740,7 +7802,7 @@
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f ca="1">'TC111-DC3 Outbound Details'!E2</f>
-        <v>DC3-CS2-01-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>'TC111-DC3 Outbound Details'!M2</f>
@@ -7875,16 +7937,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="B1" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="C1" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="D1" s="91" t="s">
-        <v>512</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -7895,10 +7957,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -7909,10 +7971,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>514</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -7923,7 +7985,7 @@
         <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>530</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -7948,43 +8010,43 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>515</v>
+        <v>492</v>
       </c>
       <c r="B1" t="s">
-        <v>516</v>
+        <v>493</v>
       </c>
       <c r="C1" s="91" t="s">
-        <v>512</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>531</v>
+        <v>502</v>
       </c>
       <c r="B2" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
       <c r="C2" t="s">
-        <v>517</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>531</v>
+        <v>502</v>
       </c>
       <c r="B3" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
       <c r="C3" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>531</v>
+        <v>502</v>
       </c>
       <c r="B4" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -8005,7 +8067,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="B1" t="s">
         <v>122</v>
@@ -8045,8 +8107,8 @@
   <sheetPr codeName="Sheet117"/>
   <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -8166,15 +8228,15 @@
       </c>
       <c r="C2" s="2" t="str">
         <f ca="1">"o-CNTW-SUP-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>o-CNTW-SUP-POC-CS2-01-2311001</v>
+        <v>o-CNTW-SUP-POC-CS2-03-2311001</v>
       </c>
       <c r="D2" s="2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="E2" s="2" t="str">
         <f ca="1">"SP2-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>SP2-CS2-01-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>289</v>
@@ -8202,7 +8264,7 @@
       </c>
       <c r="N2" s="2" t="str">
         <f ca="1">"SP2-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>SP2-OP-CS2-01-2311-01</v>
+        <v>SP2-OP-CS2-03-2311-01</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>333</v>
@@ -8212,7 +8274,7 @@
       <c r="R2" s="65"/>
       <c r="S2" s="2" t="str">
         <f ca="1">"SP2-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>SP2-IP-CS2-01-2311-01</v>
+        <v>SP2-IP-CS2-03-2311-01</v>
       </c>
       <c r="T2" s="66"/>
       <c r="U2" s="65"/>
@@ -8220,7 +8282,7 @@
       <c r="W2" s="65"/>
       <c r="X2" s="64" t="str">
         <f>'TC20-Autogen SOPO'!H2</f>
-        <v>sCS201-2311001</v>
+        <v>sCS203-2311001</v>
       </c>
       <c r="Y2" s="64" t="s">
         <v>93</v>
@@ -8247,15 +8309,15 @@
       </c>
       <c r="C3" s="2" t="str">
         <f ca="1">"o-CNTW-SUP-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>o-CNTW-SUP-POC-CS2-01-2311001</v>
+        <v>o-CNTW-SUP-POC-CS2-03-2311001</v>
       </c>
       <c r="D3" s="2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="E3" s="2" t="str">
         <f ca="1">"SP2-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>SP2-CS2-01-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>290</v>
@@ -8283,7 +8345,7 @@
       </c>
       <c r="N3" s="2" t="str">
         <f ca="1">"SP2-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>SP2-OP-CS2-01-2311-01</v>
+        <v>SP2-OP-CS2-03-2311-01</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>334</v>
@@ -8293,7 +8355,7 @@
       <c r="R3" s="65"/>
       <c r="S3" s="2" t="str">
         <f ca="1">"SP2-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>SP2-IP-CS2-01-2311-02</v>
+        <v>SP2-IP-CS2-03-2311-02</v>
       </c>
       <c r="T3" s="66">
         <v>10.000999999999999</v>
@@ -8309,7 +8371,7 @@
       </c>
       <c r="X3" s="64" t="str">
         <f>'TC20-Autogen SOPO'!H2</f>
-        <v>sCS201-2311001</v>
+        <v>sCS203-2311001</v>
       </c>
       <c r="Y3" s="64" t="s">
         <v>93</v>
@@ -8336,11 +8398,11 @@
       </c>
       <c r="C4" s="2" t="str">
         <f ca="1">"o-CNTW-SUP-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"002"</f>
-        <v>o-CNTW-SUP-POC-CS2-01-2311002</v>
+        <v>o-CNTW-SUP-POC-CS2-03-2311002</v>
       </c>
       <c r="D4" s="2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>293</v>
@@ -8368,7 +8430,7 @@
       </c>
       <c r="N4" s="2" t="str">
         <f ca="1">"SP2-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>SP2-OP-CS2-01-2311-01</v>
+        <v>SP2-OP-CS2-03-2311-01</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>335</v>
@@ -8388,7 +8450,7 @@
       <c r="W4" s="66"/>
       <c r="X4" s="64" t="str">
         <f>'TC20-Autogen SOPO'!H2</f>
-        <v>sCS201-2311001</v>
+        <v>sCS203-2311001</v>
       </c>
       <c r="Y4" s="64" t="s">
         <v>93</v>
@@ -8415,11 +8477,11 @@
       </c>
       <c r="C5" s="2" t="str">
         <f ca="1">"o-CNTW-SUP-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"002"</f>
-        <v>o-CNTW-SUP-POC-CS2-01-2311002</v>
+        <v>o-CNTW-SUP-POC-CS2-03-2311002</v>
       </c>
       <c r="D5" s="2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>293</v>
@@ -8447,7 +8509,7 @@
       </c>
       <c r="N5" s="2" t="str">
         <f ca="1">"SP2-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>SP2-OP-CS2-01-2311-02</v>
+        <v>SP2-OP-CS2-03-2311-02</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>333</v>
@@ -8463,7 +8525,7 @@
       </c>
       <c r="S5" s="2" t="str">
         <f ca="1">"SP2-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>SP2-IP-CS2-01-2311-02</v>
+        <v>SP2-IP-CS2-03-2311-02</v>
       </c>
       <c r="T5" s="66">
         <v>10.000999999999999</v>
@@ -8479,7 +8541,7 @@
       </c>
       <c r="X5" s="64" t="str">
         <f>'TC20-Autogen SOPO'!H2</f>
-        <v>sCS201-2311001</v>
+        <v>sCS203-2311001</v>
       </c>
       <c r="Y5" s="64" t="s">
         <v>93</v>
@@ -8512,7 +8574,7 @@
   <sheetPr codeName="Sheet118"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
@@ -8533,19 +8595,19 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">'TC142-Sup2 Outbound Details'!C2</f>
-        <v>o-CNTW-SUP-POC-CS2-01-2311001</v>
+        <v>o-CNTW-SUP-POC-CS2-03-2311001</v>
       </c>
       <c r="B2" t="s">
-        <v>533</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">'TC142-Sup2 Outbound Details'!C4</f>
-        <v>o-CNTW-SUP-POC-CS2-01-2311002</v>
+        <v>o-CNTW-SUP-POC-CS2-03-2311002</v>
       </c>
       <c r="B3" t="s">
-        <v>534</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -8652,7 +8714,7 @@
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC142-Sup2 Outbound Details'!E2</f>
-        <v>SP2-CS2-01-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC142-Sup2 Outbound Details'!M2</f>
@@ -8734,7 +8796,7 @@
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">'TC142-Sup2 Outbound Details'!E3</f>
-        <v>SP2-CS2-01-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>'TC142-Sup2 Outbound Details'!M3</f>
@@ -9020,7 +9082,7 @@
       </c>
       <c r="C2" s="16" t="str">
         <f>AutoIncrement!F4</f>
-        <v>CNTWSUP-SGTTAP-CS2-01</v>
+        <v>CNTWSUP-SGTTAP-CS2-03</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>29</v>
@@ -9041,7 +9103,7 @@
       </c>
       <c r="C3" s="16" t="str">
         <f>AutoIncrement!F4</f>
-        <v>CNTWSUP-SGTTAP-CS2-01</v>
+        <v>CNTWSUP-SGTTAP-CS2-03</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>29</v>
@@ -9062,7 +9124,7 @@
       </c>
       <c r="C4" s="16" t="str">
         <f>AutoIncrement!F4</f>
-        <v>CNTWSUP-SGTTAP-CS2-01</v>
+        <v>CNTWSUP-SGTTAP-CS2-03</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>21</v>
@@ -9185,7 +9247,7 @@
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC142-Sup2 Outbound Details'!E2</f>
-        <v>SP2-CS2-01-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC142-Sup2 Outbound Details'!M2</f>
@@ -9267,7 +9329,7 @@
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">'TC142-Sup2 Outbound Details'!E3</f>
-        <v>SP2-CS2-01-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>'TC142-Sup2 Outbound Details'!M3</f>
@@ -9536,7 +9598,7 @@
         <v>o-CNTW-SUP-POC-231102001</v>
       </c>
       <c r="B2" t="s">
-        <v>535</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -9545,7 +9607,7 @@
         <v>o-CNTW-SUP-POC-231102002</v>
       </c>
       <c r="B3" t="s">
-        <v>536</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -9606,18 +9668,18 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>12 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>22 Nov 2023</v>
+        <v>23 Nov 2023</v>
       </c>
       <c r="E2" t="s">
         <v>396</v>
       </c>
       <c r="F2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="G2" t="s">
         <v>397</v>
@@ -9636,18 +9698,18 @@
       </c>
       <c r="C3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>12 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="D3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>22 Nov 2023</v>
+        <v>23 Nov 2023</v>
       </c>
       <c r="E3" t="s">
         <v>399</v>
       </c>
       <c r="F3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="G3" t="s">
         <v>400</v>
@@ -9662,7 +9724,7 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f ca="1">'TC142-Sup2 Outbound Details'!E3</f>
-        <v>SP2-CS2-01-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="B4" t="str">
         <f>'TC142-Sup2 Outbound Details'!M3</f>
@@ -9670,18 +9732,18 @@
       </c>
       <c r="C4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>12 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="D4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>22 Nov 2023</v>
+        <v>23 Nov 2023</v>
       </c>
       <c r="E4" t="s">
         <v>399</v>
       </c>
       <c r="F4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="G4" t="s">
         <v>400</v>
@@ -9696,7 +9758,7 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f ca="1">'TC142-Sup2 Outbound Details'!E2</f>
-        <v>SP2-CS2-01-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="B5" t="str">
         <f>'TC142-Sup2 Outbound Details'!M2</f>
@@ -9704,18 +9766,18 @@
       </c>
       <c r="C5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>12 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="D5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>22 Nov 2023</v>
+        <v>23 Nov 2023</v>
       </c>
       <c r="E5" t="s">
         <v>399</v>
       </c>
       <c r="F5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="G5" t="s">
         <v>400</v>
@@ -9831,7 +9893,7 @@
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC142-Sup2 Outbound Details'!E2</f>
-        <v>SP2-CS2-01-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC142-Sup2 Outbound Details'!M2</f>
@@ -9913,7 +9975,7 @@
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">'TC142-Sup2 Outbound Details'!E3</f>
-        <v>SP2-CS2-01-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>'TC142-Sup2 Outbound Details'!M3</f>
@@ -10252,7 +10314,7 @@
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC142-Sup2 Outbound Details'!E2</f>
-        <v>SP2-CS2-01-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC142-Sup2 Outbound Details'!M2</f>
@@ -10334,7 +10396,7 @@
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">'TC142-Sup2 Outbound Details'!E3</f>
-        <v>SP2-CS2-01-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>'TC142-Sup2 Outbound Details'!M3</f>
@@ -10600,41 +10662,41 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">"i-SG-TTAP-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-SG-TTAP-DC-CS2-01-2311001</v>
+        <v>i-SG-TTAP-DC-CS2-03-2311001</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">"i-SG-TTAP-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-SG-TTAP-DC-CS2-01-2311001</v>
+        <v>i-SG-TTAP-DC-CS2-03-2311001</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B5" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f ca="1">"i-SG-TTAP-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-SG-TTAP-DC-CS2-01-2311001</v>
+        <v>i-SG-TTAP-DC-CS2-03-2311001</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f ca="1">"i-SG-TTAP-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"002"</f>
-        <v>i-SG-TTAP-DC-CS2-01-2311002</v>
+        <v>i-SG-TTAP-DC-CS2-03-2311002</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
     </row>
   </sheetData>
@@ -10725,7 +10787,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC20-Autogen SOPO'!D2</f>
-        <v>pCS201-2311001</v>
+        <v>pCS203-2311001</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -10781,7 +10843,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC20-Autogen SOPO'!D2</f>
-        <v>pCS201-2311001</v>
+        <v>pCS203-2311001</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -10837,7 +10899,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC20-Autogen SOPO'!D2</f>
-        <v>pCS201-2311001</v>
+        <v>pCS203-2311001</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -10966,7 +11028,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC20-Autogen SOPO'!C2</f>
-        <v>sCB201-2311001</v>
+        <v>sCB203-2311001</v>
       </c>
       <c r="E2" t="s">
         <v>93</v>
@@ -11019,7 +11081,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC20-Autogen SOPO'!C2</f>
-        <v>sCB201-2311001</v>
+        <v>sCB203-2311001</v>
       </c>
       <c r="E3" t="s">
         <v>93</v>
@@ -11072,7 +11134,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC20-Autogen SOPO'!C2</f>
-        <v>sCB201-2311001</v>
+        <v>sCB203-2311001</v>
       </c>
       <c r="E4" t="s">
         <v>93</v>
@@ -11201,7 +11263,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC20-Autogen SOPO'!B2</f>
-        <v>pCB201-2311001</v>
+        <v>pCB203-2311001</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -11257,7 +11319,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC20-Autogen SOPO'!B2</f>
-        <v>pCB201-2311001</v>
+        <v>pCB203-2311001</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -11313,7 +11375,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC20-Autogen SOPO'!B2</f>
-        <v>pCB201-2311001</v>
+        <v>pCB203-2311001</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -11442,7 +11504,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E2" t="s">
         <v>93</v>
@@ -11495,7 +11557,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E3" t="s">
         <v>93</v>
@@ -11548,7 +11610,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E4" t="s">
         <v>93</v>
@@ -11699,7 +11761,7 @@
       </c>
       <c r="C2" t="str">
         <f>AutoIncrement!F4</f>
-        <v>CNTWSUP-SGTTAP-CS2-01</v>
+        <v>CNTWSUP-SGTTAP-CS2-03</v>
       </c>
       <c r="D2" t="s">
         <v>72</v>
@@ -11715,15 +11777,15 @@
       </c>
       <c r="H2" t="str">
         <f>AutoIncrement!F3</f>
-        <v>CS2-01</v>
+        <v>CS2-03</v>
       </c>
       <c r="I2" t="str">
         <f>"CD-"&amp;H2</f>
-        <v>CD-CS2-01</v>
+        <v>CD-CS2-03</v>
       </c>
       <c r="J2" t="str">
         <f>"Payment-"&amp;H2</f>
-        <v>Payment-CS2-01</v>
+        <v>Payment-CS2-03</v>
       </c>
       <c r="K2" t="str">
         <f>L2</f>
@@ -11743,7 +11805,7 @@
       </c>
       <c r="P2" t="str">
         <f>J2&amp;"(" &amp;K2&amp;")"</f>
-        <v>Payment-CS2-01(By Invoice Date)</v>
+        <v>Payment-CS2-03(By Invoice Date)</v>
       </c>
       <c r="Q2" t="s">
         <v>174</v>
@@ -11772,7 +11834,7 @@
       </c>
       <c r="Y2" t="str">
         <f>'TC2-BU1 to Customer Contract'!X2</f>
-        <v>CR-PK-CUS-POC-2311001</v>
+        <v>CR-PK-CUS-POC-2311005</v>
       </c>
     </row>
   </sheetData>
@@ -11871,7 +11933,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB101-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -11937,7 +11999,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB101-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -12003,7 +12065,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB101-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -12069,7 +12131,7 @@
       </c>
       <c r="D5" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB101-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E5" t="s">
         <v>69</v>
@@ -12135,7 +12197,7 @@
       </c>
       <c r="D6" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB101-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E6" t="s">
         <v>69</v>
@@ -12201,7 +12263,7 @@
       </c>
       <c r="D7" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB101-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E7" t="s">
         <v>69</v>
@@ -12264,8 +12326,8 @@
   <sheetPr codeName="Sheet131"/>
   <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AC26" sqref="AC26"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -12400,15 +12462,15 @@
       </c>
       <c r="C2" s="68" t="str">
         <f ca="1">"o-SG-TTAP-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>o-SG-TTAP-DC-CS2-01-2311001</v>
+        <v>o-SG-TTAP-DC-CS2-03-2311001</v>
       </c>
       <c r="D2" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="E2" s="68" t="str">
         <f ca="1">"DC2-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>DC2-CS2-01-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="F2" s="68" t="s">
         <v>289</v>
@@ -12433,11 +12495,11 @@
       </c>
       <c r="M2" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Dec 2023</v>
+        <v>03 Dec 2023</v>
       </c>
       <c r="N2" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())+1), "dd MMM yyyy")</f>
-        <v>03 Dec 2023</v>
+        <v>04 Dec 2023</v>
       </c>
       <c r="O2" s="70" t="s">
         <v>432</v>
@@ -12453,7 +12515,7 @@
       </c>
       <c r="S2" s="68" t="str">
         <f ca="1">"DC2-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>DC2-OP-CS2-01-2311-01</v>
+        <v>DC2-OP-CS2-03-2311-01</v>
       </c>
       <c r="T2" s="68" t="s">
         <v>436</v>
@@ -12469,7 +12531,7 @@
       </c>
       <c r="X2" s="68" t="str">
         <f ca="1">"DC2-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>DC2-IP-CS2-01-2311-01</v>
+        <v>DC2-IP-CS2-03-2311-01</v>
       </c>
       <c r="Y2" s="71" t="s">
         <v>437</v>
@@ -12485,7 +12547,7 @@
       </c>
       <c r="AC2" s="68" t="str">
         <f>'TC20-Autogen SOPO'!C2</f>
-        <v>sCB201-2311001</v>
+        <v>sCB203-2311001</v>
       </c>
       <c r="AD2" s="68" t="s">
         <v>90</v>
@@ -12512,15 +12574,15 @@
       </c>
       <c r="C3" s="68" t="str">
         <f ca="1">"o-SG-TTAP-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>o-SG-TTAP-DC-CS2-01-2311001</v>
+        <v>o-SG-TTAP-DC-CS2-03-2311001</v>
       </c>
       <c r="D3" s="68" t="str">
         <f t="shared" ref="D3:D5" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="E3" s="68" t="str">
         <f ca="1">"DC2-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>DC2-CS2-01-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="F3" s="68" t="s">
         <v>290</v>
@@ -12545,11 +12607,11 @@
       </c>
       <c r="M3" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Dec 2023</v>
+        <v>03 Dec 2023</v>
       </c>
       <c r="N3" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())+1), "dd MMM yyyy")</f>
-        <v>03 Dec 2023</v>
+        <v>04 Dec 2023</v>
       </c>
       <c r="O3" s="70" t="s">
         <v>429</v>
@@ -12565,7 +12627,7 @@
       </c>
       <c r="S3" s="68" t="str">
         <f ca="1">"DC2-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>DC2-OP-CS2-01-2311-01</v>
+        <v>DC2-OP-CS2-03-2311-01</v>
       </c>
       <c r="T3" s="68" t="s">
         <v>436</v>
@@ -12581,7 +12643,7 @@
       </c>
       <c r="X3" s="68" t="str">
         <f ca="1">"DC2-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>DC2-IP-CS2-01-2311-02</v>
+        <v>DC2-IP-CS2-03-2311-02</v>
       </c>
       <c r="Y3" s="71" t="s">
         <v>438</v>
@@ -12597,7 +12659,7 @@
       </c>
       <c r="AC3" s="68" t="str">
         <f>'TC20-Autogen SOPO'!C2</f>
-        <v>sCB201-2311001</v>
+        <v>sCB203-2311001</v>
       </c>
       <c r="AD3" s="68" t="s">
         <v>90</v>
@@ -12624,15 +12686,15 @@
       </c>
       <c r="C4" s="68" t="str">
         <f ca="1">"o-SG-TTAP-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>o-SG-TTAP-DC-CS2-01-2311001</v>
+        <v>o-SG-TTAP-DC-CS2-03-2311001</v>
       </c>
       <c r="D4" s="68" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="E4" s="68" t="str">
         <f ca="1">"DC2-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>DC2-CS2-01-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="F4" s="68" t="s">
         <v>293</v>
@@ -12657,11 +12719,11 @@
       </c>
       <c r="M4" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Dec 2023</v>
+        <v>03 Dec 2023</v>
       </c>
       <c r="N4" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())+1), "dd MMM yyyy")</f>
-        <v>03 Dec 2023</v>
+        <v>04 Dec 2023</v>
       </c>
       <c r="O4" s="70" t="s">
         <v>430</v>
@@ -12677,7 +12739,7 @@
       </c>
       <c r="S4" s="68" t="str">
         <f ca="1">"DC2-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>DC2-OP-CS2-01-2311-02</v>
+        <v>DC2-OP-CS2-03-2311-02</v>
       </c>
       <c r="T4" s="68" t="s">
         <v>334</v>
@@ -12693,7 +12755,7 @@
       </c>
       <c r="X4" s="68" t="str">
         <f ca="1">"DC2-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>DC2-IP-CS2-01-2311-02</v>
+        <v>DC2-IP-CS2-03-2311-02</v>
       </c>
       <c r="Y4" s="71" t="s">
         <v>438</v>
@@ -12709,7 +12771,7 @@
       </c>
       <c r="AC4" s="68" t="str">
         <f>'TC20-Autogen SOPO'!C2</f>
-        <v>sCB201-2311001</v>
+        <v>sCB203-2311001</v>
       </c>
       <c r="AD4" s="68" t="s">
         <v>90</v>
@@ -12736,11 +12798,11 @@
       </c>
       <c r="C5" s="68" t="str">
         <f ca="1">"o-SG-TTAP-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"002"</f>
-        <v>o-SG-TTAP-DC-CS2-01-2311002</v>
+        <v>o-SG-TTAP-DC-CS2-03-2311002</v>
       </c>
       <c r="D5" s="68" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="F5" s="68" t="s">
         <v>293</v>
@@ -12765,11 +12827,11 @@
       </c>
       <c r="M5" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Dec 2023</v>
+        <v>03 Dec 2023</v>
       </c>
       <c r="N5" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())+1), "dd MMM yyyy")</f>
-        <v>03 Dec 2023</v>
+        <v>04 Dec 2023</v>
       </c>
       <c r="O5" s="70" t="s">
         <v>429</v>
@@ -12785,7 +12847,7 @@
       </c>
       <c r="S5" s="68" t="str">
         <f ca="1">"DC2-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>DC2-OP-CS2-01-2311-01</v>
+        <v>DC2-OP-CS2-03-2311-01</v>
       </c>
       <c r="T5" s="68" t="s">
         <v>335</v>
@@ -12805,7 +12867,7 @@
       <c r="AB5" s="67"/>
       <c r="AC5" s="68" t="str">
         <f>'TC20-Autogen SOPO'!C2</f>
-        <v>sCB201-2311001</v>
+        <v>sCB203-2311001</v>
       </c>
       <c r="AD5" s="68" t="s">
         <v>90</v>
@@ -12854,19 +12916,19 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">'TC174-DC2 Outbound Details'!C4</f>
-        <v>o-SG-TTAP-DC-CS2-01-2311001</v>
+        <v>o-SG-TTAP-DC-CS2-03-2311001</v>
       </c>
       <c r="B2" t="s">
-        <v>537</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">'TC174-DC2 Outbound Details'!C5</f>
-        <v>o-SG-TTAP-DC-CS2-01-2311002</v>
+        <v>o-SG-TTAP-DC-CS2-03-2311002</v>
       </c>
       <c r="B3" t="s">
-        <v>538</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -12899,7 +12961,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">'TC174-DC2 Outbound Details'!E2</f>
-        <v>DC2-CS2-01-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="B2" t="str">
         <f>'TC174-DC2 Outbound Details'!O2</f>
@@ -12909,7 +12971,7 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">'TC174-DC2 Outbound Details'!E3</f>
-        <v>DC2-CS2-01-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="B3" t="str">
         <f>'TC174-DC2 Outbound Details'!O3</f>
@@ -12919,7 +12981,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f ca="1">'TC174-DC2 Outbound Details'!E4</f>
-        <v>DC2-CS2-01-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="B4" t="str">
         <f>'TC174-DC2 Outbound Details'!O4</f>
@@ -12966,7 +13028,7 @@
         <v>o-SG-TTAP-DC-231102001</v>
       </c>
       <c r="B2" t="s">
-        <v>539</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -12975,7 +13037,7 @@
         <v>o-SG-TTAP-DC-231102002</v>
       </c>
       <c r="B3" t="s">
-        <v>540</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -13082,7 +13144,7 @@
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="str">
         <f ca="1">'TC174-DC2 Outbound Details'!E2</f>
-        <v>DC2-CS2-01-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>'TC174-DC2 Outbound Details'!O2</f>
@@ -13164,7 +13226,7 @@
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="str">
         <f ca="1">'TC174-DC2 Outbound Details'!E3</f>
-        <v>DC2-CS2-01-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>'TC174-DC2 Outbound Details'!O3</f>
@@ -13246,7 +13308,7 @@
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="57" t="str">
         <f ca="1">'TC174-DC2 Outbound Details'!E4</f>
-        <v>DC2-CS2-01-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>'TC174-DC2 Outbound Details'!O4</f>
@@ -13406,7 +13468,7 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="str">
         <f ca="1">'TC142-Sup2 Outbound Details'!E2</f>
-        <v>SP2-CS2-01-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="B6" s="8" t="str">
         <f>'TC142-Sup2 Outbound Details'!M2</f>
@@ -13488,7 +13550,7 @@
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="str">
         <f ca="1">'TC142-Sup2 Outbound Details'!E3</f>
-        <v>SP2-CS2-01-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="B7" s="8" t="str">
         <f>'TC142-Sup2 Outbound Details'!M3</f>
@@ -13676,81 +13738,81 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">"i-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"003"</f>
-        <v>i-PK-CUS-DC-CS2-01-2311003</v>
+        <v>i-PK-CUS-DC-CS2-03-2311003</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">"i-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"004"</f>
-        <v>i-PK-CUS-DC-CS2-01-2311004</v>
+        <v>i-PK-CUS-DC-CS2-03-2311004</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B9" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f ca="1">"i-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"005"</f>
-        <v>i-PK-CUS-DC-CS2-01-2311005</v>
+        <v>i-PK-CUS-DC-CS2-03-2311005</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f ca="1">"i-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"005"</f>
-        <v>i-PK-CUS-DC-CS2-01-2311005</v>
+        <v>i-PK-CUS-DC-CS2-03-2311005</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f ca="1">"i-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-PK-CUS-DC-CS2-01-2311001</v>
+        <v>i-PK-CUS-DC-CS2-03-2311001</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f ca="1">"i-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-PK-CUS-DC-CS2-01-2311001</v>
+        <v>i-PK-CUS-DC-CS2-03-2311001</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f ca="1">"i-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-PK-CUS-DC-CS2-01-2311001</v>
+        <v>i-PK-CUS-DC-CS2-03-2311001</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f ca="1">"i-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"002"</f>
-        <v>i-PK-CUS-DC-CS2-01-2311002</v>
+        <v>i-PK-CUS-DC-CS2-03-2311002</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
     </row>
   </sheetData>
@@ -13787,7 +13849,7 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">'TC174-DC2 Outbound Details'!E2</f>
-        <v>DC2-CS2-01-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="B2" t="str">
         <f>'TC174-DC2 Outbound Details'!O2</f>
@@ -13800,7 +13862,7 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">'TC174-DC2 Outbound Details'!E3</f>
-        <v>DC2-CS2-01-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="B3" t="str">
         <f>'TC174-DC2 Outbound Details'!O3</f>
@@ -13813,7 +13875,7 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f ca="1">'TC174-DC2 Outbound Details'!E4</f>
-        <v>DC2-CS2-01-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="B4" t="str">
         <f>'TC174-DC2 Outbound Details'!O4</f>
@@ -13936,7 +13998,7 @@
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="str">
         <f ca="1">'TC174-DC2 Outbound Details'!E2</f>
-        <v>DC2-CS2-01-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>'TC174-DC2 Outbound Details'!O2</f>
@@ -14018,7 +14080,7 @@
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="str">
         <f ca="1">'TC174-DC2 Outbound Details'!E3</f>
-        <v>DC2-CS2-01-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>'TC174-DC2 Outbound Details'!O3</f>
@@ -14100,7 +14162,7 @@
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="57" t="str">
         <f ca="1">'TC174-DC2 Outbound Details'!E4</f>
-        <v>DC2-CS2-01-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>'TC174-DC2 Outbound Details'!O4</f>
@@ -14260,7 +14322,7 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="str">
         <f ca="1">'TC142-Sup2 Outbound Details'!E2</f>
-        <v>SP2-CS2-01-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="B6" s="8" t="str">
         <f>'TC142-Sup2 Outbound Details'!M2</f>
@@ -14342,7 +14404,7 @@
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="str">
         <f ca="1">'TC142-Sup2 Outbound Details'!E3</f>
-        <v>SP2-CS2-01-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="B7" s="8" t="str">
         <f>'TC142-Sup2 Outbound Details'!M3</f>
@@ -14591,7 +14653,7 @@
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E3</f>
-        <v>SP1-CS2-01-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M3</f>
@@ -14661,7 +14723,7 @@
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E5</f>
-        <v>SP1-CS2-01-2311002</v>
+        <v>SP1-CS2-03-2311002</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M5</f>
@@ -14964,7 +15026,7 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E2</f>
-        <v>SP1-CS2-01-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M2</f>
@@ -15081,7 +15143,7 @@
     <row r="2" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E4</f>
-        <v>SP1-CS2-01-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M4</f>
@@ -15267,7 +15329,7 @@
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC111-DC3 Outbound Details'!E3</f>
-        <v>DC3-CS2-01-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>'TC111-DC3 Outbound Details'!M3</f>
@@ -15493,7 +15555,7 @@
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f ca="1">'TC111-DC3 Outbound Details'!E2</f>
-        <v>DC3-CS2-01-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>'TC111-DC3 Outbound Details'!M2</f>
@@ -15748,15 +15810,15 @@
       </c>
       <c r="C2" s="68" t="str">
         <f ca="1">"o-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>o-PK-CUS-DC-CS2-01-2311001</v>
+        <v>o-PK-CUS-DC-CS2-03-2311001</v>
       </c>
       <c r="D2" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="E2" s="68" t="str">
         <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>DC1-CS2-01-2311001</v>
+        <v>DC1-CS2-03-2311001</v>
       </c>
       <c r="F2" s="68" t="s">
         <v>289</v>
@@ -15793,7 +15855,7 @@
       </c>
       <c r="Q2" s="68" t="str">
         <f ca="1">"DC1-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>DC1-OP-CS2-01-2311-01</v>
+        <v>DC1-OP-CS2-03-2311-01</v>
       </c>
       <c r="R2" s="68" t="s">
         <v>333</v>
@@ -15809,7 +15871,7 @@
       </c>
       <c r="V2" s="68" t="str">
         <f ca="1">"DC1-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>DC1-IP-CS2-01-2311-01</v>
+        <v>DC1-IP-CS2-03-2311-01</v>
       </c>
       <c r="W2" s="71" t="s">
         <v>437</v>
@@ -15825,7 +15887,7 @@
       </c>
       <c r="AA2" s="68" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="AB2" s="68" t="s">
         <v>89</v>
@@ -15855,15 +15917,15 @@
       </c>
       <c r="C3" s="68" t="str">
         <f ca="1">"o-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>o-PK-CUS-DC-CS2-01-2311001</v>
+        <v>o-PK-CUS-DC-CS2-03-2311001</v>
       </c>
       <c r="D3" s="68" t="str">
         <f t="shared" ref="D3:D9" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="E3" s="68" t="str">
         <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>DC1-CS2-01-2311001</v>
+        <v>DC1-CS2-03-2311001</v>
       </c>
       <c r="F3" s="68" t="s">
         <v>290</v>
@@ -15900,7 +15962,7 @@
       </c>
       <c r="Q3" s="68" t="str">
         <f ca="1">"DC1-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>DC1-OP-CS2-01-2311-01</v>
+        <v>DC1-OP-CS2-03-2311-01</v>
       </c>
       <c r="R3" s="68" t="s">
         <v>441</v>
@@ -15916,7 +15978,7 @@
       </c>
       <c r="V3" s="68" t="str">
         <f ca="1">"DC1-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>DC1-IP-CS2-01-2311-02</v>
+        <v>DC1-IP-CS2-03-2311-02</v>
       </c>
       <c r="W3" s="71" t="s">
         <v>438</v>
@@ -15932,7 +15994,7 @@
       </c>
       <c r="AA3" s="68" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="AB3" s="68" t="s">
         <v>89</v>
@@ -15962,15 +16024,15 @@
       </c>
       <c r="C4" s="68" t="str">
         <f ca="1">"o-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>o-PK-CUS-DC-CS2-01-2311001</v>
+        <v>o-PK-CUS-DC-CS2-03-2311001</v>
       </c>
       <c r="D4" s="68" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="E4" s="68" t="str">
         <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>DC1-CS2-01-2311001</v>
+        <v>DC1-CS2-03-2311001</v>
       </c>
       <c r="F4" s="68" t="s">
         <v>293</v>
@@ -16007,7 +16069,7 @@
       </c>
       <c r="Q4" s="68" t="str">
         <f ca="1">"DC1-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>DC1-OP-CS2-01-2311-02</v>
+        <v>DC1-OP-CS2-03-2311-02</v>
       </c>
       <c r="R4" s="68" t="s">
         <v>333</v>
@@ -16023,7 +16085,7 @@
       </c>
       <c r="V4" s="68" t="str">
         <f ca="1">"DC1-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>DC1-IP-CS2-01-2311-02</v>
+        <v>DC1-IP-CS2-03-2311-02</v>
       </c>
       <c r="W4" s="71" t="s">
         <v>438</v>
@@ -16039,7 +16101,7 @@
       </c>
       <c r="AA4" s="68" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="AB4" s="68" t="s">
         <v>89</v>
@@ -16069,11 +16131,11 @@
       </c>
       <c r="C5" s="68" t="str">
         <f ca="1">"o-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"002"</f>
-        <v>o-PK-CUS-DC-CS2-01-2311002</v>
+        <v>o-PK-CUS-DC-CS2-03-2311002</v>
       </c>
       <c r="D5" s="68" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="F5" s="68" t="s">
         <v>293</v>
@@ -16110,7 +16172,7 @@
       </c>
       <c r="Q5" s="68" t="str">
         <f ca="1">"DC1-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>DC1-OP-CS2-01-2311-01</v>
+        <v>DC1-OP-CS2-03-2311-01</v>
       </c>
       <c r="R5" s="68" t="s">
         <v>442</v>
@@ -16132,7 +16194,7 @@
       <c r="Z5" s="67"/>
       <c r="AA5" s="68" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="AB5" s="68" t="s">
         <v>89</v>
@@ -16162,15 +16224,15 @@
       </c>
       <c r="C6" s="68" t="str">
         <f ca="1">"o-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"003"</f>
-        <v>o-PK-CUS-DC-CS2-01-2311003</v>
+        <v>o-PK-CUS-DC-CS2-03-2311003</v>
       </c>
       <c r="D6" s="68" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="E6" s="68" t="str">
         <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"003"</f>
-        <v>DC1-CS2-01-2311003</v>
+        <v>DC1-CS2-03-2311003</v>
       </c>
       <c r="F6" s="68" t="s">
         <v>291</v>
@@ -16207,7 +16269,7 @@
       </c>
       <c r="Q6" s="68" t="str">
         <f ca="1">"DC1-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>DC1-OP-CS2-01-2311-01</v>
+        <v>DC1-OP-CS2-03-2311-01</v>
       </c>
       <c r="R6" s="68" t="s">
         <v>335</v>
@@ -16235,7 +16297,7 @@
       </c>
       <c r="AA6" s="68" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB101-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="AB6" s="68" t="s">
         <v>89</v>
@@ -16265,15 +16327,15 @@
       </c>
       <c r="C7" s="68" t="str">
         <f ca="1">"o-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"004"</f>
-        <v>o-PK-CUS-DC-CS2-01-2311004</v>
+        <v>o-PK-CUS-DC-CS2-03-2311004</v>
       </c>
       <c r="D7" s="68" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="E7" s="68" t="str">
         <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"004"</f>
-        <v>DC1-CS2-01-2311004</v>
+        <v>DC1-CS2-03-2311004</v>
       </c>
       <c r="F7" s="68" t="s">
         <v>292</v>
@@ -16310,7 +16372,7 @@
       </c>
       <c r="Q7" s="68" t="str">
         <f ca="1">"DC1-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>DC1-OP-CS2-01-2311-01</v>
+        <v>DC1-OP-CS2-03-2311-01</v>
       </c>
       <c r="R7" s="68" t="s">
         <v>334</v>
@@ -16326,7 +16388,7 @@
       </c>
       <c r="V7" s="68" t="str">
         <f ca="1">"DC1-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>DC1-IP-CS2-01-2311-01</v>
+        <v>DC1-IP-CS2-03-2311-01</v>
       </c>
       <c r="W7" s="68" t="s">
         <v>438</v>
@@ -16342,7 +16404,7 @@
       </c>
       <c r="AA7" s="68" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB101-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="AB7" s="68" t="s">
         <v>89</v>
@@ -16372,15 +16434,15 @@
       </c>
       <c r="C8" s="68" t="str">
         <f ca="1">"o-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"005"</f>
-        <v>o-PK-CUS-DC-CS2-01-2311005</v>
+        <v>o-PK-CUS-DC-CS2-03-2311005</v>
       </c>
       <c r="D8" s="68" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="E8" s="68" t="str">
         <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"005"</f>
-        <v>DC1-CS2-01-2311005</v>
+        <v>DC1-CS2-03-2311005</v>
       </c>
       <c r="F8" s="68" t="s">
         <v>294</v>
@@ -16417,7 +16479,7 @@
       </c>
       <c r="Q8" s="68" t="str">
         <f ca="1">"DC1-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>DC1-OP-CS2-01-2311-02</v>
+        <v>DC1-OP-CS2-03-2311-02</v>
       </c>
       <c r="R8" s="68" t="s">
         <v>335</v>
@@ -16433,7 +16495,7 @@
       </c>
       <c r="V8" s="68" t="str">
         <f ca="1">"DC1-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>DC1-IP-CS2-01-2311-02</v>
+        <v>DC1-IP-CS2-03-2311-02</v>
       </c>
       <c r="W8" s="68" t="s">
         <v>438</v>
@@ -16449,7 +16511,7 @@
       </c>
       <c r="AA8" s="68" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB101-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="AB8" s="68" t="s">
         <v>89</v>
@@ -16479,15 +16541,15 @@
       </c>
       <c r="C9" s="68" t="str">
         <f ca="1">"o-PK-CUS-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"006"</f>
-        <v>o-PK-CUS-DC-CS2-01-2311006</v>
+        <v>o-PK-CUS-DC-CS2-03-2311006</v>
       </c>
       <c r="D9" s="68" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="E9" s="68" t="str">
         <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"005"</f>
-        <v>DC1-CS2-01-2311005</v>
+        <v>DC1-CS2-03-2311005</v>
       </c>
       <c r="F9" s="68" t="s">
         <v>294</v>
@@ -16524,7 +16586,7 @@
       </c>
       <c r="Q9" s="68" t="str">
         <f ca="1">"DC1-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>DC1-OP-CS2-01-2311-02</v>
+        <v>DC1-OP-CS2-03-2311-02</v>
       </c>
       <c r="R9" s="68" t="s">
         <v>335</v>
@@ -16540,7 +16602,7 @@
       </c>
       <c r="V9" s="68" t="str">
         <f ca="1">"DC1-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>DC1-IP-CS2-01-2311-02</v>
+        <v>DC1-IP-CS2-03-2311-02</v>
       </c>
       <c r="W9" s="68" t="s">
         <v>438</v>
@@ -16556,7 +16618,7 @@
       </c>
       <c r="AA9" s="68" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB101-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="AB9" s="68" t="s">
         <v>89</v>
@@ -16608,55 +16670,55 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!C4</f>
-        <v>o-PK-CUS-DC-CS2-01-2311001</v>
+        <v>o-PK-CUS-DC-CS2-03-2311001</v>
       </c>
       <c r="B2" t="s">
-        <v>541</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!C5</f>
-        <v>o-PK-CUS-DC-CS2-01-2311002</v>
+        <v>o-PK-CUS-DC-CS2-03-2311002</v>
       </c>
       <c r="B3" t="s">
-        <v>542</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!C6</f>
-        <v>o-PK-CUS-DC-CS2-01-2311003</v>
+        <v>o-PK-CUS-DC-CS2-03-2311003</v>
       </c>
       <c r="B4" t="s">
-        <v>543</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!C7</f>
-        <v>o-PK-CUS-DC-CS2-01-2311004</v>
+        <v>o-PK-CUS-DC-CS2-03-2311004</v>
       </c>
       <c r="B5" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!C8</f>
-        <v>o-PK-CUS-DC-CS2-01-2311005</v>
+        <v>o-PK-CUS-DC-CS2-03-2311005</v>
       </c>
       <c r="B6" t="s">
-        <v>545</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!C9</f>
-        <v>o-PK-CUS-DC-CS2-01-2311006</v>
+        <v>o-PK-CUS-DC-CS2-03-2311006</v>
       </c>
       <c r="B7" t="s">
-        <v>546</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -16755,7 +16817,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB101-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -16821,7 +16883,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB101-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -16887,7 +16949,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB101-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -16953,7 +17015,7 @@
       </c>
       <c r="D5" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB101-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E5" t="s">
         <v>69</v>
@@ -17019,7 +17081,7 @@
       </c>
       <c r="D6" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB101-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E6" t="s">
         <v>69</v>
@@ -17085,7 +17147,7 @@
       </c>
       <c r="D7" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB101-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E7" t="s">
         <v>69</v>
@@ -17226,7 +17288,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cCB101-2311002</v>
+        <v>cCB103-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -17285,7 +17347,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cCB101-2311002</v>
+        <v>cCB103-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -17344,7 +17406,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cCB101-2311002</v>
+        <v>cCB103-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -17483,7 +17545,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E2" t="s">
         <v>93</v>
@@ -17546,7 +17608,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E3" t="s">
         <v>93</v>
@@ -17609,7 +17671,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E4" t="s">
         <v>79</v>
@@ -17672,7 +17734,7 @@
       </c>
       <c r="D5" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E5" t="s">
         <v>79</v>
@@ -17735,7 +17797,7 @@
       </c>
       <c r="D6" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E6" t="s">
         <v>93</v>
@@ -17798,7 +17860,7 @@
       </c>
       <c r="D7" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E7" t="s">
         <v>79</v>
@@ -17936,7 +17998,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB101-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>79</v>
@@ -17995,7 +18057,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB101-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>79</v>
@@ -18054,7 +18116,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB101-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>79</v>
@@ -18155,7 +18217,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!E2</f>
-        <v>DC1-CS2-01-2311001</v>
+        <v>DC1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>'TC204-DC1 Outbound Details'!M2</f>
@@ -18163,18 +18225,18 @@
       </c>
       <c r="C2" s="2" t="str">
         <f t="shared" ref="C2:C9" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>12 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="D2" s="2" t="str">
         <f t="shared" ref="D2:D9" ca="1" si="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>22 Nov 2023</v>
+        <v>23 Nov 2023</v>
       </c>
       <c r="E2" s="74" t="s">
         <v>451</v>
       </c>
       <c r="F2" s="2" t="str">
         <f t="shared" ref="F2:F9" ca="1" si="2">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>449</v>
@@ -18189,7 +18251,7 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!E3</f>
-        <v>DC1-CS2-01-2311001</v>
+        <v>DC1-CS2-03-2311001</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>'TC204-DC1 Outbound Details'!M3</f>
@@ -18197,18 +18259,18 @@
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>12 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>22 Nov 2023</v>
+        <v>23 Nov 2023</v>
       </c>
       <c r="E3" s="74" t="s">
         <v>451</v>
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>449</v>
@@ -18223,7 +18285,7 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!E4</f>
-        <v>DC1-CS2-01-2311001</v>
+        <v>DC1-CS2-03-2311001</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>'TC204-DC1 Outbound Details'!M4</f>
@@ -18231,18 +18293,18 @@
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>12 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>22 Nov 2023</v>
+        <v>23 Nov 2023</v>
       </c>
       <c r="E4" s="74" t="s">
         <v>451</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>449</v>
@@ -18261,18 +18323,18 @@
       </c>
       <c r="C5" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>12 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>22 Nov 2023</v>
+        <v>23 Nov 2023</v>
       </c>
       <c r="E5" s="74" t="s">
         <v>451</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>449</v>
@@ -18287,7 +18349,7 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!E6</f>
-        <v>DC1-CS2-01-2311003</v>
+        <v>DC1-CS2-03-2311003</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>'TC204-DC1 Outbound Details'!M6</f>
@@ -18295,18 +18357,18 @@
       </c>
       <c r="C6" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>12 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>22 Nov 2023</v>
+        <v>23 Nov 2023</v>
       </c>
       <c r="E6" s="74" t="s">
         <v>452</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>450</v>
@@ -18321,7 +18383,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!E7</f>
-        <v>DC1-CS2-01-2311004</v>
+        <v>DC1-CS2-03-2311004</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>'TC204-DC1 Outbound Details'!M7</f>
@@ -18329,18 +18391,18 @@
       </c>
       <c r="C7" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>12 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>22 Nov 2023</v>
+        <v>23 Nov 2023</v>
       </c>
       <c r="E7" s="74" t="s">
         <v>452</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>450</v>
@@ -18355,7 +18417,7 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!E8</f>
-        <v>DC1-CS2-01-2311005</v>
+        <v>DC1-CS2-03-2311005</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>'TC204-DC1 Outbound Details'!M8</f>
@@ -18363,18 +18425,18 @@
       </c>
       <c r="C8" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>12 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>22 Nov 2023</v>
+        <v>23 Nov 2023</v>
       </c>
       <c r="E8" s="74" t="s">
         <v>452</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>450</v>
@@ -18389,7 +18451,7 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!E9</f>
-        <v>DC1-CS2-01-2311005</v>
+        <v>DC1-CS2-03-2311005</v>
       </c>
       <c r="B9" s="2" t="str">
         <f>'TC204-DC1 Outbound Details'!M9</f>
@@ -18397,18 +18459,18 @@
       </c>
       <c r="C9" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>12 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>22 Nov 2023</v>
+        <v>23 Nov 2023</v>
       </c>
       <c r="E9" s="74" t="s">
         <v>452</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>450</v>
@@ -18481,7 +18543,7 @@
       </c>
       <c r="C2" s="16" t="str">
         <f>AutoIncrement!E4</f>
-        <v>MYPNA-PKTTAP-CB3-01</v>
+        <v>MYPNA-PKTTAP-CB3-03</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>146</v>
@@ -18511,7 +18573,7 @@
       </c>
       <c r="C3" s="16" t="str">
         <f>AutoIncrement!E4</f>
-        <v>MYPNA-PKTTAP-CB3-01</v>
+        <v>MYPNA-PKTTAP-CB3-03</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>146</v>
@@ -18541,7 +18603,7 @@
       </c>
       <c r="C4" s="16" t="str">
         <f>AutoIncrement!E4</f>
-        <v>MYPNA-PKTTAP-CB3-01</v>
+        <v>MYPNA-PKTTAP-CB3-03</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>149</v>
@@ -18701,7 +18763,7 @@
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="str">
         <f ca="1">'TC198-Customer Cargo Tracking'!A2</f>
-        <v>DC2-CS2-01-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC198-Customer Cargo Tracking'!B2</f>
@@ -18816,7 +18878,7 @@
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="str">
         <f ca="1">'TC198-Customer Cargo Tracking'!A3</f>
-        <v>DC2-CS2-01-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="B3" s="57" t="str">
         <f>'TC198-Customer Cargo Tracking'!B3</f>
@@ -18931,7 +18993,7 @@
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="57" t="str">
         <f ca="1">'TC198-Customer Cargo Tracking'!A4</f>
-        <v>DC2-CS2-01-2311001</v>
+        <v>DC2-CS2-03-2311001</v>
       </c>
       <c r="B4" s="57" t="str">
         <f>'TC198-Customer Cargo Tracking'!B4</f>
@@ -19165,7 +19227,7 @@
   <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -19258,7 +19320,7 @@
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="str">
         <f ca="1">'TC198-Customer Cargo Tracking'!A6</f>
-        <v>SP2-CS2-01-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC198-Customer Cargo Tracking'!B6</f>
@@ -19340,7 +19402,7 @@
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="str">
         <f ca="1">'TC198-Customer Cargo Tracking'!A7</f>
-        <v>SP2-CS2-01-2311001</v>
+        <v>SP2-CS2-03-2311001</v>
       </c>
       <c r="B3" s="57" t="str">
         <f>'TC198-Customer Cargo Tracking'!B7</f>
@@ -19508,7 +19570,7 @@
   <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -19611,7 +19673,7 @@
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!E2</f>
-        <v>DC1-CS2-01-2311001</v>
+        <v>DC1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>'TC204-DC1 Outbound Details'!M2</f>
@@ -19702,7 +19764,7 @@
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!E3</f>
-        <v>DC1-CS2-01-2311001</v>
+        <v>DC1-CS2-03-2311001</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>'TC204-DC1 Outbound Details'!M3</f>
@@ -19793,7 +19855,7 @@
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!E4</f>
-        <v>DC1-CS2-01-2311001</v>
+        <v>DC1-CS2-03-2311001</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>'TC204-DC1 Outbound Details'!M4</f>
@@ -19892,7 +19954,7 @@
   <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -19985,7 +20047,7 @@
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="str">
         <f ca="1">'TC128.1-Customer Cargo Tracking'!A2</f>
-        <v>SP1-CS2-01-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="57" t="str">
         <f>'TC128.1-Customer Cargo Tracking'!B2</f>
@@ -20067,7 +20129,7 @@
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="str">
         <f ca="1">'TC128.1-Customer Cargo Tracking'!A3</f>
-        <v>SP1-CS2-01-2311002</v>
+        <v>SP1-CS2-03-2311002</v>
       </c>
       <c r="B3" s="57" t="str">
         <f>'TC128.1-Customer Cargo Tracking'!B3</f>
@@ -20156,7 +20218,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -20216,7 +20278,7 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="str">
         <f ca="1">'TC128.2-Customer Cargo Tracking'!A2</f>
-        <v>SP1-CS2-01-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>'TC128.2-Customer Cargo Tracking'!B2</f>
@@ -20272,7 +20334,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -20332,7 +20394,7 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="str">
         <f ca="1">'TC128.3-Customer Cargo Tracking'!A2</f>
-        <v>SP1-CS2-01-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>'TC128.3-Customer Cargo Tracking'!B2</f>
@@ -20388,7 +20450,7 @@
   <dimension ref="A1:AK4"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:AK1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -20515,7 +20577,7 @@
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="str">
         <f ca="1">'TC128.4-Customer Cargo Tracking'!A2</f>
-        <v>DC3-CS2-01-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>'TC128.4-Customer Cargo Tracking'!B2</f>
@@ -20742,7 +20804,7 @@
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="57" t="str">
         <f ca="1">'TC128.4-Customer Cargo Tracking'!A4</f>
-        <v>DC3-CS2-01-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>'TC128.4-Customer Cargo Tracking'!B4</f>
@@ -20864,7 +20926,7 @@
   <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:AC2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -20967,7 +21029,7 @@
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!E6</f>
-        <v>DC1-CS2-01-2311003</v>
+        <v>DC1-CS2-03-2311003</v>
       </c>
       <c r="B2" s="2" t="str">
         <f>'TC204-DC1 Outbound Details'!M6</f>
@@ -21058,7 +21120,7 @@
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!E7</f>
-        <v>DC1-CS2-01-2311004</v>
+        <v>DC1-CS2-03-2311004</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>'TC204-DC1 Outbound Details'!M7</f>
@@ -21149,7 +21211,7 @@
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f ca="1">'TC204-DC1 Outbound Details'!E9</f>
-        <v>DC1-CS2-01-2311005</v>
+        <v>DC1-CS2-03-2311005</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>'TC204-DC1 Outbound Details'!M9</f>
@@ -21271,7 +21333,7 @@
         <v>o-PK-CUS-DC-231102001</v>
       </c>
       <c r="B2" t="s">
-        <v>547</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -21280,7 +21342,7 @@
         <v>o-PK-CUS-DC-231102002</v>
       </c>
       <c r="B3" t="s">
-        <v>548</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -21289,7 +21351,7 @@
         <v>o-PK-CUS-DC-231102003</v>
       </c>
       <c r="B4" t="s">
-        <v>549</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -21298,7 +21360,7 @@
         <v>o-PK-CUS-DC-231102004</v>
       </c>
       <c r="B5" t="s">
-        <v>550</v>
+        <v>521</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -21307,7 +21369,7 @@
         <v>o-PK-CUS-DC-231102005</v>
       </c>
       <c r="B6" t="s">
-        <v>551</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -21316,7 +21378,7 @@
         <v>o-PK-CUS-DC-231102006</v>
       </c>
       <c r="B7" t="s">
-        <v>552</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -21350,81 +21412,81 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">"i-PK-CUS-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-PK-CUS-POC-CS2-01-2311001</v>
+        <v>i-PK-CUS-POC-CS2-03-2311001</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">"i-PK-CUS-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-PK-CUS-POC-CS2-01-2311001</v>
+        <v>i-PK-CUS-POC-CS2-03-2311001</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B9" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f ca="1">"i-PK-CUS-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-PK-CUS-POC-CS2-01-2311001</v>
+        <v>i-PK-CUS-POC-CS2-03-2311001</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f ca="1">"i-PK-CUS-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-PK-CUS-POC-CS2-01-2311001</v>
+        <v>i-PK-CUS-POC-CS2-03-2311001</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f ca="1">"i-PK-CUS-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-PK-CUS-POC-CS2-01-2311001</v>
+        <v>i-PK-CUS-POC-CS2-03-2311001</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f ca="1">"i-PK-CUS-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-PK-CUS-POC-CS2-01-2311001</v>
+        <v>i-PK-CUS-POC-CS2-03-2311001</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f ca="1">"i-PK-CUS-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-PK-CUS-POC-CS2-01-2311001</v>
+        <v>i-PK-CUS-POC-CS2-03-2311001</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f ca="1">"i-PK-CUS-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"002"</f>
-        <v>i-PK-CUS-POC-CS2-01-2311002</v>
+        <v>i-PK-CUS-POC-CS2-03-2311002</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
     </row>
   </sheetData>
@@ -21526,26 +21588,26 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>485</v>
+        <v>534</v>
       </c>
       <c r="C2" t="str">
         <f>AutoIncrement!E4</f>
-        <v>MYPNA-PKTTAP-CB3-01</v>
+        <v>MYPNA-PKTTAP-CB3-03</v>
       </c>
       <c r="D2" t="s">
         <v>68</v>
       </c>
       <c r="E2" t="str">
         <f>AutoIncrement!E3</f>
-        <v>CB3-01</v>
+        <v>CB3-03</v>
       </c>
       <c r="F2" t="str">
         <f>"CD-"&amp;E2</f>
-        <v>CD-CB3-01</v>
+        <v>CD-CB3-03</v>
       </c>
       <c r="G2" t="str">
         <f>"Payment-"&amp;E2</f>
-        <v>Payment-CB3-01</v>
+        <v>Payment-CB3-03</v>
       </c>
       <c r="H2" t="str">
         <f>I2</f>
@@ -21565,7 +21627,7 @@
       </c>
       <c r="M2" t="str">
         <f>G2&amp;"(" &amp;H2&amp;")"</f>
-        <v>Payment-CB3-01(By Invoice Date)</v>
+        <v>Payment-CB3-03(By Invoice Date)</v>
       </c>
       <c r="N2" t="s">
         <v>147</v>
@@ -21594,11 +21656,11 @@
       </c>
       <c r="V2" t="str">
         <f>'TC2-BU1 to Customer Contract'!X2</f>
-        <v>CR-PK-CUS-POC-2311001</v>
+        <v>CR-PK-CUS-POC-2311005</v>
       </c>
       <c r="W2" t="str">
         <f>"SP1toBU3-"&amp;E2</f>
-        <v>SP1toBU3-CB3-01</v>
+        <v>SP1toBU3-CB3-03</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -21617,7 +21679,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21702,7 +21764,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB101-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -21768,7 +21830,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB101-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -21834,7 +21896,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB101-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -21900,7 +21962,7 @@
       </c>
       <c r="D5" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB101-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E5" t="s">
         <v>69</v>
@@ -21966,7 +22028,7 @@
       </c>
       <c r="D6" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB101-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E6" t="s">
         <v>69</v>
@@ -22032,7 +22094,7 @@
       </c>
       <c r="D7" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB101-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E7" t="s">
         <v>69</v>
@@ -22094,7 +22156,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N4"/>
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22172,7 +22234,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cCB101-2311002</v>
+        <v>cCB103-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -22231,7 +22293,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cCB101-2311002</v>
+        <v>cCB103-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -22290,7 +22352,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cCB101-2311002</v>
+        <v>cCB103-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -22346,7 +22408,7 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22428,7 +22490,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E2" t="s">
         <v>93</v>
@@ -22491,7 +22553,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E3" t="s">
         <v>93</v>
@@ -22554,7 +22616,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E4" t="s">
         <v>79</v>
@@ -22617,7 +22679,7 @@
       </c>
       <c r="D5" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E5" t="s">
         <v>79</v>
@@ -22680,7 +22742,7 @@
       </c>
       <c r="D6" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E6" t="s">
         <v>93</v>
@@ -22743,7 +22805,7 @@
       </c>
       <c r="D7" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E7" t="s">
         <v>79</v>
@@ -22880,7 +22942,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB101-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>79</v>
@@ -22939,7 +23001,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB101-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>79</v>
@@ -22998,7 +23060,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB101-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>79</v>
@@ -23053,7 +23115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9317C4-7C2E-4BEE-9661-7612742DB070}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -23077,7 +23139,7 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">'TC207-BU1 Revise Shipment'!A2</f>
-        <v>DC1-CS2-01-2311001</v>
+        <v>DC1-CS2-03-2311001</v>
       </c>
       <c r="B2" t="str">
         <f>'TC207-BU1 Revise Shipment'!B2</f>
@@ -23090,7 +23152,7 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">'TC207-BU1 Revise Shipment'!A3</f>
-        <v>DC1-CS2-01-2311001</v>
+        <v>DC1-CS2-03-2311001</v>
       </c>
       <c r="B3" t="str">
         <f>'TC207-BU1 Revise Shipment'!B3</f>
@@ -23103,7 +23165,7 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f ca="1">'TC207-BU1 Revise Shipment'!A4</f>
-        <v>DC1-CS2-01-2311001</v>
+        <v>DC1-CS2-03-2311001</v>
       </c>
       <c r="B4" t="str">
         <f>'TC207-BU1 Revise Shipment'!B4</f>
@@ -23125,7 +23187,7 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f ca="1">'TC207-BU1 Revise Shipment'!A6</f>
-        <v>DC1-CS2-01-2311003</v>
+        <v>DC1-CS2-03-2311003</v>
       </c>
       <c r="B6" t="str">
         <f>'TC207-BU1 Revise Shipment'!B6</f>
@@ -23138,7 +23200,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f ca="1">'TC207-BU1 Revise Shipment'!A7</f>
-        <v>DC1-CS2-01-2311004</v>
+        <v>DC1-CS2-03-2311004</v>
       </c>
       <c r="B7" t="str">
         <f>'TC207-BU1 Revise Shipment'!B7</f>
@@ -23151,7 +23213,7 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f ca="1">'TC207-BU1 Revise Shipment'!A8</f>
-        <v>DC1-CS2-01-2311005</v>
+        <v>DC1-CS2-03-2311005</v>
       </c>
       <c r="B8" t="str">
         <f>'TC207-BU1 Revise Shipment'!B8</f>
@@ -23164,7 +23226,7 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f ca="1">'TC207-BU1 Revise Shipment'!A9</f>
-        <v>DC1-CS2-01-2311005</v>
+        <v>DC1-CS2-03-2311005</v>
       </c>
       <c r="B9" t="str">
         <f>'TC207-BU1 Revise Shipment'!B9</f>
@@ -23172,6 +23234,1703 @@
       </c>
       <c r="C9" t="s">
         <v>364</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet165.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B2BC36-E44E-4F3F-A971-A7F72D85307B}">
+  <dimension ref="A1:AK5"/>
+  <sheetViews>
+    <sheetView topLeftCell="X1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="33" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="34" max="37" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="38" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>357</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>423</v>
+      </c>
+      <c r="P1" s="58" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q1" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="R1" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="S1" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="T1" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="U1" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="V1" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="W1" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="X1" s="59" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y1" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="Z1" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="AA1" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB1" s="58" t="s">
+        <v>425</v>
+      </c>
+      <c r="AC1" s="58" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD1" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="AE1" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="AF1" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="AG1" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="AH1" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="AI1" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="AJ1" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK1" s="58" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A2" s="57" t="str">
+        <f ca="1">'TC198-Customer Cargo Tracking'!A2</f>
+        <v>DC2-CS2-03-2311001</v>
+      </c>
+      <c r="B2" s="57" t="str">
+        <f>'TC198-Customer Cargo Tracking'!B2</f>
+        <v>CAJU9500009</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="N2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="P2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="R2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="S2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="T2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="U2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="V2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="W2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="X2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AD2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AE2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AF2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AG2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AH2" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="AI2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AJ2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AK2" s="58" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A3" s="57" t="str">
+        <f ca="1">'TC198-Customer Cargo Tracking'!A3</f>
+        <v>DC2-CS2-03-2311001</v>
+      </c>
+      <c r="B3" s="57" t="str">
+        <f>'TC198-Customer Cargo Tracking'!B3</f>
+        <v>ONEU1162511</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="P3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="R3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="S3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="T3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="U3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="V3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="W3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="X3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AD3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AE3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AF3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AG3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AH3" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="AI3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AJ3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AK3" s="58" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A4" s="57" t="str">
+        <f ca="1">'TC198-Customer Cargo Tracking'!A4</f>
+        <v>DC2-CS2-03-2311001</v>
+      </c>
+      <c r="B4" s="57" t="str">
+        <f>'TC198-Customer Cargo Tracking'!B4</f>
+        <v>CNTW-SUP-C-230704001</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="O4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="P4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="R4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="S4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="T4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="U4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="V4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="W4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="X4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AD4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AE4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AF4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AG4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AH4" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="AI4" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AJ4" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AK4" s="58" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A5" s="57"/>
+      <c r="B5" s="57" t="str">
+        <f>'TC198-Customer Cargo Tracking'!B5</f>
+        <v>ONEU1162511</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="J5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="K5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="L5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="M5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="N5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="O5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="P5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="R5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="S5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="T5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="U5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="V5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="W5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="X5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AD5" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="AE5" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AF5" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AG5" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AH5" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AI5" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AJ5" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AK5" s="58" t="s">
+        <v>367</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet166.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D860B1B-3326-4B42-BE02-3B7CE17C4D4B}">
+  <dimension ref="A1:Z4"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="26" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="27" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>357</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>423</v>
+      </c>
+      <c r="P1" s="58" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q1" s="58" t="s">
+        <v>425</v>
+      </c>
+      <c r="R1" s="58" t="s">
+        <v>426</v>
+      </c>
+      <c r="S1" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="T1" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="U1" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="V1" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="W1" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="X1" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y1" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z1" s="58" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="57" t="str">
+        <f ca="1">'TC198-Customer Cargo Tracking'!A6</f>
+        <v>SP2-CS2-03-2311001</v>
+      </c>
+      <c r="B2" s="57" t="str">
+        <f>'TC198-Customer Cargo Tracking'!B6</f>
+        <v>CAIU9500009</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>409</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="N2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="P2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="R2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="S2" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="T2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="U2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="V2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="W2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="X2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z2" s="58" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="57" t="str">
+        <f ca="1">'TC198-Customer Cargo Tracking'!A7</f>
+        <v>SP2-CS2-03-2311001</v>
+      </c>
+      <c r="B3" s="57" t="str">
+        <f>'TC198-Customer Cargo Tracking'!B7</f>
+        <v>ONEU1162511</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="P3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="R3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="S3" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="T3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="U3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="V3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="W3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="X3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z3" s="58" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="57"/>
+      <c r="B4" s="57" t="str">
+        <f>'TC198-Customer Cargo Tracking'!B8</f>
+        <v>CNTW-SUP-C-230704001</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="O4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="P4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="R4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="S4" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="T4" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="U4" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="V4" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="W4" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="X4" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y4" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z4" s="58" t="s">
+        <v>367</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet167.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EF83E1-3CCF-480F-80ED-3795D4A3DF51}">
+  <dimension ref="A1:AC4"/>
+  <sheetViews>
+    <sheetView topLeftCell="Q1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:AC4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="26" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="27" max="29" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="30" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>357</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="P1" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q1" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="R1" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="S1" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="T1" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="U1" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="V1" s="59" t="s">
+        <v>357</v>
+      </c>
+      <c r="W1" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="X1" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y1" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z1" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA1" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB1" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="AC1" s="58" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="str">
+        <f ca="1">'TC204-DC1 Outbound Details'!E2</f>
+        <v>DC1-CS2-03-2311001</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>'TC204-DC1 Outbound Details'!M2</f>
+        <v>CAJU9500009</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="N2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="P2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="R2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="S2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="T2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="U2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="V2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="W2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="X2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC2" s="58" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="str">
+        <f ca="1">'TC204-DC1 Outbound Details'!E3</f>
+        <v>DC1-CS2-03-2311001</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>'TC204-DC1 Outbound Details'!M3</f>
+        <v>ONEU1162511</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="P3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="R3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="S3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="T3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="U3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="V3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="W3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="X3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC3" s="58" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="str">
+        <f ca="1">'TC204-DC1 Outbound Details'!E4</f>
+        <v>DC1-CS2-03-2311001</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>'TC204-DC1 Outbound Details'!M4</f>
+        <v>CNTW-SUP-C-230704001</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="O4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="P4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="R4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="S4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="T4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="U4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="V4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="W4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="X4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC4" s="58" t="s">
+        <v>404</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet168.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FF8347-D93B-4100-BBEB-3A28A8E18848}">
+  <dimension ref="A1:Z3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="26" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="27" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>357</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="P1" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q1" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="R1" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="S1" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="T1" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="U1" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="V1" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="W1" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="X1" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y1" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z1" s="58" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="57" t="str">
+        <f ca="1">'TC128.1-Customer Cargo Tracking'!A2</f>
+        <v>SP1-CS2-03-2311001</v>
+      </c>
+      <c r="B2" s="57" t="str">
+        <f>'TC128.1-Customer Cargo Tracking'!B2</f>
+        <v>MY-ELA-C-230704001</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="N2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="P2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="R2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="S2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="T2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="U2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="V2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="W2" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="X2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z2" s="58" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="57" t="str">
+        <f ca="1">'TC128.1-Customer Cargo Tracking'!A3</f>
+        <v>SP1-CS2-03-2311002</v>
+      </c>
+      <c r="B3" s="57" t="str">
+        <f>'TC128.1-Customer Cargo Tracking'!B3</f>
+        <v>MY-ELA-C-230704001</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="P3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="R3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="S3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="T3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="U3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="V3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="W3" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="X3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z3" s="58" t="s">
+        <v>367</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet169.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8D511E-76CE-4451-A0DD-98C215F3F9FD}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="15" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>412</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>408</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>413</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>414</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>410</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>415</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>416</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>417</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>418</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>419</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>420</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="57" t="str">
+        <f ca="1">'TC128.2-Customer Cargo Tracking'!A2</f>
+        <v>SP1-CS2-03-2311001</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>'TC128.2-Customer Cargo Tracking'!B2</f>
+        <v>CAIU9500009</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>409</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="N2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -23341,6 +25100,981 @@
       </c>
       <c r="Z2" s="4" t="s">
         <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet170.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2866CF-3C09-4D65-8151-3472847B3247}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="15" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>422</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>408</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>413</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>414</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>410</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>415</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>416</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>417</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>418</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>419</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>420</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="57" t="str">
+        <f ca="1">'TC128.3-Customer Cargo Tracking'!A2</f>
+        <v>SP1-CS2-03-2311001</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>'TC128.3-Customer Cargo Tracking'!B2</f>
+        <v>TCLU4249350</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>409</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="N2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>367</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet171.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142E7625-BE56-48E0-BCCC-266FE00B4859}">
+  <dimension ref="A1:AK4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="26" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="27" max="37" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="38" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>357</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>423</v>
+      </c>
+      <c r="P1" s="58" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q1" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="R1" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="S1" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="T1" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="U1" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="V1" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="W1" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="X1" s="58" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y1" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="Z1" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="AA1" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB1" s="58" t="s">
+        <v>425</v>
+      </c>
+      <c r="AC1" s="58" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD1" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="AE1" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="AF1" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="AG1" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A2" s="57" t="str">
+        <f ca="1">'TC128.4-Customer Cargo Tracking'!A2</f>
+        <v>DC3-CS2-03-2311001</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>'TC128.4-Customer Cargo Tracking'!B2</f>
+        <v>CAIU9492794</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="N2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="P2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="R2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="S2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="T2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="U2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="V2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="W2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="X2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AD2" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="AE2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AF2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AG2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AH2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AI2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AJ2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AK2" s="58" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A3" s="57"/>
+      <c r="B3" s="2" t="str">
+        <f>'TC128.4-Customer Cargo Tracking'!B3</f>
+        <v>CAIU9492794</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="P3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="R3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="S3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="T3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="U3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="V3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="W3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="X3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AC3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AD3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AF3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AG3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AH3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AI3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AJ3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AK3" s="58" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A4" s="57" t="str">
+        <f ca="1">'TC128.4-Customer Cargo Tracking'!A4</f>
+        <v>DC3-CS2-03-2311001</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>'TC128.4-Customer Cargo Tracking'!B4</f>
+        <v>CAIU9500009</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>409</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="O4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="P4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="R4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="S4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="T4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="U4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="V4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="W4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="X4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AD4" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="AE4" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AF4" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AG4" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AH4" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AI4" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AJ4" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="AK4" s="58" t="s">
+        <v>367</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet172.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77ECB8B1-FE46-4AF9-9821-F7993699ABC7}">
+  <dimension ref="A1:AC4"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="24" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="25" max="29" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="30" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>357</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="P1" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q1" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="R1" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="S1" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="T1" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="U1" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="V1" s="58" t="s">
+        <v>357</v>
+      </c>
+      <c r="W1" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="X1" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y1" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z1" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA1" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB1" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="AC1" s="58" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="str">
+        <f ca="1">'TC204-DC1 Outbound Details'!E6</f>
+        <v>DC1-CS2-03-2311003</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>'TC204-DC1 Outbound Details'!M6</f>
+        <v>CAIU9492794</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="N2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="P2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="R2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="S2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="T2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="U2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="V2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="W2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="X2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC2" s="58" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="str">
+        <f ca="1">'TC204-DC1 Outbound Details'!E7</f>
+        <v>DC1-CS2-03-2311004</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>'TC204-DC1 Outbound Details'!M7</f>
+        <v>CAIU9500009</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>409</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="P3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="R3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="S3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="T3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="U3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="V3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="W3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="X3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC3" s="58" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="str">
+        <f ca="1">'TC204-DC1 Outbound Details'!E9</f>
+        <v>DC1-CS2-03-2311005</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>'TC204-DC1 Outbound Details'!M9</f>
+        <v>CAIU9492794</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="O4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="P4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="R4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="S4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="T4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="U4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="V4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="W4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="X4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC4" s="58" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -23397,7 +26131,7 @@
       </c>
       <c r="C2" s="16" t="str">
         <f>AutoIncrement!G4</f>
-        <v>MYELASUP-MYPNA-CS1-01</v>
+        <v>MYELASUP-MYPNA-CS1-03</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>21</v>
@@ -23421,7 +26155,7 @@
       </c>
       <c r="C3" s="16" t="str">
         <f>AutoIncrement!G4</f>
-        <v>MYELASUP-MYPNA-CS1-01</v>
+        <v>MYELASUP-MYPNA-CS1-03</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>21</v>
@@ -23445,7 +26179,7 @@
       </c>
       <c r="C4" s="16" t="str">
         <f>AutoIncrement!G4</f>
-        <v>MYELASUP-MYPNA-CS1-01</v>
+        <v>MYELASUP-MYPNA-CS1-03</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>21</v>
@@ -23568,7 +26302,7 @@
       </c>
       <c r="C2" t="str">
         <f>AutoIncrement!G4</f>
-        <v>MYELASUP-MYPNA-CS1-01</v>
+        <v>MYELASUP-MYPNA-CS1-03</v>
       </c>
       <c r="D2" t="s">
         <v>64</v>
@@ -23584,15 +26318,15 @@
       </c>
       <c r="H2" t="str">
         <f>AutoIncrement!G3</f>
-        <v>CS1-01</v>
+        <v>CS1-03</v>
       </c>
       <c r="I2" t="str">
         <f>"CD-"&amp;H2</f>
-        <v>CD-CS1-01</v>
+        <v>CD-CS1-03</v>
       </c>
       <c r="J2" t="str">
         <f>"Payment-"&amp;H2</f>
-        <v>Payment-CS1-01</v>
+        <v>Payment-CS1-03</v>
       </c>
       <c r="K2" t="str">
         <f>L2</f>
@@ -23612,7 +26346,7 @@
       </c>
       <c r="P2" t="str">
         <f>J2&amp;"(" &amp;K2&amp;")"</f>
-        <v>Payment-CS1-01(By Free)</v>
+        <v>Payment-CS1-03(By Free)</v>
       </c>
       <c r="Q2" t="s">
         <v>183</v>
@@ -23632,7 +26366,7 @@
       </c>
       <c r="V2" t="str">
         <f>'TC2-BU1 to Customer Contract'!X2</f>
-        <v>CR-PK-CUS-POC-2311001</v>
+        <v>CR-PK-CUS-POC-2311005</v>
       </c>
     </row>
   </sheetData>
@@ -24054,7 +26788,7 @@
       </c>
       <c r="C2" s="46" t="str">
         <f>AutoIncrement!F5</f>
-        <v>CSS-CS2-01</v>
+        <v>CSS-CS2-03</v>
       </c>
       <c r="D2" s="46" t="s">
         <v>69</v>
@@ -24064,7 +26798,7 @@
       </c>
       <c r="F2" s="46" t="str">
         <f>AutoIncrement!F4</f>
-        <v>CNTWSUP-SGTTAP-CS2-01</v>
+        <v>CNTWSUP-SGTTAP-CS2-03</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -24076,7 +26810,7 @@
       </c>
       <c r="C3" s="46" t="str">
         <f>AutoIncrement!F5</f>
-        <v>CSS-CS2-01</v>
+        <v>CSS-CS2-03</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>69</v>
@@ -24086,7 +26820,7 @@
       </c>
       <c r="F3" s="46" t="str">
         <f>AutoIncrement!F4</f>
-        <v>CNTWSUP-SGTTAP-CS2-01</v>
+        <v>CNTWSUP-SGTTAP-CS2-03</v>
       </c>
     </row>
   </sheetData>
@@ -24137,7 +26871,7 @@
       </c>
       <c r="C2" s="46" t="str">
         <f>AutoIncrement!D5</f>
-        <v>CSS-CB2-01</v>
+        <v>CSS-CB2-03</v>
       </c>
       <c r="D2" s="46" t="s">
         <v>69</v>
@@ -24147,7 +26881,7 @@
       </c>
       <c r="F2" s="46" t="str">
         <f>AutoIncrement!D4</f>
-        <v>SGTTAP-PKTTAP-CB2-01</v>
+        <v>SGTTAP-PKTTAP-CB2-03</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -24159,7 +26893,7 @@
       </c>
       <c r="C3" s="46" t="str">
         <f>AutoIncrement!D5</f>
-        <v>CSS-CB2-01</v>
+        <v>CSS-CB2-03</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>69</v>
@@ -24169,7 +26903,7 @@
       </c>
       <c r="F3" s="46" t="str">
         <f>AutoIncrement!D4</f>
-        <v>SGTTAP-PKTTAP-CB2-01</v>
+        <v>SGTTAP-PKTTAP-CB2-03</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -24181,7 +26915,7 @@
       </c>
       <c r="C4" s="46" t="str">
         <f>AutoIncrement!D5</f>
-        <v>CSS-CB2-01</v>
+        <v>CSS-CB2-03</v>
       </c>
       <c r="D4" s="46" t="s">
         <v>69</v>
@@ -24191,7 +26925,7 @@
       </c>
       <c r="F4" s="2" t="str">
         <f>AutoIncrement!F4</f>
-        <v>CNTWSUP-SGTTAP-CS2-01</v>
+        <v>CNTWSUP-SGTTAP-CS2-03</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -24203,7 +26937,7 @@
       </c>
       <c r="C5" s="46" t="str">
         <f>AutoIncrement!D5</f>
-        <v>CSS-CB2-01</v>
+        <v>CSS-CB2-03</v>
       </c>
       <c r="D5" s="46" t="s">
         <v>69</v>
@@ -24213,7 +26947,7 @@
       </c>
       <c r="F5" s="2" t="str">
         <f>AutoIncrement!F4</f>
-        <v>CNTWSUP-SGTTAP-CS2-01</v>
+        <v>CNTWSUP-SGTTAP-CS2-03</v>
       </c>
     </row>
   </sheetData>
@@ -24264,7 +26998,7 @@
       </c>
       <c r="C2" s="46" t="str">
         <f>AutoIncrement!D5</f>
-        <v>CSS-CB2-01</v>
+        <v>CSS-CB2-03</v>
       </c>
       <c r="D2" s="46" t="s">
         <v>69</v>
@@ -24274,7 +27008,7 @@
       </c>
       <c r="F2" s="46" t="str">
         <f>AutoIncrement!G4</f>
-        <v>MYELASUP-MYPNA-CS1-01</v>
+        <v>MYELASUP-MYPNA-CS1-03</v>
       </c>
     </row>
   </sheetData>
@@ -24325,7 +27059,7 @@
       </c>
       <c r="C2" s="46" t="str">
         <f>AutoIncrement!E5</f>
-        <v>CSS-CB3-01</v>
+        <v>CSS-CB3-03</v>
       </c>
       <c r="D2" s="46" t="s">
         <v>69</v>
@@ -24335,7 +27069,7 @@
       </c>
       <c r="F2" s="46" t="str">
         <f>AutoIncrement!E4</f>
-        <v>MYPNA-PKTTAP-CB3-01</v>
+        <v>MYPNA-PKTTAP-CB3-03</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -24347,7 +27081,7 @@
       </c>
       <c r="C3" s="46" t="str">
         <f>AutoIncrement!E5</f>
-        <v>CSS-CB3-01</v>
+        <v>CSS-CB3-03</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>69</v>
@@ -24357,7 +27091,7 @@
       </c>
       <c r="F3" s="46" t="str">
         <f>AutoIncrement!E4</f>
-        <v>MYPNA-PKTTAP-CB3-01</v>
+        <v>MYPNA-PKTTAP-CB3-03</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -24369,7 +27103,7 @@
       </c>
       <c r="C4" s="46" t="str">
         <f>AutoIncrement!E5</f>
-        <v>CSS-CB3-01</v>
+        <v>CSS-CB3-03</v>
       </c>
       <c r="D4" s="46" t="s">
         <v>69</v>
@@ -24379,7 +27113,7 @@
       </c>
       <c r="F4" s="2" t="str">
         <f>AutoIncrement!G4</f>
-        <v>MYELASUP-MYPNA-CS1-01</v>
+        <v>MYELASUP-MYPNA-CS1-03</v>
       </c>
     </row>
   </sheetData>
@@ -24430,7 +27164,7 @@
       </c>
       <c r="C2" s="46" t="str">
         <f>AutoIncrement!C5</f>
-        <v>CSS-CB1-01</v>
+        <v>CSS-CB1-03</v>
       </c>
       <c r="D2" s="46" t="s">
         <v>69</v>
@@ -24440,7 +27174,7 @@
       </c>
       <c r="F2" s="46" t="str">
         <f>AutoIncrement!C4</f>
-        <v>PKTTAP-PKCUS-CB1-01</v>
+        <v>PKTTAP-PKCUS-CB1-03</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -24452,7 +27186,7 @@
       </c>
       <c r="C3" s="46" t="str">
         <f>AutoIncrement!C5</f>
-        <v>CSS-CB1-01</v>
+        <v>CSS-CB1-03</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>69</v>
@@ -24462,7 +27196,7 @@
       </c>
       <c r="F3" s="46" t="str">
         <f>AutoIncrement!D4</f>
-        <v>SGTTAP-PKTTAP-CB2-01</v>
+        <v>SGTTAP-PKTTAP-CB2-03</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -24474,7 +27208,7 @@
       </c>
       <c r="C4" s="46" t="str">
         <f>AutoIncrement!C5</f>
-        <v>CSS-CB1-01</v>
+        <v>CSS-CB1-03</v>
       </c>
       <c r="D4" s="46" t="s">
         <v>69</v>
@@ -24484,7 +27218,7 @@
       </c>
       <c r="F4" s="2" t="str">
         <f>AutoIncrement!E4</f>
-        <v>MYPNA-PKTTAP-CB3-01</v>
+        <v>MYPNA-PKTTAP-CB3-03</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -24496,7 +27230,7 @@
       </c>
       <c r="C5" s="2" t="str">
         <f>AutoIncrement!C5</f>
-        <v>CSS-CB1-01</v>
+        <v>CSS-CB1-03</v>
       </c>
       <c r="D5" s="46" t="s">
         <v>69</v>
@@ -24506,7 +27240,7 @@
       </c>
       <c r="F5" s="2" t="str">
         <f>AutoIncrement!D4</f>
-        <v>SGTTAP-PKTTAP-CB2-01</v>
+        <v>SGTTAP-PKTTAP-CB2-03</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -24518,7 +27252,7 @@
       </c>
       <c r="C6" s="2" t="str">
         <f>AutoIncrement!C5</f>
-        <v>CSS-CB1-01</v>
+        <v>CSS-CB1-03</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>69</v>
@@ -24528,7 +27262,7 @@
       </c>
       <c r="F6" s="2" t="str">
         <f>AutoIncrement!E4</f>
-        <v>MYPNA-PKTTAP-CB3-01</v>
+        <v>MYPNA-PKTTAP-CB3-03</v>
       </c>
     </row>
   </sheetData>
@@ -24579,11 +27313,11 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="str">
         <f>AutoIncrement!C4</f>
-        <v>PKTTAP-PKCUS-CB1-01</v>
+        <v>PKTTAP-PKCUS-CB1-03</v>
       </c>
       <c r="B2" s="44" t="str">
         <f>'TC2-BU1 to Customer Contract'!X2</f>
-        <v>CR-PK-CUS-POC-2311001</v>
+        <v>CR-PK-CUS-POC-2311005</v>
       </c>
       <c r="C2" s="45" t="s">
         <v>289</v>
@@ -24680,7 +27414,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24695,8 +27429,8 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())+21), "dd MMM yyyy")</f>
-        <v>23 Dec 2023</v>
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+15), "dd MMM yyyy")</f>
+        <v>18 Nov 2023</v>
       </c>
     </row>
   </sheetData>
@@ -24725,7 +27459,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>487</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -24868,11 +27602,11 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="str">
         <f ca="1">'TC15-Inbound Date'!A2</f>
-        <v>23 Dec 2023</v>
+        <v>18 Nov 2023</v>
       </c>
       <c r="B2" s="49" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())+1), "dd MMM yyyy")</f>
-        <v>03 Jan 2024</v>
+        <v>04 Jan 2024</v>
       </c>
     </row>
   </sheetData>
@@ -24904,7 +27638,7 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f>AutoIncrement!C3&amp;"-Request Parts"</f>
-        <v>CB1-01-Request Parts</v>
+        <v>CB1-03-Request Parts</v>
       </c>
     </row>
   </sheetData>
@@ -24940,7 +27674,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">"rc"&amp;AutoIncrement!B2&amp;"B1"&amp;AutoIncrement!A2&amp;"-"&amp;B1&amp;"001"&amp;"-01"</f>
-        <v>rcCB101-2311001-01</v>
+        <v>rcCB103-2311001-01</v>
       </c>
     </row>
   </sheetData>
@@ -24967,7 +27701,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -24997,7 +27731,7 @@
         <v>235</v>
       </c>
       <c r="L1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M1" t="s">
         <v>229</v>
@@ -25006,13 +27740,13 @@
         <v>237</v>
       </c>
       <c r="O1" t="s">
+        <v>455</v>
+      </c>
+      <c r="P1" t="s">
         <v>456</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>457</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -25103,33 +27837,33 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>488</v>
+        <v>537</v>
       </c>
       <c r="B2" t="s">
-        <v>489</v>
+        <v>538</v>
       </c>
       <c r="C2" t="s">
-        <v>498</v>
+        <v>540</v>
       </c>
       <c r="D2" t="s">
-        <v>491</v>
+        <v>541</v>
       </c>
       <c r="E2" t="s">
-        <v>492</v>
+        <v>542</v>
       </c>
       <c r="F2" t="s">
-        <v>493</v>
+        <v>543</v>
       </c>
       <c r="G2" t="s">
-        <v>494</v>
+        <v>544</v>
       </c>
       <c r="H2" t="s">
-        <v>495</v>
+        <v>545</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>490</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -25187,41 +27921,41 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">"s"&amp;AutoIncrement!B2&amp;"B1"&amp;AutoIncrement!A2&amp;"-"&amp;I1&amp;"001"</f>
-        <v>sCB101-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">"p"&amp;AutoIncrement!B2&amp;"B2"&amp;AutoIncrement!A2&amp;"-"&amp;I1&amp;"001"</f>
-        <v>pCB201-2311001</v>
+        <v>pCB203-2311001</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">"s"&amp;AutoIncrement!B2&amp;"B2"&amp;AutoIncrement!A2&amp;"-"&amp;I1&amp;"001"</f>
-        <v>sCB201-2311001</v>
+        <v>sCB203-2311001</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">"p"&amp;AutoIncrement!B2&amp;"S2"&amp;AutoIncrement!A2&amp;"-"&amp;I1&amp;"001"</f>
-        <v>pCS201-2311001</v>
+        <v>pCS203-2311001</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">"s"&amp;AutoIncrement!B2&amp;"B3"&amp;AutoIncrement!A2&amp;"-"&amp;I1&amp;"001"</f>
-        <v>sCB301-2311001</v>
+        <v>sCB303-2311001</v>
       </c>
       <c r="F2" t="str">
         <f ca="1">"p"&amp;AutoIncrement!B2&amp;"S1"&amp;AutoIncrement!A2&amp;"-"&amp;I1&amp;"001"</f>
-        <v>pCS101-2311001</v>
+        <v>pCS103-2311001</v>
       </c>
       <c r="G2" t="str">
         <f ca="1">"s"&amp;AutoIncrement!B2&amp;"S1"&amp;AutoIncrement!A2&amp;"-"&amp;I1&amp;"001"</f>
-        <v>sCS101-2311001</v>
+        <v>sCS103-2311001</v>
       </c>
       <c r="H2" t="str">
         <f ca="1">"s"&amp;AutoIncrement!B2&amp;"S2"&amp;AutoIncrement!A2&amp;"-"&amp;I1&amp;"001"</f>
-        <v>sCS201-2311001</v>
+        <v>sCS203-2311001</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="str">
         <f ca="1">"p"&amp;AutoIncrement!B2&amp;"B3"&amp;AutoIncrement!A2&amp;"-"&amp;I1&amp;"001"</f>
-        <v>pCB301-2311001</v>
+        <v>pCB303-2311001</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -25280,13 +28014,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="77" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C1" s="77" t="s">
         <v>114</v>
       </c>
       <c r="D1" s="77" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E1" s="77" t="s">
         <v>253</v>
@@ -25298,13 +28032,13 @@
         <v>40</v>
       </c>
       <c r="H1" s="77" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I1" s="77" t="s">
         <v>318</v>
       </c>
       <c r="J1" s="78" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -25313,14 +28047,14 @@
       </c>
       <c r="B2" s="80" t="str">
         <f>'TC20-Autogen SOPO'!B2</f>
-        <v>pCB201-2311001</v>
+        <v>pCB203-2311001</v>
       </c>
       <c r="C2" t="str">
         <f>'TC3-BU2 to BU1 Contract'!C2</f>
-        <v>SGTTAP-PKTTAP-CB2-01</v>
+        <v>SGTTAP-PKTTAP-CB2-03</v>
       </c>
       <c r="D2" s="80" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E2" s="80" t="s">
         <v>262</v>
@@ -25339,7 +28073,7 @@
       </c>
       <c r="J2" s="81" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "MMM d, yyyy")</f>
-        <v>Nov 2, 2023</v>
+        <v>Nov 3, 2023</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -25348,14 +28082,14 @@
       </c>
       <c r="B3" s="80" t="str">
         <f>'TC20-Autogen SOPO'!B3</f>
-        <v>pCB301-2311001</v>
+        <v>pCB303-2311001</v>
       </c>
       <c r="C3" t="str">
         <f>'TC6-BU3 to BU1 Contract'!C2</f>
-        <v>MYPNA-PKTTAP-CB3-01</v>
+        <v>MYPNA-PKTTAP-CB3-03</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E3" s="80" t="s">
         <v>262</v>
@@ -25374,7 +28108,7 @@
       </c>
       <c r="J3" s="81" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "MMM d, yyyy")</f>
-        <v>Nov 2, 2023</v>
+        <v>Nov 3, 2023</v>
       </c>
     </row>
   </sheetData>
@@ -25402,7 +28136,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="83" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C1" s="78" t="s">
         <v>114</v>
@@ -25414,11 +28148,11 @@
       </c>
       <c r="B2" s="84" t="str">
         <f>'TC20-Autogen SOPO'!D2</f>
-        <v>pCS201-2311001</v>
+        <v>pCS203-2311001</v>
       </c>
       <c r="C2" s="85" t="str">
         <f>'TC4-Sup2 to BU2 Contract'!C2</f>
-        <v>CNTWSUP-SGTTAP-CS2-01</v>
+        <v>CNTWSUP-SGTTAP-CS2-03</v>
       </c>
     </row>
   </sheetData>
@@ -25448,7 +28182,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="77" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C1" s="78" t="s">
         <v>114</v>
@@ -25460,11 +28194,11 @@
       </c>
       <c r="B2" s="80" t="str">
         <f>'TC20-Autogen SOPO'!F2</f>
-        <v>pCS101-2311001</v>
+        <v>pCS103-2311001</v>
       </c>
       <c r="C2" s="85" t="str">
         <f>'TC7-Sup1 to BU3 Contract'!C2</f>
-        <v>MYELASUP-MYPNA-CS1-01</v>
+        <v>MYELASUP-MYPNA-CS1-03</v>
       </c>
     </row>
   </sheetData>
@@ -25494,7 +28228,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="77" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C1" s="77" t="s">
         <v>114</v>
@@ -25509,14 +28243,14 @@
       </c>
       <c r="B2" s="86" t="str">
         <f>'TC20-Autogen SOPO'!G2</f>
-        <v>sCS101-2311001</v>
+        <v>sCS103-2311001</v>
       </c>
       <c r="C2" t="str">
         <f>'TC7-Sup1 to BU3 Contract'!C2</f>
-        <v>MYELASUP-MYPNA-CS1-01</v>
+        <v>MYELASUP-MYPNA-CS1-03</v>
       </c>
       <c r="D2" t="s">
-        <v>484</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -25545,7 +28279,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="77" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C1" s="77" t="s">
         <v>114</v>
@@ -25560,14 +28294,14 @@
       </c>
       <c r="B2" s="86" t="str">
         <f>'TC20-Autogen SOPO'!H2</f>
-        <v>sCS201-2311001</v>
+        <v>sCS203-2311001</v>
       </c>
       <c r="C2" t="str">
         <f>'TC4-Sup2 to BU2 Contract'!C2</f>
-        <v>CNTWSUP-SGTTAP-CS2-01</v>
+        <v>CNTWSUP-SGTTAP-CS2-03</v>
       </c>
       <c r="D2" t="s">
-        <v>484</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -25597,7 +28331,7 @@
     </row>
     <row r="2" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>496</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -25634,7 +28368,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>483</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -26831,7 +29565,7 @@
       <c r="C2" s="52"/>
       <c r="D2" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E2" s="53" t="s">
         <v>93</v>
@@ -26887,7 +29621,7 @@
       <c r="C3" s="52"/>
       <c r="D3" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E3" s="53" t="s">
         <v>93</v>
@@ -26943,7 +29677,7 @@
       <c r="C4" s="52"/>
       <c r="D4" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E4" s="53" t="s">
         <v>93</v>
@@ -27070,7 +29804,7 @@
       <c r="C2" s="52"/>
       <c r="D2" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E2" s="53" t="s">
         <v>79</v>
@@ -27130,7 +29864,7 @@
       <c r="C3" s="52"/>
       <c r="D3" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E3" s="53" t="s">
         <v>79</v>
@@ -27190,7 +29924,7 @@
       <c r="C4" s="52"/>
       <c r="D4" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E4" s="53" t="s">
         <v>79</v>
@@ -27333,7 +30067,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB101-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E2" s="53" t="s">
         <v>69</v>
@@ -27404,7 +30138,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB101-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E3" s="53" t="s">
         <v>69</v>
@@ -27475,7 +30209,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB101-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E4" s="53" t="s">
         <v>69</v>
@@ -27546,7 +30280,7 @@
       </c>
       <c r="D5" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB101-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E5" s="53" t="s">
         <v>69</v>
@@ -27617,7 +30351,7 @@
       </c>
       <c r="D6" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB101-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E6" s="53" t="s">
         <v>69</v>
@@ -27686,7 +30420,7 @@
       </c>
       <c r="D7" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB101-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="E7" s="53" t="s">
         <v>69</v>
@@ -27835,7 +30569,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E2" s="53" t="s">
         <v>93</v>
@@ -27903,7 +30637,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E3" s="53" t="s">
         <v>93</v>
@@ -27971,7 +30705,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E4" s="53" t="s">
         <v>79</v>
@@ -28039,7 +30773,7 @@
       </c>
       <c r="D5" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E5" s="53" t="s">
         <v>79</v>
@@ -28107,7 +30841,7 @@
       </c>
       <c r="D6" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E6" s="53" t="s">
         <v>93</v>
@@ -28173,7 +30907,7 @@
       </c>
       <c r="D7" t="str">
         <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
+        <v>sCB103-2311001</v>
       </c>
       <c r="E7" s="53" t="s">
         <v>79</v>
@@ -28531,11 +31265,11 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Dec 2023</v>
+        <v>03 Dec 2023</v>
       </c>
       <c r="B5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Jan 2024</v>
+        <v>03 Jan 2024</v>
       </c>
     </row>
   </sheetData>
@@ -28571,52 +31305,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="77" t="s">
+        <v>463</v>
+      </c>
+      <c r="C1" s="77" t="s">
         <v>464</v>
-      </c>
-      <c r="C1" s="77" t="s">
-        <v>465</v>
       </c>
       <c r="D1" s="77" t="s">
         <v>231</v>
       </c>
       <c r="E1" s="77" t="s">
+        <v>465</v>
+      </c>
+      <c r="F1" s="77" t="s">
         <v>466</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="G1" s="77" t="s">
         <v>467</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="H1" s="77" t="s">
         <v>468</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="I1" s="77" t="s">
         <v>469</v>
       </c>
-      <c r="I1" s="77" t="s">
+      <c r="J1" s="77" t="s">
         <v>470</v>
       </c>
-      <c r="J1" s="77" t="s">
+      <c r="K1" s="77" t="s">
         <v>471</v>
       </c>
-      <c r="K1" s="77" t="s">
+      <c r="L1" s="77" t="s">
         <v>472</v>
       </c>
-      <c r="L1" s="77" t="s">
+      <c r="M1" s="77" t="s">
         <v>473</v>
       </c>
-      <c r="M1" s="77" t="s">
+      <c r="N1" s="77" t="s">
         <v>474</v>
       </c>
-      <c r="N1" s="77" t="s">
+      <c r="O1" s="77" t="s">
         <v>475</v>
       </c>
-      <c r="O1" s="77" t="s">
+      <c r="P1" s="77" t="s">
         <v>476</v>
       </c>
-      <c r="P1" s="77" t="s">
+      <c r="Q1" s="78" t="s">
         <v>477</v>
-      </c>
-      <c r="Q1" s="78" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -28625,11 +31359,11 @@
       </c>
       <c r="B2" s="80" t="str">
         <f>'TC2-BU1 to Customer Contract'!C2</f>
-        <v>PKTTAP-PKCUS-CB1-01</v>
+        <v>PKTTAP-PKCUS-CB1-03</v>
       </c>
       <c r="C2" s="80" t="str">
         <f>'TC2-BU1 to Customer Contract'!X2</f>
-        <v>CR-PK-CUS-POC-2311001</v>
+        <v>CR-PK-CUS-POC-2311005</v>
       </c>
       <c r="D2" s="80" t="s">
         <v>79</v>
@@ -28653,15 +31387,15 @@
         <v>660</v>
       </c>
       <c r="K2" s="80" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L2" s="87" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Dec 2023</v>
+        <v>03 Dec 2023</v>
       </c>
       <c r="M2" s="87" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Jan 2024</v>
+        <v>03 Jan 2024</v>
       </c>
       <c r="N2" s="80">
         <v>660</v>
@@ -28718,22 +31452,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>497</v>
+        <v>547</v>
       </c>
       <c r="B2" t="s">
-        <v>500</v>
+        <v>548</v>
       </c>
       <c r="C2" t="s">
-        <v>501</v>
+        <v>549</v>
       </c>
       <c r="D2" t="s">
-        <v>523</v>
+        <v>550</v>
       </c>
       <c r="E2" t="s">
-        <v>502</v>
+        <v>551</v>
       </c>
       <c r="F2" t="s">
-        <v>503</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -28786,27 +31520,27 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">"c"&amp;AutoIncrement!B2&amp;"B1"&amp;AutoIncrement!A2&amp;"-"&amp;G1&amp;"002"</f>
-        <v>cCB101-2311002</v>
+        <v>cCB103-2311002</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">"s"&amp;AutoIncrement!B2&amp;"B1"&amp;AutoIncrement!A2&amp;"-"&amp;G1&amp;"002"</f>
-        <v>sCB101-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">"p"&amp;AutoIncrement!B2&amp;"B3"&amp;AutoIncrement!A2&amp;"-"&amp;G1&amp;"002"</f>
-        <v>pCB301-2311002</v>
+        <v>pCB303-2311002</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">"s"&amp;AutoIncrement!B2&amp;"B3"&amp;AutoIncrement!A2&amp;"-"&amp;G1&amp;"002"</f>
-        <v>sCB301-2311002</v>
+        <v>sCB303-2311002</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">"p"&amp;AutoIncrement!B2&amp;"S1"&amp;AutoIncrement!A2&amp;"-"&amp;G1&amp;"002"</f>
-        <v>pCS101-2311002</v>
+        <v>pCS103-2311002</v>
       </c>
       <c r="F2" t="str">
         <f ca="1">"s"&amp;AutoIncrement!B2&amp;"S1"&amp;AutoIncrement!A2&amp;"-"&amp;G1&amp;"002"</f>
-        <v>sCS101-2311002</v>
+        <v>sCS103-2311002</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -28855,7 +31589,7 @@
         <v>114</v>
       </c>
       <c r="C1" s="78" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -28864,11 +31598,11 @@
       </c>
       <c r="B2" s="80" t="str">
         <f>'TC2-BU1 to Customer Contract'!C2</f>
-        <v>PKTTAP-PKCUS-CB1-01</v>
+        <v>PKTTAP-PKCUS-CB1-03</v>
       </c>
       <c r="C2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB101-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
     </row>
   </sheetData>
@@ -28903,13 +31637,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="77" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C1" s="77" t="s">
         <v>114</v>
       </c>
       <c r="D1" s="77" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E1" s="77" t="s">
         <v>253</v>
@@ -28921,13 +31655,13 @@
         <v>40</v>
       </c>
       <c r="H1" s="77" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I1" s="77" t="s">
         <v>318</v>
       </c>
       <c r="J1" s="78" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -28936,14 +31670,14 @@
       </c>
       <c r="B2" s="80" t="str">
         <f>'TC47-Autogen OrderNo Spot'!C2</f>
-        <v>pCB301-2311002</v>
+        <v>pCB303-2311002</v>
       </c>
       <c r="C2" t="str">
         <f>'TC6-BU3 to BU1 Contract'!C2</f>
-        <v>MYPNA-PKTTAP-CB3-01</v>
+        <v>MYPNA-PKTTAP-CB3-03</v>
       </c>
       <c r="D2" s="80" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="E2" s="86" t="s">
         <v>262</v>
@@ -28962,7 +31696,7 @@
       </c>
       <c r="J2" s="81" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "MMM d, yyyy")</f>
-        <v>Nov 2, 2023</v>
+        <v>Nov 3, 2023</v>
       </c>
     </row>
   </sheetData>
@@ -28997,13 +31731,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="77" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C1" s="77" t="s">
         <v>114</v>
       </c>
       <c r="D1" s="77" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E1" s="77" t="s">
         <v>253</v>
@@ -29015,13 +31749,13 @@
         <v>40</v>
       </c>
       <c r="H1" s="77" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I1" s="77" t="s">
         <v>318</v>
       </c>
       <c r="J1" s="78" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -29030,14 +31764,14 @@
       </c>
       <c r="B2" s="80" t="str">
         <f>'TC47-Autogen OrderNo Spot'!E2</f>
-        <v>pCS101-2311002</v>
+        <v>pCS103-2311002</v>
       </c>
       <c r="C2" t="str">
         <f>'TC7-Sup1 to BU3 Contract'!C2</f>
-        <v>MYELASUP-MYPNA-CS1-01</v>
+        <v>MYELASUP-MYPNA-CS1-03</v>
       </c>
       <c r="D2" s="80" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="E2" s="86" t="s">
         <v>262</v>
@@ -29056,7 +31790,7 @@
       </c>
       <c r="J2" s="81" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "MMM d, yyyy")</f>
-        <v>Nov 2, 2023</v>
+        <v>Nov 3, 2023</v>
       </c>
     </row>
   </sheetData>
@@ -29070,7 +31804,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29086,16 +31820,16 @@
         <v>265</v>
       </c>
       <c r="C1" s="78" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D1" s="89" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="E1" s="89" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
       <c r="F1" s="89" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -29104,7 +31838,7 @@
       </c>
       <c r="B2" s="80" t="str">
         <f>'TC20-Autogen SOPO'!H2</f>
-        <v>sCS201-2311001</v>
+        <v>sCS203-2311001</v>
       </c>
       <c r="C2" s="81">
         <v>800</v>
@@ -29116,8 +31850,8 @@
         <v>200</v>
       </c>
       <c r="F2" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())+1), "dd MMM yyyy")</f>
-        <v>03 Jan 2024</v>
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
+        <v>03 Dec 2023</v>
       </c>
     </row>
   </sheetData>
@@ -29130,8 +31864,8 @@
   <sheetPr codeName="Sheet59"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29150,10 +31884,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>507</v>
+        <v>554</v>
       </c>
       <c r="B2" t="s">
-        <v>508</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -29249,7 +31983,7 @@
       </c>
       <c r="D2" s="16" t="str">
         <f>AutoIncrement!C4</f>
-        <v>PKTTAP-PKCUS-CB1-01</v>
+        <v>PKTTAP-PKCUS-CB1-03</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>146</v>
@@ -29309,7 +32043,7 @@
       </c>
       <c r="D3" s="16" t="str">
         <f>AutoIncrement!C4</f>
-        <v>PKTTAP-PKCUS-CB1-01</v>
+        <v>PKTTAP-PKCUS-CB1-03</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>148</v>
@@ -29369,7 +32103,7 @@
       </c>
       <c r="D4" s="16" t="str">
         <f>AutoIncrement!C4</f>
-        <v>PKTTAP-PKCUS-CB1-01</v>
+        <v>PKTTAP-PKCUS-CB1-03</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>148</v>
@@ -29429,7 +32163,7 @@
       </c>
       <c r="D5" s="16" t="str">
         <f>AutoIncrement!C4</f>
-        <v>PKTTAP-PKCUS-CB1-01</v>
+        <v>PKTTAP-PKCUS-CB1-03</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>148</v>
@@ -29489,7 +32223,7 @@
       </c>
       <c r="D6" s="16" t="str">
         <f>AutoIncrement!C4</f>
-        <v>PKTTAP-PKCUS-CB1-01</v>
+        <v>PKTTAP-PKCUS-CB1-03</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>149</v>
@@ -29549,7 +32283,7 @@
       </c>
       <c r="D7" s="16" t="str">
         <f>AutoIncrement!C4</f>
-        <v>PKTTAP-PKCUS-CB1-01</v>
+        <v>PKTTAP-PKCUS-CB1-03</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>149</v>
@@ -29620,7 +32354,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29719,11 +32453,11 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Dec 2023</v>
+        <v>03 Dec 2023</v>
       </c>
       <c r="B5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Jan 2024</v>
+        <v>03 Jan 2024</v>
       </c>
     </row>
   </sheetData>
@@ -29753,10 +32487,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="77" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C1" s="77" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D1" s="78" t="s">
         <v>114</v>
@@ -29768,14 +32502,14 @@
       </c>
       <c r="B2" s="86" t="str">
         <f>'TC20-Autogen SOPO'!D2</f>
-        <v>pCS201-2311001</v>
+        <v>pCS203-2311001</v>
       </c>
       <c r="C2" s="80">
         <v>800</v>
       </c>
       <c r="D2" s="90" t="str">
         <f>'TC4-Sup2 to BU2 Contract'!C2</f>
-        <v>CNTWSUP-SGTTAP-CS2-01</v>
+        <v>CNTWSUP-SGTTAP-CS2-03</v>
       </c>
     </row>
   </sheetData>
@@ -29804,10 +32538,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="77" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C1" s="77" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D1" s="78" t="s">
         <v>114</v>
@@ -29819,14 +32553,14 @@
       </c>
       <c r="B2" s="80" t="str">
         <f>'TC20-Autogen SOPO'!B2</f>
-        <v>pCB201-2311001</v>
+        <v>pCB203-2311001</v>
       </c>
       <c r="C2" s="80">
         <v>800</v>
       </c>
       <c r="D2" s="81" t="str">
         <f>'TC3-BU2 to BU1 Contract'!C2</f>
-        <v>SGTTAP-PKTTAP-CB2-01</v>
+        <v>SGTTAP-PKTTAP-CB2-03</v>
       </c>
     </row>
   </sheetData>
@@ -29854,10 +32588,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="77" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C1" s="77" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D1" s="78" t="s">
         <v>114</v>
@@ -29869,14 +32603,14 @@
       </c>
       <c r="B2" s="86" t="str">
         <f>'TC15-Customer Order No'!A2</f>
-        <v>cCB101-2311001</v>
+        <v>cCB103-2311001</v>
       </c>
       <c r="C2" s="80">
         <v>800</v>
       </c>
       <c r="D2" s="81" t="str">
         <f>'TC2-BU1 to Customer Contract'!C2</f>
-        <v>PKTTAP-PKCUS-CB1-01</v>
+        <v>PKTTAP-PKCUS-CB1-03</v>
       </c>
     </row>
   </sheetData>
@@ -29890,7 +32624,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="C3" activeCellId="1" sqref="C2 C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29902,16 +32636,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="B1" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="C1" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="D1" s="91" t="s">
-        <v>512</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -29922,10 +32656,10 @@
         <v>660</v>
       </c>
       <c r="C2" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -29936,10 +32670,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>514</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -29950,7 +32684,7 @@
         <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -29975,43 +32709,43 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>515</v>
+        <v>492</v>
       </c>
       <c r="B1" t="s">
-        <v>516</v>
+        <v>493</v>
       </c>
       <c r="C1" s="91" t="s">
-        <v>512</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B2" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="C2" t="s">
-        <v>517</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B3" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="C3" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B4" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -30032,7 +32766,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="B1" t="s">
         <v>122</v>
@@ -30072,8 +32806,8 @@
   <sheetPr codeName="Sheet68"/>
   <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30190,15 +32924,15 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">"o-MY-ELA-SUP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>o-MY-ELA-SUP-CS2-01-2311001</v>
+        <v>o-MY-ELA-SUP-CS2-03-2311001</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">"SP1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>SP1-CS2-01-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="F2" t="s">
         <v>291</v>
@@ -30226,18 +32960,18 @@
       </c>
       <c r="N2" t="str">
         <f ca="1">"SP1-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>SP1-OP-CS2-01-2311-01</v>
+        <v>SP1-OP-CS2-03-2311-01</v>
       </c>
       <c r="O2" t="s">
         <v>333</v>
       </c>
       <c r="S2" t="str">
         <f ca="1">"SP1-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>SP1-IP-CS2-01-2311-01</v>
+        <v>SP1-IP-CS2-03-2311-01</v>
       </c>
       <c r="X2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!F2</f>
-        <v>sCS101-2311002</v>
+        <v>sCS103-2311002</v>
       </c>
       <c r="Y2" t="s">
         <v>79</v>
@@ -30264,15 +32998,15 @@
       </c>
       <c r="C3" t="str">
         <f ca="1">"o-MY-ELA-SUP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>o-MY-ELA-SUP-CS2-01-2311001</v>
+        <v>o-MY-ELA-SUP-CS2-03-2311001</v>
       </c>
       <c r="D3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="E3" t="str">
         <f ca="1">"SP1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>SP1-CS2-01-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="F3" t="s">
         <v>292</v>
@@ -30300,14 +33034,14 @@
       </c>
       <c r="N3" t="str">
         <f ca="1">"SP1-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>SP1-OP-CS2-01-2311-01</v>
+        <v>SP1-OP-CS2-03-2311-01</v>
       </c>
       <c r="O3" t="s">
         <v>334</v>
       </c>
       <c r="S3" t="str">
         <f ca="1">"SP1-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>SP1-IP-CS2-01-2311-02</v>
+        <v>SP1-IP-CS2-03-2311-02</v>
       </c>
       <c r="T3">
         <v>10.000999999999999</v>
@@ -30323,7 +33057,7 @@
       </c>
       <c r="X3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!F2</f>
-        <v>sCS101-2311002</v>
+        <v>sCS103-2311002</v>
       </c>
       <c r="Y3" t="s">
         <v>79</v>
@@ -30350,15 +33084,15 @@
       </c>
       <c r="C4" t="str">
         <f ca="1">"o-MY-ELA-SUP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>o-MY-ELA-SUP-CS2-01-2311001</v>
+        <v>o-MY-ELA-SUP-CS2-03-2311001</v>
       </c>
       <c r="D4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="E4" t="str">
         <f ca="1">"SP1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>SP1-CS2-01-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="F4" t="s">
         <v>294</v>
@@ -30385,8 +33119,8 @@
         <v>331</v>
       </c>
       <c r="N4" t="str">
-        <f ca="1">"SP1-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>SP1-OP-CS2-01-2311-01</v>
+        <f ca="1">"SP1-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
+        <v>SP1-OP-CS2-03-2311-02</v>
       </c>
       <c r="O4" t="s">
         <v>335</v>
@@ -30402,7 +33136,7 @@
       </c>
       <c r="X4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!F2</f>
-        <v>sCS101-2311002</v>
+        <v>sCS103-2311002</v>
       </c>
       <c r="Y4" t="s">
         <v>79</v>
@@ -30429,15 +33163,15 @@
       </c>
       <c r="C5" t="str">
         <f ca="1">"o-MY-ELA-SUP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"002"</f>
-        <v>o-MY-ELA-SUP-CS2-01-2311002</v>
+        <v>o-MY-ELA-SUP-CS2-03-2311002</v>
       </c>
       <c r="D5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="E5" t="str">
         <f ca="1">"SP1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"002"</f>
-        <v>SP1-CS2-01-2311002</v>
+        <v>SP1-CS2-03-2311002</v>
       </c>
       <c r="F5" t="s">
         <v>294</v>
@@ -30465,7 +33199,7 @@
       </c>
       <c r="N5" t="str">
         <f ca="1">"SP1-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>SP1-OP-CS2-01-2311-02</v>
+        <v>SP1-OP-CS2-03-2311-02</v>
       </c>
       <c r="O5" t="s">
         <v>333</v>
@@ -30479,25 +33213,9 @@
       <c r="R5">
         <v>100.001</v>
       </c>
-      <c r="S5" t="str">
-        <f ca="1">"SP1-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>SP1-IP-CS2-01-2311-02</v>
-      </c>
-      <c r="T5">
-        <v>10.000999999999999</v>
-      </c>
-      <c r="U5">
-        <v>10.000999999999999</v>
-      </c>
-      <c r="V5">
-        <v>10.000999999999999</v>
-      </c>
-      <c r="W5">
-        <v>10.000999999999999</v>
-      </c>
       <c r="X5" t="str">
         <f>'TC47-Autogen OrderNo Spot'!F2</f>
-        <v>sCS101-2311002</v>
+        <v>sCS103-2311002</v>
       </c>
       <c r="Y5" t="s">
         <v>79</v>
@@ -30546,19 +33264,19 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!C2</f>
-        <v>o-MY-ELA-SUP-CS2-01-2311001</v>
+        <v>o-MY-ELA-SUP-CS2-03-2311001</v>
       </c>
       <c r="B2" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!C5</f>
-        <v>o-MY-ELA-SUP-CS2-01-2311002</v>
+        <v>o-MY-ELA-SUP-CS2-03-2311002</v>
       </c>
       <c r="B3" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -30670,11 +33388,11 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>483</v>
+        <v>532</v>
       </c>
       <c r="C2" t="str">
         <f>AutoIncrement!C4</f>
-        <v>PKTTAP-PKCUS-CB1-01</v>
+        <v>PKTTAP-PKCUS-CB1-03</v>
       </c>
       <c r="D2" t="s">
         <v>127</v>
@@ -30690,15 +33408,15 @@
       </c>
       <c r="H2" t="str">
         <f>AutoIncrement!C3</f>
-        <v>CB1-01</v>
+        <v>CB1-03</v>
       </c>
       <c r="I2" t="str">
         <f>"CD-"&amp;H2</f>
-        <v>CD-CB1-01</v>
+        <v>CD-CB1-03</v>
       </c>
       <c r="J2" t="str">
         <f>"Payment-"&amp;H2</f>
-        <v>Payment-CB1-01</v>
+        <v>Payment-CB1-03</v>
       </c>
       <c r="K2" t="str">
         <f>L2</f>
@@ -30718,7 +33436,7 @@
       </c>
       <c r="P2" t="str">
         <f>J2&amp;"(" &amp;K2&amp;")"</f>
-        <v>Payment-CB1-01(By Invoice Date)</v>
+        <v>Payment-CB1-03(By Invoice Date)</v>
       </c>
       <c r="Q2" t="s">
         <v>147</v>
@@ -30738,21 +33456,21 @@
       </c>
       <c r="V2" t="str">
         <f>"RD-"&amp;H2</f>
-        <v>RD-CB1-01</v>
+        <v>RD-CB1-03</v>
       </c>
       <c r="W2" t="s">
         <v>130</v>
       </c>
       <c r="X2" t="s">
-        <v>484</v>
+        <v>533</v>
       </c>
       <c r="Y2" t="str">
         <f>"BU2toBU1-"&amp;H2</f>
-        <v>BU2toBU1-CB1-01</v>
+        <v>BU2toBU1-CB1-03</v>
       </c>
       <c r="Z2" t="str">
         <f>"BU3toBU1-"&amp;H2</f>
-        <v>BU3toBU1-CB1-01</v>
+        <v>BU3toBU1-CB1-03</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
@@ -30855,7 +33573,7 @@
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E3</f>
-        <v>SP1-CS2-01-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M3</f>
@@ -30925,7 +33643,7 @@
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E5</f>
-        <v>SP1-CS2-01-2311002</v>
+        <v>SP1-CS2-03-2311002</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M5</f>
@@ -31063,7 +33781,7 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E2</f>
-        <v>SP1-CS2-01-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M2</f>
@@ -31180,7 +33898,7 @@
     <row r="2" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E4</f>
-        <v>SP1-CS2-01-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M4</f>
@@ -31257,7 +33975,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E2</f>
-        <v>SP1-CS2-01-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M2</f>
@@ -31267,7 +33985,7 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E3</f>
-        <v>SP1-CS2-01-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M3</f>
@@ -31277,7 +33995,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E4</f>
-        <v>SP1-CS2-01-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B4" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M4</f>
@@ -31287,7 +34005,7 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E5</f>
-        <v>SP1-CS2-01-2311002</v>
+        <v>SP1-CS2-03-2311002</v>
       </c>
       <c r="B5" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M5</f>
@@ -31380,7 +34098,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!E2</f>
-        <v>pCS101-2311002</v>
+        <v>pCS103-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -31436,7 +34154,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!E2</f>
-        <v>pCS101-2311002</v>
+        <v>pCS103-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -31492,7 +34210,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!E2</f>
-        <v>pCS101-2311002</v>
+        <v>pCS103-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -31625,7 +34343,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!D2</f>
-        <v>sCB301-2311002</v>
+        <v>sCB303-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>79</v>
@@ -31681,7 +34399,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!D2</f>
-        <v>sCB301-2311002</v>
+        <v>sCB303-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>79</v>
@@ -31737,7 +34455,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!D2</f>
-        <v>sCB301-2311002</v>
+        <v>sCB303-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>79</v>
@@ -31874,7 +34592,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!C2</f>
-        <v>pCB301-2311002</v>
+        <v>pCB303-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -31933,7 +34651,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!C2</f>
-        <v>pCB301-2311002</v>
+        <v>pCB303-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -31992,7 +34710,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!C2</f>
-        <v>pCB301-2311002</v>
+        <v>pCB303-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -32127,7 +34845,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB101-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>79</v>
@@ -32183,7 +34901,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB101-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>79</v>
@@ -32239,7 +34957,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB101-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>79</v>
@@ -32378,7 +35096,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cCB101-2311002</v>
+        <v>cCB103-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -32440,7 +35158,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cCB101-2311002</v>
+        <v>cCB103-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -32502,7 +35220,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cCB101-2311002</v>
+        <v>cCB103-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -32641,7 +35359,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB101-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>79</v>
@@ -32700,7 +35418,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB101-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>79</v>
@@ -32759,7 +35477,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB101-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>79</v>
@@ -33001,19 +35719,19 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>'TC74-OutboundNo'!B2</f>
-        <v>o-MY-ELA-SUP-231101001</v>
+        <v>o-MY-ELA-SUP-231103001</v>
       </c>
       <c r="B2" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>'TC74-OutboundNo'!B3</f>
-        <v>o-MY-ELA-SUP-231101002</v>
+        <v>o-MY-ELA-SUP-231103002</v>
       </c>
       <c r="B3" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -33070,25 +35788,25 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E5</f>
-        <v>SP1-CS2-01-2311002</v>
+        <v>SP1-CS2-03-2311002</v>
       </c>
       <c r="B2" t="s">
         <v>330</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>12 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>22 Nov 2023</v>
+        <v>23 Nov 2023</v>
       </c>
       <c r="E2" t="s">
         <v>396</v>
       </c>
       <c r="F2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="G2" t="s">
         <v>397</v>
@@ -33103,25 +35821,25 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E2</f>
-        <v>SP1-CS2-01-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B3" t="s">
         <v>331</v>
       </c>
       <c r="C3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>12 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="D3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>22 Nov 2023</v>
+        <v>23 Nov 2023</v>
       </c>
       <c r="E3" t="s">
         <v>399</v>
       </c>
       <c r="F3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="G3" t="s">
         <v>400</v>
@@ -33136,25 +35854,25 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E2</f>
-        <v>SP1-CS2-01-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B4" t="s">
         <v>330</v>
       </c>
       <c r="C4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>12 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="D4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>22 Nov 2023</v>
+        <v>23 Nov 2023</v>
       </c>
       <c r="E4" t="s">
         <v>399</v>
       </c>
       <c r="F4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="G4" t="s">
         <v>400</v>
@@ -33169,25 +35887,25 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E2</f>
-        <v>SP1-CS2-01-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B5" t="s">
         <v>329</v>
       </c>
       <c r="C5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>12 Nov 2023</v>
+        <v>13 Nov 2023</v>
       </c>
       <c r="D5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>22 Nov 2023</v>
+        <v>23 Nov 2023</v>
       </c>
       <c r="E5" t="s">
         <v>399</v>
       </c>
       <c r="F5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="G5" t="s">
         <v>400</v>
@@ -33291,7 +36009,7 @@
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E3</f>
-        <v>SP1-CS2-01-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M3</f>
@@ -33361,7 +36079,7 @@
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E5</f>
-        <v>SP1-CS2-01-2311002</v>
+        <v>SP1-CS2-03-2311002</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M5</f>
@@ -33499,7 +36217,7 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E2</f>
-        <v>SP1-CS2-01-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M2</f>
@@ -33616,7 +36334,7 @@
     <row r="2" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E4</f>
-        <v>SP1-CS2-01-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M4</f>
@@ -33693,41 +36411,41 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">"i-MY-PNA-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-MY-PNA-DC-CS2-01-2311001</v>
+        <v>i-MY-PNA-DC-CS2-03-2311001</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">"i-MY-PNA-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-MY-PNA-DC-CS2-01-2311001</v>
+        <v>i-MY-PNA-DC-CS2-03-2311001</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B5" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f ca="1">"i-MY-PNA-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-MY-PNA-DC-CS2-01-2311001</v>
+        <v>i-MY-PNA-DC-CS2-03-2311001</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f ca="1">"i-MY-PNA-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-MY-PNA-DC-CS2-01-2311001</v>
+        <v>i-MY-PNA-DC-CS2-03-2311001</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
     </row>
   </sheetData>
@@ -33816,7 +36534,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!E2</f>
-        <v>pCS101-2311002</v>
+        <v>pCS103-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -33872,7 +36590,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!E2</f>
-        <v>pCS101-2311002</v>
+        <v>pCS103-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -33928,7 +36646,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!E2</f>
-        <v>pCS101-2311002</v>
+        <v>pCS103-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -34057,7 +36775,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!D2</f>
-        <v>sCB301-2311002</v>
+        <v>sCB303-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>79</v>
@@ -34110,7 +36828,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!D2</f>
-        <v>sCB301-2311002</v>
+        <v>sCB303-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>79</v>
@@ -34163,7 +36881,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!D2</f>
-        <v>sCB301-2311002</v>
+        <v>sCB303-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>79</v>
@@ -34296,7 +37014,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!C2</f>
-        <v>pCB301-2311002</v>
+        <v>pCB303-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -34355,7 +37073,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!C2</f>
-        <v>pCB301-2311002</v>
+        <v>pCB303-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -34414,7 +37132,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!C2</f>
-        <v>pCB301-2311002</v>
+        <v>pCB303-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -34549,7 +37267,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB101-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>79</v>
@@ -34605,7 +37323,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB101-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>79</v>
@@ -34661,7 +37379,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB101-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>79</v>
@@ -34770,7 +37488,7 @@
       </c>
       <c r="C2" s="16" t="str">
         <f>AutoIncrement!D4</f>
-        <v>SGTTAP-PKTTAP-CB2-01</v>
+        <v>SGTTAP-PKTTAP-CB2-03</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>146</v>
@@ -34803,7 +37521,7 @@
       </c>
       <c r="C3" s="16" t="str">
         <f>AutoIncrement!D4</f>
-        <v>SGTTAP-PKTTAP-CB2-01</v>
+        <v>SGTTAP-PKTTAP-CB2-03</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>148</v>
@@ -34836,7 +37554,7 @@
       </c>
       <c r="C4" s="16" t="str">
         <f>AutoIncrement!D4</f>
-        <v>SGTTAP-PKTTAP-CB2-01</v>
+        <v>SGTTAP-PKTTAP-CB2-03</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>149</v>
@@ -34954,7 +37672,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cCB101-2311002</v>
+        <v>cCB103-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -35016,7 +37734,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cCB101-2311002</v>
+        <v>cCB103-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -35078,7 +37796,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cCB101-2311002</v>
+        <v>cCB103-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -35162,7 +37880,7 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E5</f>
-        <v>SP1-CS2-01-2311002</v>
+        <v>SP1-CS2-03-2311002</v>
       </c>
       <c r="B2" t="s">
         <v>330</v>
@@ -35174,7 +37892,7 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E2</f>
-        <v>SP1-CS2-01-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B3" t="s">
         <v>331</v>
@@ -35186,7 +37904,7 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E2</f>
-        <v>SP1-CS2-01-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B4" t="s">
         <v>330</v>
@@ -35198,7 +37916,7 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E2</f>
-        <v>SP1-CS2-01-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B5" t="s">
         <v>329</v>
@@ -35299,7 +38017,7 @@
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E3</f>
-        <v>SP1-CS2-01-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M3</f>
@@ -35369,7 +38087,7 @@
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E5</f>
-        <v>SP1-CS2-01-2311002</v>
+        <v>SP1-CS2-03-2311002</v>
       </c>
       <c r="B3" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M5</f>
@@ -35507,7 +38225,7 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E2</f>
-        <v>SP1-CS2-01-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M2</f>
@@ -35624,7 +38342,7 @@
     <row r="2" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">'TC74-Sup1 Outbound Details'!E4</f>
-        <v>SP1-CS2-01-2311001</v>
+        <v>SP1-CS2-03-2311001</v>
       </c>
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M4</f>
@@ -35798,15 +38516,15 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">"o-MY-PNA-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>o-MY-PNA-DC-CS2-01-2311001</v>
+        <v>o-MY-PNA-DC-CS2-03-2311001</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">"DC3-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>DC3-CS2-01-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="F2" t="s">
         <v>291</v>
@@ -35834,14 +38552,14 @@
       </c>
       <c r="N2" t="str">
         <f ca="1">"DC3-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>DC3-OP-CS2-01-2311-01</v>
+        <v>DC3-OP-CS2-03-2311-01</v>
       </c>
       <c r="O2" t="s">
         <v>334</v>
       </c>
       <c r="S2" t="str">
         <f ca="1">"DC3-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>DC3-IP-CS2-01-2311-01</v>
+        <v>DC3-IP-CS2-03-2311-01</v>
       </c>
       <c r="T2">
         <v>10.000999999999999</v>
@@ -35857,7 +38575,7 @@
       </c>
       <c r="X2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!D2</f>
-        <v>sCB301-2311002</v>
+        <v>sCB303-2311002</v>
       </c>
       <c r="Y2" t="s">
         <v>91</v>
@@ -35884,15 +38602,15 @@
       </c>
       <c r="C3" t="str">
         <f ca="1">"o-MY-PNA-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>o-MY-PNA-DC-CS2-01-2311001</v>
+        <v>o-MY-PNA-DC-CS2-03-2311001</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D4" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="E3" t="str">
         <f ca="1">"DC3-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>DC3-CS2-01-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="F3" t="s">
         <v>292</v>
@@ -35920,7 +38638,7 @@
       </c>
       <c r="N3" t="str">
         <f ca="1">"DC3-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-01"</f>
-        <v>DC3-OP-CS2-01-2311-01</v>
+        <v>DC3-OP-CS2-03-2311-01</v>
       </c>
       <c r="O3" t="s">
         <v>335</v>
@@ -35936,7 +38654,7 @@
       </c>
       <c r="X3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!D2</f>
-        <v>sCB301-2311002</v>
+        <v>sCB303-2311002</v>
       </c>
       <c r="Y3" t="s">
         <v>91</v>
@@ -35963,15 +38681,15 @@
       </c>
       <c r="C4" t="str">
         <f ca="1">"o-MY-PNA-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>o-MY-PNA-DC-CS2-01-2311001</v>
+        <v>o-MY-PNA-DC-CS2-03-2311001</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>03 Nov 2023</v>
       </c>
       <c r="E4" t="str">
         <f ca="1">"DC3-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>DC3-CS2-01-2311001</v>
+        <v>DC3-CS2-03-2311001</v>
       </c>
       <c r="F4" t="s">
         <v>294</v>
@@ -35999,7 +38717,7 @@
       </c>
       <c r="N4" t="str">
         <f ca="1">"DC3-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>DC3-OP-CS2-01-2311-02</v>
+        <v>DC3-OP-CS2-03-2311-02</v>
       </c>
       <c r="O4" t="s">
         <v>335</v>
@@ -36015,7 +38733,7 @@
       </c>
       <c r="S4" t="str">
         <f ca="1">"DC3-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>DC3-IP-CS2-01-2311-02</v>
+        <v>DC3-IP-CS2-03-2311-02</v>
       </c>
       <c r="T4">
         <v>10.000999999999999</v>
@@ -36031,7 +38749,7 @@
       </c>
       <c r="X4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!D2</f>
-        <v>sCB301-2311002</v>
+        <v>sCB303-2311002</v>
       </c>
       <c r="Y4" t="s">
         <v>91</v>
@@ -36058,7 +38776,7 @@
       </c>
       <c r="C5" t="str">
         <f ca="1">"o-MY-PNA-DC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"002"</f>
-        <v>o-MY-PNA-DC-CS2-01-2311002</v>
+        <v>o-MY-PNA-DC-CS2-03-2311002</v>
       </c>
       <c r="D5" s="60">
         <v>45112</v>
@@ -36089,7 +38807,7 @@
       </c>
       <c r="N5" t="str">
         <f ca="1">"DC3-OP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>DC3-OP-CS2-01-2311-02</v>
+        <v>DC3-OP-CS2-03-2311-02</v>
       </c>
       <c r="O5" t="s">
         <v>335</v>
@@ -36105,7 +38823,7 @@
       </c>
       <c r="S5" t="str">
         <f ca="1">"DC3-IP-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"-02"</f>
-        <v>DC3-IP-CS2-01-2311-02</v>
+        <v>DC3-IP-CS2-03-2311-02</v>
       </c>
       <c r="T5">
         <v>10.000999999999999</v>
@@ -36121,7 +38839,7 @@
       </c>
       <c r="X5" t="str">
         <f>'TC47-Autogen OrderNo Spot'!D2</f>
-        <v>sCB301-2311002</v>
+        <v>sCB303-2311002</v>
       </c>
       <c r="Y5" t="s">
         <v>91</v>
@@ -36170,19 +38888,19 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">'TC111-DC3 Outbound Details'!C4</f>
-        <v>o-MY-PNA-DC-CS2-01-2311001</v>
+        <v>o-MY-PNA-DC-CS2-03-2311001</v>
       </c>
       <c r="B2" t="s">
-        <v>526</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f ca="1">'TC111-DC3 Outbound Details'!C5</f>
-        <v>o-MY-PNA-DC-CS2-01-2311002</v>
+        <v>o-MY-PNA-DC-CS2-03-2311002</v>
       </c>
       <c r="B3" t="s">
-        <v>527</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -36271,7 +38989,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!C2</f>
-        <v>pCB301-2311002</v>
+        <v>pCB303-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -36327,7 +39045,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!C2</f>
-        <v>pCB301-2311002</v>
+        <v>pCB303-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -36383,7 +39101,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!C2</f>
-        <v>pCB301-2311002</v>
+        <v>pCB303-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>
@@ -36518,7 +39236,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB101-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>79</v>
@@ -36577,7 +39295,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB101-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>79</v>
@@ -36636,7 +39354,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB101-2311002</v>
+        <v>sCB103-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>79</v>
@@ -36778,7 +39496,7 @@
       </c>
       <c r="D2" t="str">
         <f>'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cCB101-2311002</v>
+        <v>cCB103-2311002</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
@@ -36840,7 +39558,7 @@
       </c>
       <c r="D3" t="str">
         <f>'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cCB101-2311002</v>
+        <v>cCB103-2311002</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
@@ -36902,7 +39620,7 @@
       </c>
       <c r="D4" t="str">
         <f>'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cCB101-2311002</v>
+        <v>cCB103-2311002</v>
       </c>
       <c r="E4" t="s">
         <v>69</v>

--- a/Excel Files/Scenario 1/S1_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 1/S1_TestCases_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawe\git\tb-ttap-brivge-v2-fatin\Excel Files\Scenario 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nasin\git\tb-ttap-brivge-v2\Excel Files\Scenario 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6BA9BD-4AA4-4F2C-A5DE-51A877F5FF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4CC873-F8DD-4982-B740-46A6B5D972F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="620" firstSheet="160" activeTab="163" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="620" firstSheet="23" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AutoIncrement" sheetId="1" r:id="rId1"/>
@@ -37,643 +37,644 @@
     <sheet name="TC12-Supplier1 Cargo Status" sheetId="32" r:id="rId22"/>
     <sheet name="TC13-BU3 Cargo Status" sheetId="31" r:id="rId23"/>
     <sheet name="TC14-BU1 Cargo Status" sheetId="33" r:id="rId24"/>
-    <sheet name="TC15-Customer Place Order" sheetId="29" r:id="rId25"/>
-    <sheet name="TC15-Inbound Date" sheetId="34" r:id="rId26"/>
-    <sheet name="TC15-Customer Order No" sheetId="37" r:id="rId27"/>
-    <sheet name="TC17-Customer Change Order" sheetId="35" r:id="rId28"/>
-    <sheet name="TC17-Inbound Date Change" sheetId="36" r:id="rId29"/>
-    <sheet name="TC17-AutoGen ChangeRequestNo" sheetId="38" r:id="rId30"/>
-    <sheet name="TC18-Customer Change" sheetId="145" r:id="rId31"/>
-    <sheet name="TC20-Autogen SOPO" sheetId="39" r:id="rId32"/>
-    <sheet name="TC20-Autogen SOPO (2)" sheetId="156" r:id="rId33"/>
-    <sheet name="TC022" sheetId="146" r:id="rId34"/>
-    <sheet name="TC024" sheetId="147" r:id="rId35"/>
-    <sheet name="TC026" sheetId="148" r:id="rId36"/>
-    <sheet name="TC027" sheetId="149" r:id="rId37"/>
-    <sheet name="TC028" sheetId="150" r:id="rId38"/>
-    <sheet name="TC31-AutoGen ChangeRequestNo" sheetId="40" r:id="rId39"/>
-    <sheet name="TC34-BU1 Check Change1" sheetId="41" r:id="rId40"/>
-    <sheet name="TC34-BU1 Check Change2" sheetId="42" r:id="rId41"/>
-    <sheet name="TC35-BU2 Check Change" sheetId="43" r:id="rId42"/>
-    <sheet name="TC36-BU3 Check Change" sheetId="44" r:id="rId43"/>
-    <sheet name="TC37-Sup1 Check Change" sheetId="45" r:id="rId44"/>
-    <sheet name="TC38-Sup2 Check Change" sheetId="46" r:id="rId45"/>
-    <sheet name="TC43-BU1-Check Purchase Order2" sheetId="48" r:id="rId46"/>
-    <sheet name="TC43-BU1-Check Purchase Order3" sheetId="49" r:id="rId47"/>
-    <sheet name="TC44-BU1-Check Sales Order" sheetId="47" r:id="rId48"/>
-    <sheet name="TC45-Cus Check Customer Order" sheetId="50" r:id="rId49"/>
-    <sheet name="TC46-Cus Spot Order" sheetId="51" r:id="rId50"/>
-    <sheet name="TC46-Spot Date" sheetId="52" r:id="rId51"/>
-    <sheet name="TC046" sheetId="151" r:id="rId52"/>
-    <sheet name="TC47-Autogen OrderNo Spot" sheetId="54" r:id="rId53"/>
-    <sheet name="TC47-Autogen OrderNo Spot (2)" sheetId="157" r:id="rId54"/>
-    <sheet name="TC048" sheetId="152" r:id="rId55"/>
-    <sheet name="TC049" sheetId="153" r:id="rId56"/>
-    <sheet name="TC051" sheetId="158" r:id="rId57"/>
-    <sheet name="TC054" sheetId="154" r:id="rId58"/>
-    <sheet name="TC54-Change RequestNo" sheetId="57" r:id="rId59"/>
-    <sheet name="TC54-Sup2 Order Change Reg" sheetId="55" r:id="rId60"/>
-    <sheet name="TC54-Change Date" sheetId="56" r:id="rId61"/>
-    <sheet name="TC068-BU2" sheetId="159" r:id="rId62"/>
-    <sheet name="TC070-BU1" sheetId="160" r:id="rId63"/>
-    <sheet name="TC072-Cus" sheetId="161" r:id="rId64"/>
-    <sheet name="TC73-BU SO Delivery Plan" sheetId="162" r:id="rId65"/>
-    <sheet name="TC73-BU SO Delivery Plan (Date)" sheetId="163" r:id="rId66"/>
-    <sheet name="TC73-BU SO Price" sheetId="164" r:id="rId67"/>
-    <sheet name="TC74-Sup1 Outbound Details" sheetId="58" r:id="rId68"/>
-    <sheet name="TC74-OutboundNo" sheetId="59" r:id="rId69"/>
-    <sheet name="TC75.1-Sup1 Cargo Tracking" sheetId="60" r:id="rId70"/>
-    <sheet name="TC75.2-Sup1 Cargo Tracking" sheetId="84" r:id="rId71"/>
-    <sheet name="TC75.3-Sup1 Cargo Tracking" sheetId="85" r:id="rId72"/>
-    <sheet name="TC79" sheetId="165" r:id="rId73"/>
-    <sheet name="TC82-Sup1 SO" sheetId="62" r:id="rId74"/>
-    <sheet name="TC83-BU3 PO" sheetId="63" r:id="rId75"/>
-    <sheet name="TC84-BU3 SO" sheetId="64" r:id="rId76"/>
-    <sheet name="TC85-BU1 PO" sheetId="65" r:id="rId77"/>
-    <sheet name="TC86-BU1 SO" sheetId="66" r:id="rId78"/>
-    <sheet name="TC87-Customer CO" sheetId="67" r:id="rId79"/>
-    <sheet name="TC88-Sup1 SellerGI Invoice" sheetId="61" r:id="rId80"/>
-    <sheet name="TC90-Sup1 Revise Shipment" sheetId="68" r:id="rId81"/>
-    <sheet name="TC93.1-Customer Cargo Tracking" sheetId="86" r:id="rId82"/>
-    <sheet name="TC93.2-Customer Cargo Tracking" sheetId="87" r:id="rId83"/>
-    <sheet name="TC93.3-Customer Cargo Tracking" sheetId="88" r:id="rId84"/>
-    <sheet name="TC97-DC3 Inbound Details" sheetId="70" r:id="rId85"/>
-    <sheet name="TC98-Sup1 SO" sheetId="71" r:id="rId86"/>
-    <sheet name="TC99-BU3 PO" sheetId="72" r:id="rId87"/>
-    <sheet name="TC100-BU3 SO" sheetId="73" r:id="rId88"/>
-    <sheet name="TC101-BU1 PO" sheetId="74" r:id="rId89"/>
-    <sheet name="TC102-BU1 SO" sheetId="75" r:id="rId90"/>
-    <sheet name="TC103-DC3 Revise Shipment" sheetId="76" r:id="rId91"/>
-    <sheet name="TC106.1-Sup1 Cargo Tracking" sheetId="89" r:id="rId92"/>
-    <sheet name="TC106.2-Sup1 Cargo Tracking" sheetId="90" r:id="rId93"/>
-    <sheet name="TC106.3-Sup1 Cargo Tracking" sheetId="91" r:id="rId94"/>
-    <sheet name="TC111-DC3 Outbound Details" sheetId="79" r:id="rId95"/>
-    <sheet name="TC111-OutboundNo" sheetId="80" r:id="rId96"/>
-    <sheet name="TC112-BU3 SO" sheetId="96" r:id="rId97"/>
-    <sheet name="TC113-BU1 PO" sheetId="97" r:id="rId98"/>
-    <sheet name="TC114-BU1 SO" sheetId="166" r:id="rId99"/>
-    <sheet name="TC115-Customer CO" sheetId="99" r:id="rId100"/>
-    <sheet name="TC116.1-Customer Cargo Tracking" sheetId="92" r:id="rId101"/>
-    <sheet name="TC116.2-Customer Cargo Tracking" sheetId="93" r:id="rId102"/>
-    <sheet name="TC116.3-Customer Cargo Tracking" sheetId="94" r:id="rId103"/>
-    <sheet name="TC116.4-Customer Cargo Tracking" sheetId="95" r:id="rId104"/>
-    <sheet name="TC120-DC3 Shipping Details" sheetId="81" r:id="rId105"/>
-    <sheet name="TC124-DC3 Revise Shipment" sheetId="82" r:id="rId106"/>
-    <sheet name="TC128.1-Customer Cargo Tracking" sheetId="100" r:id="rId107"/>
-    <sheet name="TC128.2-Customer Cargo Tracking" sheetId="101" r:id="rId108"/>
-    <sheet name="TC128.3-Customer Cargo Tracking" sheetId="102" r:id="rId109"/>
-    <sheet name="TC128.4-Customer Cargo Tracking" sheetId="103" r:id="rId110"/>
-    <sheet name="TC132-BU2 SellerGI Invoice" sheetId="83" r:id="rId111"/>
-    <sheet name="TC136-BU3 Cargo Tracking" sheetId="104" r:id="rId112"/>
-    <sheet name="TC138-BU1 Cargo Tracking" sheetId="105" r:id="rId113"/>
-    <sheet name="TC141-SUP2 SO Delivery Plan" sheetId="167" r:id="rId114"/>
-    <sheet name="TC141-SUP2 SODeliveryPlan(Date)" sheetId="168" r:id="rId115"/>
-    <sheet name="TC141-SUP2 SO Price" sheetId="169" r:id="rId116"/>
-    <sheet name="TC142-Sup2 Outbound Details" sheetId="106" r:id="rId117"/>
-    <sheet name="TC142-OutboundNo" sheetId="107" r:id="rId118"/>
-    <sheet name="TC149-Customer Cargo Tracking" sheetId="108" r:id="rId119"/>
-    <sheet name="TC151-BU2 Cargo Tracking" sheetId="109" r:id="rId120"/>
-    <sheet name="TC156-Sup2 SellerGI Invoice" sheetId="110" r:id="rId121"/>
-    <sheet name="TC159-Sup2 Revise Shipment" sheetId="111" r:id="rId122"/>
-    <sheet name="TC162-Customer Cargo Tracking" sheetId="112" r:id="rId123"/>
-    <sheet name="TC165-Customer Cargo Tracking" sheetId="113" r:id="rId124"/>
-    <sheet name="TC168-DC2 Inbound Details" sheetId="114" r:id="rId125"/>
-    <sheet name="TC169-Sup2 SO" sheetId="117" r:id="rId126"/>
-    <sheet name="TC170-BU2 PO" sheetId="118" r:id="rId127"/>
-    <sheet name="TC171-BU2 SO" sheetId="119" r:id="rId128"/>
-    <sheet name="TC172-BU1 PO" sheetId="120" r:id="rId129"/>
-    <sheet name="TC173-BU1 SO" sheetId="121" r:id="rId130"/>
-    <sheet name="TC174-DC2 Outbound Details" sheetId="115" r:id="rId131"/>
-    <sheet name="TC174-OutboundNo" sheetId="116" r:id="rId132"/>
-    <sheet name="TC182-185-Shipping Detail List" sheetId="170" r:id="rId133"/>
-    <sheet name="TC186-BU2 SellerGI Invoice" sheetId="123" r:id="rId134"/>
-    <sheet name="TC189-Customer Cargo Tracking" sheetId="124" r:id="rId135"/>
-    <sheet name="TC192-DC1 Inbound Details" sheetId="125" r:id="rId136"/>
-    <sheet name="TC197-DC1 Shipping Detail" sheetId="126" r:id="rId137"/>
-    <sheet name="TC198-Customer Cargo Tracking" sheetId="127" r:id="rId138"/>
-    <sheet name="TC202.1-BU3 Cargo Tracking" sheetId="131" r:id="rId139"/>
-    <sheet name="TC202.2-BU3 Cargo Tracking" sheetId="132" r:id="rId140"/>
-    <sheet name="TC202.3-BU3 Cargo Tracking" sheetId="133" r:id="rId141"/>
-    <sheet name="TC202.4-BU3 Cargo Tracking" sheetId="134" r:id="rId142"/>
-    <sheet name="TC204-DC1 Outbound Details" sheetId="135" r:id="rId143"/>
-    <sheet name="TC204-OutboundNo" sheetId="136" r:id="rId144"/>
-    <sheet name="TC205.1-BU1 SO-Regular" sheetId="137" r:id="rId145"/>
-    <sheet name="TC205.2-BU1 SO-Spot" sheetId="98" r:id="rId146"/>
-    <sheet name="TC206.1-Customer CO-Regular" sheetId="139" r:id="rId147"/>
-    <sheet name="TC206.2-Customer CO-Spot" sheetId="140" r:id="rId148"/>
-    <sheet name="TC207-BU1 Revise Shipment" sheetId="141" r:id="rId149"/>
-    <sheet name="TC208.1-Customer CT-Regular" sheetId="174" r:id="rId150"/>
-    <sheet name="TC208.2-Customer CT-Regular" sheetId="177" r:id="rId151"/>
-    <sheet name="TC208.3-Customer CT-Regular" sheetId="175" r:id="rId152"/>
-    <sheet name="TC208.1-Customer CT-Spot" sheetId="144" r:id="rId153"/>
-    <sheet name="TC208.2-Customer CT-Spot" sheetId="171" r:id="rId154"/>
-    <sheet name="TC208.3-Customer CT-Spot" sheetId="172" r:id="rId155"/>
-    <sheet name="TC208.4-Customer CT-Spot" sheetId="173" r:id="rId156"/>
-    <sheet name="TC208.5-Customer CT-Spot" sheetId="176" r:id="rId157"/>
-    <sheet name="TC214-BU1 SellerGI Invoice" sheetId="142" r:id="rId158"/>
-    <sheet name="TC217-Customer Inbound Details" sheetId="143" r:id="rId159"/>
-    <sheet name="TC218.1-BU1 SO-Regular" sheetId="178" r:id="rId160"/>
-    <sheet name="TC218.2-BU1 SO-Spot" sheetId="179" r:id="rId161"/>
-    <sheet name="TC219.1-Customer CO-Regular" sheetId="180" r:id="rId162"/>
-    <sheet name="TC219.2-Customer CO-Spot" sheetId="181" r:id="rId163"/>
-    <sheet name="TC220-Cus Shipping Detail" sheetId="182" r:id="rId164"/>
+    <sheet name="TC15- Weekly Period Generator" sheetId="183" r:id="rId25"/>
+    <sheet name="TC15-Customer Place Order" sheetId="29" r:id="rId26"/>
+    <sheet name="TC15-Inbound Date" sheetId="34" r:id="rId27"/>
+    <sheet name="TC15-Customer Order No" sheetId="37" r:id="rId28"/>
+    <sheet name="TC17-Customer Change Order" sheetId="35" r:id="rId29"/>
+    <sheet name="TC17-Inbound Date Change" sheetId="36" r:id="rId30"/>
+    <sheet name="TC17-AutoGen ChangeRequestNo" sheetId="38" r:id="rId31"/>
+    <sheet name="TC18-Customer Change" sheetId="145" r:id="rId32"/>
+    <sheet name="TC20-Autogen SOPO" sheetId="39" r:id="rId33"/>
+    <sheet name="TC20-Autogen SOPO (2)" sheetId="156" r:id="rId34"/>
+    <sheet name="TC022" sheetId="146" r:id="rId35"/>
+    <sheet name="TC024" sheetId="147" r:id="rId36"/>
+    <sheet name="TC026" sheetId="148" r:id="rId37"/>
+    <sheet name="TC027" sheetId="149" r:id="rId38"/>
+    <sheet name="TC028" sheetId="150" r:id="rId39"/>
+    <sheet name="TC31-AutoGen ChangeRequestNo" sheetId="40" r:id="rId40"/>
+    <sheet name="TC34-BU1 Check Change1" sheetId="41" r:id="rId41"/>
+    <sheet name="TC34-BU1 Check Change2" sheetId="42" r:id="rId42"/>
+    <sheet name="TC35-BU2 Check Change" sheetId="43" r:id="rId43"/>
+    <sheet name="TC36-BU3 Check Change" sheetId="44" r:id="rId44"/>
+    <sheet name="TC37-Sup1 Check Change" sheetId="45" r:id="rId45"/>
+    <sheet name="TC38-Sup2 Check Change" sheetId="46" r:id="rId46"/>
+    <sheet name="TC43-BU1-Check Purchase Order2" sheetId="48" r:id="rId47"/>
+    <sheet name="TC43-BU1-Check Purchase Order3" sheetId="49" r:id="rId48"/>
+    <sheet name="TC44-BU1-Check Sales Order" sheetId="47" r:id="rId49"/>
+    <sheet name="TC45-Cus Check Customer Order" sheetId="50" r:id="rId50"/>
+    <sheet name="TC46-Cus Spot Order" sheetId="51" r:id="rId51"/>
+    <sheet name="TC46-Spot Date" sheetId="52" r:id="rId52"/>
+    <sheet name="TC046" sheetId="151" r:id="rId53"/>
+    <sheet name="TC47-Autogen OrderNo Spot" sheetId="54" r:id="rId54"/>
+    <sheet name="TC47-Autogen OrderNo Spot (2)" sheetId="157" r:id="rId55"/>
+    <sheet name="TC048" sheetId="152" r:id="rId56"/>
+    <sheet name="TC049" sheetId="153" r:id="rId57"/>
+    <sheet name="TC051" sheetId="158" r:id="rId58"/>
+    <sheet name="TC054" sheetId="154" r:id="rId59"/>
+    <sheet name="TC54-Change RequestNo" sheetId="57" r:id="rId60"/>
+    <sheet name="TC54-Sup2 Order Change Reg" sheetId="55" r:id="rId61"/>
+    <sheet name="TC54-Change Date" sheetId="56" r:id="rId62"/>
+    <sheet name="TC068-BU2" sheetId="159" r:id="rId63"/>
+    <sheet name="TC070-BU1" sheetId="160" r:id="rId64"/>
+    <sheet name="TC072-Cus" sheetId="161" r:id="rId65"/>
+    <sheet name="TC73-BU SO Delivery Plan" sheetId="162" r:id="rId66"/>
+    <sheet name="TC73-BU SO Delivery Plan (Date)" sheetId="163" r:id="rId67"/>
+    <sheet name="TC73-BU SO Price" sheetId="164" r:id="rId68"/>
+    <sheet name="TC74-Sup1 Outbound Details" sheetId="58" r:id="rId69"/>
+    <sheet name="TC74-OutboundNo" sheetId="59" r:id="rId70"/>
+    <sheet name="TC75.1-Sup1 Cargo Tracking" sheetId="60" r:id="rId71"/>
+    <sheet name="TC75.2-Sup1 Cargo Tracking" sheetId="84" r:id="rId72"/>
+    <sheet name="TC75.3-Sup1 Cargo Tracking" sheetId="85" r:id="rId73"/>
+    <sheet name="TC79" sheetId="165" r:id="rId74"/>
+    <sheet name="TC82-Sup1 SO" sheetId="62" r:id="rId75"/>
+    <sheet name="TC83-BU3 PO" sheetId="63" r:id="rId76"/>
+    <sheet name="TC84-BU3 SO" sheetId="64" r:id="rId77"/>
+    <sheet name="TC85-BU1 PO" sheetId="65" r:id="rId78"/>
+    <sheet name="TC86-BU1 SO" sheetId="66" r:id="rId79"/>
+    <sheet name="TC87-Customer CO" sheetId="67" r:id="rId80"/>
+    <sheet name="TC88-Sup1 SellerGI Invoice" sheetId="61" r:id="rId81"/>
+    <sheet name="TC90-Sup1 Revise Shipment" sheetId="68" r:id="rId82"/>
+    <sheet name="TC93.1-Customer Cargo Tracking" sheetId="86" r:id="rId83"/>
+    <sheet name="TC93.2-Customer Cargo Tracking" sheetId="87" r:id="rId84"/>
+    <sheet name="TC93.3-Customer Cargo Tracking" sheetId="88" r:id="rId85"/>
+    <sheet name="TC97-DC3 Inbound Details" sheetId="70" r:id="rId86"/>
+    <sheet name="TC98-Sup1 SO" sheetId="71" r:id="rId87"/>
+    <sheet name="TC99-BU3 PO" sheetId="72" r:id="rId88"/>
+    <sheet name="TC100-BU3 SO" sheetId="73" r:id="rId89"/>
+    <sheet name="TC101-BU1 PO" sheetId="74" r:id="rId90"/>
+    <sheet name="TC102-BU1 SO" sheetId="75" r:id="rId91"/>
+    <sheet name="TC103-DC3 Revise Shipment" sheetId="76" r:id="rId92"/>
+    <sheet name="TC106.1-Sup1 Cargo Tracking" sheetId="89" r:id="rId93"/>
+    <sheet name="TC106.2-Sup1 Cargo Tracking" sheetId="90" r:id="rId94"/>
+    <sheet name="TC106.3-Sup1 Cargo Tracking" sheetId="91" r:id="rId95"/>
+    <sheet name="TC111-DC3 Outbound Details" sheetId="79" r:id="rId96"/>
+    <sheet name="TC111-OutboundNo" sheetId="80" r:id="rId97"/>
+    <sheet name="TC112-BU3 SO" sheetId="96" r:id="rId98"/>
+    <sheet name="TC113-BU1 PO" sheetId="97" r:id="rId99"/>
+    <sheet name="TC114-BU1 SO" sheetId="166" r:id="rId100"/>
+    <sheet name="TC115-Customer CO" sheetId="99" r:id="rId101"/>
+    <sheet name="TC116.1-Customer Cargo Tracking" sheetId="92" r:id="rId102"/>
+    <sheet name="TC116.2-Customer Cargo Tracking" sheetId="93" r:id="rId103"/>
+    <sheet name="TC116.3-Customer Cargo Tracking" sheetId="94" r:id="rId104"/>
+    <sheet name="TC116.4-Customer Cargo Tracking" sheetId="95" r:id="rId105"/>
+    <sheet name="TC120-DC3 Shipping Details" sheetId="81" r:id="rId106"/>
+    <sheet name="TC124-DC3 Revise Shipment" sheetId="82" r:id="rId107"/>
+    <sheet name="TC128.1-Customer Cargo Tracking" sheetId="100" r:id="rId108"/>
+    <sheet name="TC128.2-Customer Cargo Tracking" sheetId="101" r:id="rId109"/>
+    <sheet name="TC128.3-Customer Cargo Tracking" sheetId="102" r:id="rId110"/>
+    <sheet name="TC128.4-Customer Cargo Tracking" sheetId="103" r:id="rId111"/>
+    <sheet name="TC132-BU2 SellerGI Invoice" sheetId="83" r:id="rId112"/>
+    <sheet name="TC136-BU3 Cargo Tracking" sheetId="104" r:id="rId113"/>
+    <sheet name="TC138-BU1 Cargo Tracking" sheetId="105" r:id="rId114"/>
+    <sheet name="TC141-SUP2 SO Delivery Plan" sheetId="167" r:id="rId115"/>
+    <sheet name="TC141-SUP2 SODeliveryPlan(Date)" sheetId="168" r:id="rId116"/>
+    <sheet name="TC141-SUP2 SO Price" sheetId="169" r:id="rId117"/>
+    <sheet name="TC142-Sup2 Outbound Details" sheetId="106" r:id="rId118"/>
+    <sheet name="TC142-OutboundNo" sheetId="107" r:id="rId119"/>
+    <sheet name="TC149-Customer Cargo Tracking" sheetId="108" r:id="rId120"/>
+    <sheet name="TC151-BU2 Cargo Tracking" sheetId="109" r:id="rId121"/>
+    <sheet name="TC156-Sup2 SellerGI Invoice" sheetId="110" r:id="rId122"/>
+    <sheet name="TC159-Sup2 Revise Shipment" sheetId="111" r:id="rId123"/>
+    <sheet name="TC162-Customer Cargo Tracking" sheetId="112" r:id="rId124"/>
+    <sheet name="TC165-Customer Cargo Tracking" sheetId="113" r:id="rId125"/>
+    <sheet name="TC168-DC2 Inbound Details" sheetId="114" r:id="rId126"/>
+    <sheet name="TC169-Sup2 SO" sheetId="117" r:id="rId127"/>
+    <sheet name="TC170-BU2 PO" sheetId="118" r:id="rId128"/>
+    <sheet name="TC171-BU2 SO" sheetId="119" r:id="rId129"/>
+    <sheet name="TC172-BU1 PO" sheetId="120" r:id="rId130"/>
+    <sheet name="TC173-BU1 SO" sheetId="121" r:id="rId131"/>
+    <sheet name="TC174-DC2 Outbound Details" sheetId="115" r:id="rId132"/>
+    <sheet name="TC174-OutboundNo" sheetId="116" r:id="rId133"/>
+    <sheet name="TC182-185-Shipping Detail List" sheetId="170" r:id="rId134"/>
+    <sheet name="TC186-BU2 SellerGI Invoice" sheetId="123" r:id="rId135"/>
+    <sheet name="TC189-Customer Cargo Tracking" sheetId="124" r:id="rId136"/>
+    <sheet name="TC192-DC1 Inbound Details" sheetId="125" r:id="rId137"/>
+    <sheet name="TC197-DC1 Shipping Detail" sheetId="126" r:id="rId138"/>
+    <sheet name="TC198-Customer Cargo Tracking" sheetId="127" r:id="rId139"/>
+    <sheet name="TC202.1-BU3 Cargo Tracking" sheetId="131" r:id="rId140"/>
+    <sheet name="TC202.2-BU3 Cargo Tracking" sheetId="132" r:id="rId141"/>
+    <sheet name="TC202.3-BU3 Cargo Tracking" sheetId="133" r:id="rId142"/>
+    <sheet name="TC202.4-BU3 Cargo Tracking" sheetId="134" r:id="rId143"/>
+    <sheet name="TC204-DC1 Outbound Details" sheetId="135" r:id="rId144"/>
+    <sheet name="TC204-OutboundNo" sheetId="136" r:id="rId145"/>
+    <sheet name="TC205.1-BU1 SO-Regular" sheetId="137" r:id="rId146"/>
+    <sheet name="TC205.2-BU1 SO-Spot" sheetId="98" r:id="rId147"/>
+    <sheet name="TC206.1-Customer CO-Regular" sheetId="139" r:id="rId148"/>
+    <sheet name="TC206.2-Customer CO-Spot" sheetId="140" r:id="rId149"/>
+    <sheet name="TC207-BU1 Revise Shipment" sheetId="141" r:id="rId150"/>
+    <sheet name="TC208.1-Customer CT-Regular" sheetId="174" r:id="rId151"/>
+    <sheet name="TC208.2-Customer CT-Regular" sheetId="177" r:id="rId152"/>
+    <sheet name="TC208.3-Customer CT-Regular" sheetId="175" r:id="rId153"/>
+    <sheet name="TC208.1-Customer CT-Spot" sheetId="144" r:id="rId154"/>
+    <sheet name="TC208.2-Customer CT-Spot" sheetId="171" r:id="rId155"/>
+    <sheet name="TC208.3-Customer CT-Spot" sheetId="172" r:id="rId156"/>
+    <sheet name="TC208.4-Customer CT-Spot" sheetId="173" r:id="rId157"/>
+    <sheet name="TC208.5-Customer CT-Spot" sheetId="176" r:id="rId158"/>
+    <sheet name="TC214-BU1 SellerGI Invoice" sheetId="142" r:id="rId159"/>
+    <sheet name="TC217-Customer Inbound Details" sheetId="143" r:id="rId160"/>
+    <sheet name="TC218.1-BU1 SO-Regular" sheetId="178" r:id="rId161"/>
+    <sheet name="TC218.2-BU1 SO-Spot" sheetId="179" r:id="rId162"/>
+    <sheet name="TC219.1-Customer CO-Regular" sheetId="180" r:id="rId163"/>
+    <sheet name="TC219.2-Customer CO-Spot" sheetId="181" r:id="rId164"/>
+    <sheet name="TC220-Cus Shipping Detail" sheetId="182" r:id="rId165"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId165"/>
     <externalReference r:id="rId166"/>
     <externalReference r:id="rId167"/>
+    <externalReference r:id="rId168"/>
   </externalReferences>
   <definedNames>
-    <definedName name="activeFlagListArr" localSheetId="91">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="92">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="93">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="94">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="19">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="100">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="101">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="102">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="103">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="104">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="20">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="106">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="107">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="108">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="109">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="110">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="21">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="111">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="112">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="113">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="22">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="118">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="119">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="23">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="119">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="122">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="120">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="123">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="134">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="137">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="124">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="135">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="138">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="139">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="140">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="141">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="149">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="142">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="150">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="153">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="151">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="152">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="150">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="151">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="69">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="70">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="71">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="81">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="72">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="82">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="83">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="84">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr">#REF!</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="91">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="92">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="93">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="94">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="19">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="100">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="101">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="102">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="103">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="104">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="20">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="106">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="107">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="108">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="109">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="110">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="21">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="111">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="112">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="113">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="22">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="118">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="119">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="23">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="119">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="122">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="120">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="123">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="134">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="137">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="124">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="135">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="138">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="139">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="140">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="141">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="149">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="142">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="150">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="153">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="151">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="152">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="150">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="151">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="69">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="70">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="71">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="81">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="72">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="82">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="83">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="84">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr">#REF!</definedName>
     <definedName name="cargoStatus0">#REF!</definedName>
     <definedName name="cargoStatus1">#REF!</definedName>
     <definedName name="cargoStatus2">#REF!</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="91">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="92">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="93">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="94">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="19">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="100">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="101">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="102">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="103">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="104">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="20">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="106">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="107">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="108">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="109">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="110">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="21">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="111">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="112">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="113">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="22">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="118">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="119">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="23">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="119">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="122">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="120">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="123">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="134">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="137">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="124">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="135">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="138">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="139">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="140">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="141">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="149">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="142">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="150">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="153">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="151">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="152">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="150">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="151">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="69">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="70">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="71">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="81">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="72">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="82">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="83">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="84">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE">#REF!</definedName>
-    <definedName name="findAllUomArr" localSheetId="91">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="92">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="93">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="94">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="19">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="100">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="101">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="102">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="103">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="104">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="20">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="106">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="107">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="108">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="109">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="110">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="21">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="111">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="112">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="113">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="22">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="118">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="119">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="23">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="119">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="122">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="120">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="123">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="134">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="137">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="124">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="135">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="138">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="139">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="140">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="141">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="149">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="142">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="150">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="153">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="151">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="152">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="150">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="151">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="69">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="70">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="71">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="81">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="72">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="82">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="83">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="84">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="4">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="7">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="10">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="13">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="16">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="91">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="92">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="93">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="94">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="19">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="100">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="101">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="102">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="103">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="104">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="20">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="106">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="107">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="108">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="109">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="110">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="21">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="111">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="112">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="113">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="22">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="118">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="119">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="23">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="119">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="122">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="120">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="123">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="134">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="137">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="124">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="135">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="138">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="139">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="140">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="141">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="149">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="142">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="150">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="153">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="151">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="152">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="150">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="151">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="69">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="70">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="71">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="81">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="72">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="82">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="83">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="84">#REF!</definedName>
     <definedName name="PAIRED_FLAG">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="4">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="7">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="10">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="13">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="16">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="91">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="92">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="93">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="94">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="19">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="100">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="101">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="102">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="103">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="104">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="20">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="106">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="107">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="108">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="109">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="110">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="21">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="111">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="112">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="113">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="22">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="118">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="119">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="23">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="119">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="122">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="120">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="123">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="134">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="137">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="124">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="135">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="138">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="139">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="140">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="141">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="149">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="142">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="150">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="153">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="151">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="152">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="150">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="151">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="69">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="70">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="71">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="81">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="72">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="82">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="83">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="84">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG">#REF!</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="91">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="92">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="93">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="94">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="19">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="100">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="101">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="102">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="103">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="104">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="20">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="106">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="107">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="108">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="109">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="110">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="21">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="111">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="112">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="113">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="22">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="118">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="119">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="23">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="119">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="122">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="120">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="123">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="134">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="137">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="124">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="135">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="138">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="139">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="140">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="141">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="149">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="142">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="150">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="153">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="151">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="152">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="150">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="151">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="69">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="70">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="71">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="81">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="72">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="82">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="83">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="84">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr">#REF!</definedName>
-    <definedName name="partsTypeArr" localSheetId="91">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="92">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="93">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="94">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="19">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="100">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="101">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="102">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="103">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="104">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="20">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="106">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="107">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="108">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="109">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="110">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="21">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="111">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="112">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="113">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="22">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="118">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="119">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="23">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="119">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="122">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="120">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="123">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="134">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="137">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="124">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="135">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="138">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="139">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="140">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="141">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="149">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="142">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="150">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="153">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="151">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="152">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="150">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="151">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="69">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="70">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="71">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="81">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="72">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="82">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="83">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="84">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="4">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="7">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="10">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="13">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="16">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="91">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="92">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="93">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="94">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="19">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="100">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="101">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="102">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="103">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="104">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="20">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="106">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="107">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="108">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="109">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="110">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="21">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="111">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="112">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="113">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="22">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="118">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="119">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="23">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="119">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="122">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="120">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="123">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="134">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="137">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="124">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="135">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="138">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="139">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="140">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="141">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="149">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="142">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="150">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="153">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="151">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="152">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="150">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="151">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="69">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="70">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="71">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="81">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="72">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="82">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="83">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="84">#REF!</definedName>
     <definedName name="REPACKING_TYPE">#REF!</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="91">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="92">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="93">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="94">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="19">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="100">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="101">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="102">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="103">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="104">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="20">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="106">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="107">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="108">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="109">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="110">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="21">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="111">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="112">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="113">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="22">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="118">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="119">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="23">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="119">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="122">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="120">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="123">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="134">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="137">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="124">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="135">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="138">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="139">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="140">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="141">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="149">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="142">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="150">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="153">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="151">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="152">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="150">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="151">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="69">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="70">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="71">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="81">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="72">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="82">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="83">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="84">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr">#REF!</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="91">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="92">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="93">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="94">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="19">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="100">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="101">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="102">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="103">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="104">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="20">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="106">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="107">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="108">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="109">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="110">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="21">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="111">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="112">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="113">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="22">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="118">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="119">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="23">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="119">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="122">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="120">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="123">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="134">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="137">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="124">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="135">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="138">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="139">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="140">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="141">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="149">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="142">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="150">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="153">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="151">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="152">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="150">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="151">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="69">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="70">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="71">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="81">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="72">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="82">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="83">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="84">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="4">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="7">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="10">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="13">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="16">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="91">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="92">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="93">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="94">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="19">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="100">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="101">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="102">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="103">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="104">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="20">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="106">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="107">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="108">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="109">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="110">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="21">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="111">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="112">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="113">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="22">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="118">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="119">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="23">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="119">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="122">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="120">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="123">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="134">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="137">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="124">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="135">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="138">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="139">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="140">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="141">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="149">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="142">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="150">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="153">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="151">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="152">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="150">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="151">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="69">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="70">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="71">#REF!</definedName>
-    <definedName name="UOM_CODE" localSheetId="81">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="72">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="82">#REF!</definedName>
     <definedName name="UOM_CODE" localSheetId="83">#REF!</definedName>
+    <definedName name="UOM_CODE" localSheetId="84">#REF!</definedName>
     <definedName name="UOM_CODE">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -681,23 +682,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6121" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6122" uniqueCount="554">
   <si>
     <t>No</t>
   </si>
@@ -2387,24 +2377,27 @@
   <si>
     <t>PK12311006</t>
   </si>
+  <si>
+    <t xml:space="preserve">Period Generator </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.000_ "/>
-    <numFmt numFmtId="168" formatCode="#,##0_ "/>
-    <numFmt numFmtId="169" formatCode="dd\ mmm\ yyyy"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="d\ mmm\ yyyy"/>
-    <numFmt numFmtId="172" formatCode="0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.000"/>
-    <numFmt numFmtId="174" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.000_ "/>
+    <numFmt numFmtId="169" formatCode="#,##0_ "/>
+    <numFmt numFmtId="170" formatCode="dd\ mmm\ yyyy"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="d\ mmm\ yyyy"/>
+    <numFmt numFmtId="173" formatCode="0.00_ "/>
+    <numFmt numFmtId="174" formatCode="#,##0.000"/>
+    <numFmt numFmtId="175" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -2742,7 +2735,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -2782,7 +2775,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2792,13 +2785,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2810,7 +2803,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2864,13 +2857,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2879,8 +2872,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2891,7 +2884,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2902,17 +2895,17 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2976,7 +2969,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2993,11 +2986,11 @@
     <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4355,6 +4348,272 @@
 </file>
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D425F1-006C-46E3-9407-2493BB610C61}">
+  <sheetPr codeName="Sheet99"/>
+  <dimension ref="A1:S4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="18" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="16.44140625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" t="s">
+        <v>253</v>
+      </c>
+      <c r="L1" t="s">
+        <v>373</v>
+      </c>
+      <c r="M1" t="s">
+        <v>374</v>
+      </c>
+      <c r="N1" t="s">
+        <v>375</v>
+      </c>
+      <c r="O1" t="s">
+        <v>376</v>
+      </c>
+      <c r="P1" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>378</v>
+      </c>
+      <c r="R1" t="s">
+        <v>379</v>
+      </c>
+      <c r="S1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>'TC2-Contract Parts Info'!B4</f>
+        <v>s1003</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'TC2-Contract Parts Info'!A4</f>
+        <v>PK-TTAP-s1-003</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="str">
+        <f>'TC47-Autogen OrderNo Spot'!A2</f>
+        <v>cCB101-2311002</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>660</v>
+      </c>
+      <c r="I2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="J2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K2" t="s">
+        <v>382</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q2">
+        <v>660</v>
+      </c>
+      <c r="R2" t="s">
+        <v>264</v>
+      </c>
+      <c r="S2">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="95" t="str">
+        <f>'TC2-Contract Parts Info'!B5</f>
+        <v>s1004</v>
+      </c>
+      <c r="B3" t="str">
+        <f>'TC2-Contract Parts Info'!A5</f>
+        <v>PK-TTAP-s1-004</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="str">
+        <f>'TC47-Autogen OrderNo Spot'!A2</f>
+        <v>cCB101-2311002</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>660</v>
+      </c>
+      <c r="I3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="J3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K3" t="s">
+        <v>382</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>660</v>
+      </c>
+      <c r="P3" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>264</v>
+      </c>
+      <c r="S3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>'TC2-Contract Parts Info'!B7</f>
+        <v>s1006</v>
+      </c>
+      <c r="B4" t="str">
+        <f>'TC2-Contract Parts Info'!A7</f>
+        <v>PK-TTAP-s1-006</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="str">
+        <f>'TC47-Autogen OrderNo Spot'!A2</f>
+        <v>cCB101-2311002</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>660</v>
+      </c>
+      <c r="I4">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="J4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" t="s">
+        <v>382</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>600</v>
+      </c>
+      <c r="P4" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q4">
+        <v>60</v>
+      </c>
+      <c r="R4" t="s">
+        <v>264</v>
+      </c>
+      <c r="S4">
+        <v>660</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2942BCB-47BD-48A2-81AC-11D891D1F509}">
   <sheetPr codeName="Sheet100"/>
   <dimension ref="A1:R4"/>
@@ -4607,7 +4866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792C3127-D423-43DE-AA8B-CB8CD61E82CE}">
   <sheetPr codeName="Sheet101"/>
   <dimension ref="A1:V3"/>
@@ -4836,7 +5095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CBE502-D2C5-40B2-8CBE-8E9A45279F9A}">
   <sheetPr codeName="Sheet102"/>
   <dimension ref="A1:O2"/>
@@ -4953,7 +5212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A517EA-F9C1-45B6-B85F-2E8AC817BF4A}">
   <sheetPr codeName="Sheet103"/>
   <dimension ref="A1:O2"/>
@@ -5070,7 +5329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43C25A0-8CEE-474D-9859-BFA42304C446}">
   <sheetPr codeName="Sheet104"/>
   <dimension ref="A1:AK4"/>
@@ -5548,7 +5807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF48F8E2-194F-4DC4-8FF3-822E5BA6FA9E}">
   <sheetPr codeName="Sheet105"/>
   <dimension ref="A1:B4"/>
@@ -5601,7 +5860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701CCCF0-F24D-4D90-8B72-109EE6474988}">
   <sheetPr codeName="Sheet106"/>
   <dimension ref="A1:I4"/>
@@ -5653,18 +5912,18 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>22 Nov 2023</v>
+        <v>25 Nov 2023</v>
       </c>
       <c r="E2" t="s">
         <v>396</v>
       </c>
       <c r="F2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="G2" t="s">
         <v>397</v>
@@ -5687,18 +5946,18 @@
       </c>
       <c r="C3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="D3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>22 Nov 2023</v>
+        <v>25 Nov 2023</v>
       </c>
       <c r="E3" t="s">
         <v>399</v>
       </c>
       <c r="F3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="G3" t="s">
         <v>400</v>
@@ -5721,18 +5980,18 @@
       </c>
       <c r="C4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="D4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>22 Nov 2023</v>
+        <v>25 Nov 2023</v>
       </c>
       <c r="E4" t="s">
         <v>399</v>
       </c>
       <c r="F4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="G4" t="s">
         <v>400</v>
@@ -5749,7 +6008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A68731-D837-4182-B0B6-53F590B30F8E}">
   <sheetPr codeName="Sheet107"/>
   <dimension ref="A1:V3"/>
@@ -5978,7 +6237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539A7982-6062-42D6-A077-DFD32C13B06D}">
   <sheetPr codeName="Sheet108"/>
   <dimension ref="A1:O2"/>
@@ -6049,123 +6308,6 @@
       <c r="B2" s="8" t="str">
         <f>'TC74-Sup1 Outbound Details'!M2</f>
         <v>CAIU9500009</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>409</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="G2" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="H2" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="I2" s="58" t="s">
-        <v>366</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="K2" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="L2" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="M2" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="N2" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="O2" s="58" t="s">
-        <v>367</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1F1861-43E0-47AB-BDA8-3E9A2C599FA9}">
-  <sheetPr codeName="Sheet109"/>
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:O2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="15" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="8.88671875" style="2" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
-        <v>347</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C1" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="D1" s="58" t="s">
-        <v>422</v>
-      </c>
-      <c r="E1" s="58" t="s">
-        <v>408</v>
-      </c>
-      <c r="F1" s="58" t="s">
-        <v>413</v>
-      </c>
-      <c r="G1" s="58" t="s">
-        <v>414</v>
-      </c>
-      <c r="H1" s="58" t="s">
-        <v>410</v>
-      </c>
-      <c r="I1" s="58" t="s">
-        <v>415</v>
-      </c>
-      <c r="J1" s="58" t="s">
-        <v>416</v>
-      </c>
-      <c r="K1" s="58" t="s">
-        <v>417</v>
-      </c>
-      <c r="L1" s="58" t="s">
-        <v>418</v>
-      </c>
-      <c r="M1" s="58" t="s">
-        <v>419</v>
-      </c>
-      <c r="N1" s="58" t="s">
-        <v>420</v>
-      </c>
-      <c r="O1" s="58" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="str">
-        <f ca="1">'TC74-Sup1 Outbound Details'!E4</f>
-        <v>SP1-CS2-01-2311001</v>
-      </c>
-      <c r="B2" s="8" t="str">
-        <f>'TC74-Sup1 Outbound Details'!M4</f>
-        <v>TCLU4249350</v>
       </c>
       <c r="C2" s="58" t="s">
         <v>409</v>
@@ -6378,6 +6520,123 @@
 </file>
 
 <file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1F1861-43E0-47AB-BDA8-3E9A2C599FA9}">
+  <sheetPr codeName="Sheet109"/>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="15" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>422</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>408</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>413</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>414</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>410</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>415</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>416</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>417</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>418</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>419</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>420</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="str">
+        <f ca="1">'TC74-Sup1 Outbound Details'!E4</f>
+        <v>SP1-CS2-01-2311001</v>
+      </c>
+      <c r="B2" s="8" t="str">
+        <f>'TC74-Sup1 Outbound Details'!M4</f>
+        <v>TCLU4249350</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>409</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="N2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>367</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E57809-F180-44FA-854E-6DB65F9F83F3}">
   <sheetPr codeName="Sheet110"/>
   <dimension ref="A1:AK4"/>
@@ -6855,7 +7114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D9E9E2-90B4-4602-8379-D354F79B6E55}">
   <sheetPr codeName="Sheet111"/>
   <dimension ref="A1:B3"/>
@@ -6901,7 +7160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99625522-DD57-4001-92EB-D5831E88A615}">
   <sheetPr codeName="Sheet112"/>
   <dimension ref="A1:AK4"/>
@@ -7379,7 +7638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72431182-F20B-4CB6-9BF1-138CDF189B7D}">
   <sheetPr codeName="Sheet113"/>
   <dimension ref="A1:AK4"/>
@@ -7857,7 +8116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50FAE11-D840-4E39-9D6C-B723023057F4}">
   <sheetPr codeName="Sheet114"/>
   <dimension ref="A1:D4"/>
@@ -7931,7 +8190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A53B485-97D3-4A31-A34D-02150A9F57CD}">
   <sheetPr codeName="Sheet115"/>
   <dimension ref="A1:C4"/>
@@ -7992,7 +8251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F8383C-1952-4D9C-A699-E64AD1E77C20}">
   <sheetPr codeName="Sheet116"/>
   <dimension ref="A1:B4"/>
@@ -8040,7 +8299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AF31E2-588B-4649-8029-6420C85DD400}">
   <sheetPr codeName="Sheet117"/>
   <dimension ref="A1:AC5"/>
@@ -8170,7 +8429,7 @@
       </c>
       <c r="D2" s="2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="E2" s="2" t="str">
         <f ca="1">"SP2-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -8251,7 +8510,7 @@
       </c>
       <c r="D3" s="2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="E3" s="2" t="str">
         <f ca="1">"SP2-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -8340,7 +8599,7 @@
       </c>
       <c r="D4" s="2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>293</v>
@@ -8419,7 +8678,7 @@
       </c>
       <c r="D5" s="2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>293</v>
@@ -8507,7 +8766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3EEEE6-B289-47CF-8DE7-A6A2FF5BC947}">
   <sheetPr codeName="Sheet118"/>
   <dimension ref="A1:B3"/>
@@ -8546,427 +8805,6 @@
       </c>
       <c r="B3" t="s">
         <v>534</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet119.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF73A4B-C68A-43D4-8630-E19DD9005336}">
-  <sheetPr codeName="Sheet119"/>
-  <dimension ref="A1:Z5"/>
-  <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:Z3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="26" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="27" max="16384" width="8.88671875" style="2" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
-        <v>347</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C1" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="D1" s="58" t="s">
-        <v>350</v>
-      </c>
-      <c r="E1" s="58" t="s">
-        <v>351</v>
-      </c>
-      <c r="F1" s="58" t="s">
-        <v>352</v>
-      </c>
-      <c r="G1" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="H1" s="58" t="s">
-        <v>354</v>
-      </c>
-      <c r="I1" s="58" t="s">
-        <v>355</v>
-      </c>
-      <c r="J1" s="58" t="s">
-        <v>356</v>
-      </c>
-      <c r="K1" s="59" t="s">
-        <v>357</v>
-      </c>
-      <c r="L1" s="58" t="s">
-        <v>358</v>
-      </c>
-      <c r="M1" s="58" t="s">
-        <v>359</v>
-      </c>
-      <c r="N1" s="58" t="s">
-        <v>360</v>
-      </c>
-      <c r="O1" s="59" t="s">
-        <v>423</v>
-      </c>
-      <c r="P1" s="59" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="S1" s="58" t="s">
-        <v>361</v>
-      </c>
-      <c r="T1" s="58" t="s">
-        <v>362</v>
-      </c>
-      <c r="U1" s="58" t="s">
-        <v>363</v>
-      </c>
-      <c r="V1" s="58" t="s">
-        <v>364</v>
-      </c>
-      <c r="W1" s="58" t="s">
-        <v>361</v>
-      </c>
-      <c r="X1" s="58" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y1" s="58" t="s">
-        <v>363</v>
-      </c>
-      <c r="Z1" s="58" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="str">
-        <f ca="1">'TC142-Sup2 Outbound Details'!E2</f>
-        <v>SP2-CS2-01-2311001</v>
-      </c>
-      <c r="B2" s="8" t="str">
-        <f>'TC142-Sup2 Outbound Details'!M2</f>
-        <v>CAIU9500009</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>409</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>366</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="G2" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="H2" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="I2" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="K2" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="L2" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="M2" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="N2" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="O2" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="P2" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q2" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="R2" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="S2" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="T2" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="U2" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="V2" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="W2" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="X2" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y2" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="Z2" s="58" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="str">
-        <f ca="1">'TC142-Sup2 Outbound Details'!E3</f>
-        <v>SP2-CS2-01-2311001</v>
-      </c>
-      <c r="B3" s="8" t="str">
-        <f>'TC142-Sup2 Outbound Details'!M3</f>
-        <v>ONEU1162511</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>365</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>366</v>
-      </c>
-      <c r="E3" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="F3" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="G3" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="H3" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="I3" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="J3" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="K3" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="L3" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="M3" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="N3" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="O3" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="P3" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q3" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="R3" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="S3" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="T3" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="U3" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="V3" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="W3" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="X3" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y3" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="Z3" s="58" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="str">
-        <f>'TC142-Sup2 Outbound Details'!M4</f>
-        <v>ONEU1162511</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>365</v>
-      </c>
-      <c r="D4" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="G4" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="H4" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="I4" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="J4" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="K4" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="L4" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="M4" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="N4" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="O4" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="P4" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q4" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="R4" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="S4" s="58" t="s">
-        <v>366</v>
-      </c>
-      <c r="T4" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="U4" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="V4" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="W4" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="X4" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y4" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="Z4" s="58" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="str">
-        <f>'TC142-Sup2 Outbound Details'!M5</f>
-        <v>CNTW-SUP-C-230704001</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>365</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="F5" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="G5" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="H5" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="I5" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="J5" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="K5" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="L5" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="M5" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="N5" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="O5" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="P5" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q5" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="R5" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="S5" s="58" t="s">
-        <v>366</v>
-      </c>
-      <c r="T5" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="U5" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="V5" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="W5" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="X5" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y5" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="Z5" s="58" t="s">
-        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -9087,6 +8925,427 @@
 </file>
 
 <file path=xl/worksheets/sheet120.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF73A4B-C68A-43D4-8630-E19DD9005336}">
+  <sheetPr codeName="Sheet119"/>
+  <dimension ref="A1:Z5"/>
+  <sheetViews>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:Z3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="26" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="27" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>357</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="O1" s="59" t="s">
+        <v>423</v>
+      </c>
+      <c r="P1" s="59" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="S1" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="T1" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="U1" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="V1" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="W1" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="X1" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y1" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z1" s="58" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="str">
+        <f ca="1">'TC142-Sup2 Outbound Details'!E2</f>
+        <v>SP2-CS2-01-2311001</v>
+      </c>
+      <c r="B2" s="8" t="str">
+        <f>'TC142-Sup2 Outbound Details'!M2</f>
+        <v>CAIU9500009</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>409</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="N2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="P2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="R2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="S2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="T2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="U2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="V2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="W2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="X2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z2" s="58" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="str">
+        <f ca="1">'TC142-Sup2 Outbound Details'!E3</f>
+        <v>SP2-CS2-01-2311001</v>
+      </c>
+      <c r="B3" s="8" t="str">
+        <f>'TC142-Sup2 Outbound Details'!M3</f>
+        <v>ONEU1162511</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="P3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="R3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="S3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="T3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="U3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="V3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="W3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="X3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z3" s="58" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="str">
+        <f>'TC142-Sup2 Outbound Details'!M4</f>
+        <v>ONEU1162511</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="O4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="P4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="R4" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="S4" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="T4" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="U4" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="V4" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="W4" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="X4" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y4" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z4" s="58" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="str">
+        <f>'TC142-Sup2 Outbound Details'!M5</f>
+        <v>CNTW-SUP-C-230704001</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="H5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="J5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="K5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="L5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="M5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="N5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="O5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="P5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="R5" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="S5" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="T5" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="U5" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="V5" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="W5" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="X5" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y5" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z5" s="58" t="s">
+        <v>367</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352A00B5-D02F-4C38-BB99-907D191BAA2E}">
   <sheetPr codeName="Sheet120"/>
   <dimension ref="A1:Z5"/>
@@ -9507,7 +9766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet121.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAD4283-60EA-46FB-BA4D-BE7BDBF89C95}">
   <sheetPr codeName="Sheet121"/>
   <dimension ref="A1:B3"/>
@@ -9553,7 +9812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet122.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86538E9-DC0F-41A5-9A2D-6FA6F49CAEAF}">
   <sheetPr codeName="Sheet122"/>
   <dimension ref="A1:I5"/>
@@ -9606,18 +9865,18 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>22 Nov 2023</v>
+        <v>25 Nov 2023</v>
       </c>
       <c r="E2" t="s">
         <v>396</v>
       </c>
       <c r="F2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="G2" t="s">
         <v>397</v>
@@ -9636,18 +9895,18 @@
       </c>
       <c r="C3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="D3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>22 Nov 2023</v>
+        <v>25 Nov 2023</v>
       </c>
       <c r="E3" t="s">
         <v>399</v>
       </c>
       <c r="F3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="G3" t="s">
         <v>400</v>
@@ -9670,18 +9929,18 @@
       </c>
       <c r="C4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="D4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>22 Nov 2023</v>
+        <v>25 Nov 2023</v>
       </c>
       <c r="E4" t="s">
         <v>399</v>
       </c>
       <c r="F4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="G4" t="s">
         <v>400</v>
@@ -9704,18 +9963,18 @@
       </c>
       <c r="C5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="D5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>22 Nov 2023</v>
+        <v>25 Nov 2023</v>
       </c>
       <c r="E5" t="s">
         <v>399</v>
       </c>
       <c r="F5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="G5" t="s">
         <v>400</v>
@@ -9732,7 +9991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet123.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9350DC2-E670-43AA-B3A3-935A176BD77E}">
   <sheetPr codeName="Sheet123"/>
   <dimension ref="A1:Z5"/>
@@ -10153,7 +10412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C9A5B1-29D7-4956-B172-4B5608553D94}">
   <sheetPr codeName="Sheet124"/>
   <dimension ref="A1:Z5"/>
@@ -10574,7 +10833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8116E47-E965-422A-8693-76DDFCA1FEA2}">
   <sheetPr codeName="Sheet125"/>
   <dimension ref="A1:B5"/>
@@ -10604,7 +10863,7 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -10614,7 +10873,7 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B5" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -10624,7 +10883,7 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -10634,7 +10893,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
     </row>
   </sheetData>
@@ -10642,7 +10901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FD3DC9-8455-454F-900B-CE0142DEF889}">
   <sheetPr codeName="Sheet126"/>
   <dimension ref="A1:R4"/>
@@ -10888,7 +11147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FC9381-9C44-4D71-A046-E8E5257B8C2C}">
   <sheetPr codeName="Sheet127"/>
   <dimension ref="A1:Q4"/>
@@ -11120,7 +11379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E273E9C-D253-448A-A191-322A7F577CB9}">
   <sheetPr codeName="Sheet128"/>
   <dimension ref="A1:R4"/>
@@ -11355,238 +11614,6 @@
         <v>200</v>
       </c>
       <c r="R4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet129.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FED2218-D12D-4A7B-A04C-1FA7717B8908}">
-  <sheetPr codeName="Sheet129"/>
-  <dimension ref="A1:Q4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="17" width="15.77734375" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E1" t="s">
-        <v>381</v>
-      </c>
-      <c r="F1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I1" t="s">
-        <v>372</v>
-      </c>
-      <c r="J1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L1" t="s">
-        <v>253</v>
-      </c>
-      <c r="M1" t="s">
-        <v>383</v>
-      </c>
-      <c r="N1" t="s">
-        <v>384</v>
-      </c>
-      <c r="O1" t="s">
-        <v>385</v>
-      </c>
-      <c r="P1" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
-        <f>'TC2-Contract Parts Info'!B2</f>
-        <v>s1001</v>
-      </c>
-      <c r="B2" t="str">
-        <f>'TC2-Contract Parts Info'!C2</f>
-        <v>PK-TTAP-s1-001</v>
-      </c>
-      <c r="D2" t="str">
-        <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
-      </c>
-      <c r="E2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2" s="50">
-        <v>1620</v>
-      </c>
-      <c r="J2">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>165</v>
-      </c>
-      <c r="L2" t="s">
-        <v>382</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="50">
-        <v>1620</v>
-      </c>
-      <c r="O2" t="s">
-        <v>264</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <f>'TC2-Contract Parts Info'!B3</f>
-        <v>s1002</v>
-      </c>
-      <c r="B3" t="str">
-        <f>'TC2-Contract Parts Info'!C3</f>
-        <v>PK-TTAP-s1-002</v>
-      </c>
-      <c r="D3" t="str">
-        <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
-      </c>
-      <c r="E3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3" s="50">
-        <v>1620</v>
-      </c>
-      <c r="J3">
-        <v>10</v>
-      </c>
-      <c r="K3" t="s">
-        <v>165</v>
-      </c>
-      <c r="L3" t="s">
-        <v>382</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="50">
-        <v>1620</v>
-      </c>
-      <c r="O3" t="s">
-        <v>264</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <f>'TC2-Contract Parts Info'!B6</f>
-        <v>s1005</v>
-      </c>
-      <c r="B4" t="str">
-        <f>'TC2-Contract Parts Info'!C6</f>
-        <v>PK-TTAP-s1-005</v>
-      </c>
-      <c r="D4" t="str">
-        <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
-      </c>
-      <c r="E4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4">
-        <v>10</v>
-      </c>
-      <c r="K4" t="s">
-        <v>165</v>
-      </c>
-      <c r="L4" t="s">
-        <v>382</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>600</v>
-      </c>
-      <c r="O4" t="s">
-        <v>264</v>
-      </c>
-      <c r="P4">
-        <v>200</v>
-      </c>
-      <c r="Q4" t="s">
         <v>264</v>
       </c>
     </row>
@@ -11781,6 +11808,238 @@
 </file>
 
 <file path=xl/worksheets/sheet130.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FED2218-D12D-4A7B-A04C-1FA7717B8908}">
+  <sheetPr codeName="Sheet129"/>
+  <dimension ref="A1:Q4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="15.77734375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" t="s">
+        <v>253</v>
+      </c>
+      <c r="M1" t="s">
+        <v>383</v>
+      </c>
+      <c r="N1" t="s">
+        <v>384</v>
+      </c>
+      <c r="O1" t="s">
+        <v>385</v>
+      </c>
+      <c r="P1" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>'TC2-Contract Parts Info'!B2</f>
+        <v>s1001</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'TC2-Contract Parts Info'!C2</f>
+        <v>PK-TTAP-s1-001</v>
+      </c>
+      <c r="D2" t="str">
+        <f>'TC20-Autogen SOPO'!A2</f>
+        <v>sCB101-2311001</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2" s="50">
+        <v>1620</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L2" t="s">
+        <v>382</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="50">
+        <v>1620</v>
+      </c>
+      <c r="O2" t="s">
+        <v>264</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>'TC2-Contract Parts Info'!B3</f>
+        <v>s1002</v>
+      </c>
+      <c r="B3" t="str">
+        <f>'TC2-Contract Parts Info'!C3</f>
+        <v>PK-TTAP-s1-002</v>
+      </c>
+      <c r="D3" t="str">
+        <f>'TC20-Autogen SOPO'!A2</f>
+        <v>sCB101-2311001</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" s="50">
+        <v>1620</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L3" t="s">
+        <v>382</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="50">
+        <v>1620</v>
+      </c>
+      <c r="O3" t="s">
+        <v>264</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>'TC2-Contract Parts Info'!B6</f>
+        <v>s1005</v>
+      </c>
+      <c r="B4" t="str">
+        <f>'TC2-Contract Parts Info'!C6</f>
+        <v>PK-TTAP-s1-005</v>
+      </c>
+      <c r="D4" t="str">
+        <f>'TC20-Autogen SOPO'!A2</f>
+        <v>sCB101-2311001</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>800</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>165</v>
+      </c>
+      <c r="L4" t="s">
+        <v>382</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>600</v>
+      </c>
+      <c r="O4" t="s">
+        <v>264</v>
+      </c>
+      <c r="P4">
+        <v>200</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet131.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2A4775-C7A0-48C6-8AE9-8CE8204A2253}">
   <sheetPr codeName="Sheet130"/>
   <dimension ref="A1:T7"/>
@@ -12259,7 +12518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet131.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet132.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F07E8E-A8B2-4548-8662-EE82B48E5DAA}">
   <sheetPr codeName="Sheet131"/>
   <dimension ref="A1:AH5"/>
@@ -12404,7 +12663,7 @@
       </c>
       <c r="D2" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="E2" s="68" t="str">
         <f ca="1">"DC2-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -12433,11 +12692,11 @@
       </c>
       <c r="M2" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Dec 2023</v>
+        <v>05 Dec 2023</v>
       </c>
       <c r="N2" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())+1), "dd MMM yyyy")</f>
-        <v>03 Dec 2023</v>
+        <v>06 Dec 2023</v>
       </c>
       <c r="O2" s="70" t="s">
         <v>432</v>
@@ -12516,7 +12775,7 @@
       </c>
       <c r="D3" s="68" t="str">
         <f t="shared" ref="D3:D5" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="E3" s="68" t="str">
         <f ca="1">"DC2-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -12545,11 +12804,11 @@
       </c>
       <c r="M3" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Dec 2023</v>
+        <v>05 Dec 2023</v>
       </c>
       <c r="N3" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())+1), "dd MMM yyyy")</f>
-        <v>03 Dec 2023</v>
+        <v>06 Dec 2023</v>
       </c>
       <c r="O3" s="70" t="s">
         <v>429</v>
@@ -12628,7 +12887,7 @@
       </c>
       <c r="D4" s="68" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="E4" s="68" t="str">
         <f ca="1">"DC2-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -12657,11 +12916,11 @@
       </c>
       <c r="M4" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Dec 2023</v>
+        <v>05 Dec 2023</v>
       </c>
       <c r="N4" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())+1), "dd MMM yyyy")</f>
-        <v>03 Dec 2023</v>
+        <v>06 Dec 2023</v>
       </c>
       <c r="O4" s="70" t="s">
         <v>430</v>
@@ -12740,7 +12999,7 @@
       </c>
       <c r="D5" s="68" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="F5" s="68" t="s">
         <v>293</v>
@@ -12765,11 +13024,11 @@
       </c>
       <c r="M5" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Dec 2023</v>
+        <v>05 Dec 2023</v>
       </c>
       <c r="N5" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())+1), "dd MMM yyyy")</f>
-        <v>03 Dec 2023</v>
+        <v>06 Dec 2023</v>
       </c>
       <c r="O5" s="70" t="s">
         <v>429</v>
@@ -12828,7 +13087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet132.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet133.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D846E8D1-B40C-4EA1-A7DE-A4F2ACF687C9}">
   <sheetPr codeName="Sheet132"/>
   <dimension ref="A1:B3"/>
@@ -12874,7 +13133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet133.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet134.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CF162C-CAB9-4923-A33C-FD4BE24CC12C}">
   <sheetPr codeName="Sheet152"/>
   <dimension ref="A1:B5"/>
@@ -12937,7 +13196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet134.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet135.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA562B8C-4E20-40A9-B811-F501179C18C8}">
   <sheetPr codeName="Sheet133"/>
   <dimension ref="A1:B3"/>
@@ -12983,7 +13242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet135.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet136.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BF097F-D619-46B3-8EE6-5FFD64FAA663}">
   <sheetPr codeName="Sheet134"/>
   <dimension ref="A1:Z8"/>
@@ -13650,7 +13909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet136.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet137.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9239F5C2-D292-42C8-A6DA-300B765BC8BB}">
   <sheetPr codeName="Sheet135"/>
   <dimension ref="A1:B9"/>
@@ -13680,7 +13939,7 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -13690,7 +13949,7 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B9" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -13700,7 +13959,7 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -13710,7 +13969,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -13720,7 +13979,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -13730,7 +13989,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -13740,7 +13999,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -13750,7 +14009,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
     </row>
   </sheetData>
@@ -13758,7 +14017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet137.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet138.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFED21D6-6F8B-455C-A709-69BBEFFF5A14}">
   <sheetPr codeName="Sheet136"/>
   <dimension ref="A1:C5"/>
@@ -13837,7 +14096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet138.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet139.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786791D2-EED2-4282-B662-7CAE12AD60B1}">
   <sheetPr codeName="Sheet137"/>
   <dimension ref="A1:Z8"/>
@@ -14496,235 +14755,6 @@
         <v>367</v>
       </c>
       <c r="Z8" s="58" t="s">
-        <v>367</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet139.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C629F7-19B9-47D6-9C8E-5A77F5AC0864}">
-  <sheetPr codeName="Sheet138"/>
-  <dimension ref="A1:V3"/>
-  <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="22" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="23" max="16384" width="8.88671875" style="2" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
-        <v>347</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C1" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="D1" s="58" t="s">
-        <v>350</v>
-      </c>
-      <c r="E1" s="58" t="s">
-        <v>351</v>
-      </c>
-      <c r="F1" s="58" t="s">
-        <v>352</v>
-      </c>
-      <c r="G1" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="H1" s="58" t="s">
-        <v>354</v>
-      </c>
-      <c r="I1" s="58" t="s">
-        <v>355</v>
-      </c>
-      <c r="J1" s="58" t="s">
-        <v>356</v>
-      </c>
-      <c r="K1" s="59" t="s">
-        <v>357</v>
-      </c>
-      <c r="L1" s="58" t="s">
-        <v>358</v>
-      </c>
-      <c r="M1" s="58" t="s">
-        <v>359</v>
-      </c>
-      <c r="N1" s="58" t="s">
-        <v>360</v>
-      </c>
-      <c r="O1" s="58" t="s">
-        <v>361</v>
-      </c>
-      <c r="P1" s="58" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q1" s="58" t="s">
-        <v>363</v>
-      </c>
-      <c r="R1" s="58" t="s">
-        <v>364</v>
-      </c>
-      <c r="S1" s="58" t="s">
-        <v>361</v>
-      </c>
-      <c r="T1" s="58" t="s">
-        <v>362</v>
-      </c>
-      <c r="U1" s="58" t="s">
-        <v>363</v>
-      </c>
-      <c r="V1" s="58" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="str">
-        <f ca="1">'TC74-Sup1 Outbound Details'!E3</f>
-        <v>SP1-CS2-01-2311001</v>
-      </c>
-      <c r="B2" s="8" t="str">
-        <f>'TC74-Sup1 Outbound Details'!M3</f>
-        <v>MY-ELA-C-230704001</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>365</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="G2" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="H2" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="I2" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="K2" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="L2" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="M2" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="N2" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="O2" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="P2" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q2" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="R2" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="S2" s="58" t="s">
-        <v>366</v>
-      </c>
-      <c r="T2" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="U2" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="V2" s="58" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="str">
-        <f ca="1">'TC74-Sup1 Outbound Details'!E5</f>
-        <v>SP1-CS2-01-2311002</v>
-      </c>
-      <c r="B3" s="8" t="str">
-        <f>'TC74-Sup1 Outbound Details'!M5</f>
-        <v>MY-ELA-C-230704001</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>365</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="E3" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="F3" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="G3" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="H3" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="I3" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="J3" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="K3" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="L3" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="M3" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="N3" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="O3" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="P3" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q3" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="R3" s="58" t="s">
-        <v>404</v>
-      </c>
-      <c r="S3" s="58" t="s">
-        <v>366</v>
-      </c>
-      <c r="T3" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="U3" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="V3" s="58" t="s">
         <v>367</v>
       </c>
     </row>
@@ -14899,6 +14929,235 @@
 </file>
 
 <file path=xl/worksheets/sheet140.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C629F7-19B9-47D6-9C8E-5A77F5AC0864}">
+  <sheetPr codeName="Sheet138"/>
+  <dimension ref="A1:V3"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="25.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="22" width="20.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="23" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>352</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>357</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="P1" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q1" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="R1" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="S1" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="T1" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="U1" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="V1" s="58" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="str">
+        <f ca="1">'TC74-Sup1 Outbound Details'!E3</f>
+        <v>SP1-CS2-01-2311001</v>
+      </c>
+      <c r="B2" s="8" t="str">
+        <f>'TC74-Sup1 Outbound Details'!M3</f>
+        <v>MY-ELA-C-230704001</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="M2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="N2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="O2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="P2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="R2" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="S2" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="T2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="U2" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="V2" s="58" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="str">
+        <f ca="1">'TC74-Sup1 Outbound Details'!E5</f>
+        <v>SP1-CS2-01-2311002</v>
+      </c>
+      <c r="B3" s="8" t="str">
+        <f>'TC74-Sup1 Outbound Details'!M5</f>
+        <v>MY-ELA-C-230704001</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="N3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="O3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="P3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="R3" s="58" t="s">
+        <v>404</v>
+      </c>
+      <c r="S3" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="T3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="U3" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="V3" s="58" t="s">
+        <v>367</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet141.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FEF123-A1B5-4CDF-B51C-D45CE237A4C5}">
   <sheetPr codeName="Sheet139"/>
   <dimension ref="A1:O2"/>
@@ -15015,7 +15274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet141.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet142.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5000B011-4769-4E9A-A947-34E6231FB82D}">
   <sheetPr codeName="Sheet140"/>
   <dimension ref="A1:O2"/>
@@ -15132,7 +15391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet142.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet143.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7483A7FB-817C-448D-9FA1-492D7F03AB1A}">
   <sheetPr codeName="Sheet141"/>
   <dimension ref="A1:AK4"/>
@@ -15610,7 +15869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet143.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet144.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B137BAE1-B930-4B5D-AF31-3E1874611571}">
   <sheetPr codeName="Sheet142"/>
   <dimension ref="A1:AG9"/>
@@ -15752,7 +16011,7 @@
       </c>
       <c r="D2" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="E2" s="68" t="str">
         <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -15859,7 +16118,7 @@
       </c>
       <c r="D3" s="68" t="str">
         <f t="shared" ref="D3:D9" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="E3" s="68" t="str">
         <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -15966,7 +16225,7 @@
       </c>
       <c r="D4" s="68" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="E4" s="68" t="str">
         <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -16073,7 +16332,7 @@
       </c>
       <c r="D5" s="68" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="F5" s="68" t="s">
         <v>293</v>
@@ -16166,7 +16425,7 @@
       </c>
       <c r="D6" s="68" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="E6" s="68" t="str">
         <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"003"</f>
@@ -16269,7 +16528,7 @@
       </c>
       <c r="D7" s="68" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="E7" s="68" t="str">
         <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"004"</f>
@@ -16376,7 +16635,7 @@
       </c>
       <c r="D8" s="68" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="E8" s="68" t="str">
         <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"005"</f>
@@ -16483,7 +16742,7 @@
       </c>
       <c r="D9" s="68" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="E9" s="68" t="str">
         <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"005"</f>
@@ -16582,7 +16841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet144.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet145.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0128EDA1-566A-4405-9CB0-3F38A9C7F4F1}">
   <sheetPr codeName="Sheet143"/>
   <dimension ref="A1:B7"/>
@@ -16664,7 +16923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet145.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet146.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70577FD9-CA84-46C6-AD1E-DF07144CB47C}">
   <sheetPr codeName="Sheet144"/>
   <dimension ref="A1:T7"/>
@@ -17142,7 +17401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet146.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet147.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508C75F4-9487-47EE-9DA3-8D744FCFCEE9}">
   <sheetPr codeName="Sheet145"/>
   <dimension ref="A1:R4"/>
@@ -17395,7 +17654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet147.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet148.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47916C1-3BA9-4151-B6D5-49B8BA285E50}">
   <sheetPr codeName="Sheet146"/>
   <dimension ref="A1:S7"/>
@@ -17852,7 +18111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet148.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet149.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A644DA6-5AFE-4AC7-A7AD-2B07CFF4F198}">
   <sheetPr codeName="Sheet147"/>
   <dimension ref="A1:R4"/>
@@ -18102,326 +18361,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet149.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06068F2F-B4B2-48BE-9466-C323517F5F01}">
-  <sheetPr codeName="Sheet148"/>
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.5546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.33203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="8" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="42.21875" style="2" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="8.88671875" style="2" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="str">
-        <f ca="1">'TC204-DC1 Outbound Details'!E2</f>
-        <v>DC1-CS2-01-2311001</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <f>'TC204-DC1 Outbound Details'!M2</f>
-        <v>CAJU9500009</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <f t="shared" ref="C2:C9" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>12 Nov 2023</v>
-      </c>
-      <c r="D2" s="2" t="str">
-        <f t="shared" ref="D2:D9" ca="1" si="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>22 Nov 2023</v>
-      </c>
-      <c r="E2" s="74" t="s">
-        <v>451</v>
-      </c>
-      <c r="F2" s="2" t="str">
-        <f t="shared" ref="F2:F9" ca="1" si="2">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="H2" s="74" t="s">
-        <v>447</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="str">
-        <f ca="1">'TC204-DC1 Outbound Details'!E3</f>
-        <v>DC1-CS2-01-2311001</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <f>'TC204-DC1 Outbound Details'!M3</f>
-        <v>ONEU1162511</v>
-      </c>
-      <c r="C3" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>12 Nov 2023</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>22 Nov 2023</v>
-      </c>
-      <c r="E3" s="74" t="s">
-        <v>451</v>
-      </c>
-      <c r="F3" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>02 Nov 2023</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="H3" s="74" t="s">
-        <v>447</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="str">
-        <f ca="1">'TC204-DC1 Outbound Details'!E4</f>
-        <v>DC1-CS2-01-2311001</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <f>'TC204-DC1 Outbound Details'!M4</f>
-        <v>CNTW-SUP-C-230704001</v>
-      </c>
-      <c r="C4" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>12 Nov 2023</v>
-      </c>
-      <c r="D4" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>22 Nov 2023</v>
-      </c>
-      <c r="E4" s="74" t="s">
-        <v>451</v>
-      </c>
-      <c r="F4" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>02 Nov 2023</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="H4" s="74" t="s">
-        <v>447</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="str">
-        <f>'TC204-DC1 Outbound Details'!M5</f>
-        <v>ONEU1162511</v>
-      </c>
-      <c r="C5" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>12 Nov 2023</v>
-      </c>
-      <c r="D5" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>22 Nov 2023</v>
-      </c>
-      <c r="E5" s="74" t="s">
-        <v>451</v>
-      </c>
-      <c r="F5" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>02 Nov 2023</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="H5" s="74" t="s">
-        <v>447</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="str">
-        <f ca="1">'TC204-DC1 Outbound Details'!E6</f>
-        <v>DC1-CS2-01-2311003</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <f>'TC204-DC1 Outbound Details'!M6</f>
-        <v>CAIU9492794</v>
-      </c>
-      <c r="C6" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>12 Nov 2023</v>
-      </c>
-      <c r="D6" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>22 Nov 2023</v>
-      </c>
-      <c r="E6" s="74" t="s">
-        <v>452</v>
-      </c>
-      <c r="F6" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>02 Nov 2023</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="H6" s="74" t="s">
-        <v>448</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="str">
-        <f ca="1">'TC204-DC1 Outbound Details'!E7</f>
-        <v>DC1-CS2-01-2311004</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <f>'TC204-DC1 Outbound Details'!M7</f>
-        <v>CAIU9500009</v>
-      </c>
-      <c r="C7" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>12 Nov 2023</v>
-      </c>
-      <c r="D7" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>22 Nov 2023</v>
-      </c>
-      <c r="E7" s="74" t="s">
-        <v>452</v>
-      </c>
-      <c r="F7" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>02 Nov 2023</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="H7" s="74" t="s">
-        <v>448</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="str">
-        <f ca="1">'TC204-DC1 Outbound Details'!E8</f>
-        <v>DC1-CS2-01-2311005</v>
-      </c>
-      <c r="B8" s="2" t="str">
-        <f>'TC204-DC1 Outbound Details'!M8</f>
-        <v>CAIU9492794</v>
-      </c>
-      <c r="C8" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>12 Nov 2023</v>
-      </c>
-      <c r="D8" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>22 Nov 2023</v>
-      </c>
-      <c r="E8" s="74" t="s">
-        <v>452</v>
-      </c>
-      <c r="F8" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>02 Nov 2023</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="H8" s="74" t="s">
-        <v>448</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="str">
-        <f ca="1">'TC204-DC1 Outbound Details'!E9</f>
-        <v>DC1-CS2-01-2311005</v>
-      </c>
-      <c r="B9" s="2" t="str">
-        <f>'TC204-DC1 Outbound Details'!M9</f>
-        <v>CAIU9492794</v>
-      </c>
-      <c r="C9" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>12 Nov 2023</v>
-      </c>
-      <c r="D9" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>22 Nov 2023</v>
-      </c>
-      <c r="E9" s="74" t="s">
-        <v>452</v>
-      </c>
-      <c r="F9" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>02 Nov 2023</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="H9" s="74" t="s">
-        <v>448</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -18570,6 +18509,326 @@
 </file>
 
 <file path=xl/worksheets/sheet150.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06068F2F-B4B2-48BE-9466-C323517F5F01}">
+  <sheetPr codeName="Sheet148"/>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.5546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.33203125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="8" width="15.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="42.21875" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="str">
+        <f ca="1">'TC204-DC1 Outbound Details'!E2</f>
+        <v>DC1-CS2-01-2311001</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>'TC204-DC1 Outbound Details'!M2</f>
+        <v>CAJU9500009</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f t="shared" ref="C2:C9" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
+        <v>15 Nov 2023</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f t="shared" ref="D2:D9" ca="1" si="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
+        <v>25 Nov 2023</v>
+      </c>
+      <c r="E2" s="74" t="s">
+        <v>451</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f t="shared" ref="F2:F9" ca="1" si="2">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
+        <v>05 Nov 2023</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="H2" s="74" t="s">
+        <v>447</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="str">
+        <f ca="1">'TC204-DC1 Outbound Details'!E3</f>
+        <v>DC1-CS2-01-2311001</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>'TC204-DC1 Outbound Details'!M3</f>
+        <v>ONEU1162511</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>15 Nov 2023</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>25 Nov 2023</v>
+      </c>
+      <c r="E3" s="74" t="s">
+        <v>451</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>05 Nov 2023</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="H3" s="74" t="s">
+        <v>447</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="str">
+        <f ca="1">'TC204-DC1 Outbound Details'!E4</f>
+        <v>DC1-CS2-01-2311001</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>'TC204-DC1 Outbound Details'!M4</f>
+        <v>CNTW-SUP-C-230704001</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>15 Nov 2023</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>25 Nov 2023</v>
+      </c>
+      <c r="E4" s="74" t="s">
+        <v>451</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>05 Nov 2023</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="H4" s="74" t="s">
+        <v>447</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="str">
+        <f>'TC204-DC1 Outbound Details'!M5</f>
+        <v>ONEU1162511</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>15 Nov 2023</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>25 Nov 2023</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>451</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>05 Nov 2023</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="H5" s="74" t="s">
+        <v>447</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="str">
+        <f ca="1">'TC204-DC1 Outbound Details'!E6</f>
+        <v>DC1-CS2-01-2311003</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>'TC204-DC1 Outbound Details'!M6</f>
+        <v>CAIU9492794</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>15 Nov 2023</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>25 Nov 2023</v>
+      </c>
+      <c r="E6" s="74" t="s">
+        <v>452</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>05 Nov 2023</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="H6" s="74" t="s">
+        <v>448</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="str">
+        <f ca="1">'TC204-DC1 Outbound Details'!E7</f>
+        <v>DC1-CS2-01-2311004</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>'TC204-DC1 Outbound Details'!M7</f>
+        <v>CAIU9500009</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>15 Nov 2023</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>25 Nov 2023</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>452</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>05 Nov 2023</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="H7" s="74" t="s">
+        <v>448</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="str">
+        <f ca="1">'TC204-DC1 Outbound Details'!E8</f>
+        <v>DC1-CS2-01-2311005</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>'TC204-DC1 Outbound Details'!M8</f>
+        <v>CAIU9492794</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>15 Nov 2023</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>25 Nov 2023</v>
+      </c>
+      <c r="E8" s="74" t="s">
+        <v>452</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>05 Nov 2023</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="H8" s="74" t="s">
+        <v>448</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="str">
+        <f ca="1">'TC204-DC1 Outbound Details'!E9</f>
+        <v>DC1-CS2-01-2311005</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>'TC204-DC1 Outbound Details'!M9</f>
+        <v>CAIU9492794</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>15 Nov 2023</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>25 Nov 2023</v>
+      </c>
+      <c r="E9" s="74" t="s">
+        <v>452</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>05 Nov 2023</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="H9" s="74" t="s">
+        <v>448</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet151.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75D2899-69CE-46CD-946D-CBE617C8D743}">
   <dimension ref="A1:AK5"/>
   <sheetViews>
@@ -19160,7 +19419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet151.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet152.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C2D56B-4F5C-49B4-8C4E-C1929CC1D3D1}">
   <dimension ref="A1:Z4"/>
   <sheetViews>
@@ -19503,7 +19762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet152.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet153.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F222F66-22D5-48D7-9FD3-45FE1F7212B4}">
   <dimension ref="A1:AC4"/>
   <sheetViews>
@@ -19886,7 +20145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet153.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet154.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DDF7F8-A7CB-49E3-8F24-AE2F22448708}">
   <sheetPr codeName="Sheet151"/>
   <dimension ref="A1:Z3"/>
@@ -20151,7 +20410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet154.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet155.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BC66F1-39F7-4F27-933B-CB6067EFE595}">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -20267,7 +20526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet155.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet156.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E01D567-1C3A-44FF-A4E2-DE475B4B84AD}">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -20383,7 +20642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet156.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet157.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE28A02-1ADD-4664-BEDB-04A228A54455}">
   <dimension ref="A1:AK4"/>
   <sheetViews>
@@ -20859,7 +21118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet157.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet158.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E5B2D3-CFE0-46D9-89C4-DB511D572A13}">
   <dimension ref="A1:AC4"/>
   <sheetViews>
@@ -21242,7 +21501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet158.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet159.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3849C6-0A3D-4565-B869-78D9F1366C43}">
   <sheetPr codeName="Sheet149"/>
   <dimension ref="A1:B7"/>
@@ -21317,114 +21576,6 @@
       </c>
       <c r="B7" t="s">
         <v>552</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet159.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B286178B-4B28-4DC2-BD1E-BAA02CDBB667}">
-  <sheetPr codeName="Sheet150"/>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.109375" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
-        <f ca="1">"i-PK-CUS-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-PK-CUS-POC-CS2-01-2311001</v>
-      </c>
-      <c r="B2" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <f ca="1">"i-PK-CUS-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-PK-CUS-POC-CS2-01-2311001</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:B9" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <f ca="1">"i-PK-CUS-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-PK-CUS-POC-CS2-01-2311001</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
-        <f ca="1">"i-PK-CUS-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-PK-CUS-POC-CS2-01-2311001</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="str">
-        <f ca="1">"i-PK-CUS-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-PK-CUS-POC-CS2-01-2311001</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="str">
-        <f ca="1">"i-PK-CUS-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-PK-CUS-POC-CS2-01-2311001</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
-        <f ca="1">"i-PK-CUS-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
-        <v>i-PK-CUS-POC-CS2-01-2311001</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
-        <f ca="1">"i-PK-CUS-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"002"</f>
-        <v>i-PK-CUS-POC-CS2-01-2311002</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
       </c>
     </row>
   </sheetData>
@@ -21613,6 +21764,114 @@
 </file>
 
 <file path=xl/worksheets/sheet160.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B286178B-4B28-4DC2-BD1E-BAA02CDBB667}">
+  <sheetPr codeName="Sheet150"/>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f ca="1">"i-PK-CUS-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
+        <v>i-PK-CUS-POC-CS2-01-2311001</v>
+      </c>
+      <c r="B2" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
+        <v>05 Nov 2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f ca="1">"i-PK-CUS-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
+        <v>i-PK-CUS-POC-CS2-01-2311001</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B9" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
+        <v>05 Nov 2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f ca="1">"i-PK-CUS-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
+        <v>i-PK-CUS-POC-CS2-01-2311001</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>05 Nov 2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f ca="1">"i-PK-CUS-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
+        <v>i-PK-CUS-POC-CS2-01-2311001</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>05 Nov 2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f ca="1">"i-PK-CUS-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
+        <v>i-PK-CUS-POC-CS2-01-2311001</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>05 Nov 2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f ca="1">"i-PK-CUS-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
+        <v>i-PK-CUS-POC-CS2-01-2311001</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>05 Nov 2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f ca="1">"i-PK-CUS-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
+        <v>i-PK-CUS-POC-CS2-01-2311001</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>05 Nov 2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f ca="1">"i-PK-CUS-POC-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"002"</f>
+        <v>i-PK-CUS-POC-CS2-01-2311002</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>05 Nov 2023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet161.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B326C70F-143C-4550-B8ED-5C520C3DE3DD}">
   <dimension ref="A1:T7"/>
   <sheetViews>
@@ -22089,7 +22348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet161.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet162.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574B44A1-43AC-4EDA-A260-47FF76F8C3EF}">
   <dimension ref="A1:R4"/>
   <sheetViews>
@@ -22341,7 +22600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet162.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet163.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6758DA7A-DB70-44F7-8132-C93051B53B38}">
   <dimension ref="A1:S7"/>
   <sheetViews>
@@ -22797,7 +23056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet163.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet164.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35008768-47E5-49BA-808C-88F15A605D11}">
   <dimension ref="A1:R4"/>
   <sheetViews>
@@ -23049,11 +23308,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet164.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet165.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9317C4-7C2E-4BEE-9661-7612742DB070}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -24540,12 +24799,41 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA13C3D-4C13-43E7-AFC3-CF3FA8330563}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f ca="1">TEXT(TODAY() - WEEKDAY(TODAY(), 2) + 1, "mmm d, yyyy") &amp; " ~ " &amp; TEXT(TODAY() - WEEKDAY(TODAY(), 2) + 7, "mmm d, yyyy")</f>
+        <v>Oct 30, 2023 ~ Nov 5, 2023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBF2968-13DF-443F-89D7-83FE625EEAFE}">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -24674,7 +24962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B300EF1A-FAF9-4422-986A-1F7341820C90}">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:A2"/>
@@ -24696,7 +24984,7 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())+21), "dd MMM yyyy")</f>
-        <v>23 Dec 2023</v>
+        <v>26 Dec 2023</v>
       </c>
     </row>
   </sheetData>
@@ -24704,7 +24992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4623132C-9A68-40B2-93E6-5D17ABD3AFB1}">
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:A2"/>
@@ -24733,7 +25021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01505AB6-D093-4F7D-9DFC-F54AE54DE6D5}">
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:D7"/>
@@ -24834,45 +25122,6 @@
       </c>
       <c r="D7" s="62">
         <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FA45CE-13CE-4533-9C8B-1EE71F8307A8}">
-  <sheetPr codeName="Sheet29"/>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="8.88671875" style="2" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="str">
-        <f ca="1">'TC15-Inbound Date'!A2</f>
-        <v>23 Dec 2023</v>
-      </c>
-      <c r="B2" s="49" t="str">
-        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())+1), "dd MMM yyyy")</f>
-        <v>03 Jan 2024</v>
       </c>
     </row>
   </sheetData>
@@ -24913,6 +25162,45 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FA45CE-13CE-4533-9C8B-1EE71F8307A8}">
+  <sheetPr codeName="Sheet29"/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="20.77734375" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="str">
+        <f ca="1">'TC15-Inbound Date'!A2</f>
+        <v>26 Dec 2023</v>
+      </c>
+      <c r="B2" s="49" t="str">
+        <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())+1), "dd MMM yyyy")</f>
+        <v>06 Jan 2024</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAD4F0A-6227-4F65-A6C5-C08C6EAD4DBF}">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:B2"/>
@@ -24948,7 +25236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F63C18D-60A3-42A6-ACE0-033D8F878652}">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:Q2"/>
@@ -25061,7 +25349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C995E7-3C41-44BE-92B7-C62CA640336D}">
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1:H3"/>
@@ -25137,7 +25425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF27EAE-2E98-4AAB-830E-FED7FD6E2BB4}">
   <sheetPr codeName="Sheet33">
     <tabColor rgb="FFC00000"/>
@@ -25254,7 +25542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E740607-B5A8-4931-87F9-67A95518FDBD}">
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A1:J3"/>
@@ -25339,7 +25627,7 @@
       </c>
       <c r="J2" s="81" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "MMM d, yyyy")</f>
-        <v>Nov 2, 2023</v>
+        <v>Nov 5, 2023</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -25374,7 +25662,7 @@
       </c>
       <c r="J3" s="81" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "MMM d, yyyy")</f>
-        <v>Nov 2, 2023</v>
+        <v>Nov 5, 2023</v>
       </c>
     </row>
   </sheetData>
@@ -25382,7 +25670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF5E5DD-BBD8-495C-8F82-DB1C8E07BDF9}">
   <sheetPr codeName="Sheet35"/>
   <dimension ref="A1:C2"/>
@@ -25427,7 +25715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF68F534-52BE-4827-871F-8D86113E4AF5}">
   <sheetPr codeName="Sheet36"/>
   <dimension ref="A1:C2"/>
@@ -25472,7 +25760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCCCC2F-9718-4678-8F4B-F5D21A92B7B0}">
   <sheetPr codeName="Sheet37"/>
   <dimension ref="A1:D2"/>
@@ -25524,7 +25812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A83B62D-41F3-4217-8058-F639C1688EE7}">
   <sheetPr codeName="Sheet38"/>
   <dimension ref="A1:D2"/>
@@ -25568,36 +25856,6 @@
       </c>
       <c r="D2" t="s">
         <v>484</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4D8500-B389-496D-AD87-5E7738B6C290}">
-  <sheetPr codeName="Sheet39"/>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="8.88671875" style="2" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -25643,6 +25901,36 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4D8500-B389-496D-AD87-5E7738B6C290}">
+  <sheetPr codeName="Sheet39"/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.109375" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="8.88671875" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B4C763-E53F-4B86-9C00-751B722E35A6}">
   <sheetPr codeName="Sheet40"/>
   <dimension ref="A1:Q4"/>
@@ -25832,7 +26120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2EDA7F-9C9B-43A4-99D5-B8A22CFF7128}">
   <sheetPr codeName="Sheet41"/>
   <dimension ref="A1:P4"/>
@@ -26012,7 +26300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677818F9-51BA-444F-9CD2-46845E409802}">
   <sheetPr codeName="Sheet42"/>
   <dimension ref="A1:P4"/>
@@ -26192,7 +26480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2834A9CC-9CCB-420F-A219-496B7C00AF46}">
   <sheetPr codeName="Sheet43"/>
   <dimension ref="A1:Q4"/>
@@ -26382,7 +26670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807B64D5-863E-48FF-8906-21B81FA7BAD9}">
   <sheetPr codeName="Sheet44"/>
   <dimension ref="A1:P4"/>
@@ -26572,7 +26860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DE501A-454E-41F6-949D-9798290C650B}">
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:O4"/>
@@ -26753,7 +27041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB33BE9-85EA-4EE6-AF1C-CE875046DA7E}">
   <sheetPr codeName="Sheet46"/>
   <dimension ref="A1:P4"/>
@@ -26989,7 +27277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13B5E1B-EAA6-43F3-878C-EE38FADCDA62}">
   <sheetPr codeName="Sheet47"/>
   <dimension ref="A1:Q4"/>
@@ -27243,7 +27531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E111FC-A404-4654-B49A-FC1361784450}">
   <sheetPr codeName="Sheet48"/>
   <dimension ref="A1:S7"/>
@@ -27744,489 +28032,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C598481B-C070-4874-9B6A-9B6F064D3EE9}">
-  <sheetPr codeName="Sheet49"/>
-  <dimension ref="A1:R7"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="18" width="15.77734375" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>251</v>
-      </c>
-      <c r="I1" t="s">
-        <v>275</v>
-      </c>
-      <c r="J1" t="s">
-        <v>252</v>
-      </c>
-      <c r="K1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L1" t="s">
-        <v>253</v>
-      </c>
-      <c r="M1" t="s">
-        <v>268</v>
-      </c>
-      <c r="N1" t="s">
-        <v>257</v>
-      </c>
-      <c r="O1" t="s">
-        <v>258</v>
-      </c>
-      <c r="P1" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>260</v>
-      </c>
-      <c r="R1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
-        <f>'TC2-Contract Parts Info'!B2</f>
-        <v>s1001</v>
-      </c>
-      <c r="B2" t="str">
-        <f>'TC001-Req to Parts Master'!D2</f>
-        <v>PK-CUS-s1-001</v>
-      </c>
-      <c r="C2" s="52" t="str">
-        <f>'TC001-Req to Parts Master'!F2</f>
-        <v>b00001</v>
-      </c>
-      <c r="D2" t="str">
-        <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="54">
-        <f>'TC001-Req to Parts Master'!M2</f>
-        <v>10</v>
-      </c>
-      <c r="G2" s="50">
-        <f>'TC001-Req to Parts Master'!L2</f>
-        <v>10</v>
-      </c>
-      <c r="H2" s="50">
-        <f>'TC17-Customer Change Order'!B2</f>
-        <v>1620</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="55">
-        <f>'TC2-Contract Parts Info'!R2</f>
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="K2" s="50" t="str">
-        <f>'TC2-Contract Parts Info'!Q2</f>
-        <v>USD</v>
-      </c>
-      <c r="L2" t="s">
-        <v>262</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="50">
-        <f>'TC17-Customer Change Order'!C2</f>
-        <v>1620</v>
-      </c>
-      <c r="O2" t="s">
-        <v>264</v>
-      </c>
-      <c r="P2">
-        <f>'TC17-Customer Change Order'!D2</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>264</v>
-      </c>
-      <c r="R2" s="50">
-        <f>N2</f>
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <f>'TC2-Contract Parts Info'!B3</f>
-        <v>s1002</v>
-      </c>
-      <c r="B3" t="str">
-        <f>'TC001-Req to Parts Master'!D3</f>
-        <v>PK-CUS-s1-002</v>
-      </c>
-      <c r="C3" s="52" t="str">
-        <f>'TC001-Req to Parts Master'!F3</f>
-        <v>b00002</v>
-      </c>
-      <c r="D3" t="str">
-        <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="54">
-        <f>'TC001-Req to Parts Master'!M3</f>
-        <v>10</v>
-      </c>
-      <c r="G3" s="50">
-        <f>'TC001-Req to Parts Master'!L3</f>
-        <v>10</v>
-      </c>
-      <c r="H3" s="50">
-        <f>'TC17-Customer Change Order'!B3</f>
-        <v>1620</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="55">
-        <f>'TC2-Contract Parts Info'!R3</f>
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="K3" s="50" t="str">
-        <f>'TC2-Contract Parts Info'!Q3</f>
-        <v>USD</v>
-      </c>
-      <c r="L3" t="s">
-        <v>262</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="50">
-        <f>'TC17-Customer Change Order'!C3</f>
-        <v>1620</v>
-      </c>
-      <c r="O3" t="s">
-        <v>264</v>
-      </c>
-      <c r="P3">
-        <f>'TC17-Customer Change Order'!D3</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>264</v>
-      </c>
-      <c r="R3" s="50">
-        <f>N3</f>
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <f>'TC2-Contract Parts Info'!B4</f>
-        <v>s1003</v>
-      </c>
-      <c r="B4" t="str">
-        <f>'TC001-Req to Parts Master'!D4</f>
-        <v>PK-CUS-s1-003</v>
-      </c>
-      <c r="C4" s="52" t="str">
-        <f>'TC001-Req to Parts Master'!F4</f>
-        <v>b00003</v>
-      </c>
-      <c r="D4" t="str">
-        <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="54">
-        <f>'TC001-Req to Parts Master'!M4</f>
-        <v>5</v>
-      </c>
-      <c r="G4" s="50">
-        <f>'TC001-Req to Parts Master'!L4</f>
-        <v>10</v>
-      </c>
-      <c r="H4" s="50">
-        <f>'TC17-Customer Change Order'!B4</f>
-        <v>620</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="55">
-        <f>'TC2-Contract Parts Info'!R4</f>
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="K4" s="50" t="str">
-        <f>'TC2-Contract Parts Info'!Q4</f>
-        <v>USD</v>
-      </c>
-      <c r="L4" t="s">
-        <v>263</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="50">
-        <f>'TC17-Customer Change Order'!C4</f>
-        <v>620</v>
-      </c>
-      <c r="O4" t="s">
-        <v>264</v>
-      </c>
-      <c r="P4">
-        <f>'TC17-Customer Change Order'!D4</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>264</v>
-      </c>
-      <c r="R4">
-        <f>'TC17-Customer Change Order'!F4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
-        <f>'TC2-Contract Parts Info'!B5</f>
-        <v>s1004</v>
-      </c>
-      <c r="B5" t="str">
-        <f>'TC001-Req to Parts Master'!D5</f>
-        <v>PK-CUS-s1-004</v>
-      </c>
-      <c r="C5" s="52" t="str">
-        <f>'TC001-Req to Parts Master'!F5</f>
-        <v>b00004</v>
-      </c>
-      <c r="D5" t="str">
-        <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="54">
-        <f>'TC001-Req to Parts Master'!M5</f>
-        <v>5</v>
-      </c>
-      <c r="G5" s="50">
-        <f>'TC001-Req to Parts Master'!L5</f>
-        <v>10</v>
-      </c>
-      <c r="H5" s="50">
-        <f>'TC17-Customer Change Order'!B5</f>
-        <v>620</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="55">
-        <f>'TC2-Contract Parts Info'!R5</f>
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="K5" s="50" t="str">
-        <f>'TC2-Contract Parts Info'!Q5</f>
-        <v>USD</v>
-      </c>
-      <c r="L5" t="s">
-        <v>263</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="50">
-        <f>'TC17-Customer Change Order'!C5</f>
-        <v>620</v>
-      </c>
-      <c r="O5" t="s">
-        <v>264</v>
-      </c>
-      <c r="P5">
-        <f>'TC17-Customer Change Order'!D5</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>264</v>
-      </c>
-      <c r="R5">
-        <f>'TC17-Customer Change Order'!F5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" t="str">
-        <f>'TC2-Contract Parts Info'!B6</f>
-        <v>s1005</v>
-      </c>
-      <c r="B6" t="str">
-        <f>'TC001-Req to Parts Master'!D6</f>
-        <v>PK-CUS-s1-005</v>
-      </c>
-      <c r="C6" s="52" t="str">
-        <f>'TC001-Req to Parts Master'!F6</f>
-        <v>b00005</v>
-      </c>
-      <c r="D6" t="str">
-        <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="54">
-        <f>'TC001-Req to Parts Master'!M6</f>
-        <v>5</v>
-      </c>
-      <c r="G6" s="50">
-        <f>'TC001-Req to Parts Master'!L6</f>
-        <v>10</v>
-      </c>
-      <c r="H6" s="50">
-        <v>620</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="55">
-        <f>'TC2-Contract Parts Info'!R6</f>
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="K6" s="50" t="str">
-        <f>'TC2-Contract Parts Info'!Q6</f>
-        <v>USD</v>
-      </c>
-      <c r="L6" t="s">
-        <v>262</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="50">
-        <v>620</v>
-      </c>
-      <c r="O6" t="s">
-        <v>264</v>
-      </c>
-      <c r="P6">
-        <f>'TC17-Customer Change Order'!D6</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>264</v>
-      </c>
-      <c r="R6" s="50">
-        <f>N6</f>
-        <v>620</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" t="str">
-        <f>'TC2-Contract Parts Info'!B7</f>
-        <v>s1006</v>
-      </c>
-      <c r="B7" t="str">
-        <f>'TC001-Req to Parts Master'!D7</f>
-        <v>PK-CUS-s1-006</v>
-      </c>
-      <c r="C7" s="52" t="str">
-        <f>'TC001-Req to Parts Master'!F7</f>
-        <v>b00006</v>
-      </c>
-      <c r="D7" t="str">
-        <f>'TC20-Autogen SOPO'!A2</f>
-        <v>sCB101-2311001</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="54">
-        <f>'TC001-Req to Parts Master'!M7</f>
-        <v>5</v>
-      </c>
-      <c r="G7" s="50">
-        <f>'TC001-Req to Parts Master'!L7</f>
-        <v>10</v>
-      </c>
-      <c r="H7" s="50">
-        <f>'TC17-Customer Change Order'!B7</f>
-        <v>820</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="55">
-        <f>'TC2-Contract Parts Info'!R7</f>
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="K7" s="50" t="str">
-        <f>'TC2-Contract Parts Info'!Q7</f>
-        <v>USD</v>
-      </c>
-      <c r="L7" t="s">
-        <v>263</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="50">
-        <f>'TC17-Customer Change Order'!C7</f>
-        <v>620</v>
-      </c>
-      <c r="O7" t="s">
-        <v>264</v>
-      </c>
-      <c r="P7">
-        <f>'TC17-Customer Change Order'!D7</f>
-        <v>200</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>264</v>
-      </c>
-      <c r="R7">
-        <f>'TC17-Customer Change Order'!F7</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -28393,6 +28198,489 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C598481B-C070-4874-9B6A-9B6F064D3EE9}">
+  <sheetPr codeName="Sheet49"/>
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="18" width="15.77734375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I1" t="s">
+        <v>275</v>
+      </c>
+      <c r="J1" t="s">
+        <v>252</v>
+      </c>
+      <c r="K1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" t="s">
+        <v>253</v>
+      </c>
+      <c r="M1" t="s">
+        <v>268</v>
+      </c>
+      <c r="N1" t="s">
+        <v>257</v>
+      </c>
+      <c r="O1" t="s">
+        <v>258</v>
+      </c>
+      <c r="P1" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>260</v>
+      </c>
+      <c r="R1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>'TC2-Contract Parts Info'!B2</f>
+        <v>s1001</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'TC001-Req to Parts Master'!D2</f>
+        <v>PK-CUS-s1-001</v>
+      </c>
+      <c r="C2" s="52" t="str">
+        <f>'TC001-Req to Parts Master'!F2</f>
+        <v>b00001</v>
+      </c>
+      <c r="D2" t="str">
+        <f>'TC20-Autogen SOPO'!A2</f>
+        <v>sCB101-2311001</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="54">
+        <f>'TC001-Req to Parts Master'!M2</f>
+        <v>10</v>
+      </c>
+      <c r="G2" s="50">
+        <f>'TC001-Req to Parts Master'!L2</f>
+        <v>10</v>
+      </c>
+      <c r="H2" s="50">
+        <f>'TC17-Customer Change Order'!B2</f>
+        <v>1620</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="55">
+        <f>'TC2-Contract Parts Info'!R2</f>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K2" s="50" t="str">
+        <f>'TC2-Contract Parts Info'!Q2</f>
+        <v>USD</v>
+      </c>
+      <c r="L2" t="s">
+        <v>262</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="50">
+        <f>'TC17-Customer Change Order'!C2</f>
+        <v>1620</v>
+      </c>
+      <c r="O2" t="s">
+        <v>264</v>
+      </c>
+      <c r="P2">
+        <f>'TC17-Customer Change Order'!D2</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>264</v>
+      </c>
+      <c r="R2" s="50">
+        <f>N2</f>
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>'TC2-Contract Parts Info'!B3</f>
+        <v>s1002</v>
+      </c>
+      <c r="B3" t="str">
+        <f>'TC001-Req to Parts Master'!D3</f>
+        <v>PK-CUS-s1-002</v>
+      </c>
+      <c r="C3" s="52" t="str">
+        <f>'TC001-Req to Parts Master'!F3</f>
+        <v>b00002</v>
+      </c>
+      <c r="D3" t="str">
+        <f>'TC20-Autogen SOPO'!A2</f>
+        <v>sCB101-2311001</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="54">
+        <f>'TC001-Req to Parts Master'!M3</f>
+        <v>10</v>
+      </c>
+      <c r="G3" s="50">
+        <f>'TC001-Req to Parts Master'!L3</f>
+        <v>10</v>
+      </c>
+      <c r="H3" s="50">
+        <f>'TC17-Customer Change Order'!B3</f>
+        <v>1620</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="55">
+        <f>'TC2-Contract Parts Info'!R3</f>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K3" s="50" t="str">
+        <f>'TC2-Contract Parts Info'!Q3</f>
+        <v>USD</v>
+      </c>
+      <c r="L3" t="s">
+        <v>262</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="50">
+        <f>'TC17-Customer Change Order'!C3</f>
+        <v>1620</v>
+      </c>
+      <c r="O3" t="s">
+        <v>264</v>
+      </c>
+      <c r="P3">
+        <f>'TC17-Customer Change Order'!D3</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>264</v>
+      </c>
+      <c r="R3" s="50">
+        <f>N3</f>
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>'TC2-Contract Parts Info'!B4</f>
+        <v>s1003</v>
+      </c>
+      <c r="B4" t="str">
+        <f>'TC001-Req to Parts Master'!D4</f>
+        <v>PK-CUS-s1-003</v>
+      </c>
+      <c r="C4" s="52" t="str">
+        <f>'TC001-Req to Parts Master'!F4</f>
+        <v>b00003</v>
+      </c>
+      <c r="D4" t="str">
+        <f>'TC20-Autogen SOPO'!A2</f>
+        <v>sCB101-2311001</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="54">
+        <f>'TC001-Req to Parts Master'!M4</f>
+        <v>5</v>
+      </c>
+      <c r="G4" s="50">
+        <f>'TC001-Req to Parts Master'!L4</f>
+        <v>10</v>
+      </c>
+      <c r="H4" s="50">
+        <f>'TC17-Customer Change Order'!B4</f>
+        <v>620</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="55">
+        <f>'TC2-Contract Parts Info'!R4</f>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K4" s="50" t="str">
+        <f>'TC2-Contract Parts Info'!Q4</f>
+        <v>USD</v>
+      </c>
+      <c r="L4" t="s">
+        <v>263</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="50">
+        <f>'TC17-Customer Change Order'!C4</f>
+        <v>620</v>
+      </c>
+      <c r="O4" t="s">
+        <v>264</v>
+      </c>
+      <c r="P4">
+        <f>'TC17-Customer Change Order'!D4</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>264</v>
+      </c>
+      <c r="R4">
+        <f>'TC17-Customer Change Order'!F4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f>'TC2-Contract Parts Info'!B5</f>
+        <v>s1004</v>
+      </c>
+      <c r="B5" t="str">
+        <f>'TC001-Req to Parts Master'!D5</f>
+        <v>PK-CUS-s1-004</v>
+      </c>
+      <c r="C5" s="52" t="str">
+        <f>'TC001-Req to Parts Master'!F5</f>
+        <v>b00004</v>
+      </c>
+      <c r="D5" t="str">
+        <f>'TC20-Autogen SOPO'!A2</f>
+        <v>sCB101-2311001</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="54">
+        <f>'TC001-Req to Parts Master'!M5</f>
+        <v>5</v>
+      </c>
+      <c r="G5" s="50">
+        <f>'TC001-Req to Parts Master'!L5</f>
+        <v>10</v>
+      </c>
+      <c r="H5" s="50">
+        <f>'TC17-Customer Change Order'!B5</f>
+        <v>620</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="55">
+        <f>'TC2-Contract Parts Info'!R5</f>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K5" s="50" t="str">
+        <f>'TC2-Contract Parts Info'!Q5</f>
+        <v>USD</v>
+      </c>
+      <c r="L5" t="s">
+        <v>263</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="50">
+        <f>'TC17-Customer Change Order'!C5</f>
+        <v>620</v>
+      </c>
+      <c r="O5" t="s">
+        <v>264</v>
+      </c>
+      <c r="P5">
+        <f>'TC17-Customer Change Order'!D5</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>264</v>
+      </c>
+      <c r="R5">
+        <f>'TC17-Customer Change Order'!F5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f>'TC2-Contract Parts Info'!B6</f>
+        <v>s1005</v>
+      </c>
+      <c r="B6" t="str">
+        <f>'TC001-Req to Parts Master'!D6</f>
+        <v>PK-CUS-s1-005</v>
+      </c>
+      <c r="C6" s="52" t="str">
+        <f>'TC001-Req to Parts Master'!F6</f>
+        <v>b00005</v>
+      </c>
+      <c r="D6" t="str">
+        <f>'TC20-Autogen SOPO'!A2</f>
+        <v>sCB101-2311001</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="54">
+        <f>'TC001-Req to Parts Master'!M6</f>
+        <v>5</v>
+      </c>
+      <c r="G6" s="50">
+        <f>'TC001-Req to Parts Master'!L6</f>
+        <v>10</v>
+      </c>
+      <c r="H6" s="50">
+        <v>620</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="55">
+        <f>'TC2-Contract Parts Info'!R6</f>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K6" s="50" t="str">
+        <f>'TC2-Contract Parts Info'!Q6</f>
+        <v>USD</v>
+      </c>
+      <c r="L6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="50">
+        <v>620</v>
+      </c>
+      <c r="O6" t="s">
+        <v>264</v>
+      </c>
+      <c r="P6">
+        <f>'TC17-Customer Change Order'!D6</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>264</v>
+      </c>
+      <c r="R6" s="50">
+        <f>N6</f>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f>'TC2-Contract Parts Info'!B7</f>
+        <v>s1006</v>
+      </c>
+      <c r="B7" t="str">
+        <f>'TC001-Req to Parts Master'!D7</f>
+        <v>PK-CUS-s1-006</v>
+      </c>
+      <c r="C7" s="52" t="str">
+        <f>'TC001-Req to Parts Master'!F7</f>
+        <v>b00006</v>
+      </c>
+      <c r="D7" t="str">
+        <f>'TC20-Autogen SOPO'!A2</f>
+        <v>sCB101-2311001</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="54">
+        <f>'TC001-Req to Parts Master'!M7</f>
+        <v>5</v>
+      </c>
+      <c r="G7" s="50">
+        <f>'TC001-Req to Parts Master'!L7</f>
+        <v>10</v>
+      </c>
+      <c r="H7" s="50">
+        <f>'TC17-Customer Change Order'!B7</f>
+        <v>820</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="55">
+        <f>'TC2-Contract Parts Info'!R7</f>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K7" s="50" t="str">
+        <f>'TC2-Contract Parts Info'!Q7</f>
+        <v>USD</v>
+      </c>
+      <c r="L7" t="s">
+        <v>263</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="50">
+        <f>'TC17-Customer Change Order'!C7</f>
+        <v>620</v>
+      </c>
+      <c r="O7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P7">
+        <f>'TC17-Customer Change Order'!D7</f>
+        <v>200</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>264</v>
+      </c>
+      <c r="R7">
+        <f>'TC17-Customer Change Order'!F7</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6163CC49-A75B-4280-B4F9-F3B922B12AE7}">
   <sheetPr codeName="Sheet50">
     <tabColor rgb="FFFF0000"/>
@@ -28497,7 +28785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70F73BA-30F4-4A3C-9B5B-7688535C3360}">
   <sheetPr codeName="Sheet51">
     <tabColor rgb="FFFF0000"/>
@@ -28531,11 +28819,11 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Dec 2023</v>
+        <v>05 Dec 2023</v>
       </c>
       <c r="B5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Jan 2024</v>
+        <v>05 Jan 2024</v>
       </c>
     </row>
   </sheetData>
@@ -28543,7 +28831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1650A6D-2716-47D6-A5FE-D461FBE62D1B}">
   <sheetPr codeName="Sheet52"/>
   <dimension ref="A1:Q2"/>
@@ -28657,11 +28945,11 @@
       </c>
       <c r="L2" s="87" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Dec 2023</v>
+        <v>05 Dec 2023</v>
       </c>
       <c r="M2" s="87" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Jan 2024</v>
+        <v>05 Jan 2024</v>
       </c>
       <c r="N2" s="80">
         <v>660</v>
@@ -28681,7 +28969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E831F0-FB13-4336-A8E0-1297BED9134B}">
   <sheetPr codeName="Sheet53"/>
   <dimension ref="A1:F2"/>
@@ -28741,7 +29029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCA326A-5528-44AC-97ED-979E9787A9B1}">
   <sheetPr codeName="Sheet54">
     <tabColor rgb="FFC00000"/>
@@ -28831,7 +29119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6ED924C-B625-45ED-BDD3-3D8D3F069DC2}">
   <sheetPr codeName="Sheet55"/>
   <dimension ref="A1:C2"/>
@@ -28876,7 +29164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414AB591-1245-4FAC-832D-864361DDBF22}">
   <sheetPr codeName="Sheet56"/>
   <dimension ref="A1:J2"/>
@@ -28962,7 +29250,7 @@
       </c>
       <c r="J2" s="81" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "MMM d, yyyy")</f>
-        <v>Nov 2, 2023</v>
+        <v>Nov 5, 2023</v>
       </c>
     </row>
   </sheetData>
@@ -28970,7 +29258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7763A21C-5338-4AFA-B33F-5B3D7E79D3BF}">
   <sheetPr codeName="Sheet57"/>
   <dimension ref="A1:J2"/>
@@ -29056,7 +29344,7 @@
       </c>
       <c r="J2" s="81" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "MMM d, yyyy")</f>
-        <v>Nov 2, 2023</v>
+        <v>Nov 5, 2023</v>
       </c>
     </row>
   </sheetData>
@@ -29064,7 +29352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7752F0C-21BF-4AC6-98BE-9C11B222368C}">
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:F2"/>
@@ -29117,43 +29405,7 @@
       </c>
       <c r="F2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())+1), "dd MMM yyyy")</f>
-        <v>03 Jan 2024</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAB8FB1-E281-4503-B32C-10C1BBE8B58A}">
-  <sheetPr codeName="Sheet59"/>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>507</v>
-      </c>
-      <c r="B2" t="s">
-        <v>508</v>
+        <v>06 Jan 2024</v>
       </c>
     </row>
   </sheetData>
@@ -29613,6 +29865,42 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAB8FB1-E281-4503-B32C-10C1BBE8B58A}">
+  <sheetPr codeName="Sheet59"/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8ECA8AB-5DE2-486E-83E1-3F6F5F02D68A}">
   <sheetPr codeName="Sheet60">
     <tabColor rgb="FFC00000"/>
@@ -29685,7 +29973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78000B3A-FAB5-4D2D-BAD2-DBADE138323C}">
   <sheetPr codeName="Sheet61">
     <tabColor rgb="FFC00000"/>
@@ -29719,11 +30007,11 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Dec 2023</v>
+        <v>05 Dec 2023</v>
       </c>
       <c r="B5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Jan 2024</v>
+        <v>05 Jan 2024</v>
       </c>
     </row>
   </sheetData>
@@ -29732,7 +30020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4325D81C-ABD6-4510-84D8-AF2317B1F47B}">
   <sheetPr codeName="Sheet62"/>
   <dimension ref="A1:D2"/>
@@ -29783,7 +30071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23FC95C-695B-464E-81B5-2D05EB31930A}">
   <sheetPr codeName="Sheet63"/>
   <dimension ref="A1:D2"/>
@@ -29834,7 +30122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD79C17D-0F18-46F3-8FEE-FACC78C9AE8F}">
   <sheetPr codeName="Sheet64"/>
   <dimension ref="A1:D2"/>
@@ -29884,7 +30172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5198470D-1B7F-4717-B27B-2F42F7328FB8}">
   <sheetPr codeName="Sheet65"/>
   <dimension ref="A1:D4"/>
@@ -29958,7 +30246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A706792F-3C40-417A-B0E5-D19897838001}">
   <sheetPr codeName="Sheet66"/>
   <dimension ref="A1:C4"/>
@@ -30019,7 +30307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF8DE49-639B-4F9B-B0EA-F12ED111AC8A}">
   <sheetPr codeName="Sheet67"/>
   <dimension ref="A1:B4"/>
@@ -30067,7 +30355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B4AD15-D096-4230-A30E-24390192ED27}">
   <sheetPr codeName="Sheet68"/>
   <dimension ref="A1:AC5"/>
@@ -30194,7 +30482,7 @@
       </c>
       <c r="D2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">"SP1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -30268,7 +30556,7 @@
       </c>
       <c r="D3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="E3" t="str">
         <f ca="1">"SP1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -30354,7 +30642,7 @@
       </c>
       <c r="D4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="E4" t="str">
         <f ca="1">"SP1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -30433,7 +30721,7 @@
       </c>
       <c r="D5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="E5" t="str">
         <f ca="1">"SP1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"002"</f>
@@ -30513,52 +30801,6 @@
       </c>
       <c r="AC5">
         <v>660</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C7BBB8-5E7A-4FF7-9522-F8E2260B1411}">
-  <sheetPr codeName="Sheet69"/>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.109375" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
-        <f ca="1">'TC74-Sup1 Outbound Details'!C2</f>
-        <v>o-MY-ELA-SUP-CS2-01-2311001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <f ca="1">'TC74-Sup1 Outbound Details'!C5</f>
-        <v>o-MY-ELA-SUP-CS2-01-2311002</v>
-      </c>
-      <c r="B3" t="s">
-        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -30769,6 +31011,52 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C7BBB8-5E7A-4FF7-9522-F8E2260B1411}">
+  <sheetPr codeName="Sheet69"/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f ca="1">'TC74-Sup1 Outbound Details'!C2</f>
+        <v>o-MY-ELA-SUP-CS2-01-2311001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f ca="1">'TC74-Sup1 Outbound Details'!C5</f>
+        <v>o-MY-ELA-SUP-CS2-01-2311002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1761E0-256C-4A66-8025-1CFCEE6EDB75}">
   <sheetPr codeName="Sheet70"/>
   <dimension ref="A1:V3"/>
@@ -30997,7 +31285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F4A9E0-9584-48DC-A0C8-F142CA2C4600}">
   <sheetPr codeName="Sheet71"/>
   <dimension ref="A1:O2"/>
@@ -31114,7 +31402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE2C45E-A17B-4D6D-A750-2F30AB8DCC73}">
   <sheetPr codeName="Sheet72"/>
   <dimension ref="A1:O2"/>
@@ -31231,7 +31519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424B6D93-5F84-4950-85E6-745FB1AD35E6}">
   <sheetPr codeName="Sheet73"/>
   <dimension ref="A1:B5"/>
@@ -31299,7 +31587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FB7B56-758E-4B97-993E-D8162FB0BF63}">
   <sheetPr codeName="Sheet74"/>
   <dimension ref="A1:R4"/>
@@ -31544,7 +31832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F03E436-B1F3-4466-9A16-FF34D5B9799C}">
   <sheetPr codeName="Sheet75"/>
   <dimension ref="A1:R4"/>
@@ -31789,7 +32077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06889E5C-8D38-4080-B164-A1CBA673CFDC}">
   <sheetPr codeName="Sheet76"/>
   <dimension ref="A1:S4"/>
@@ -32046,7 +32334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7DDA6F-D2F4-4C81-9148-1F02233EC501}">
   <sheetPr codeName="Sheet77"/>
   <dimension ref="A1:R4"/>
@@ -32290,7 +32578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3656D698-790D-4F67-8855-EFFA32E0A306}">
   <sheetPr codeName="Sheet78"/>
   <dimension ref="A1:S4"/>
@@ -32552,259 +32840,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEDF32D-5728-42B8-B179-A4930A65BAB6}">
-  <sheetPr codeName="Sheet79"/>
-  <dimension ref="A1:R4"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="18" width="15.77734375" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E1" t="s">
-        <v>381</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H1" t="s">
-        <v>372</v>
-      </c>
-      <c r="I1" t="s">
-        <v>390</v>
-      </c>
-      <c r="J1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L1" t="s">
-        <v>253</v>
-      </c>
-      <c r="M1" t="s">
-        <v>383</v>
-      </c>
-      <c r="N1" t="s">
-        <v>384</v>
-      </c>
-      <c r="O1" t="s">
-        <v>385</v>
-      </c>
-      <c r="P1" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>387</v>
-      </c>
-      <c r="R1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
-        <f>'TC2-Contract Parts Info'!B4</f>
-        <v>s1003</v>
-      </c>
-      <c r="B2" t="str">
-        <f>'TC001-Req to Parts Master'!B4</f>
-        <v>PK-CUS-s1-003</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="str">
-        <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB101-2311002</v>
-      </c>
-      <c r="E2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>660</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="K2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L2" t="s">
-        <v>382</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>264</v>
-      </c>
-      <c r="P2">
-        <v>660</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>264</v>
-      </c>
-      <c r="R2">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <f>'TC2-Contract Parts Info'!B5</f>
-        <v>s1004</v>
-      </c>
-      <c r="B3" t="str">
-        <f>'TC001-Req to Parts Master'!B5</f>
-        <v>PK-CUS-s1-004</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="str">
-        <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB101-2311002</v>
-      </c>
-      <c r="E3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>660</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="K3" t="s">
-        <v>147</v>
-      </c>
-      <c r="L3" t="s">
-        <v>382</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>660</v>
-      </c>
-      <c r="O3" t="s">
-        <v>264</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>264</v>
-      </c>
-      <c r="R3">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <f>'TC2-Contract Parts Info'!B7</f>
-        <v>s1006</v>
-      </c>
-      <c r="B4" t="str">
-        <f>'TC001-Req to Parts Master'!B7</f>
-        <v>PK-CUS-s1-006</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="str">
-        <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB101-2311002</v>
-      </c>
-      <c r="E4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>660</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="K4" t="s">
-        <v>147</v>
-      </c>
-      <c r="L4" t="s">
-        <v>382</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>600</v>
-      </c>
-      <c r="O4" t="s">
-        <v>264</v>
-      </c>
-      <c r="P4">
-        <v>60</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>264</v>
-      </c>
-      <c r="R4">
-        <v>660</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -32976,6 +33011,259 @@
 </file>
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEDF32D-5728-42B8-B179-A4930A65BAB6}">
+  <sheetPr codeName="Sheet79"/>
+  <dimension ref="A1:R4"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="18" width="15.77734375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" t="s">
+        <v>253</v>
+      </c>
+      <c r="M1" t="s">
+        <v>383</v>
+      </c>
+      <c r="N1" t="s">
+        <v>384</v>
+      </c>
+      <c r="O1" t="s">
+        <v>385</v>
+      </c>
+      <c r="P1" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>387</v>
+      </c>
+      <c r="R1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>'TC2-Contract Parts Info'!B4</f>
+        <v>s1003</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'TC001-Req to Parts Master'!B4</f>
+        <v>PK-CUS-s1-003</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="str">
+        <f>'TC47-Autogen OrderNo Spot'!B2</f>
+        <v>sCB101-2311002</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>660</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L2" t="s">
+        <v>382</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>264</v>
+      </c>
+      <c r="P2">
+        <v>660</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>264</v>
+      </c>
+      <c r="R2">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>'TC2-Contract Parts Info'!B5</f>
+        <v>s1004</v>
+      </c>
+      <c r="B3" t="str">
+        <f>'TC001-Req to Parts Master'!B5</f>
+        <v>PK-CUS-s1-004</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="str">
+        <f>'TC47-Autogen OrderNo Spot'!B2</f>
+        <v>sCB101-2311002</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>660</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L3" t="s">
+        <v>382</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>660</v>
+      </c>
+      <c r="O3" t="s">
+        <v>264</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>264</v>
+      </c>
+      <c r="R3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>'TC2-Contract Parts Info'!B7</f>
+        <v>s1006</v>
+      </c>
+      <c r="B4" t="str">
+        <f>'TC001-Req to Parts Master'!B7</f>
+        <v>PK-CUS-s1-006</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="str">
+        <f>'TC47-Autogen OrderNo Spot'!B2</f>
+        <v>sCB101-2311002</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>660</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K4" t="s">
+        <v>147</v>
+      </c>
+      <c r="L4" t="s">
+        <v>382</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>600</v>
+      </c>
+      <c r="O4" t="s">
+        <v>264</v>
+      </c>
+      <c r="P4">
+        <v>60</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>264</v>
+      </c>
+      <c r="R4">
+        <v>660</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C1376D-415D-43C3-9865-4E1A3AA1A16B}">
   <sheetPr codeName="Sheet80"/>
   <dimension ref="A1:B3"/>
@@ -33021,7 +33309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79BBB87-EFAA-472E-ABFA-D929EF37873B}">
   <sheetPr codeName="Sheet81"/>
   <dimension ref="A1:I5"/>
@@ -33077,18 +33365,18 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>22 Nov 2023</v>
+        <v>25 Nov 2023</v>
       </c>
       <c r="E2" t="s">
         <v>396</v>
       </c>
       <c r="F2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="G2" t="s">
         <v>397</v>
@@ -33110,18 +33398,18 @@
       </c>
       <c r="C3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="D3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>22 Nov 2023</v>
+        <v>25 Nov 2023</v>
       </c>
       <c r="E3" t="s">
         <v>399</v>
       </c>
       <c r="F3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="G3" t="s">
         <v>400</v>
@@ -33143,18 +33431,18 @@
       </c>
       <c r="C4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="D4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>22 Nov 2023</v>
+        <v>25 Nov 2023</v>
       </c>
       <c r="E4" t="s">
         <v>399</v>
       </c>
       <c r="F4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="G4" t="s">
         <v>400</v>
@@ -33176,18 +33464,18 @@
       </c>
       <c r="C5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>12 Nov 2023</v>
+        <v>15 Nov 2023</v>
       </c>
       <c r="D5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>22 Nov 2023</v>
+        <v>25 Nov 2023</v>
       </c>
       <c r="E5" t="s">
         <v>399</v>
       </c>
       <c r="F5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="G5" t="s">
         <v>400</v>
@@ -33204,7 +33492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885E8C00-1989-4404-826A-0736319B34FF}">
   <sheetPr codeName="Sheet82"/>
   <dimension ref="A1:V3"/>
@@ -33433,7 +33721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC760812-2784-41E6-BC79-6E2615E33055}">
   <sheetPr codeName="Sheet83"/>
   <dimension ref="A1:O2"/>
@@ -33550,7 +33838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316C3CEE-F002-4D2A-A455-6D46BAC269B1}">
   <sheetPr codeName="Sheet84"/>
   <dimension ref="A1:O2"/>
@@ -33667,7 +33955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A2A667-072D-4DED-9BCF-DF9A83D721F8}">
   <sheetPr codeName="Sheet85"/>
   <dimension ref="A1:B5"/>
@@ -33697,7 +33985,7 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -33707,7 +33995,7 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B5" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -33717,7 +34005,7 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -33727,7 +34015,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
     </row>
   </sheetData>
@@ -33735,7 +34023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9CA430-8349-4D97-A312-49BE11D3346B}">
   <sheetPr codeName="Sheet86"/>
   <dimension ref="A1:R4"/>
@@ -33979,7 +34267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51ED2276-CF0D-421E-8E14-6CBD612A18EA}">
   <sheetPr codeName="Sheet87"/>
   <dimension ref="A1:Q4"/>
@@ -34211,7 +34499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DB2AE4-6DBD-4599-BBBD-B74C8A302690}">
   <sheetPr codeName="Sheet88"/>
   <dimension ref="A1:S4"/>
@@ -34459,250 +34747,6 @@
         <v>264</v>
       </c>
       <c r="S4">
-        <v>660</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9181535E-CC73-4B99-A809-0235BF7FFF75}">
-  <sheetPr codeName="Sheet89"/>
-  <dimension ref="A1:R4"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="18" width="15.77734375" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E1" t="s">
-        <v>381</v>
-      </c>
-      <c r="F1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I1" t="s">
-        <v>372</v>
-      </c>
-      <c r="J1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L1" t="s">
-        <v>253</v>
-      </c>
-      <c r="M1" t="s">
-        <v>383</v>
-      </c>
-      <c r="N1" t="s">
-        <v>384</v>
-      </c>
-      <c r="O1" t="s">
-        <v>385</v>
-      </c>
-      <c r="P1" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>387</v>
-      </c>
-      <c r="R1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
-        <f>'TC2-Contract Parts Info'!B4</f>
-        <v>s1003</v>
-      </c>
-      <c r="B2" t="str">
-        <f>'TC2-Contract Parts Info'!A4</f>
-        <v>PK-TTAP-s1-003</v>
-      </c>
-      <c r="D2" t="str">
-        <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB101-2311002</v>
-      </c>
-      <c r="E2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>660</v>
-      </c>
-      <c r="J2">
-        <v>100</v>
-      </c>
-      <c r="K2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L2" t="s">
-        <v>382</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>264</v>
-      </c>
-      <c r="P2">
-        <v>660</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>264</v>
-      </c>
-      <c r="R2">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <f>'TC2-Contract Parts Info'!B5</f>
-        <v>s1004</v>
-      </c>
-      <c r="B3" t="str">
-        <f>'TC2-Contract Parts Info'!A5</f>
-        <v>PK-TTAP-s1-004</v>
-      </c>
-      <c r="D3" t="str">
-        <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB101-2311002</v>
-      </c>
-      <c r="E3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>660</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
-      </c>
-      <c r="K3" t="s">
-        <v>147</v>
-      </c>
-      <c r="L3" t="s">
-        <v>382</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>660</v>
-      </c>
-      <c r="O3" t="s">
-        <v>264</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>264</v>
-      </c>
-      <c r="R3">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <f>'TC2-Contract Parts Info'!B7</f>
-        <v>s1006</v>
-      </c>
-      <c r="B4" t="str">
-        <f>'TC2-Contract Parts Info'!A7</f>
-        <v>PK-TTAP-s1-006</v>
-      </c>
-      <c r="D4" t="str">
-        <f>'TC47-Autogen OrderNo Spot'!B2</f>
-        <v>sCB101-2311002</v>
-      </c>
-      <c r="E4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>660</v>
-      </c>
-      <c r="J4">
-        <v>100</v>
-      </c>
-      <c r="K4" t="s">
-        <v>147</v>
-      </c>
-      <c r="L4" t="s">
-        <v>382</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>600</v>
-      </c>
-      <c r="O4" t="s">
-        <v>264</v>
-      </c>
-      <c r="P4">
-        <v>60</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>264</v>
-      </c>
-      <c r="R4">
         <v>660</v>
       </c>
     </row>
@@ -34867,6 +34911,250 @@
 </file>
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9181535E-CC73-4B99-A809-0235BF7FFF75}">
+  <sheetPr codeName="Sheet89"/>
+  <dimension ref="A1:R4"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="18" width="15.77734375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" t="s">
+        <v>253</v>
+      </c>
+      <c r="M1" t="s">
+        <v>383</v>
+      </c>
+      <c r="N1" t="s">
+        <v>384</v>
+      </c>
+      <c r="O1" t="s">
+        <v>385</v>
+      </c>
+      <c r="P1" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>387</v>
+      </c>
+      <c r="R1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>'TC2-Contract Parts Info'!B4</f>
+        <v>s1003</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'TC2-Contract Parts Info'!A4</f>
+        <v>PK-TTAP-s1-003</v>
+      </c>
+      <c r="D2" t="str">
+        <f>'TC47-Autogen OrderNo Spot'!B2</f>
+        <v>sCB101-2311002</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>660</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L2" t="s">
+        <v>382</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>264</v>
+      </c>
+      <c r="P2">
+        <v>660</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>264</v>
+      </c>
+      <c r="R2">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>'TC2-Contract Parts Info'!B5</f>
+        <v>s1004</v>
+      </c>
+      <c r="B3" t="str">
+        <f>'TC2-Contract Parts Info'!A5</f>
+        <v>PK-TTAP-s1-004</v>
+      </c>
+      <c r="D3" t="str">
+        <f>'TC47-Autogen OrderNo Spot'!B2</f>
+        <v>sCB101-2311002</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>660</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L3" t="s">
+        <v>382</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>660</v>
+      </c>
+      <c r="O3" t="s">
+        <v>264</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>264</v>
+      </c>
+      <c r="R3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>'TC2-Contract Parts Info'!B7</f>
+        <v>s1006</v>
+      </c>
+      <c r="B4" t="str">
+        <f>'TC2-Contract Parts Info'!A7</f>
+        <v>PK-TTAP-s1-006</v>
+      </c>
+      <c r="D4" t="str">
+        <f>'TC47-Autogen OrderNo Spot'!B2</f>
+        <v>sCB101-2311002</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>660</v>
+      </c>
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="K4" t="s">
+        <v>147</v>
+      </c>
+      <c r="L4" t="s">
+        <v>382</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>600</v>
+      </c>
+      <c r="O4" t="s">
+        <v>264</v>
+      </c>
+      <c r="P4">
+        <v>60</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>264</v>
+      </c>
+      <c r="R4">
+        <v>660</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF232363-4D27-4B9F-AF64-63F13D12FD63}">
   <sheetPr codeName="Sheet90"/>
   <dimension ref="A1:S4"/>
@@ -35132,7 +35420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7623CB-7485-4505-9711-C66466DA1232}">
   <sheetPr codeName="Sheet91"/>
   <dimension ref="A1:C5"/>
@@ -35212,7 +35500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D86A22-0D5B-4D50-BA71-F4C8DEEF1701}">
   <sheetPr codeName="Sheet92"/>
   <dimension ref="A1:V3"/>
@@ -35441,7 +35729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B543E1-C2F9-4F5E-A8C2-BE9BD480CAA0}">
   <sheetPr codeName="Sheet93"/>
   <dimension ref="A1:O2"/>
@@ -35558,7 +35846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565B5EDF-B499-49FE-9524-B52ED55F4F13}">
   <sheetPr codeName="Sheet94"/>
   <dimension ref="A1:O2"/>
@@ -35675,7 +35963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3541AEA-1AD1-42BD-90BE-AF06F0C7CF34}">
   <sheetPr codeName="Sheet95"/>
   <dimension ref="A1:AC5"/>
@@ -35802,7 +36090,7 @@
       </c>
       <c r="D2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">"DC3-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -35888,7 +36176,7 @@
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D4" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="E3" t="str">
         <f ca="1">"DC3-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -35967,7 +36255,7 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>02 Nov 2023</v>
+        <v>05 Nov 2023</v>
       </c>
       <c r="E4" t="str">
         <f ca="1">"DC3-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -36144,7 +36432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557364EC-2587-4097-B396-C733F06BDA3E}">
   <sheetPr codeName="Sheet96"/>
   <dimension ref="A1:B3"/>
@@ -36190,7 +36478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F1F4A9-7BF2-46C7-8DE7-14F3DC622CFF}">
   <sheetPr codeName="Sheet97"/>
   <dimension ref="A1:R4"/>
@@ -36434,7 +36722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BDC591-2C76-4A7F-84D6-01E144C3B521}">
   <sheetPr codeName="Sheet98"/>
   <dimension ref="A1:S4"/>
@@ -36682,272 +36970,6 @@
       </c>
       <c r="S4">
         <v>330</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D425F1-006C-46E3-9407-2493BB610C61}">
-  <sheetPr codeName="Sheet99"/>
-  <dimension ref="A1:S4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="18" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="16.44140625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H1" t="s">
-        <v>372</v>
-      </c>
-      <c r="I1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K1" t="s">
-        <v>253</v>
-      </c>
-      <c r="L1" t="s">
-        <v>373</v>
-      </c>
-      <c r="M1" t="s">
-        <v>374</v>
-      </c>
-      <c r="N1" t="s">
-        <v>375</v>
-      </c>
-      <c r="O1" t="s">
-        <v>376</v>
-      </c>
-      <c r="P1" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>378</v>
-      </c>
-      <c r="R1" t="s">
-        <v>379</v>
-      </c>
-      <c r="S1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
-        <f>'TC2-Contract Parts Info'!B4</f>
-        <v>s1003</v>
-      </c>
-      <c r="B2" t="str">
-        <f>'TC2-Contract Parts Info'!A4</f>
-        <v>PK-TTAP-s1-003</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="str">
-        <f>'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cCB101-2311002</v>
-      </c>
-      <c r="E2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>660</v>
-      </c>
-      <c r="I2">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="J2" t="s">
-        <v>147</v>
-      </c>
-      <c r="K2" t="s">
-        <v>382</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q2">
-        <v>660</v>
-      </c>
-      <c r="R2" t="s">
-        <v>264</v>
-      </c>
-      <c r="S2">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="95" t="str">
-        <f>'TC2-Contract Parts Info'!B5</f>
-        <v>s1004</v>
-      </c>
-      <c r="B3" t="str">
-        <f>'TC2-Contract Parts Info'!A5</f>
-        <v>PK-TTAP-s1-004</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="str">
-        <f>'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cCB101-2311002</v>
-      </c>
-      <c r="E3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>660</v>
-      </c>
-      <c r="I3">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="J3" t="s">
-        <v>147</v>
-      </c>
-      <c r="K3" t="s">
-        <v>382</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>660</v>
-      </c>
-      <c r="P3" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3" t="s">
-        <v>264</v>
-      </c>
-      <c r="S3">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <f>'TC2-Contract Parts Info'!B7</f>
-        <v>s1006</v>
-      </c>
-      <c r="B4" t="str">
-        <f>'TC2-Contract Parts Info'!A7</f>
-        <v>PK-TTAP-s1-006</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="str">
-        <f>'TC47-Autogen OrderNo Spot'!A2</f>
-        <v>cCB101-2311002</v>
-      </c>
-      <c r="E4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>660</v>
-      </c>
-      <c r="I4">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="J4" t="s">
-        <v>147</v>
-      </c>
-      <c r="K4" t="s">
-        <v>382</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>600</v>
-      </c>
-      <c r="P4" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q4">
-        <v>60</v>
-      </c>
-      <c r="R4" t="s">
-        <v>264</v>
-      </c>
-      <c r="S4">
-        <v>660</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Files/Scenario 1/S1_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 1/S1_TestCases_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawe\git\tb-ttap-brivge-v2-fatin\Excel Files\Scenario 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4FE8BC-E35F-4D6D-9625-7D10462C9FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C3C520-35A9-4F3F-98B2-F110DD63DFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="620" firstSheet="49" activeTab="58" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="620" firstSheet="167" activeTab="171" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AutoIncrement" sheetId="1" r:id="rId1"/>
@@ -5715,18 +5715,18 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>13 Nov 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>23 Nov 2023</v>
+        <v>27 Nov 2023</v>
       </c>
       <c r="E2" t="s">
         <v>396</v>
       </c>
       <c r="F2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="G2" t="s">
         <v>397</v>
@@ -5749,18 +5749,18 @@
       </c>
       <c r="C3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>13 Nov 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="D3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>23 Nov 2023</v>
+        <v>27 Nov 2023</v>
       </c>
       <c r="E3" t="s">
         <v>399</v>
       </c>
       <c r="F3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="G3" t="s">
         <v>400</v>
@@ -5783,18 +5783,18 @@
       </c>
       <c r="C4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>13 Nov 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="D4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>23 Nov 2023</v>
+        <v>27 Nov 2023</v>
       </c>
       <c r="E4" t="s">
         <v>399</v>
       </c>
       <c r="F4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="G4" t="s">
         <v>400</v>
@@ -8232,7 +8232,7 @@
       </c>
       <c r="D2" s="2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="E2" s="2" t="str">
         <f ca="1">"SP2-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -8313,7 +8313,7 @@
       </c>
       <c r="D3" s="2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="E3" s="2" t="str">
         <f ca="1">"SP2-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -8402,7 +8402,7 @@
       </c>
       <c r="D4" s="2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>293</v>
@@ -8481,7 +8481,7 @@
       </c>
       <c r="D5" s="2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>293</v>
@@ -9668,18 +9668,18 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>13 Nov 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>23 Nov 2023</v>
+        <v>27 Nov 2023</v>
       </c>
       <c r="E2" t="s">
         <v>396</v>
       </c>
       <c r="F2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="G2" t="s">
         <v>397</v>
@@ -9698,18 +9698,18 @@
       </c>
       <c r="C3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>13 Nov 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="D3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>23 Nov 2023</v>
+        <v>27 Nov 2023</v>
       </c>
       <c r="E3" t="s">
         <v>399</v>
       </c>
       <c r="F3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="G3" t="s">
         <v>400</v>
@@ -9732,18 +9732,18 @@
       </c>
       <c r="C4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>13 Nov 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="D4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>23 Nov 2023</v>
+        <v>27 Nov 2023</v>
       </c>
       <c r="E4" t="s">
         <v>399</v>
       </c>
       <c r="F4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="G4" t="s">
         <v>400</v>
@@ -9766,18 +9766,18 @@
       </c>
       <c r="C5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>13 Nov 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="D5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>23 Nov 2023</v>
+        <v>27 Nov 2023</v>
       </c>
       <c r="E5" t="s">
         <v>399</v>
       </c>
       <c r="F5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="G5" t="s">
         <v>400</v>
@@ -10666,7 +10666,7 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -10676,7 +10676,7 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B5" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -10686,7 +10686,7 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
     </row>
   </sheetData>
@@ -12466,7 +12466,7 @@
       </c>
       <c r="D2" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="E2" s="68" t="str">
         <f ca="1">"DC2-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -12495,11 +12495,11 @@
       </c>
       <c r="M2" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>03 Dec 2023</v>
+        <v>07 Dec 2023</v>
       </c>
       <c r="N2" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())+1), "dd MMM yyyy")</f>
-        <v>04 Dec 2023</v>
+        <v>08 Dec 2023</v>
       </c>
       <c r="O2" s="70" t="s">
         <v>432</v>
@@ -12578,7 +12578,7 @@
       </c>
       <c r="D3" s="68" t="str">
         <f t="shared" ref="D3:D5" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="E3" s="68" t="str">
         <f ca="1">"DC2-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -12607,11 +12607,11 @@
       </c>
       <c r="M3" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>03 Dec 2023</v>
+        <v>07 Dec 2023</v>
       </c>
       <c r="N3" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())+1), "dd MMM yyyy")</f>
-        <v>04 Dec 2023</v>
+        <v>08 Dec 2023</v>
       </c>
       <c r="O3" s="70" t="s">
         <v>429</v>
@@ -12690,7 +12690,7 @@
       </c>
       <c r="D4" s="68" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="E4" s="68" t="str">
         <f ca="1">"DC2-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -12719,11 +12719,11 @@
       </c>
       <c r="M4" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>03 Dec 2023</v>
+        <v>07 Dec 2023</v>
       </c>
       <c r="N4" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())+1), "dd MMM yyyy")</f>
-        <v>04 Dec 2023</v>
+        <v>08 Dec 2023</v>
       </c>
       <c r="O4" s="70" t="s">
         <v>430</v>
@@ -12802,7 +12802,7 @@
       </c>
       <c r="D5" s="68" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="F5" s="68" t="s">
         <v>293</v>
@@ -12827,11 +12827,11 @@
       </c>
       <c r="M5" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>03 Dec 2023</v>
+        <v>07 Dec 2023</v>
       </c>
       <c r="N5" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())+1), "dd MMM yyyy")</f>
-        <v>04 Dec 2023</v>
+        <v>08 Dec 2023</v>
       </c>
       <c r="O5" s="70" t="s">
         <v>429</v>
@@ -13742,7 +13742,7 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -13752,7 +13752,7 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B9" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -13762,7 +13762,7 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -13772,7 +13772,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -13782,7 +13782,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -13792,7 +13792,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -13802,7 +13802,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
     </row>
   </sheetData>
@@ -15814,7 +15814,7 @@
       </c>
       <c r="D2" s="68" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="E2" s="68" t="str">
         <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -15921,7 +15921,7 @@
       </c>
       <c r="D3" s="68" t="str">
         <f t="shared" ref="D3:D9" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="E3" s="68" t="str">
         <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -16028,7 +16028,7 @@
       </c>
       <c r="D4" s="68" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="E4" s="68" t="str">
         <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -16135,7 +16135,7 @@
       </c>
       <c r="D5" s="68" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="F5" s="68" t="s">
         <v>293</v>
@@ -16228,7 +16228,7 @@
       </c>
       <c r="D6" s="68" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="E6" s="68" t="str">
         <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"003"</f>
@@ -16331,7 +16331,7 @@
       </c>
       <c r="D7" s="68" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="E7" s="68" t="str">
         <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"004"</f>
@@ -16438,7 +16438,7 @@
       </c>
       <c r="D8" s="68" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="E8" s="68" t="str">
         <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"005"</f>
@@ -16545,7 +16545,7 @@
       </c>
       <c r="D9" s="68" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="E9" s="68" t="str">
         <f ca="1">"DC1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"005"</f>
@@ -18225,18 +18225,18 @@
       </c>
       <c r="C2" s="2" t="str">
         <f t="shared" ref="C2:C9" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>13 Nov 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="D2" s="2" t="str">
         <f t="shared" ref="D2:D9" ca="1" si="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>23 Nov 2023</v>
+        <v>27 Nov 2023</v>
       </c>
       <c r="E2" s="74" t="s">
         <v>451</v>
       </c>
       <c r="F2" s="2" t="str">
         <f t="shared" ref="F2:F9" ca="1" si="2">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>449</v>
@@ -18259,18 +18259,18 @@
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>13 Nov 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>23 Nov 2023</v>
+        <v>27 Nov 2023</v>
       </c>
       <c r="E3" s="74" t="s">
         <v>451</v>
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>449</v>
@@ -18293,18 +18293,18 @@
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>13 Nov 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>23 Nov 2023</v>
+        <v>27 Nov 2023</v>
       </c>
       <c r="E4" s="74" t="s">
         <v>451</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>449</v>
@@ -18323,18 +18323,18 @@
       </c>
       <c r="C5" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>13 Nov 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>23 Nov 2023</v>
+        <v>27 Nov 2023</v>
       </c>
       <c r="E5" s="74" t="s">
         <v>451</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>449</v>
@@ -18357,18 +18357,18 @@
       </c>
       <c r="C6" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>13 Nov 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>23 Nov 2023</v>
+        <v>27 Nov 2023</v>
       </c>
       <c r="E6" s="74" t="s">
         <v>452</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>450</v>
@@ -18391,18 +18391,18 @@
       </c>
       <c r="C7" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>13 Nov 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>23 Nov 2023</v>
+        <v>27 Nov 2023</v>
       </c>
       <c r="E7" s="74" t="s">
         <v>452</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>450</v>
@@ -18425,18 +18425,18 @@
       </c>
       <c r="C8" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>13 Nov 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>23 Nov 2023</v>
+        <v>27 Nov 2023</v>
       </c>
       <c r="E8" s="74" t="s">
         <v>452</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>450</v>
@@ -18459,18 +18459,18 @@
       </c>
       <c r="C9" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>13 Nov 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>23 Nov 2023</v>
+        <v>27 Nov 2023</v>
       </c>
       <c r="E9" s="74" t="s">
         <v>452</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>450</v>
@@ -21416,7 +21416,7 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -21426,7 +21426,7 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B9" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -21436,7 +21436,7 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -21446,7 +21446,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -21456,7 +21456,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -21466,7 +21466,7 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -21476,7 +21476,7 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -21486,7 +21486,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
     </row>
   </sheetData>
@@ -25703,8 +25703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77ECB8B1-FE46-4AF9-9821-F7993699ABC7}">
   <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -27430,7 +27430,7 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())+15), "dd MMM yyyy")</f>
-        <v>18 Nov 2023</v>
+        <v>22 Nov 2023</v>
       </c>
     </row>
   </sheetData>
@@ -27602,11 +27602,11 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="str">
         <f ca="1">'TC15-Inbound Date'!A2</f>
-        <v>18 Nov 2023</v>
+        <v>22 Nov 2023</v>
       </c>
       <c r="B2" s="49" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())+1), "dd MMM yyyy")</f>
-        <v>04 Jan 2024</v>
+        <v>08 Jan 2024</v>
       </c>
     </row>
   </sheetData>
@@ -28073,7 +28073,7 @@
       </c>
       <c r="J2" s="81" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "MMM d, yyyy")</f>
-        <v>Nov 3, 2023</v>
+        <v>Nov 7, 2023</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -28108,7 +28108,7 @@
       </c>
       <c r="J3" s="81" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "MMM d, yyyy")</f>
-        <v>Nov 3, 2023</v>
+        <v>Nov 7, 2023</v>
       </c>
     </row>
   </sheetData>
@@ -31265,11 +31265,11 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>03 Dec 2023</v>
+        <v>07 Dec 2023</v>
       </c>
       <c r="B5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>03 Jan 2024</v>
+        <v>07 Jan 2024</v>
       </c>
     </row>
   </sheetData>
@@ -31391,11 +31391,11 @@
       </c>
       <c r="L2" s="87" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>03 Dec 2023</v>
+        <v>07 Dec 2023</v>
       </c>
       <c r="M2" s="87" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>03 Jan 2024</v>
+        <v>07 Jan 2024</v>
       </c>
       <c r="N2" s="80">
         <v>660</v>
@@ -31696,7 +31696,7 @@
       </c>
       <c r="J2" s="81" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "MMM d, yyyy")</f>
-        <v>Nov 3, 2023</v>
+        <v>Nov 7, 2023</v>
       </c>
     </row>
   </sheetData>
@@ -31790,7 +31790,7 @@
       </c>
       <c r="J2" s="81" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "MMM d, yyyy")</f>
-        <v>Nov 3, 2023</v>
+        <v>Nov 7, 2023</v>
       </c>
     </row>
   </sheetData>
@@ -31851,7 +31851,7 @@
       </c>
       <c r="F2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>03 Dec 2023</v>
+        <v>07 Dec 2023</v>
       </c>
     </row>
   </sheetData>
@@ -31864,8 +31864,8 @@
   <sheetPr codeName="Sheet59"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32453,11 +32453,11 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+1, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>03 Dec 2023</v>
+        <v>07 Dec 2023</v>
       </c>
       <c r="B5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY())+2, DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>03 Jan 2024</v>
+        <v>07 Jan 2024</v>
       </c>
     </row>
   </sheetData>
@@ -32928,7 +32928,7 @@
       </c>
       <c r="D2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">"SP1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -33002,7 +33002,7 @@
       </c>
       <c r="D3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="E3" t="str">
         <f ca="1">"SP1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -33088,7 +33088,7 @@
       </c>
       <c r="D4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="E4" t="str">
         <f ca="1">"SP1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -33167,7 +33167,7 @@
       </c>
       <c r="D5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="E5" t="str">
         <f ca="1">"SP1-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"002"</f>
@@ -35795,18 +35795,18 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>13 Nov 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="D2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>23 Nov 2023</v>
+        <v>27 Nov 2023</v>
       </c>
       <c r="E2" t="s">
         <v>396</v>
       </c>
       <c r="F2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="G2" t="s">
         <v>397</v>
@@ -35828,18 +35828,18 @@
       </c>
       <c r="C3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>13 Nov 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="D3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>23 Nov 2023</v>
+        <v>27 Nov 2023</v>
       </c>
       <c r="E3" t="s">
         <v>399</v>
       </c>
       <c r="F3" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="G3" t="s">
         <v>400</v>
@@ -35861,18 +35861,18 @@
       </c>
       <c r="C4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>13 Nov 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="D4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>23 Nov 2023</v>
+        <v>27 Nov 2023</v>
       </c>
       <c r="E4" t="s">
         <v>399</v>
       </c>
       <c r="F4" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="G4" t="s">
         <v>400</v>
@@ -35894,18 +35894,18 @@
       </c>
       <c r="C5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+10)), "dd MMM yyyy")</f>
-        <v>13 Nov 2023</v>
+        <v>17 Nov 2023</v>
       </c>
       <c r="D5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+20)), "dd MMM yyyy")</f>
-        <v>23 Nov 2023</v>
+        <v>27 Nov 2023</v>
       </c>
       <c r="E5" t="s">
         <v>399</v>
       </c>
       <c r="F5" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY()+30)), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="G5" t="s">
         <v>400</v>
@@ -36415,7 +36415,7 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -36425,7 +36425,7 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B5" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -36435,7 +36435,7 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -36445,7 +36445,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
     </row>
   </sheetData>
@@ -38520,7 +38520,7 @@
       </c>
       <c r="D2" t="str">
         <f ca="1">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">"DC3-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -38606,7 +38606,7 @@
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D4" ca="1" si="0">TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "dd MMM yyyy")</f>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="E3" t="str">
         <f ca="1">"DC3-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -38685,7 +38685,7 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>03 Nov 2023</v>
+        <v>07 Nov 2023</v>
       </c>
       <c r="E4" t="str">
         <f ca="1">"DC3-"&amp;AutoIncrement!F3&amp;"-"&amp;TEXT(DATE(YEAR(TODAY()), MONTH(TODAY()), DAY(TODAY())), "yymm")&amp;"001"</f>
@@ -39675,6 +39675,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097067AA9A672F346A1B58BE42AD9877C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0ef2f7333e7198281d6d67dc69cb8223">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3e097ef-e44a-4305-852f-ab2ffd6265ef" xmlns:ns3="1febb254-c9d7-4bcc-acc6-e4d894a01278" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e89638c2f66ce85fb696f0de602d87f" ns2:_="" ns3:_="">
     <xsd:import namespace="c3e097ef-e44a-4305-852f-ab2ffd6265ef"/>
@@ -39869,16 +39878,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E2C79DA-185A-4930-B550-F1E1B294AAD1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8199A157-58BA-4B82-BEE5-7E82A9CB26D1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -39895,12 +39903,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E2C79DA-185A-4930-B550-F1E1B294AAD1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Excel Files/Scenario 1/S1_TestCases_Data.xlsx
+++ b/Excel Files/Scenario 1/S1_TestCases_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawe\git\tb-ttap-brivge-v2-fatin\Excel Files\Scenario 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nasin\git\tb-ttap-brivge-v2\Excel Files\Scenario 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4FE8BC-E35F-4D6D-9625-7D10462C9FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA98D5F-592B-4560-870C-F3D12F439C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="620" firstSheet="49" activeTab="58" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="620" firstSheet="23" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AutoIncrement" sheetId="1" r:id="rId1"/>
@@ -37,699 +37,700 @@
     <sheet name="TC12-Supplier1 Cargo Status" sheetId="32" r:id="rId22"/>
     <sheet name="TC13-BU3 Cargo Status" sheetId="31" r:id="rId23"/>
     <sheet name="TC14-BU1 Cargo Status" sheetId="33" r:id="rId24"/>
-    <sheet name="TC15-Customer Place Order" sheetId="29" r:id="rId25"/>
-    <sheet name="TC15-Inbound Date" sheetId="34" r:id="rId26"/>
-    <sheet name="TC15-Customer Order No" sheetId="37" r:id="rId27"/>
-    <sheet name="TC17-Customer Change Order" sheetId="35" r:id="rId28"/>
-    <sheet name="TC17-Inbound Date Change" sheetId="36" r:id="rId29"/>
-    <sheet name="TC17-AutoGen ChangeRequestNo" sheetId="38" r:id="rId30"/>
-    <sheet name="TC18-Customer Change" sheetId="145" r:id="rId31"/>
-    <sheet name="TC20-Autogen SOPO" sheetId="39" r:id="rId32"/>
-    <sheet name="TC20-Autogen SOPO (2)" sheetId="156" r:id="rId33"/>
-    <sheet name="TC022" sheetId="146" r:id="rId34"/>
-    <sheet name="TC024" sheetId="147" r:id="rId35"/>
-    <sheet name="TC026" sheetId="148" r:id="rId36"/>
-    <sheet name="TC027" sheetId="149" r:id="rId37"/>
-    <sheet name="TC028" sheetId="150" r:id="rId38"/>
-    <sheet name="TC31-AutoGen ChangeRequestNo" sheetId="40" r:id="rId39"/>
-    <sheet name="TC34-BU1 Check Change1" sheetId="41" r:id="rId40"/>
-    <sheet name="TC34-BU1 Check Change2" sheetId="42" r:id="rId41"/>
-    <sheet name="TC35-BU2 Check Change" sheetId="43" r:id="rId42"/>
-    <sheet name="TC36-BU3 Check Change" sheetId="44" r:id="rId43"/>
-    <sheet name="TC37-Sup1 Check Change" sheetId="45" r:id="rId44"/>
-    <sheet name="TC38-Sup2 Check Change" sheetId="46" r:id="rId45"/>
-    <sheet name="TC43-BU1-Check Purchase Order2" sheetId="48" r:id="rId46"/>
-    <sheet name="TC43-BU1-Check Purchase Order3" sheetId="49" r:id="rId47"/>
-    <sheet name="TC44-BU1-Check Sales Order" sheetId="47" r:id="rId48"/>
-    <sheet name="TC45-Cus Check Customer Order" sheetId="50" r:id="rId49"/>
-    <sheet name="TC46-Cus Spot Order" sheetId="51" r:id="rId50"/>
-    <sheet name="TC46-Spot Date" sheetId="52" r:id="rId51"/>
-    <sheet name="TC046" sheetId="151" r:id="rId52"/>
-    <sheet name="TC47-Autogen OrderNo Spot" sheetId="54" r:id="rId53"/>
-    <sheet name="TC47-Autogen OrderNo Spot (2)" sheetId="157" state="hidden" r:id="rId54"/>
-    <sheet name="TC048" sheetId="152" r:id="rId55"/>
-    <sheet name="TC049" sheetId="153" r:id="rId56"/>
-    <sheet name="TC051" sheetId="158" r:id="rId57"/>
-    <sheet name="TC054" sheetId="154" r:id="rId58"/>
-    <sheet name="TC54-Change RequestNo" sheetId="57" r:id="rId59"/>
-    <sheet name="TC54-Sup2 Order Change Reg" sheetId="55" state="hidden" r:id="rId60"/>
-    <sheet name="TC54-Change Date" sheetId="56" state="hidden" r:id="rId61"/>
-    <sheet name="TC068-BU2" sheetId="159" r:id="rId62"/>
-    <sheet name="TC070-BU1" sheetId="160" r:id="rId63"/>
-    <sheet name="TC072-Cus" sheetId="161" r:id="rId64"/>
-    <sheet name="TC73-BU SO Delivery Plan" sheetId="162" r:id="rId65"/>
-    <sheet name="TC73-BU SO Delivery Plan (Date)" sheetId="163" r:id="rId66"/>
-    <sheet name="TC73-BU SO Price" sheetId="164" r:id="rId67"/>
-    <sheet name="TC74-Sup1 Outbound Details" sheetId="58" r:id="rId68"/>
-    <sheet name="TC74-OutboundNo" sheetId="59" r:id="rId69"/>
-    <sheet name="TC75.1-Sup1 Cargo Tracking" sheetId="60" r:id="rId70"/>
-    <sheet name="TC75.2-Sup1 Cargo Tracking" sheetId="84" r:id="rId71"/>
-    <sheet name="TC75.3-Sup1 Cargo Tracking" sheetId="85" r:id="rId72"/>
-    <sheet name="TC79" sheetId="165" r:id="rId73"/>
-    <sheet name="TC82-Sup1 SO" sheetId="62" r:id="rId74"/>
-    <sheet name="TC83-BU3 PO" sheetId="63" r:id="rId75"/>
-    <sheet name="TC84-BU3 SO" sheetId="64" r:id="rId76"/>
-    <sheet name="TC85-BU1 PO" sheetId="65" r:id="rId77"/>
-    <sheet name="TC86-BU1 SO" sheetId="66" r:id="rId78"/>
-    <sheet name="TC87-Customer CO" sheetId="67" r:id="rId79"/>
-    <sheet name="TC88-Sup1 SellerGI Invoice" sheetId="61" r:id="rId80"/>
-    <sheet name="TC90-Sup1 Revise Shipment" sheetId="68" r:id="rId81"/>
-    <sheet name="TC93.1-Customer Cargo Tracking" sheetId="86" r:id="rId82"/>
-    <sheet name="TC93.2-Customer Cargo Tracking" sheetId="87" r:id="rId83"/>
-    <sheet name="TC93.3-Customer Cargo Tracking" sheetId="88" r:id="rId84"/>
-    <sheet name="TC97-DC3 Inbound Details" sheetId="70" r:id="rId85"/>
-    <sheet name="TC98-Sup1 SO" sheetId="71" r:id="rId86"/>
-    <sheet name="TC99-BU3 PO" sheetId="72" r:id="rId87"/>
-    <sheet name="TC100-BU3 SO" sheetId="73" r:id="rId88"/>
-    <sheet name="TC101-BU1 PO" sheetId="74" r:id="rId89"/>
-    <sheet name="TC102-BU1 SO" sheetId="75" r:id="rId90"/>
-    <sheet name="TC103-DC3 Revise Shipment" sheetId="76" r:id="rId91"/>
-    <sheet name="TC106.1-Sup1 Cargo Tracking" sheetId="89" r:id="rId92"/>
-    <sheet name="TC106.2-Sup1 Cargo Tracking" sheetId="90" r:id="rId93"/>
-    <sheet name="TC106.3-Sup1 Cargo Tracking" sheetId="91" r:id="rId94"/>
-    <sheet name="TC111-DC3 Outbound Details" sheetId="79" r:id="rId95"/>
-    <sheet name="TC111-OutboundNo" sheetId="80" r:id="rId96"/>
-    <sheet name="TC112-BU3 SO" sheetId="96" r:id="rId97"/>
-    <sheet name="TC113-BU1 PO" sheetId="97" r:id="rId98"/>
-    <sheet name="TC114-BU1 SO" sheetId="166" r:id="rId99"/>
-    <sheet name="TC115-Customer CO" sheetId="99" r:id="rId100"/>
-    <sheet name="TC116.1-Customer Cargo Tracking" sheetId="92" r:id="rId101"/>
-    <sheet name="TC116.2-Customer Cargo Tracking" sheetId="93" r:id="rId102"/>
-    <sheet name="TC116.3-Customer Cargo Tracking" sheetId="94" r:id="rId103"/>
-    <sheet name="TC116.4-Customer Cargo Tracking" sheetId="95" r:id="rId104"/>
-    <sheet name="TC120-DC3 Shipping Details" sheetId="81" r:id="rId105"/>
-    <sheet name="TC124-DC3 Revise Shipment" sheetId="82" r:id="rId106"/>
-    <sheet name="TC128.1-Customer Cargo Tracking" sheetId="100" r:id="rId107"/>
-    <sheet name="TC128.2-Customer Cargo Tracking" sheetId="101" r:id="rId108"/>
-    <sheet name="TC128.3-Customer Cargo Tracking" sheetId="102" r:id="rId109"/>
-    <sheet name="TC128.4-Customer Cargo Tracking" sheetId="103" r:id="rId110"/>
-    <sheet name="TC132-BU2 SellerGI Invoice" sheetId="83" r:id="rId111"/>
-    <sheet name="TC136-BU3 Cargo Tracking" sheetId="104" r:id="rId112"/>
-    <sheet name="TC138-BU1 Cargo Tracking" sheetId="105" r:id="rId113"/>
-    <sheet name="TC141-SUP2 SO Delivery Plan" sheetId="167" r:id="rId114"/>
-    <sheet name="TC141-SUP2 SODeliveryPlan(Date)" sheetId="168" r:id="rId115"/>
-    <sheet name="TC141-SUP2 SO Price" sheetId="169" r:id="rId116"/>
-    <sheet name="TC142-Sup2 Outbound Details" sheetId="106" r:id="rId117"/>
-    <sheet name="TC142-OutboundNo" sheetId="107" r:id="rId118"/>
-    <sheet name="TC149-Customer Cargo Tracking" sheetId="108" r:id="rId119"/>
-    <sheet name="TC151-BU2 Cargo Tracking" sheetId="109" r:id="rId120"/>
-    <sheet name="TC156-Sup2 SellerGI Invoice" sheetId="110" r:id="rId121"/>
-    <sheet name="TC159-Sup2 Revise Shipment" sheetId="111" r:id="rId122"/>
-    <sheet name="TC162-Customer Cargo Tracking" sheetId="112" r:id="rId123"/>
-    <sheet name="TC165-Customer Cargo Tracking" sheetId="113" r:id="rId124"/>
-    <sheet name="TC168-DC2 Inbound Details" sheetId="114" r:id="rId125"/>
-    <sheet name="TC169-Sup2 SO" sheetId="117" r:id="rId126"/>
-    <sheet name="TC170-BU2 PO" sheetId="118" r:id="rId127"/>
-    <sheet name="TC171-BU2 SO" sheetId="119" r:id="rId128"/>
-    <sheet name="TC172-BU1 PO" sheetId="120" r:id="rId129"/>
-    <sheet name="TC173-BU1 SO" sheetId="121" r:id="rId130"/>
-    <sheet name="TC174-DC2 Outbound Details" sheetId="115" r:id="rId131"/>
-    <sheet name="TC174-OutboundNo" sheetId="116" r:id="rId132"/>
-    <sheet name="TC182-185-Shipping Detail List" sheetId="170" r:id="rId133"/>
-    <sheet name="TC186-BU2 SellerGI Invoice" sheetId="123" r:id="rId134"/>
-    <sheet name="TC189-Customer Cargo Tracking" sheetId="124" r:id="rId135"/>
-    <sheet name="TC192-DC1 Inbound Details" sheetId="125" r:id="rId136"/>
-    <sheet name="TC197-DC1 Shipping Detail" sheetId="126" r:id="rId137"/>
-    <sheet name="TC198-Customer Cargo Tracking" sheetId="127" r:id="rId138"/>
-    <sheet name="TC202.1-BU3 Cargo Tracking" sheetId="131" r:id="rId139"/>
-    <sheet name="TC202.2-BU3 Cargo Tracking" sheetId="132" r:id="rId140"/>
-    <sheet name="TC202.3-BU3 Cargo Tracking" sheetId="133" r:id="rId141"/>
-    <sheet name="TC202.4-BU3 Cargo Tracking" sheetId="134" r:id="rId142"/>
-    <sheet name="TC204-DC1 Outbound Details" sheetId="135" r:id="rId143"/>
-    <sheet name="TC204-OutboundNo" sheetId="136" r:id="rId144"/>
-    <sheet name="TC205.1-BU1 SO-Regular" sheetId="137" r:id="rId145"/>
-    <sheet name="TC205.2-BU1 SO-Spot" sheetId="98" r:id="rId146"/>
-    <sheet name="TC206.1-Customer CO-Regular" sheetId="139" r:id="rId147"/>
-    <sheet name="TC206.2-Customer CO-Spot" sheetId="140" r:id="rId148"/>
-    <sheet name="TC207-BU1 Revise Shipment" sheetId="141" r:id="rId149"/>
-    <sheet name="TC208.1-Customer CT-Regular" sheetId="174" r:id="rId150"/>
-    <sheet name="TC208.2-Customer CT-Regular" sheetId="177" r:id="rId151"/>
-    <sheet name="TC208.3-Customer CT-Regular" sheetId="175" r:id="rId152"/>
-    <sheet name="TC208.1-Customer CT-Spot" sheetId="144" r:id="rId153"/>
-    <sheet name="TC208.2-Customer CT-Spot" sheetId="171" r:id="rId154"/>
-    <sheet name="TC208.3-Customer CT-Spot" sheetId="172" r:id="rId155"/>
-    <sheet name="TC208.4-Customer CT-Spot" sheetId="173" r:id="rId156"/>
-    <sheet name="TC208.5-Customer CT-Spot" sheetId="176" r:id="rId157"/>
-    <sheet name="TC214-BU1 SellerGI Invoice" sheetId="142" r:id="rId158"/>
-    <sheet name="TC217-Customer Inbound Details" sheetId="143" r:id="rId159"/>
-    <sheet name="TC218.1-BU1 SO-Regular" sheetId="178" r:id="rId160"/>
-    <sheet name="TC218.2-BU1 SO-Spot" sheetId="179" r:id="rId161"/>
-    <sheet name="TC219.1-Customer CO-Regular" sheetId="180" r:id="rId162"/>
-    <sheet name="TC219.2-Customer CO-Spot" sheetId="181" r:id="rId163"/>
-    <sheet name="TC220-Cus Shipping Detail" sheetId="182" r:id="rId164"/>
-    <sheet name="TC221.1-Customer CT-Regular" sheetId="183" r:id="rId165"/>
-    <sheet name="TC221.2-Customer CT-Regular" sheetId="184" r:id="rId166"/>
-    <sheet name="TC221.3-Customer CT-Regular" sheetId="185" r:id="rId167"/>
-    <sheet name="TC221.1-Customer CT-Spot" sheetId="186" r:id="rId168"/>
-    <sheet name="TC221.2-Customer CT-Spot" sheetId="187" r:id="rId169"/>
-    <sheet name="TC221.3-Customer CT-Spot" sheetId="188" r:id="rId170"/>
-    <sheet name="TC221.4-Customer CT-Spot" sheetId="189" r:id="rId171"/>
-    <sheet name="TC221.5-Customer CT-Spot" sheetId="190" r:id="rId172"/>
+    <sheet name="TC15- Period Generator" sheetId="191" r:id="rId25"/>
+    <sheet name="TC15-Customer Place Order" sheetId="29" r:id="rId26"/>
+    <sheet name="TC15-Inbound Date" sheetId="34" r:id="rId27"/>
+    <sheet name="TC15-Customer Order No" sheetId="37" r:id="rId28"/>
+    <sheet name="TC17-Customer Change Order" sheetId="35" r:id="rId29"/>
+    <sheet name="TC17-Inbound Date Change" sheetId="36" r:id="rId30"/>
+    <sheet name="TC17-AutoGen ChangeRequestNo" sheetId="38" r:id="rId31"/>
+    <sheet name="TC18-Customer Change" sheetId="145" r:id="rId32"/>
+    <sheet name="TC20-Autogen SOPO" sheetId="39" r:id="rId33"/>
+    <sheet name="TC20-Autogen SOPO (2)" sheetId="156" r:id="rId34"/>
+    <sheet name="TC022" sheetId="146" r:id="rId35"/>
+    <sheet name="TC024" sheetId="147" r:id="rId36"/>
+    <sheet name="TC026" sheetId="148" r:id="rId37"/>
+    <sheet name="TC027" sheetId="149" r:id="rId38"/>
+    <sheet name="TC028" sheetId="150" r:id="rId39"/>
+    <sheet name="TC31-AutoGen ChangeRequestNo" sheetId="40" r:id="rId40"/>
+    <sheet name="TC34-BU1 Check Change1" sheetId="41" r:id="rId41"/>
+    <sheet name="TC34-BU1 Check Change2" sheetId="42" r:id="rId42"/>
+    <sheet name="TC35-BU2 Check Change" sheetId="43" r:id="rId43"/>
+    <sheet name="TC36-BU3 Check Change" sheetId="44" r:id="rId44"/>
+    <sheet name="TC37-Sup1 Check Change" sheetId="45" r:id="rId45"/>
+    <sheet name="TC38-Sup2 Check Change" sheetId="46" r:id="rId46"/>
+    <sheet name="TC43-BU1-Check Purchase Order2" sheetId="48" r:id="rId47"/>
+    <sheet name="TC43-BU1-Check Purchase Order3" sheetId="49" r:id="rId48"/>
+    <sheet name="TC44-BU1-Check Sales Order" sheetId="47" r:id="rId49"/>
+    <sheet name="TC45-Cus Check Customer Order" sheetId="50" r:id="rId50"/>
+    <sheet name="TC46-Cus Spot Order" sheetId="51" r:id="rId51"/>
+    <sheet name="TC46-Spot Date" sheetId="52" r:id="rId52"/>
+    <sheet name="TC046" sheetId="151" r:id="rId53"/>
+    <sheet name="TC47-Autogen OrderNo Spot" sheetId="54" r:id="rId54"/>
+    <sheet name="TC47-Autogen OrderNo Spot (2)" sheetId="157" state="hidden" r:id="rId55"/>
+    <sheet name="TC048" sheetId="152" r:id="rId56"/>
+    <sheet name="TC049" sheetId="153" r:id="rId57"/>
+    <sheet name="TC051" sheetId="158" r:id="rId58"/>
+    <sheet name="TC054" sheetId="154" r:id="rId59"/>
+    <sheet name="TC54-Change RequestNo" sheetId="57" r:id="rId60"/>
+    <sheet name="TC54-Sup2 Order Change Reg" sheetId="55" state="hidden" r:id="rId61"/>
+    <sheet name="TC54-Change Date" sheetId="56" state="hidden" r:id="rId62"/>
+    <sheet name="TC068-BU2" sheetId="159" r:id="rId63"/>
+    <sheet name="TC070-BU1" sheetId="160" r:id="rId64"/>
+    <sheet name="TC072-Cus" sheetId="161" r:id="rId65"/>
+    <sheet name="TC73-BU SO Delivery Plan" sheetId="162" r:id="rId66"/>
+    <sheet name="TC73-BU SO Delivery Plan (Date)" sheetId="163" r:id="rId67"/>
+    <sheet name="TC73-BU SO Price" sheetId="164" r:id="rId68"/>
+    <sheet name="TC74-Sup1 Outbound Details" sheetId="58" r:id="rId69"/>
+    <sheet name="TC74-OutboundNo" sheetId="59" r:id="rId70"/>
+    <sheet name="TC75.1-Sup1 Cargo Tracking" sheetId="60" r:id="rId71"/>
+    <sheet name="TC75.2-Sup1 Cargo Tracking" sheetId="84" r:id="rId72"/>
+    <sheet name="TC75.3-Sup1 Cargo Tracking" sheetId="85" r:id="rId73"/>
+    <sheet name="TC79" sheetId="165" r:id="rId74"/>
+    <sheet name="TC82-Sup1 SO" sheetId="62" r:id="rId75"/>
+    <sheet name="TC83-BU3 PO" sheetId="63" r:id="rId76"/>
+    <sheet name="TC84-BU3 SO" sheetId="64" r:id="rId77"/>
+    <sheet name="TC85-BU1 PO" sheetId="65" r:id="rId78"/>
+    <sheet name="TC86-BU1 SO" sheetId="66" r:id="rId79"/>
+    <sheet name="TC87-Customer CO" sheetId="67" r:id="rId80"/>
+    <sheet name="TC88-Sup1 SellerGI Invoice" sheetId="61" r:id="rId81"/>
+    <sheet name="TC90-Sup1 Revise Shipment" sheetId="68" r:id="rId82"/>
+    <sheet name="TC93.1-Customer Cargo Tracking" sheetId="86" r:id="rId83"/>
+    <sheet name="TC93.2-Customer Cargo Tracking" sheetId="87" r:id="rId84"/>
+    <sheet name="TC93.3-Customer Cargo Tracking" sheetId="88" r:id="rId85"/>
+    <sheet name="TC97-DC3 Inbound Details" sheetId="70" r:id="rId86"/>
+    <sheet name="TC98-Sup1 SO" sheetId="71" r:id="rId87"/>
+    <sheet name="TC99-BU3 PO" sheetId="72" r:id="rId88"/>
+    <sheet name="TC100-BU3 SO" sheetId="73" r:id="rId89"/>
+    <sheet name="TC101-BU1 PO" sheetId="74" r:id="rId90"/>
+    <sheet name="TC102-BU1 SO" sheetId="75" r:id="rId91"/>
+    <sheet name="TC103-DC3 Revise Shipment" sheetId="76" r:id="rId92"/>
+    <sheet name="TC106.1-Sup1 Cargo Tracking" sheetId="89" r:id="rId93"/>
+    <sheet name="TC106.2-Sup1 Cargo Tracking" sheetId="90" r:id="rId94"/>
+    <sheet name="TC106.3-Sup1 Cargo Tracking" sheetId="91" r:id="rId95"/>
+    <sheet name="TC111-DC3 Outbound Details" sheetId="79" r:id="rId96"/>
+    <sheet name="TC111-OutboundNo" sheetId="80" r:id="rId97"/>
+    <sheet name="TC112-BU3 SO" sheetId="96" r:id="rId98"/>
+    <sheet name="TC113-BU1 PO" sheetId="97" r:id="rId99"/>
+    <sheet name="TC114-BU1 SO" sheetId="166" r:id="rId100"/>
+    <sheet name="TC115-Customer CO" sheetId="99" r:id="rId101"/>
+    <sheet name="TC116.1-Customer Cargo Tracking" sheetId="92" r:id="rId102"/>
+    <sheet name="TC116.2-Customer Cargo Tracking" sheetId="93" r:id="rId103"/>
+    <sheet name="TC116.3-Customer Cargo Tracking" sheetId="94" r:id="rId104"/>
+    <sheet name="TC116.4-Customer Cargo Tracking" sheetId="95" r:id="rId105"/>
+    <sheet name="TC120-DC3 Shipping Details" sheetId="81" r:id="rId106"/>
+    <sheet name="TC124-DC3 Revise Shipment" sheetId="82" r:id="rId107"/>
+    <sheet name="TC128.1-Customer Cargo Tracking" sheetId="100" r:id="rId108"/>
+    <sheet name="TC128.2-Customer Cargo Tracking" sheetId="101" r:id="rId109"/>
+    <sheet name="TC128.3-Customer Cargo Tracking" sheetId="102" r:id="rId110"/>
+    <sheet name="TC128.4-Customer Cargo Tracking" sheetId="103" r:id="rId111"/>
+    <sheet name="TC132-BU2 SellerGI Invoice" sheetId="83" r:id="rId112"/>
+    <sheet name="TC136-BU3 Cargo Tracking" sheetId="104" r:id="rId113"/>
+    <sheet name="TC138-BU1 Cargo Tracking" sheetId="105" r:id="rId114"/>
+    <sheet name="TC141-SUP2 SO Delivery Plan" sheetId="167" r:id="rId115"/>
+    <sheet name="TC141-SUP2 SODeliveryPlan(Date)" sheetId="168" r:id="rId116"/>
+    <sheet name="TC141-SUP2 SO Price" sheetId="169" r:id="rId117"/>
+    <sheet name="TC142-Sup2 Outbound Details" sheetId="106" r:id="rId118"/>
+    <sheet name="TC142-OutboundNo" sheetId="107" r:id="rId119"/>
+    <sheet name="TC149-Customer Cargo Tracking" sheetId="108" r:id="rId120"/>
+    <sheet name="TC151-BU2 Cargo Tracking" sheetId="109" r:id="rId121"/>
+    <sheet name="TC156-Sup2 SellerGI Invoice" sheetId="110" r:id="rId122"/>
+    <sheet name="TC159-Sup2 Revise Shipment" sheetId="111" r:id="rId123"/>
+    <sheet name="TC162-Customer Cargo Tracking" sheetId="112" r:id="rId124"/>
+    <sheet name="TC165-Customer Cargo Tracking" sheetId="113" r:id="rId125"/>
+    <sheet name="TC168-DC2 Inbound Details" sheetId="114" r:id="rId126"/>
+    <sheet name="TC169-Sup2 SO" sheetId="117" r:id="rId127"/>
+    <sheet name="TC170-BU2 PO" sheetId="118" r:id="rId128"/>
+    <sheet name="TC171-BU2 SO" sheetId="119" r:id="rId129"/>
+    <sheet name="TC172-BU1 PO" sheetId="120" r:id="rId130"/>
+    <sheet name="TC173-BU1 SO" sheetId="121" r:id="rId131"/>
+    <sheet name="TC174-DC2 Outbound Details" sheetId="115" r:id="rId132"/>
+    <sheet name="TC174-OutboundNo" sheetId="116" r:id="rId133"/>
+    <sheet name="TC182-185-Shipping Detail List" sheetId="170" r:id="rId134"/>
+    <sheet name="TC186-BU2 SellerGI Invoice" sheetId="123" r:id="rId135"/>
+    <sheet name="TC189-Customer Cargo Tracking" sheetId="124" r:id="rId136"/>
+    <sheet name="TC192-DC1 Inbound Details" sheetId="125" r:id="rId137"/>
+    <sheet name="TC197-DC1 Shipping Detail" sheetId="126" r:id="rId138"/>
+    <sheet name="TC198-Customer Cargo Tracking" sheetId="127" r:id="rId139"/>
+    <sheet name="TC202.1-BU3 Cargo Tracking" sheetId="131" r:id="rId140"/>
+    <sheet name="TC202.2-BU3 Cargo Tracking" sheetId="132" r:id="rId141"/>
+    <sheet name="TC202.3-BU3 Cargo Tracking" sheetId="133" r:id="rId142"/>
+    <sheet name="TC202.4-BU3 Cargo Tracking" sheetId="134" r:id="rId143"/>
+    <sheet name="TC204-DC1 Outbound Details" sheetId="135" r:id="rId144"/>
+    <sheet name="TC204-OutboundNo" sheetId="136" r:id="rId145"/>
+    <sheet name="TC205.1-BU1 SO-Regular" sheetId="137" r:id="rId146"/>
+    <sheet name="TC205.2-BU1 SO-Spot" sheetId="98" r:id="rId147"/>
+    <sheet name="TC206.1-Customer CO-Regular" sheetId="139" r:id="rId148"/>
+    <sheet name="TC206.2-Customer CO-Spot" sheetId="140" r:id="rId149"/>
+    <sheet name="TC207-BU1 Revise Shipment" sheetId="141" r:id="rId150"/>
+    <sheet name="TC208.1-Customer CT-Regular" sheetId="174" r:id="rId151"/>
+    <sheet name="TC208.2-Customer CT-Regular" sheetId="177" r:id="rId152"/>
+    <sheet name="TC208.3-Customer CT-Regular" sheetId="175" r:id="rId153"/>
+    <sheet name="TC208.1-Customer CT-Spot" sheetId="144" r:id="rId154"/>
+    <sheet name="TC208.2-Customer CT-Spot" sheetId="171" r:id="rId155"/>
+    <sheet name="TC208.3-Customer CT-Spot" sheetId="172" r:id="rId156"/>
+    <sheet name="TC208.4-Customer CT-Spot" sheetId="173" r:id="rId157"/>
+    <sheet name="TC208.5-Customer CT-Spot" sheetId="176" r:id="rId158"/>
+    <sheet name="TC214-BU1 SellerGI Invoice" sheetId="142" r:id="rId159"/>
+    <sheet name="TC217-Customer Inbound Details" sheetId="143" r:id="rId160"/>
+    <sheet name="TC218.1-BU1 SO-Regular" sheetId="178" r:id="rId161"/>
+    <sheet name="TC218.2-BU1 SO-Spot" sheetId="179" r:id="rId162"/>
+    <sheet name="TC219.1-Customer CO-Regular" sheetId="180" r:id="rId163"/>
+    <sheet name="TC219.2-Customer CO-Spot" sheetId="181" r:id="rId164"/>
+    <sheet name="TC220-Cus Shipping Detail" sheetId="182" r:id="rId165"/>
+    <sheet name="TC221.1-Customer CT-Regular" sheetId="183" r:id="rId166"/>
+    <sheet name="TC221.2-Customer CT-Regular" sheetId="184" r:id="rId167"/>
+    <sheet name="TC221.3-Customer CT-Regular" sheetId="185" r:id="rId168"/>
+    <sheet name="TC221.1-Customer CT-Spot" sheetId="186" r:id="rId169"/>
+    <sheet name="TC221.2-Customer CT-Spot" sheetId="187" r:id="rId170"/>
+    <sheet name="TC221.3-Customer CT-Spot" sheetId="188" r:id="rId171"/>
+    <sheet name="TC221.4-Customer CT-Spot" sheetId="189" r:id="rId172"/>
+    <sheet name="TC221.5-Customer CT-Spot" sheetId="190" r:id="rId173"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId173"/>
     <externalReference r:id="rId174"/>
     <externalReference r:id="rId175"/>
+    <externalReference r:id="rId176"/>
   </externalReferences>
   <definedNames>
-    <definedName name="activeFlagListArr" localSheetId="91">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="92">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="93">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="94">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="19">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="100">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="101">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="102">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="103">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="104">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="20">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="106">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="107">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="108">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="109">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="110">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="21">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="111">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="112">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="113">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="22">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="118">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="119">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="23">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="119">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="122">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="120">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="123">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="134">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="137">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="124">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="135">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="138">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="139">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="140">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="141">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="149">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="142">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="150">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="153">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="151">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="152">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="150">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="151">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="164">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="165">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="168">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="166">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="167">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="165">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="166">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="69">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="70">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="71">[1]activeFlagListArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagListArr" localSheetId="81">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="72">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="82">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr" localSheetId="83">[1]activeFlagListArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagListArr" localSheetId="84">[1]activeFlagListArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagListArr">#REF!</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="91">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="92">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="93">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="94">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="19">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="100">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="101">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="102">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="103">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="104">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="20">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="106">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="107">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="108">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="109">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="110">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="21">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="111">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="112">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="113">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="22">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="118">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="119">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="23">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="119">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="122">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="120">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="123">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="134">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="137">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="124">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="135">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="138">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="139">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="140">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="141">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="149">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="142">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="150">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="153">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="151">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="152">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="150">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="151">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="164">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="165">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="168">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="166">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="167">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="165">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="166">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="69">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="70">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="71">[2]activeFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="activeFlagStrArr" localSheetId="81">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="72">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="82">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr" localSheetId="83">[2]activeFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="activeFlagStrArr" localSheetId="84">[2]activeFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="activeFlagStrArr">#REF!</definedName>
     <definedName name="cargoStatus0">#REF!</definedName>
     <definedName name="cargoStatus1">#REF!</definedName>
     <definedName name="cargoStatus2">#REF!</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="91">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="92">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="93">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="94">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="19">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="100">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="101">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="102">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="103">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="104">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="20">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="106">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="107">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="108">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="109">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="110">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="21">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="111">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="112">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="113">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="22">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="118">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="119">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="23">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="119">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="122">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="120">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="123">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="134">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="137">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="124">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="135">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="138">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="139">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="140">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="141">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="149">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="142">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="150">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="153">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="151">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="152">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="150">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="151">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="164">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="165">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="168">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="166">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="167">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="165">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="166">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="69">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="70">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="71">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName name="CURRENCY_CODE" localSheetId="81">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="72">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="82">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE" localSheetId="83">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
+    <definedName name="CURRENCY_CODE" localSheetId="84">[3]CURRENCY_CODE!$A$1:$A$13</definedName>
     <definedName name="CURRENCY_CODE">#REF!</definedName>
-    <definedName name="findAllUomArr" localSheetId="91">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="92">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="93">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="94">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="19">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="100">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="101">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="102">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="103">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="104">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="20">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="106">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="107">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="108">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="109">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="110">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="21">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="111">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="112">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="113">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="22">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="118">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="119">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="23">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="119">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="122">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="120">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="123">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="134">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="137">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="124">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="135">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="138">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="139">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="140">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="141">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="149">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="142">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="150">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="153">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="151">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="152">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="150">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="151">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="164">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="165">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="168">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="166">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="167">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="165">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="166">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="69">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="70">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="71">[1]findAllUomArr!$A$1:$A$29</definedName>
-    <definedName name="findAllUomArr" localSheetId="81">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="72">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="82">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr" localSheetId="83">[1]findAllUomArr!$A$1:$A$29</definedName>
+    <definedName name="findAllUomArr" localSheetId="84">[1]findAllUomArr!$A$1:$A$29</definedName>
     <definedName name="findAllUomArr">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="4">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="7">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="10">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="13">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="16">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="91">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="92">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="93">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="94">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="19">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="100">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="101">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="102">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="103">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="104">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="20">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="106">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="107">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="108">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="109">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="110">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="21">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="111">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="112">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="113">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="22">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="118">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="119">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="23">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="119">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="122">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="120">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="123">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="134">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="137">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="124">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="135">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="138">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="139">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="140">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="141">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="149">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="142">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="150">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="153">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="151">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="152">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="150">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="151">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="164">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="165">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="168">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="166">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="167">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="165">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="166">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="69">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="70">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="71">#REF!</definedName>
-    <definedName name="PAIRED_FLAG" localSheetId="81">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="72">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="82">#REF!</definedName>
     <definedName name="PAIRED_FLAG" localSheetId="83">#REF!</definedName>
+    <definedName name="PAIRED_FLAG" localSheetId="84">#REF!</definedName>
     <definedName name="PAIRED_FLAG">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="4">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="7">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="10">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="13">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="16">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="91">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="92">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="93">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="94">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="19">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="100">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="101">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="102">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="103">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="104">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="20">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="106">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="107">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="108">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="109">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="110">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="21">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="111">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="112">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="113">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="22">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="118">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="119">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="23">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="119">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="122">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="120">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="123">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="134">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="137">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="124">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="135">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="138">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="139">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="140">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="141">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="149">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="142">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="150">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="153">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="151">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="152">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="150">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="151">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="164">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="165">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="168">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="166">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="167">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="165">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="166">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="69">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="70">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="71">#REF!</definedName>
-    <definedName name="PAIRED_ORDER_FLAG" localSheetId="81">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="72">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="82">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG" localSheetId="83">#REF!</definedName>
+    <definedName name="PAIRED_ORDER_FLAG" localSheetId="84">#REF!</definedName>
     <definedName name="PAIRED_ORDER_FLAG">#REF!</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="91">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="92">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="93">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="94">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="19">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="100">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="101">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="102">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="103">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="104">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="20">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="106">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="107">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="108">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="109">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="110">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="21">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="111">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="112">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="113">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="22">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="118">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="119">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="23">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="119">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="122">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="120">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="123">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="134">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="137">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="124">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="135">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="138">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="139">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="140">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="141">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="149">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="142">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="150">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="153">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="151">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="152">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="150">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="151">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="164">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="165">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="168">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="166">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="167">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="165">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="166">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="69">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="70">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="71">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
-    <definedName name="pairedPartsFlagStrArr" localSheetId="81">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="72">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="82">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr" localSheetId="83">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
+    <definedName name="pairedPartsFlagStrArr" localSheetId="84">[2]pairedPartsFlagStrArr!$A$1:$A$2</definedName>
     <definedName name="pairedPartsFlagStrArr">#REF!</definedName>
-    <definedName name="partsTypeArr" localSheetId="91">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="92">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="93">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="94">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="19">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="100">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="101">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="102">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="103">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="104">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="20">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="106">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="107">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="108">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="109">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="110">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="21">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="111">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="112">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="113">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="22">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="118">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="119">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="23">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="119">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="122">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="120">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="123">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="134">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="137">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="124">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="135">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="138">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="139">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="140">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="141">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="149">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="142">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="150">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="153">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="151">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="152">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="150">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="151">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="164">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="165">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="168">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="166">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="167">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="165">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="166">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="69">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="70">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="71">[1]partsTypeArr!$A$1:$A$4</definedName>
-    <definedName name="partsTypeArr" localSheetId="81">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="72">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="82">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr" localSheetId="83">[1]partsTypeArr!$A$1:$A$4</definedName>
+    <definedName name="partsTypeArr" localSheetId="84">[1]partsTypeArr!$A$1:$A$4</definedName>
     <definedName name="partsTypeArr">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="4">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="7">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="10">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="13">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="16">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="91">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="92">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="93">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="94">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="19">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="100">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="101">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="102">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="103">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="104">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="20">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="106">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="107">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="108">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="109">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="110">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="21">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="111">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="112">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="113">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="22">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="118">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="119">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="23">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="119">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="122">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="120">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="123">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="134">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="137">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="124">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="135">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="138">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="139">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="140">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="141">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="149">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="142">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="150">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="153">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="151">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="152">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="150">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="151">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="164">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="165">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="168">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="166">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="167">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="165">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="166">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="69">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="70">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="71">#REF!</definedName>
-    <definedName name="REPACKING_TYPE" localSheetId="81">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="72">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="82">#REF!</definedName>
     <definedName name="REPACKING_TYPE" localSheetId="83">#REF!</definedName>
+    <definedName name="REPACKING_TYPE" localSheetId="84">#REF!</definedName>
     <definedName name="REPACKING_TYPE">#REF!</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="91">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="92">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="93">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="94">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="19">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="100">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="101">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="102">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="103">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="104">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="20">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="106">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="107">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="108">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="109">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="110">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="21">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="111">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="112">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="113">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="22">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="118">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="119">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="23">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="119">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="122">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="120">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="123">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="134">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="137">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="124">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="135">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="138">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="139">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="140">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="141">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="149">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="142">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="150">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="153">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="151">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="152">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="150">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="151">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="164">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="165">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="168">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="166">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="167">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="165">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="166">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="69">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="70">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="71">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
-    <definedName name="rolledPartsFlagArr" localSheetId="81">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="72">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="82">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr" localSheetId="83">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
+    <definedName name="rolledPartsFlagArr" localSheetId="84">[1]rolledPartsFlagArr!$A$1:$A$2</definedName>
     <definedName name="rolledPartsFlagArr">#REF!</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="91">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="92">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="93">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="94">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="19">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="100">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="101">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="102">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="103">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="104">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="20">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="106">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="107">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="108">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="109">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
+    <definedName name="rolledPartsUomArr" localSheetId="110">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="rolledPartsUomArr" localSheetId="21">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
-    <definedName name="rolledPartsUomArr" localSheetId="111">[1]rolledPartsUomArr!$A$1:$A$29</definedName>
     <definedName name="